--- a/baobab/lims/setupdata/test/test.xlsx
+++ b/baobab/lims/setupdata/test/test.xlsx
@@ -16,31 +16,32 @@
     <sheet name="Lab Departments" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Lab Contacts" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Suppliers" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Supplier Contacts" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Analysis Categories" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Analysis Services" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="AnalysisService InterimFields" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="AnalysisService Methods" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="AnalysisService Instruments" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="AnalysisService ResultOptions" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Analysis Service Uncertainties" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="Calculations" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="Calculation Interim Fields" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="Methods" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="Instrument Types" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="Instruments" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="Instrument Validations" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="Instrument Calibrations" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="Instrument Documents" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="Instrument Certifications" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="Setup" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="Constants" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="Products" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Supplier Contacts" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Analysis Categories" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Analysis Services" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="AnalysisService InterimFields" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="AnalysisService Methods" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="AnalysisService Instruments" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="AnalysisService ResultOptions" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Analysis Service Uncertainties" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Calculations" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Calculation Interim Fields" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="Methods" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="Instrument Types" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="Instruments" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="Instrument Validations" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="Instrument Calibrations" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="Instrument Documents" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="Instrument Certifications" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="Setup" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="Constants" sheetId="28" state="visible" r:id="rId29"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="838">
   <si>
     <t>Instructions</t>
   </si>
@@ -913,6 +914,36 @@
     <t>United States</t>
   </si>
   <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Tube 15ml</t>
+  </si>
+  <si>
+    <t>Empty tube to contain biospecimen</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>Gloves for specimens extraction</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Supplier_Name</t>
   </si>
   <si>
@@ -1000,9 +1031,6 @@
     <t>Attachment</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
     <t>Precision</t>
   </si>
   <si>
@@ -1025,9 +1053,6 @@
   </si>
   <si>
     <t>MaxTimeAllowed_minutes</t>
-  </si>
-  <si>
-    <t>Price</t>
   </si>
   <si>
     <t>BulkPrice</t>
@@ -2585,14 +2610,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="DD\-MM\-YYYY;@"/>
-    <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="168" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="169" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="170" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="DD\-MM\-YYYY;@"/>
+    <numFmt numFmtId="168" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="169" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="170" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="171" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2877,7 +2903,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="151">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3118,6 +3144,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3258,7 +3296,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3266,7 +3304,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3278,7 +3316,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3294,7 +3332,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3318,15 +3356,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3338,7 +3372,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3350,7 +3384,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3362,15 +3396,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3402,7 +3436,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3446,11 +3480,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3458,11 +3492,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3621,6 +3655,283 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="2" style="0" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.9676113360324"/>
+    <col collapsed="false" hidden="false" max="21" min="12" style="0" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="L2" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+    </row>
+    <row r="3" s="7" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the list on the 'Reference Suppliers' sheet" promptTitle="Select a valid Reference Supplier for this contact" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A5" type="list">
+      <formula1>Suppliers!$A$4:$A$248</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K4" r:id="rId1" display="dobson@example.com"/>
+    <hyperlink ref="K5" r:id="rId2" display="dobson@example.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3649,10 +3960,10 @@
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C2" s="14"/>
-      <c r="AMJ2" s="62"/>
+      <c r="AMJ2" s="65"/>
     </row>
     <row r="3" s="7" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
@@ -3668,10 +3979,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="43" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>184</v>
@@ -3679,10 +3990,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="43" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>184</v>
@@ -3709,7 +4020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3731,10 +4042,10 @@
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.10526315789474"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="63" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="63" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="63" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="63" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="66" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="66" width="6.85425101214575"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="66" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="66" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="18" min="16" style="0" width="3.64372469635628"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.8582995951417"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.42914979757085"/>
@@ -3754,260 +4065,260 @@
         <v>133</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>134</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="64" t="s">
-        <v>301</v>
+      <c r="H1" s="67" t="s">
+        <v>311</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="L1" s="64" t="s">
-        <v>305</v>
-      </c>
-      <c r="M1" s="64" t="s">
-        <v>306</v>
-      </c>
-      <c r="N1" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="O1" s="64" t="s">
-        <v>308</v>
+        <v>313</v>
+      </c>
+      <c r="L1" s="67" t="s">
+        <v>314</v>
+      </c>
+      <c r="M1" s="67" t="s">
+        <v>315</v>
+      </c>
+      <c r="N1" s="67" t="s">
+        <v>316</v>
+      </c>
+      <c r="O1" s="67" t="s">
+        <v>317</v>
       </c>
       <c r="P1" s="39" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="R1" s="39" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="V1" s="17" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="X1" s="17" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Y1" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="Z1" s="64" t="s">
-        <v>319</v>
+        <v>326</v>
+      </c>
+      <c r="Z1" s="67" t="s">
+        <v>327</v>
       </c>
       <c r="AA1" s="17" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AB1" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="AC1" s="65" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD1" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="AE1" s="65"/>
+        <v>329</v>
+      </c>
+      <c r="AC1" s="68" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD1" s="68" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE1" s="68"/>
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="H2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="Z2" s="66"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-    </row>
-    <row r="3" s="69" customFormat="true" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="69" t="s">
+      <c r="H2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="70" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="Z2" s="69"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+    </row>
+    <row r="3" s="72" customFormat="true" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="69" t="s">
-        <v>326</v>
-      </c>
-      <c r="C3" s="69" t="s">
+      <c r="B3" s="72" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="69" t="s">
-        <v>298</v>
-      </c>
-      <c r="E3" s="69" t="s">
-        <v>327</v>
-      </c>
-      <c r="F3" s="69" t="s">
+      <c r="D3" s="72" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>335</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>336</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>337</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="I3" s="72" t="s">
+        <v>339</v>
+      </c>
+      <c r="J3" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="K3" s="72" t="s">
+        <v>313</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="P3" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q3" s="72" t="s">
+        <v>345</v>
+      </c>
+      <c r="R3" s="72" t="s">
+        <v>346</v>
+      </c>
+      <c r="S3" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="T3" s="72" t="s">
+        <v>347</v>
+      </c>
+      <c r="U3" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="V3" s="72" t="s">
+        <v>349</v>
+      </c>
+      <c r="W3" s="72" t="s">
+        <v>350</v>
+      </c>
+      <c r="X3" s="72" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y3" s="72" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z3" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA3" s="72" t="s">
         <v>328</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="AB3" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="H3" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="I3" s="69" t="s">
-        <v>331</v>
-      </c>
-      <c r="J3" s="69" t="s">
-        <v>303</v>
-      </c>
-      <c r="K3" s="69" t="s">
-        <v>304</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="P3" s="69" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q3" s="69" t="s">
-        <v>337</v>
-      </c>
-      <c r="R3" s="69" t="s">
-        <v>338</v>
-      </c>
-      <c r="S3" s="69" t="s">
-        <v>312</v>
-      </c>
-      <c r="T3" s="69" t="s">
-        <v>339</v>
-      </c>
-      <c r="U3" s="69" t="s">
-        <v>340</v>
-      </c>
-      <c r="V3" s="69" t="s">
-        <v>341</v>
-      </c>
-      <c r="W3" s="69" t="s">
-        <v>342</v>
-      </c>
-      <c r="X3" s="69" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y3" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="Z3" s="31" t="s">
-        <v>345</v>
-      </c>
-      <c r="AA3" s="69" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB3" s="69" t="s">
-        <v>321</v>
-      </c>
-      <c r="AC3" s="69" t="s">
-        <v>346</v>
-      </c>
-      <c r="AD3" s="69" t="s">
-        <v>347</v>
+      <c r="AC3" s="72" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD3" s="72" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="39" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>351</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>352</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>293</v>
-      </c>
-      <c r="G4" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>359</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>360</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="H4" s="71" t="n">
+      <c r="H4" s="74" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="70" t="s">
-        <v>353</v>
-      </c>
-      <c r="J4" s="72" t="s">
-        <v>354</v>
+      <c r="I4" s="73" t="s">
+        <v>361</v>
+      </c>
+      <c r="J4" s="75" t="s">
+        <v>362</v>
       </c>
       <c r="K4" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="73" t="n">
+      <c r="L4" s="76" t="n">
         <v>7</v>
       </c>
-      <c r="M4" s="73" t="n">
+      <c r="M4" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="N4" s="73" t="n">
+      <c r="N4" s="76" t="n">
         <v>1000000000</v>
       </c>
-      <c r="O4" s="73" t="n">
+      <c r="O4" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="74" t="n">
+      <c r="P4" s="77" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" s="74" t="n">
+      <c r="Q4" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="R4" s="74" t="n">
+      <c r="R4" s="77" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="39" t="n">
@@ -4022,10 +4333,10 @@
       <c r="V4" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="W4" s="70"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="73" t="n">
+      <c r="W4" s="73"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="76" t="n">
         <v>10</v>
       </c>
       <c r="AA4" s="36" t="n">
@@ -4034,62 +4345,62 @@
       <c r="AB4" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="75"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="39" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>357</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>358</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>352</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>295</v>
-      </c>
-      <c r="G5" s="70" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>360</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="H5" s="71" t="n">
+      <c r="H5" s="74" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="70" t="s">
-        <v>353</v>
-      </c>
-      <c r="J5" s="72" t="s">
-        <v>354</v>
+      <c r="I5" s="73" t="s">
+        <v>361</v>
+      </c>
+      <c r="J5" s="75" t="s">
+        <v>362</v>
       </c>
       <c r="K5" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="L5" s="73" t="n">
+      <c r="L5" s="76" t="n">
         <v>7</v>
       </c>
-      <c r="M5" s="73" t="n">
+      <c r="M5" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="N5" s="73" t="n">
+      <c r="N5" s="76" t="n">
         <v>1000000000</v>
       </c>
-      <c r="O5" s="73" t="n">
+      <c r="O5" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="P5" s="74" t="n">
+      <c r="P5" s="77" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" s="74" t="n">
+      <c r="Q5" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="R5" s="74" t="n">
+      <c r="R5" s="77" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="39" t="n">
@@ -4104,10 +4415,10 @@
       <c r="V5" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="W5" s="70"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="73" t="n">
+      <c r="W5" s="73"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="76" t="n">
         <v>10</v>
       </c>
       <c r="AA5" s="36" t="n">
@@ -4116,8 +4427,8 @@
       <c r="AB5" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="AC5" s="75"/>
-      <c r="AD5" s="75"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
     </row>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4222,7 +4533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4245,42 +4556,42 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>133</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" s="7" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4294,7 +4605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4314,24 +4625,24 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -4345,7 +4656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4365,24 +4676,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -4396,7 +4707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4419,63 +4730,63 @@
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="24.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="39" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="AMJ1" s="39"/>
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C2" s="15"/>
-      <c r="AMJ2" s="62"/>
+      <c r="AMJ2" s="65"/>
     </row>
     <row r="3" s="7" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>378</v>
+        <v>385</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>386</v>
       </c>
       <c r="AMJ3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="77" t="s">
-        <v>355</v>
+      <c r="A4" s="80" t="s">
+        <v>363</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C4" s="38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="77" t="s">
-        <v>355</v>
+      <c r="A5" s="80" t="s">
+        <v>363</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C5" s="38" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="77" t="s">
-        <v>355</v>
+      <c r="A6" s="80" t="s">
+        <v>363</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C6" s="38" t="n">
         <v>2</v>
@@ -4519,7 +4830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4541,39 +4852,39 @@
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="39" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="15"/>
       <c r="D2" s="30"/>
-      <c r="AMJ2" s="62"/>
+      <c r="AMJ2" s="65"/>
     </row>
     <row r="3" s="7" customFormat="true" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4690,7 +5001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4709,24 +5020,24 @@
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.31983805668016"/>
   </cols>
   <sheetData>
-    <row r="1" s="78" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="78" t="s">
+    <row r="1" s="81" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="78" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="2" s="79" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="81" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" s="82" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="C2" s="80"/>
-    </row>
-    <row r="3" s="81" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>399</v>
+      </c>
+      <c r="C2" s="83"/>
+    </row>
+    <row r="3" s="84" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>141</v>
       </c>
@@ -4734,18 +5045,18 @@
         <v>65</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" s="82" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="C4" s="82" t="s">
-        <v>394</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" s="85" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="85" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4769,7 +5080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4790,325 +5101,325 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>133</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" s="7" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="s">
-        <v>392</v>
+      <c r="A4" s="63" t="s">
+        <v>400</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="D4" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="87"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="D4" s="83" t="n">
+      <c r="B5" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="83" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="84"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
-        <v>392</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="D5" s="83" t="n">
+      <c r="E5" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="84"/>
+      <c r="F5" s="87"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60"/>
+      <c r="A6" s="63"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60"/>
+      <c r="A7" s="63"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60"/>
+      <c r="A8" s="63"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="60"/>
+      <c r="A9" s="63"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="60"/>
+      <c r="A10" s="63"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="60"/>
+      <c r="A11" s="63"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="60"/>
+      <c r="A12" s="63"/>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="60"/>
+      <c r="A13" s="63"/>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="60"/>
+      <c r="A14" s="63"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="60"/>
+      <c r="A15" s="63"/>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="60"/>
+      <c r="A16" s="63"/>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="60"/>
+      <c r="A17" s="63"/>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="60"/>
+      <c r="A18" s="63"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="60"/>
+      <c r="A19" s="63"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="60"/>
+      <c r="A20" s="63"/>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="60"/>
+      <c r="A21" s="63"/>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="60"/>
+      <c r="A22" s="63"/>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="60"/>
+      <c r="A23" s="63"/>
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="60"/>
+      <c r="A24" s="63"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="60"/>
+      <c r="A25" s="63"/>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="60"/>
+      <c r="A26" s="63"/>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="60"/>
+      <c r="A27" s="63"/>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="60"/>
+      <c r="A28" s="63"/>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="60"/>
+      <c r="A29" s="63"/>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="60"/>
+      <c r="A30" s="63"/>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="60"/>
+      <c r="A31" s="63"/>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="60"/>
+      <c r="A32" s="63"/>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="60"/>
+      <c r="A33" s="63"/>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="60"/>
+      <c r="A34" s="63"/>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="60"/>
+      <c r="A35" s="63"/>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="60"/>
+      <c r="A36" s="63"/>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="60"/>
+      <c r="A37" s="63"/>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="60"/>
+      <c r="A38" s="63"/>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="60"/>
+      <c r="A39" s="63"/>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="60"/>
+      <c r="A40" s="63"/>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="60"/>
+      <c r="A41" s="63"/>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="60"/>
+      <c r="A42" s="63"/>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="60"/>
+      <c r="A43" s="63"/>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="60"/>
+      <c r="A44" s="63"/>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="60"/>
+      <c r="A45" s="63"/>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="60"/>
+      <c r="A46" s="63"/>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="60"/>
+      <c r="A47" s="63"/>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="60"/>
+      <c r="A48" s="63"/>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="60"/>
+      <c r="A49" s="63"/>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="60"/>
+      <c r="A50" s="63"/>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="60"/>
+      <c r="A51" s="63"/>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="60"/>
+      <c r="A52" s="63"/>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="60"/>
+      <c r="A53" s="63"/>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="60"/>
+      <c r="A54" s="63"/>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="60"/>
+      <c r="A55" s="63"/>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="60"/>
+      <c r="A56" s="63"/>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="60"/>
+      <c r="A57" s="63"/>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="60"/>
+      <c r="A58" s="63"/>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="60"/>
+      <c r="A59" s="63"/>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="60"/>
+      <c r="A60" s="63"/>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="60"/>
+      <c r="A61" s="63"/>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="60"/>
+      <c r="A62" s="63"/>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="60"/>
+      <c r="A63" s="63"/>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="60"/>
+      <c r="A64" s="63"/>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="60"/>
+      <c r="A65" s="63"/>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="60"/>
+      <c r="A66" s="63"/>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="60"/>
+      <c r="A67" s="63"/>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="60"/>
+      <c r="A68" s="63"/>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="60"/>
+      <c r="A69" s="63"/>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="60"/>
+      <c r="A70" s="63"/>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="60"/>
+      <c r="A71" s="63"/>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="60"/>
+      <c r="A72" s="63"/>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="60"/>
+      <c r="A73" s="63"/>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="60"/>
+      <c r="A74" s="63"/>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="60"/>
+      <c r="A75" s="63"/>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="60"/>
+      <c r="A76" s="63"/>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="60"/>
+      <c r="A77" s="63"/>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="60"/>
+      <c r="A78" s="63"/>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="60"/>
+      <c r="A79" s="63"/>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="60"/>
+      <c r="A80" s="63"/>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="60"/>
+      <c r="A81" s="63"/>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="60"/>
+      <c r="A82" s="63"/>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="60"/>
+      <c r="A83" s="63"/>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="60"/>
+      <c r="A84" s="63"/>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="60"/>
+      <c r="A85" s="63"/>
     </row>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5148,7 +5459,364 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="true" max="1" min="1" style="5" width="0"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.21457489878543"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="5" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" s="7" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation allowBlank="true" error="Please enter a whole number bigger than 0" errorTitle="Invalid entry" operator="equal" prompt="Please enter a whole number bigger than 0" promptTitle="Integer" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4:C13" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D4:D13" type="list">
+      <formula1>"generated,counter"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Select a valid separator from the drop-down menu" errorTitle="Invalid entry" operator="equal" promptTitle="Select a valid separator" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:E12" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F13" type="list">
+      <formula1>"backreference,contained"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" promptTitle="Whole numbers" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I4:I13" type="whole">
+      <formula1>1</formula1>
+      <formula2>20</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Object ID prefixes"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5164,7 +5832,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="58.914979757085"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="63" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="66" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -5180,22 +5848,22 @@
         <v>0</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="F1" s="85" t="s">
-        <v>318</v>
+        <v>323</v>
+      </c>
+      <c r="F1" s="88" t="s">
+        <v>326</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="86" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="89" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="46" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C2" s="46"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="90"/>
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="17" customFormat="true" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5209,33 +5877,33 @@
         <v>0</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="21.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="43" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>408</v>
-      </c>
-      <c r="D4" s="88" t="s">
-        <v>392</v>
-      </c>
-      <c r="E4" s="89" t="n">
+        <v>416</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>400</v>
+      </c>
+      <c r="E4" s="92" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="90"/>
+      <c r="F4" s="93"/>
     </row>
     <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5326,364 +5994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="true" max="1" min="1" style="5" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.21457489878543"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="5" width="9.10526315789474"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" s="7" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="5">
-    <dataValidation allowBlank="true" error="Please enter a whole number bigger than 0" errorTitle="Invalid entry" operator="equal" prompt="Please enter a whole number bigger than 0" promptTitle="Integer" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4:C13" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D4:D13" type="list">
-      <formula1>"generated,counter"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid separator from the drop-down menu" errorTitle="Invalid entry" operator="equal" promptTitle="Select a valid separator" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:E12" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F13" type="list">
-      <formula1>"backreference,contained"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" promptTitle="Whole numbers" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I4:I13" type="whole">
-      <formula1>1</formula1>
-      <formula2>20</formula2>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Object ID prefixes"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5711,7 +6022,7 @@
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="14"/>
@@ -5729,7 +6040,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5755,7 +6066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5791,229 +6102,229 @@
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="92" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="91" t="s">
-        <v>411</v>
-      </c>
-      <c r="B1" s="92" t="s">
+    <row r="1" s="95" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="94" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="92" t="s">
-        <v>412</v>
-      </c>
-      <c r="E1" s="92" t="s">
-        <v>413</v>
-      </c>
-      <c r="F1" s="92" t="s">
-        <v>414</v>
-      </c>
-      <c r="G1" s="93" t="s">
-        <v>415</v>
-      </c>
-      <c r="H1" s="93" t="s">
-        <v>416</v>
-      </c>
-      <c r="I1" s="93" t="s">
-        <v>417</v>
-      </c>
-      <c r="J1" s="94" t="s">
-        <v>418</v>
-      </c>
-      <c r="K1" s="94" t="s">
-        <v>419</v>
-      </c>
-      <c r="L1" s="95" t="s">
+      <c r="D1" s="95" t="s">
         <v>420</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="E1" s="95" t="s">
         <v>421</v>
       </c>
-      <c r="N1" s="94" t="s">
+      <c r="F1" s="95" t="s">
         <v>422</v>
       </c>
-      <c r="O1" s="96" t="s">
+      <c r="G1" s="96" t="s">
         <v>423</v>
       </c>
-      <c r="P1" s="96" t="s">
+      <c r="H1" s="96" t="s">
         <v>424</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="I1" s="96" t="s">
         <v>425</v>
       </c>
-      <c r="R1" s="93" t="s">
+      <c r="J1" s="97" t="s">
         <v>426</v>
       </c>
-      <c r="S1" s="94" t="s">
+      <c r="K1" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="T1" s="94" t="s">
+      <c r="L1" s="98" t="s">
         <v>428</v>
       </c>
-      <c r="U1" s="97" t="s">
-        <v>427</v>
-      </c>
-      <c r="V1" s="92" t="s">
+      <c r="M1" s="97" t="s">
         <v>429</v>
       </c>
-      <c r="W1" s="92" t="s">
+      <c r="N1" s="97" t="s">
         <v>430</v>
       </c>
+      <c r="O1" s="99" t="s">
+        <v>431</v>
+      </c>
+      <c r="P1" s="99" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q1" s="99" t="s">
+        <v>433</v>
+      </c>
+      <c r="R1" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="S1" s="97" t="s">
+        <v>435</v>
+      </c>
+      <c r="T1" s="97" t="s">
+        <v>436</v>
+      </c>
+      <c r="U1" s="100" t="s">
+        <v>435</v>
+      </c>
+      <c r="V1" s="95" t="s">
+        <v>437</v>
+      </c>
+      <c r="W1" s="95" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="98" t="s">
-        <v>431</v>
+      <c r="A2" s="101" t="s">
+        <v>439</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="14" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="100"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="103"/>
       <c r="V2" s="29"/>
       <c r="W2" s="29"/>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>433</v>
-      </c>
-      <c r="B3" s="101" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="101" t="s">
-        <v>434</v>
-      </c>
-      <c r="E3" s="102" t="s">
-        <v>435</v>
-      </c>
-      <c r="F3" s="101" t="s">
-        <v>414</v>
-      </c>
-      <c r="G3" s="101" t="s">
-        <v>415</v>
-      </c>
-      <c r="H3" s="101" t="s">
-        <v>436</v>
-      </c>
-      <c r="I3" s="101" t="s">
-        <v>417</v>
-      </c>
-      <c r="J3" s="94" t="s">
+      <c r="D3" s="104" t="s">
+        <v>442</v>
+      </c>
+      <c r="E3" s="105" t="s">
+        <v>443</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>422</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>423</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>444</v>
+      </c>
+      <c r="I3" s="104" t="s">
+        <v>425</v>
+      </c>
+      <c r="J3" s="97" t="s">
+        <v>426</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="L3" s="98" t="s">
+        <v>446</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="O3" s="106" t="s">
+        <v>449</v>
+      </c>
+      <c r="P3" s="106" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q3" s="106" t="s">
+        <v>451</v>
+      </c>
+      <c r="R3" s="104" t="s">
+        <v>452</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="U3" s="107" t="s">
+        <v>453</v>
+      </c>
+      <c r="V3" s="105" t="s">
+        <v>455</v>
+      </c>
+      <c r="W3" s="105" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="108" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" s="110" t="s">
+        <v>459</v>
+      </c>
+      <c r="D4" s="111" t="s">
         <v>418</v>
       </c>
-      <c r="K3" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="L3" s="95" t="s">
-        <v>438</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="O3" s="103" t="s">
-        <v>441</v>
-      </c>
-      <c r="P3" s="103" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q3" s="103" t="s">
-        <v>443</v>
-      </c>
-      <c r="R3" s="101" t="s">
-        <v>444</v>
-      </c>
-      <c r="S3" s="31" t="s">
-        <v>445</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="U3" s="104" t="s">
-        <v>445</v>
-      </c>
-      <c r="V3" s="102" t="s">
-        <v>447</v>
-      </c>
-      <c r="W3" s="102" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="105" t="s">
-        <v>449</v>
-      </c>
-      <c r="B4" s="106" t="s">
-        <v>450</v>
-      </c>
-      <c r="C4" s="107" t="s">
-        <v>451</v>
-      </c>
-      <c r="D4" s="108" t="s">
-        <v>410</v>
-      </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108" t="s">
+      <c r="E4" s="111"/>
+      <c r="F4" s="111" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="109" t="s">
-        <v>452</v>
-      </c>
-      <c r="H4" s="109" t="n">
+      <c r="G4" s="112" t="s">
+        <v>460</v>
+      </c>
+      <c r="H4" s="112" t="n">
         <v>30308</v>
       </c>
-      <c r="I4" s="109"/>
-      <c r="J4" s="105" t="s">
-        <v>453</v>
-      </c>
-      <c r="K4" s="105"/>
-      <c r="L4" s="110" t="n">
+      <c r="I4" s="112"/>
+      <c r="J4" s="108" t="s">
+        <v>461</v>
+      </c>
+      <c r="K4" s="108"/>
+      <c r="L4" s="113" t="n">
         <v>41086</v>
       </c>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="111" t="s">
-        <v>454</v>
-      </c>
-      <c r="P4" s="111" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q4" s="111" t="s">
-        <v>456</v>
-      </c>
-      <c r="R4" s="109" t="s">
-        <v>457</v>
-      </c>
-      <c r="S4" s="112"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="60" t="s">
+        <v>462</v>
+      </c>
+      <c r="P4" s="60" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q4" s="60" t="s">
+        <v>464</v>
+      </c>
+      <c r="R4" s="112" t="s">
+        <v>465</v>
+      </c>
+      <c r="S4" s="114"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="110"/>
+      <c r="U4" s="113"/>
       <c r="V4" s="19"/>
-      <c r="W4" s="113"/>
+      <c r="W4" s="115"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -6043,7 +6354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6071,267 +6382,116 @@
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
-    <row r="1" s="92" customFormat="true" ht="20.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="92" t="s">
+    <row r="1" s="95" customFormat="true" ht="20.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="114" t="s">
-        <v>458</v>
-      </c>
-      <c r="C1" s="92" t="s">
-        <v>459</v>
-      </c>
-      <c r="D1" s="115" t="s">
-        <v>460</v>
-      </c>
-      <c r="E1" s="92" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1" s="92" t="s">
-        <v>462</v>
-      </c>
-      <c r="G1" s="92" t="s">
-        <v>463</v>
-      </c>
-      <c r="H1" s="92" t="s">
-        <v>464</v>
-      </c>
-      <c r="I1" s="114" t="s">
-        <v>465</v>
-      </c>
-      <c r="J1" s="114" t="s">
+      <c r="B1" s="116" t="s">
         <v>466</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="C1" s="95" t="s">
         <v>467</v>
       </c>
+      <c r="D1" s="117" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1" s="95" t="s">
+        <v>469</v>
+      </c>
+      <c r="F1" s="95" t="s">
+        <v>470</v>
+      </c>
+      <c r="G1" s="95" t="s">
+        <v>471</v>
+      </c>
+      <c r="H1" s="95" t="s">
+        <v>472</v>
+      </c>
+      <c r="I1" s="116" t="s">
+        <v>473</v>
+      </c>
+      <c r="J1" s="116" t="s">
+        <v>474</v>
+      </c>
+      <c r="K1" s="95" t="s">
+        <v>475</v>
+      </c>
       <c r="L1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="116" t="s">
-        <v>468</v>
-      </c>
-      <c r="B2" s="117"/>
-      <c r="D2" s="115"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
+      <c r="A2" s="118" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" s="119"/>
+      <c r="D2" s="117"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="118" t="s">
-        <v>469</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>470</v>
-      </c>
-      <c r="D3" s="115" t="s">
-        <v>471</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>472</v>
-      </c>
-      <c r="F3" s="92" t="s">
-        <v>473</v>
-      </c>
-      <c r="G3" s="92" t="s">
-        <v>474</v>
-      </c>
-      <c r="H3" s="92" t="s">
-        <v>475</v>
-      </c>
-      <c r="I3" s="119" t="s">
-        <v>476</v>
-      </c>
-      <c r="J3" s="120" t="s">
+      <c r="B3" s="120" t="s">
         <v>477</v>
       </c>
-      <c r="K3" s="92" t="s">
+      <c r="C3" s="95" t="s">
         <v>478</v>
+      </c>
+      <c r="D3" s="117" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3" s="95" t="s">
+        <v>480</v>
+      </c>
+      <c r="F3" s="95" t="s">
+        <v>481</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>482</v>
+      </c>
+      <c r="H3" s="95" t="s">
+        <v>483</v>
+      </c>
+      <c r="I3" s="121" t="s">
+        <v>484</v>
+      </c>
+      <c r="J3" s="122" t="s">
+        <v>485</v>
+      </c>
+      <c r="K3" s="95" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="B4" s="121" t="n">
+        <v>487</v>
+      </c>
+      <c r="B4" s="123" t="n">
         <v>42754</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>450</v>
-      </c>
-      <c r="D4" s="122" t="n">
+        <v>458</v>
+      </c>
+      <c r="D4" s="124" t="n">
         <v>42736</v>
       </c>
-      <c r="E4" s="122" t="n">
+      <c r="E4" s="124" t="n">
         <v>41290</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>183</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="I4" s="105" t="s">
+        <v>489</v>
+      </c>
+      <c r="I4" s="108" t="s">
         <v>183</v>
       </c>
-      <c r="J4" s="111" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="false" error="Not a date" errorTitle="Invalid entry" operator="greaterThan" prompt="After 1 Jan 2012. Expected format is YYYY/MM/DD" promptTitle="Please enter a date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:E4" type="date">
-      <formula1>40909</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid instrument from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="From the drop-down menu. Maintain the list on the 'Instruments' sheet" promptTitle="Select an Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4" type="list">
-      <formula1>Instruments!$B$4:$B$4</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K65536"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.71255060728745"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="92" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="114" t="s">
-        <v>458</v>
-      </c>
-      <c r="C1" s="92" t="s">
-        <v>459</v>
-      </c>
-      <c r="D1" s="0"/>
-      <c r="E1" s="92" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1" s="92" t="s">
-        <v>483</v>
-      </c>
-      <c r="G1" s="92" t="s">
-        <v>463</v>
-      </c>
-      <c r="H1" s="92" t="s">
-        <v>464</v>
-      </c>
-      <c r="I1" s="114" t="s">
-        <v>465</v>
-      </c>
-      <c r="J1" s="114" t="s">
-        <v>466</v>
-      </c>
-      <c r="K1" s="92" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="116" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="92" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="118" t="s">
-        <v>469</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>470</v>
-      </c>
-      <c r="D3" s="115" t="s">
-        <v>471</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>472</v>
-      </c>
-      <c r="F3" s="92" t="s">
-        <v>485</v>
-      </c>
-      <c r="G3" s="92" t="s">
-        <v>474</v>
-      </c>
-      <c r="H3" s="92" t="s">
-        <v>475</v>
-      </c>
-      <c r="I3" s="119" t="s">
-        <v>476</v>
-      </c>
-      <c r="J3" s="120" t="s">
-        <v>477</v>
-      </c>
-      <c r="K3" s="92" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="B4" s="123" t="n">
-        <v>41778</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>450</v>
-      </c>
-      <c r="D4" s="122" t="n">
-        <v>42856</v>
-      </c>
-      <c r="E4" s="122" t="n">
-        <v>42859</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="J4" s="124" t="s">
-        <v>489</v>
+      <c r="J4" s="60" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6361,6 +6521,157 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:K65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.71255060728745"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="95" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="116" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" s="95" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1" s="0"/>
+      <c r="E1" s="95" t="s">
+        <v>469</v>
+      </c>
+      <c r="F1" s="95" t="s">
+        <v>491</v>
+      </c>
+      <c r="G1" s="95" t="s">
+        <v>471</v>
+      </c>
+      <c r="H1" s="95" t="s">
+        <v>472</v>
+      </c>
+      <c r="I1" s="116" t="s">
+        <v>473</v>
+      </c>
+      <c r="J1" s="116" t="s">
+        <v>474</v>
+      </c>
+      <c r="K1" s="95" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="118" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="95" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="120" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>478</v>
+      </c>
+      <c r="D3" s="117" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3" s="95" t="s">
+        <v>480</v>
+      </c>
+      <c r="F3" s="95" t="s">
+        <v>493</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>482</v>
+      </c>
+      <c r="H3" s="95" t="s">
+        <v>483</v>
+      </c>
+      <c r="I3" s="121" t="s">
+        <v>484</v>
+      </c>
+      <c r="J3" s="122" t="s">
+        <v>485</v>
+      </c>
+      <c r="K3" s="95" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" s="125" t="n">
+        <v>41778</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="D4" s="124" t="n">
+        <v>42856</v>
+      </c>
+      <c r="E4" s="124" t="n">
+        <v>42859</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="J4" s="126" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="false" error="Not a date" errorTitle="Invalid entry" operator="greaterThan" prompt="After 1 Jan 2012. Expected format is YYYY/MM/DD" promptTitle="Please enter a date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:E4" type="date">
+      <formula1>40909</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Select a valid instrument from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="From the drop-down menu. Maintain the list on the 'Instruments' sheet" promptTitle="Select an Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4" type="list">
+      <formula1>Instruments!$B$4:$B$4</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -6378,54 +6689,54 @@
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
-    <row r="1" s="92" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="92" t="s">
-        <v>459</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>490</v>
-      </c>
-      <c r="C1" s="92" t="s">
-        <v>491</v>
-      </c>
-      <c r="D1" s="92" t="s">
-        <v>492</v>
-      </c>
-      <c r="E1" s="92" t="s">
-        <v>493</v>
-      </c>
-      <c r="F1" s="92" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="2" s="125" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="125" t="s">
-        <v>495</v>
+    <row r="1" s="95" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="95" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1" s="95" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>500</v>
+      </c>
+      <c r="E1" s="95" t="s">
+        <v>501</v>
+      </c>
+      <c r="F1" s="95" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" s="127" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="127" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="126" t="s">
-        <v>373</v>
-      </c>
-      <c r="B3" s="126" t="s">
-        <v>496</v>
-      </c>
-      <c r="C3" s="126" t="s">
-        <v>497</v>
-      </c>
-      <c r="D3" s="126" t="s">
-        <v>498</v>
-      </c>
-      <c r="E3" s="126" t="s">
-        <v>499</v>
+      <c r="A3" s="128" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" s="128" t="s">
+        <v>504</v>
+      </c>
+      <c r="C3" s="128" t="s">
+        <v>505</v>
+      </c>
+      <c r="D3" s="128" t="s">
+        <v>506</v>
+      </c>
+      <c r="E3" s="128" t="s">
+        <v>507</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="127" t="s">
-        <v>450</v>
+      <c r="A4" s="129" t="s">
+        <v>458</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4566</v>
@@ -6434,13 +6745,13 @@
         <v>1.1</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -6460,7 +6771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6488,111 +6799,111 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B1" s="92" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="92" t="s">
-        <v>459</v>
-      </c>
-      <c r="D1" s="115" t="s">
-        <v>503</v>
-      </c>
-      <c r="E1" s="92" t="s">
-        <v>504</v>
-      </c>
-      <c r="F1" s="92" t="s">
-        <v>505</v>
-      </c>
-      <c r="G1" s="92" t="s">
-        <v>506</v>
-      </c>
-      <c r="H1" s="114" t="s">
-        <v>507</v>
-      </c>
-      <c r="I1" s="114" t="s">
-        <v>508</v>
-      </c>
-      <c r="J1" s="92" t="s">
+      <c r="C1" s="95" t="s">
         <v>467</v>
       </c>
-      <c r="K1" s="128" t="s">
-        <v>509</v>
+      <c r="D1" s="117" t="s">
+        <v>511</v>
+      </c>
+      <c r="E1" s="95" t="s">
+        <v>512</v>
+      </c>
+      <c r="F1" s="95" t="s">
+        <v>513</v>
+      </c>
+      <c r="G1" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="H1" s="116" t="s">
+        <v>515</v>
+      </c>
+      <c r="I1" s="116" t="s">
+        <v>516</v>
+      </c>
+      <c r="J1" s="95" t="s">
+        <v>475</v>
+      </c>
+      <c r="K1" s="130" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="129" t="s">
-        <v>510</v>
-      </c>
-      <c r="B2" s="116" t="s">
-        <v>510</v>
-      </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="K2" s="130"/>
+      <c r="A2" s="131" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" s="118" t="s">
+        <v>518</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="K2" s="132"/>
     </row>
     <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="119" t="s">
-        <v>433</v>
-      </c>
-      <c r="B3" s="92" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>470</v>
-      </c>
-      <c r="D3" s="115" t="s">
-        <v>512</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>513</v>
-      </c>
-      <c r="F3" s="92" t="s">
-        <v>514</v>
-      </c>
-      <c r="G3" s="92" t="s">
-        <v>515</v>
-      </c>
-      <c r="H3" s="131" t="s">
-        <v>516</v>
-      </c>
-      <c r="I3" s="119" t="s">
-        <v>517</v>
-      </c>
-      <c r="J3" s="92" t="s">
+      <c r="A3" s="121" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>519</v>
+      </c>
+      <c r="C3" s="95" t="s">
         <v>478</v>
       </c>
-      <c r="K3" s="119" t="s">
-        <v>518</v>
+      <c r="D3" s="117" t="s">
+        <v>520</v>
+      </c>
+      <c r="E3" s="95" t="s">
+        <v>521</v>
+      </c>
+      <c r="F3" s="95" t="s">
+        <v>522</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>523</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>524</v>
+      </c>
+      <c r="I3" s="121" t="s">
+        <v>525</v>
+      </c>
+      <c r="J3" s="95" t="s">
+        <v>486</v>
+      </c>
+      <c r="K3" s="121" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="105" t="s">
-        <v>519</v>
+      <c r="A4" s="108" t="s">
+        <v>527</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>450</v>
-      </c>
-      <c r="D4" s="122" t="n">
+        <v>458</v>
+      </c>
+      <c r="D4" s="124" t="n">
         <v>42736</v>
       </c>
-      <c r="E4" s="122" t="n">
+      <c r="E4" s="124" t="n">
         <v>42736</v>
       </c>
-      <c r="F4" s="122" t="n">
+      <c r="F4" s="124" t="n">
         <v>43465</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="H4" s="105" t="s">
+        <v>529</v>
+      </c>
+      <c r="H4" s="108" t="s">
         <v>183</v>
       </c>
-      <c r="I4" s="105" t="s">
+      <c r="I4" s="108" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6638,7 +6949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6667,15 +6978,15 @@
       <c r="B1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="134" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="14" t="s">
-        <v>522</v>
-      </c>
-      <c r="C2" s="133"/>
+        <v>530</v>
+      </c>
+      <c r="C2" s="135"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
@@ -6684,315 +6995,315 @@
       <c r="B3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="134" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>524</v>
-      </c>
-      <c r="C4" s="134" t="n">
+        <v>532</v>
+      </c>
+      <c r="C4" s="136" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>526</v>
-      </c>
-      <c r="C5" s="134" t="n">
+        <v>534</v>
+      </c>
+      <c r="C5" s="136" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>527</v>
-      </c>
-      <c r="C6" s="134" t="s">
-        <v>528</v>
+        <v>535</v>
+      </c>
+      <c r="C6" s="136" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>530</v>
-      </c>
-      <c r="C7" s="135" t="n">
+        <v>538</v>
+      </c>
+      <c r="C7" s="137" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>532</v>
-      </c>
-      <c r="C8" s="135" t="n">
+        <v>540</v>
+      </c>
+      <c r="C8" s="137" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>534</v>
-      </c>
-      <c r="C9" s="134" t="n">
+        <v>542</v>
+      </c>
+      <c r="C9" s="136" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>535</v>
-      </c>
-      <c r="C10" s="134" t="n">
+        <v>543</v>
+      </c>
+      <c r="C10" s="136" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>537</v>
-      </c>
-      <c r="C11" s="134" t="n">
+        <v>545</v>
+      </c>
+      <c r="C11" s="136" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>539</v>
-      </c>
-      <c r="C12" s="134" t="n">
+        <v>547</v>
+      </c>
+      <c r="C12" s="136" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>541</v>
-      </c>
-      <c r="C13" s="134" t="n">
+        <v>549</v>
+      </c>
+      <c r="C13" s="136" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>543</v>
-      </c>
-      <c r="C14" s="134"/>
+        <v>551</v>
+      </c>
+      <c r="C14" s="136"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>545</v>
-      </c>
-      <c r="C15" s="135" t="n">
+        <v>553</v>
+      </c>
+      <c r="C15" s="137" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>547</v>
-      </c>
-      <c r="C16" s="135" t="n">
+        <v>555</v>
+      </c>
+      <c r="C16" s="137" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>549</v>
-      </c>
-      <c r="C17" s="135" t="n">
+        <v>557</v>
+      </c>
+      <c r="C17" s="137" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>551</v>
-      </c>
-      <c r="C18" s="136" t="s">
-        <v>552</v>
-      </c>
-      <c r="D18" s="137"/>
+        <v>559</v>
+      </c>
+      <c r="C18" s="138" t="s">
+        <v>560</v>
+      </c>
+      <c r="D18" s="139"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>554</v>
-      </c>
-      <c r="C19" s="138" t="s">
-        <v>353</v>
-      </c>
-      <c r="D19" s="137"/>
+        <v>562</v>
+      </c>
+      <c r="C19" s="140" t="s">
+        <v>361</v>
+      </c>
+      <c r="D19" s="139"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>556</v>
-      </c>
-      <c r="C20" s="138" t="s">
-        <v>353</v>
+        <v>564</v>
+      </c>
+      <c r="C20" s="140" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>558</v>
-      </c>
-      <c r="C21" s="136" t="n">
+        <v>566</v>
+      </c>
+      <c r="C21" s="138" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>560</v>
-      </c>
-      <c r="C22" s="136" t="n">
+        <v>568</v>
+      </c>
+      <c r="C22" s="138" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>562</v>
-      </c>
-      <c r="C23" s="136" t="n">
+        <v>570</v>
+      </c>
+      <c r="C23" s="138" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>564</v>
-      </c>
-      <c r="C24" s="138" t="s">
-        <v>565</v>
-      </c>
-      <c r="D24" s="139"/>
+        <v>572</v>
+      </c>
+      <c r="C24" s="140" t="s">
+        <v>573</v>
+      </c>
+      <c r="D24" s="141"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>567</v>
-      </c>
-      <c r="C25" s="138" t="s">
-        <v>568</v>
+        <v>575</v>
+      </c>
+      <c r="C25" s="140" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>570</v>
-      </c>
-      <c r="C26" s="135" t="n">
+        <v>578</v>
+      </c>
+      <c r="C26" s="137" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>572</v>
-      </c>
-      <c r="C27" s="134" t="s">
-        <v>573</v>
+        <v>580</v>
+      </c>
+      <c r="C27" s="136" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>575</v>
-      </c>
-      <c r="C28" s="134" t="n">
+        <v>583</v>
+      </c>
+      <c r="C28" s="136" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>577</v>
-      </c>
-      <c r="C29" s="135" t="n">
+        <v>585</v>
+      </c>
+      <c r="C29" s="137" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>579</v>
-      </c>
-      <c r="C30" s="134"/>
+        <v>587</v>
+      </c>
+      <c r="C30" s="136"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>581</v>
-      </c>
-      <c r="C31" s="140" t="s">
-        <v>582</v>
+        <v>589</v>
+      </c>
+      <c r="C31" s="142" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -7107,7 +7418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7131,38 +7442,38 @@
   </cols>
   <sheetData>
     <row r="1" s="31" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="143" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="143" t="s">
         <v>198</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="G1" s="142" t="s">
-        <v>587</v>
+        <v>594</v>
+      </c>
+      <c r="G1" s="144" t="s">
+        <v>595</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L1" s="32"/>
     </row>
@@ -7174,115 +7485,115 @@
         <v>243</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>591</v>
-      </c>
-      <c r="E2" s="143" t="s">
-        <v>592</v>
+        <v>599</v>
+      </c>
+      <c r="E2" s="145" t="s">
+        <v>600</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="G2" s="51" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>353</v>
-      </c>
-      <c r="E3" s="143" t="s">
-        <v>568</v>
+        <v>361</v>
+      </c>
+      <c r="E3" s="145" t="s">
+        <v>576</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="G3" s="51" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="K3" s="51" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>225</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>565</v>
-      </c>
-      <c r="G4" s="143"/>
+        <v>573</v>
+      </c>
+      <c r="G4" s="145"/>
       <c r="H4" s="51" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="51" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>609</v>
-      </c>
-      <c r="G5" s="143"/>
+        <v>617</v>
+      </c>
+      <c r="G5" s="145"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="G6" s="143"/>
+        <v>619</v>
+      </c>
+      <c r="G6" s="145"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="51" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>613</v>
-      </c>
-      <c r="G7" s="143"/>
+        <v>621</v>
+      </c>
+      <c r="G7" s="145"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
@@ -7291,1079 +7602,1079 @@
       <c r="B8" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="G8" s="143"/>
+      <c r="G8" s="145"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G9" s="143"/>
+      <c r="G9" s="145"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G10" s="143"/>
+      <c r="G10" s="145"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G11" s="143"/>
+      <c r="G11" s="145"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G12" s="143"/>
+      <c r="G12" s="145"/>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G13" s="143"/>
+      <c r="G13" s="145"/>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G14" s="143"/>
+      <c r="G14" s="145"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G15" s="143"/>
+      <c r="G15" s="145"/>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G16" s="143"/>
+      <c r="G16" s="145"/>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G17" s="143"/>
+      <c r="G17" s="145"/>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G18" s="143"/>
+      <c r="G18" s="145"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G19" s="143"/>
+      <c r="G19" s="145"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="144"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="144"/>
-    </row>
-    <row r="21" s="147" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="146"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+    </row>
+    <row r="21" s="149" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>616</v>
-      </c>
-      <c r="E21" s="146" t="s">
-        <v>617</v>
+        <v>624</v>
+      </c>
+      <c r="E21" s="148" t="s">
+        <v>625</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="148" t="s">
-        <v>622</v>
+      <c r="A22" s="150" t="s">
+        <v>630</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>625</v>
-      </c>
-      <c r="E22" s="143" t="s">
-        <v>626</v>
+        <v>633</v>
+      </c>
+      <c r="E22" s="145" t="s">
+        <v>634</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="I22" s="51" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="51" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>631</v>
-      </c>
-      <c r="E23" s="143" t="s">
-        <v>632</v>
+        <v>639</v>
+      </c>
+      <c r="E23" s="145" t="s">
+        <v>640</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="H23" s="51" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="I23" s="51" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="51" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="H24" s="51" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="I24" s="51" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="51" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="H25" s="51" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="I25" s="51" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="51" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="H26" s="51" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="51" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="51" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="51" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="51" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="51" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="51" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="51" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="51" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="51" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="51" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="51" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="51" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="51" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="51" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="51" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="51" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="51" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="51" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="51" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="51" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="51" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="51" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="51" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="51" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="51" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="51" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="51" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="51" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="51" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="51" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="51" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="51" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="51" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="51" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="51" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="51" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="51" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="51" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="51" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="51" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="51" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="51" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="51" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="51" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="51" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="51" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="51" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="51" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="51" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="51" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="51" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="51" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="51" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="51" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="51" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="51" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="51" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="51" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="51" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="51" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="51" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="51" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="51" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="51" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="51" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="51" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="51" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="51" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="51" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="51" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="51" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="51" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="51" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="51" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="51" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="51" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="51" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="51" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="51" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="51" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="51" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="51" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="51" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="51" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="51" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="51" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="51" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="51" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="51" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="51" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="51" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="51" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="51" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="51" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="51" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="51" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="51" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="51" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="51" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="51" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="51" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="51" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="51" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="51" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="51" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="51" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="51" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="51" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="51" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="51" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="51" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="51" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="51" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="51" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="51" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="51" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="51" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="51" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="51" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="51" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="51" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="51" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="51" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="51" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="51" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="51" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="51" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="51" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="51" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="51" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="51" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="51" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="51" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="51" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="51" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="51" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="51" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="51" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="51" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="51" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="51" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="51" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="51" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="51" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="51" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="51" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="51" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="51" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="51" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="51" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="51" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="51" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="51" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="51" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="51" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="51" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="51" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="51" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="51" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="51" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="51" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="51" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="51" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="51" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="51" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="51" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="51" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="51" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="51" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="51" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="51" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="51" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="51" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="51" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -9294,7 +9605,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Select a valid lab contact user name from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="From the drop-down menu. Maintain the list on the 'Lab Contacts' sheet" promptTitle="Select a valid lab contact (user name)" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C7" type="list">
-      <formula1>'Lab Contacts'!$K$4:$K$8</formula1>
+      <formula1>'Lab Contacts'!$K$4:$K$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -9319,7 +9630,7 @@
   <dimension ref="A1:Y65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9684,19 +9995,7 @@
       </c>
       <c r="N7" s="44"/>
     </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-    </row>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9774,16 +10073,8 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="true" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Please select a valid Lab Department the staff member belongs to from the drop-down menu" promptTitle="Lab Department" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J8" type="list">
-      <formula1>'Sample Types'!$A$4:$A$26</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Select a valid option from the drop-down" errorTitle="Invalid group" operator="equal" prompt="Select a valid option from the drop-down" promptTitle="Select the autorisation group the user belongs to" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M8" type="list">
-      <formula1>#ref!!$B$2:$B$20</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Select a valid option from the drop-down" errorTitle="Invalid group" operator="equal" prompt="The user inherits the autorisation of the groups he/she belongs to. Only add more toles here if you you really need to. Select a valid option from the drop-down" promptTitle="Select additional roles the user needs" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N7:N8" type="list">
+  <dataValidations count="4">
+    <dataValidation allowBlank="false" error="Select a valid option from the drop-down" errorTitle="Invalid group" operator="equal" prompt="The user inherits the autorisation of the groups he/she belongs to. Only add more toles here if you you really need to. Select a valid option from the drop-down" promptTitle="Select additional roles the user needs" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N7" type="list">
       <formula1>#ref!!$A$2:$A$20</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9818,9 +10109,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -10102,6 +10393,8 @@
         <v>273</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F2:J2"/>
@@ -10133,268 +10426,168 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="1:5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="2" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.9676113360324"/>
-    <col collapsed="false" hidden="false" max="21" min="12" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9959514170041"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3238866396761"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>189</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>276</v>
+      </c>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="29" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="7" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="L2" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-    </row>
-    <row r="3" s="7" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="F3" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="ALW3" s="0"/>
+      <c r="ALX3" s="0"/>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+      <c r="AMB3" s="0"/>
+      <c r="AMC3" s="0"/>
+      <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="B4" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="C4" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="D4" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="62" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="s">
+      <c r="B5" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>107</v>
+      <c r="G5" s="62" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-  </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the list on the 'Reference Suppliers' sheet" promptTitle="Select a valid Reference Supplier for this contact" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A5" type="list">
-      <formula1>Suppliers!$A$4:$A$248</formula1>
+    <dataValidation allowBlank="true" operator="equal" prompt="Please select a valid Suppliers  the staff member belongs to from the drop-down menu" promptTitle="Suppliers" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F5" type="list">
+      <formula1>Suppliers!$A$4:$A$20</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" display="dobson@example.com"/>
-    <hyperlink ref="K5" r:id="rId2" display="dobson@example.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/baobab/lims/setupdata/test/test.xlsx
+++ b/baobab/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="975" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="975" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,33 +15,35 @@
     <sheet name="Sample Types" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Lab Departments" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Lab Contacts" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Suppliers" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Products" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Supplier Contacts" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Analysis Categories" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Analysis Services" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="AnalysisService InterimFields" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="AnalysisService Methods" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="AnalysisService Instruments" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="AnalysisService ResultOptions" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="Analysis Service Uncertainties" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="Calculations" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="Calculation Interim Fields" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="Methods" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="Instrument Types" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="Instruments" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="Instrument Validations" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="Instrument Calibrations" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="Instrument Documents" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="Instrument Certifications" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="Setup" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="Constants" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="Clients" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Client Contacts" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Suppliers" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Products" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Supplier Contacts" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Analysis Categories" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Analysis Services" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="AnalysisService InterimFields" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="AnalysisService Methods" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="AnalysisService Instruments" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="AnalysisService ResultOptions" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Analysis Service Uncertainties" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="Calculations" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="Calculation Interim Fields" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="Methods" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="Instrument Types" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="Instruments" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="Instrument Validations" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="Instrument Calibrations" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="Instrument Documents" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="Instrument Certifications" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="Setup" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="Constants" sheetId="30" state="visible" r:id="rId31"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
@@ -89,8 +91,46 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Only if a Client Contact is a LIMS user too, does he/she get given a (unique) user name and password</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Please copy from other contacts for the same Client on this sheet: Use contact Fullname (Firstname + “ “ + Lastname). If more than one needs to be cc'd, please separate with commas. Only contacts for the same client are valid.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="942">
   <si>
     <t>Instructions</t>
   </si>
@@ -848,21 +888,339 @@
     <t>Verifiers</t>
   </si>
   <si>
+    <t>ClientID</t>
+  </si>
+  <si>
+    <t>MemberDiscountApplies</t>
+  </si>
+  <si>
+    <t>BulkDiscount</t>
+  </si>
+  <si>
     <t>AccountNumber</t>
   </si>
   <si>
+    <t>Clients</t>
+  </si>
+  <si>
+    <t>Physical Address</t>
+  </si>
+  <si>
+    <t>Postal Address</t>
+  </si>
+  <si>
+    <t>Billing Address</t>
+  </si>
+  <si>
+    <t>Client ID</t>
+  </si>
+  <si>
+    <t>Member discount applies?</t>
+  </si>
+  <si>
+    <t>Bulk discount applies?</t>
+  </si>
+  <si>
+    <t>Account number</t>
+  </si>
+  <si>
+    <t>Bellville Medical Centre</t>
+  </si>
+  <si>
+    <t>BMC</t>
+  </si>
+  <si>
+    <t>SA62914-27121</t>
+  </si>
+  <si>
+    <t>+27-21-2442645</t>
+  </si>
+  <si>
+    <t>+27-21-2442647</t>
+  </si>
+  <si>
+    <t>apsc@example.com</t>
+  </si>
+  <si>
+    <t>1 Brickdam</t>
+  </si>
+  <si>
+    <t>Cape Town</t>
+  </si>
+  <si>
+    <t>Western Cape</t>
+  </si>
+  <si>
+    <t>Brooklyn Chest Hospital</t>
+  </si>
+  <si>
+    <t>BCHP</t>
+  </si>
+  <si>
+    <t>SA62914-27120</t>
+  </si>
+  <si>
+    <t>+27-21-2442561</t>
+  </si>
+  <si>
+    <t>+27-21-2442563</t>
+  </si>
+  <si>
+    <t>bchp@example.com</t>
+  </si>
+  <si>
+    <t>Oceana Complex</t>
+  </si>
+  <si>
+    <t>Client_title</t>
+  </si>
+  <si>
+    <t>PublicationPreference</t>
+  </si>
+  <si>
+    <t>CCContacts</t>
+  </si>
+  <si>
+    <t>AttachmentsPermitted</t>
+  </si>
+  <si>
+    <t>Client Contacts - Staff Members</t>
+  </si>
+  <si>
+    <t>Client title</t>
+  </si>
+  <si>
+    <t>Publication preference</t>
+  </si>
+  <si>
+    <t>Contacts to be cc'd</t>
+  </si>
+  <si>
+    <t>Attachments permitted</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Mohale</t>
+  </si>
+  <si>
+    <t>ritamo</t>
+  </si>
+  <si>
+    <t>Product assistant</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>038 664 6469</t>
+  </si>
+  <si>
+    <t>038 664 7338</t>
+  </si>
+  <si>
+    <t>038 664 7757</t>
+  </si>
+  <si>
+    <t>082 607 8405</t>
+  </si>
+  <si>
+    <t>mohale@example.com</t>
+  </si>
+  <si>
+    <t>email,pdf</t>
+  </si>
+  <si>
+    <t>Ŝarel Seemonster</t>
+  </si>
+  <si>
+    <t>Permitted</t>
+  </si>
+  <si>
+    <t>Ŝarel</t>
+  </si>
+  <si>
+    <t>Seemonster</t>
+  </si>
+  <si>
+    <t>sarelse</t>
+  </si>
+  <si>
+    <t>Nutrient management</t>
+  </si>
+  <si>
+    <t>040 666 6630</t>
+  </si>
+  <si>
+    <t>040 666 7834</t>
+  </si>
+  <si>
+    <t>040 666 7858</t>
+  </si>
+  <si>
+    <t>083 644 8576</t>
+  </si>
+  <si>
+    <t>seemonster@example.com</t>
+  </si>
+  <si>
+    <t>Rita Mohale</t>
+  </si>
+  <si>
+    <t>Neil</t>
+  </si>
+  <si>
+    <t>Ŝtandard</t>
+  </si>
+  <si>
+    <t>neilst</t>
+  </si>
+  <si>
+    <t>Research  assistant</t>
+  </si>
+  <si>
+    <t>Product development</t>
+  </si>
+  <si>
+    <t>035 597 5814</t>
+  </si>
+  <si>
+    <t>035 597 6876</t>
+  </si>
+  <si>
+    <t>035 597 6344</t>
+  </si>
+  <si>
+    <t>080 564 7509</t>
+  </si>
+  <si>
+    <t>standard@example.com</t>
+  </si>
+  <si>
+    <t>Ŝarel Seemonster, Rita Mohale</t>
+  </si>
+  <si>
+    <t>Johanna</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>johannasm</t>
+  </si>
+  <si>
+    <t>Scientist</t>
+  </si>
+  <si>
+    <t>Soil science</t>
+  </si>
+  <si>
+    <t>036 640 6016</t>
+  </si>
+  <si>
+    <t>036 6406911</t>
+  </si>
+  <si>
+    <t>036 6407167</t>
+  </si>
+  <si>
+    <t>081 569 7909</t>
+  </si>
+  <si>
+    <t>smith@example.com</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>fredtu</t>
+  </si>
+  <si>
+    <t>QC manager</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>041 670 6654</t>
+  </si>
+  <si>
+    <t>041 6708002</t>
+  </si>
+  <si>
+    <t>041 670 8848</t>
+  </si>
+  <si>
+    <t>084 677 8884</t>
+  </si>
+  <si>
+    <t>turner@example.com</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Ruffian</t>
+  </si>
+  <si>
+    <t>chrisru</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>025 557 4204</t>
+  </si>
+  <si>
+    <t>025 557 4531</t>
+  </si>
+  <si>
+    <t>025 557 3131</t>
+  </si>
+  <si>
+    <t>074 304 5021</t>
+  </si>
+  <si>
+    <t>ruffian@example.com</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>Corbin</t>
+  </si>
+  <si>
+    <t>andreco</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>032 586 5303</t>
+  </si>
+  <si>
+    <t>032 586 6331</t>
+  </si>
+  <si>
+    <t>032 586 5622</t>
+  </si>
+  <si>
+    <t>078 469 7035</t>
+  </si>
+  <si>
+    <t>corbin@example.com</t>
+  </si>
+  <si>
     <t>Suppliers</t>
   </si>
   <si>
-    <t>Physical Address</t>
-  </si>
-  <si>
-    <t>Postal Address</t>
-  </si>
-  <si>
-    <t>Billing Address</t>
-  </si>
-  <si>
     <t>Tax Number</t>
   </si>
   <si>
@@ -1175,9 +1533,6 @@
     <t>lab</t>
   </si>
   <si>
-    <t>Permitted</t>
-  </si>
-  <si>
     <t>mg/l</t>
   </si>
   <si>
@@ -1935,9 +2290,6 @@
   </si>
   <si>
     <t>Required</t>
-  </si>
-  <si>
-    <t>email,pdf</t>
   </si>
   <si>
     <t>Preserver</t>
@@ -2613,14 +2965,14 @@
   <numFmts count="8">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="DD\-MM\-YYYY;@"/>
-    <numFmt numFmtId="168" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="169" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="170" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="171" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="168" formatCode="DD\-MM\-YYYY;@"/>
+    <numFmt numFmtId="169" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="170" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="171" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2753,9 +3105,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="FreeSans"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -2763,6 +3123,26 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="FreeSans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="FreeSans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -2903,7 +3283,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="174">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3112,10 +3492,114 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3128,7 +3612,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3136,7 +3620,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3152,7 +3636,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3164,10 +3648,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3204,7 +3684,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3216,7 +3696,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3228,7 +3708,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3240,7 +3720,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3261,10 +3741,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3284,47 +3760,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3332,7 +3804,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3356,11 +3828,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3372,11 +3844,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3384,7 +3856,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3396,15 +3868,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3412,7 +3884,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3436,7 +3908,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3480,11 +3952,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3492,11 +3964,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3655,6 +4127,500 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:U12"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2388663967611"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" s="29" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="F2" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+    </row>
+    <row r="3" s="7" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="79" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>12345</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>369</v>
+      </c>
+      <c r="G4" s="79" t="s">
+        <v>370</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>371</v>
+      </c>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83" t="s">
+        <v>372</v>
+      </c>
+      <c r="K4" s="81" t="s">
+        <v>369</v>
+      </c>
+      <c r="L4" s="79" t="s">
+        <v>370</v>
+      </c>
+      <c r="M4" s="79" t="s">
+        <v>371</v>
+      </c>
+      <c r="N4" s="82"/>
+      <c r="O4" s="83" t="s">
+        <v>372</v>
+      </c>
+      <c r="P4" s="81" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q4" s="79" t="s">
+        <v>370</v>
+      </c>
+      <c r="R4" s="79" t="s">
+        <v>371</v>
+      </c>
+      <c r="S4" s="82"/>
+      <c r="T4" s="83" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="79" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>12346</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>374</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>375</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>376</v>
+      </c>
+      <c r="G5" s="84"/>
+      <c r="H5" s="79" t="s">
+        <v>377</v>
+      </c>
+      <c r="I5" s="85" t="s">
+        <v>378</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>379</v>
+      </c>
+      <c r="K5" s="81" t="s">
+        <v>376</v>
+      </c>
+      <c r="L5" s="84"/>
+      <c r="M5" s="79" t="s">
+        <v>377</v>
+      </c>
+      <c r="N5" s="85" t="s">
+        <v>378</v>
+      </c>
+      <c r="O5" s="83" t="s">
+        <v>379</v>
+      </c>
+      <c r="P5" s="81" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="79" t="s">
+        <v>377</v>
+      </c>
+      <c r="S5" s="85" t="s">
+        <v>378</v>
+      </c>
+      <c r="T5" s="83" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" error="Only ISO 3166 countries are valid" errorTitle="Please select a valid country from the drop-down" operator="equal" prompt="Valid ISO 3166 countries for selection" promptTitle="Select a country from the drop down lits" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J4:J5 O4:O5 T4:T5" type="list">
+      <formula1>#ref!!$B$2:$B$250</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" display="supplier@example.com"/>
+    <hyperlink ref="E5" r:id="rId2" display="supplier@example.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="1:5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9959514170041"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3238866396761"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="29" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="7" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="ALW3" s="0"/>
+      <c r="ALX3" s="0"/>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+      <c r="AMB3" s="0"/>
+      <c r="AMC3" s="0"/>
+      <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="79" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="88" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="79" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="G5" s="88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" prompt="Please select a valid Suppliers  the staff member belongs to from the drop-down menu" promptTitle="Suppliers" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F5" type="list">
+      <formula1>Suppliers!$A$4:$A$20</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3672,7 +4638,7 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>187</v>
@@ -3737,27 +4703,27 @@
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>285</v>
+        <v>391</v>
       </c>
       <c r="C2" s="14"/>
-      <c r="L2" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
+      <c r="L2" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" s="7" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>286</v>
+        <v>392</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>187</v>
@@ -3769,22 +4735,22 @@
         <v>189</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>287</v>
+        <v>393</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>209</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>288</v>
+        <v>394</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>289</v>
+        <v>395</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>290</v>
+        <v>396</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>291</v>
+        <v>397</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>96</v>
@@ -3821,82 +4787,82 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
-        <v>259</v>
+      <c r="A4" s="89" t="s">
+        <v>365</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>216</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>292</v>
+        <v>398</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>293</v>
+        <v>399</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>294</v>
+        <v>400</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G4" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>297</v>
+        <v>401</v>
+      </c>
+      <c r="G4" s="90" t="s">
+        <v>402</v>
+      </c>
+      <c r="H4" s="90" t="s">
+        <v>403</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>298</v>
+        <v>404</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>299</v>
+        <v>405</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>300</v>
+        <v>406</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>301</v>
+        <v>407</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="s">
-        <v>267</v>
+      <c r="A5" s="89" t="s">
+        <v>373</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>216</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>292</v>
+        <v>398</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>293</v>
+        <v>399</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>294</v>
+        <v>400</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>295</v>
+        <v>401</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>296</v>
+        <v>402</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>297</v>
+        <v>403</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>298</v>
+        <v>404</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>299</v>
+        <v>405</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>300</v>
+        <v>406</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>301</v>
+        <v>407</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>107</v>
@@ -3927,7 +4893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3960,10 +4926,10 @@
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>302</v>
+        <v>408</v>
       </c>
       <c r="C2" s="14"/>
-      <c r="AMJ2" s="65"/>
+      <c r="AMJ2" s="61"/>
     </row>
     <row r="3" s="7" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
@@ -3979,10 +4945,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="43" t="s">
-        <v>303</v>
+        <v>409</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>304</v>
+        <v>410</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>184</v>
@@ -3990,10 +4956,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="43" t="s">
-        <v>305</v>
+        <v>411</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>306</v>
+        <v>412</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>184</v>
@@ -4020,7 +4986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4042,10 +5008,10 @@
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.10526315789474"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="66" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="66" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="66" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="66" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="91" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="91" width="6.85425101214575"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="91" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="91" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="18" min="16" style="0" width="3.64372469635628"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.8582995951417"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.42914979757085"/>
@@ -4065,260 +5031,260 @@
         <v>133</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>307</v>
+        <v>413</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>134</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>308</v>
+        <v>414</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>309</v>
+        <v>415</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>310</v>
+        <v>416</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="67" t="s">
-        <v>311</v>
+      <c r="H1" s="92" t="s">
+        <v>417</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>312</v>
+        <v>418</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>275</v>
+        <v>381</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="L1" s="67" t="s">
-        <v>314</v>
-      </c>
-      <c r="M1" s="67" t="s">
-        <v>315</v>
-      </c>
-      <c r="N1" s="67" t="s">
-        <v>316</v>
-      </c>
-      <c r="O1" s="67" t="s">
-        <v>317</v>
+        <v>419</v>
+      </c>
+      <c r="L1" s="92" t="s">
+        <v>420</v>
+      </c>
+      <c r="M1" s="92" t="s">
+        <v>421</v>
+      </c>
+      <c r="N1" s="92" t="s">
+        <v>422</v>
+      </c>
+      <c r="O1" s="92" t="s">
+        <v>423</v>
       </c>
       <c r="P1" s="39" t="s">
-        <v>318</v>
+        <v>424</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>319</v>
+        <v>425</v>
       </c>
       <c r="R1" s="39" t="s">
-        <v>320</v>
+        <v>426</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>276</v>
+        <v>382</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>321</v>
+        <v>427</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>322</v>
+        <v>428</v>
       </c>
       <c r="V1" s="17" t="s">
-        <v>323</v>
+        <v>429</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>324</v>
+        <v>430</v>
       </c>
       <c r="X1" s="17" t="s">
-        <v>325</v>
+        <v>431</v>
       </c>
       <c r="Y1" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z1" s="67" t="s">
-        <v>327</v>
+        <v>432</v>
+      </c>
+      <c r="Z1" s="92" t="s">
+        <v>433</v>
       </c>
       <c r="AA1" s="17" t="s">
-        <v>328</v>
+        <v>434</v>
       </c>
       <c r="AB1" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC1" s="68" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD1" s="68" t="s">
-        <v>331</v>
-      </c>
-      <c r="AE1" s="68"/>
+        <v>435</v>
+      </c>
+      <c r="AC1" s="93" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD1" s="93" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE1" s="93"/>
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>332</v>
+        <v>438</v>
       </c>
       <c r="B2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="H2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="70" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="Z2" s="69"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-    </row>
-    <row r="3" s="72" customFormat="true" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="72" t="s">
+      <c r="H2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="95" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="Z2" s="94"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+    </row>
+    <row r="3" s="97" customFormat="true" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="72" t="s">
-        <v>334</v>
-      </c>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="97" t="s">
+        <v>440</v>
+      </c>
+      <c r="C3" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="72" t="s">
-        <v>308</v>
-      </c>
-      <c r="E3" s="72" t="s">
-        <v>335</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>336</v>
-      </c>
-      <c r="G3" s="72" t="s">
-        <v>337</v>
+      <c r="D3" s="97" t="s">
+        <v>414</v>
+      </c>
+      <c r="E3" s="97" t="s">
+        <v>441</v>
+      </c>
+      <c r="F3" s="97" t="s">
+        <v>442</v>
+      </c>
+      <c r="G3" s="97" t="s">
+        <v>443</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="I3" s="72" t="s">
-        <v>339</v>
-      </c>
-      <c r="J3" s="72" t="s">
-        <v>275</v>
-      </c>
-      <c r="K3" s="72" t="s">
-        <v>313</v>
+        <v>444</v>
+      </c>
+      <c r="I3" s="97" t="s">
+        <v>445</v>
+      </c>
+      <c r="J3" s="97" t="s">
+        <v>381</v>
+      </c>
+      <c r="K3" s="97" t="s">
+        <v>419</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>340</v>
+        <v>446</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>342</v>
+        <v>448</v>
       </c>
       <c r="O3" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="P3" s="72" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q3" s="72" t="s">
-        <v>345</v>
-      </c>
-      <c r="R3" s="72" t="s">
-        <v>346</v>
-      </c>
-      <c r="S3" s="72" t="s">
-        <v>276</v>
-      </c>
-      <c r="T3" s="72" t="s">
-        <v>347</v>
-      </c>
-      <c r="U3" s="72" t="s">
-        <v>348</v>
-      </c>
-      <c r="V3" s="72" t="s">
-        <v>349</v>
-      </c>
-      <c r="W3" s="72" t="s">
-        <v>350</v>
-      </c>
-      <c r="X3" s="72" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y3" s="72" t="s">
-        <v>352</v>
+        <v>449</v>
+      </c>
+      <c r="P3" s="97" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q3" s="97" t="s">
+        <v>451</v>
+      </c>
+      <c r="R3" s="97" t="s">
+        <v>452</v>
+      </c>
+      <c r="S3" s="97" t="s">
+        <v>382</v>
+      </c>
+      <c r="T3" s="97" t="s">
+        <v>453</v>
+      </c>
+      <c r="U3" s="97" t="s">
+        <v>454</v>
+      </c>
+      <c r="V3" s="97" t="s">
+        <v>455</v>
+      </c>
+      <c r="W3" s="97" t="s">
+        <v>456</v>
+      </c>
+      <c r="X3" s="97" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y3" s="97" t="s">
+        <v>458</v>
       </c>
       <c r="Z3" s="31" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA3" s="72" t="s">
-        <v>328</v>
-      </c>
-      <c r="AB3" s="72" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC3" s="72" t="s">
-        <v>354</v>
-      </c>
-      <c r="AD3" s="72" t="s">
-        <v>355</v>
+        <v>459</v>
+      </c>
+      <c r="AA3" s="97" t="s">
+        <v>434</v>
+      </c>
+      <c r="AB3" s="97" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC3" s="97" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD3" s="97" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="39" t="s">
-        <v>356</v>
+        <v>462</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>357</v>
+        <v>463</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>359</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>360</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>303</v>
-      </c>
-      <c r="G4" s="73" t="s">
+        <v>464</v>
+      </c>
+      <c r="D4" s="98" t="s">
+        <v>465</v>
+      </c>
+      <c r="E4" s="98" t="s">
+        <v>466</v>
+      </c>
+      <c r="F4" s="98" t="s">
+        <v>409</v>
+      </c>
+      <c r="G4" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="H4" s="74" t="n">
+      <c r="H4" s="99" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="73" t="s">
-        <v>361</v>
-      </c>
-      <c r="J4" s="75" t="s">
-        <v>362</v>
+      <c r="I4" s="98" t="s">
+        <v>301</v>
+      </c>
+      <c r="J4" s="100" t="s">
+        <v>467</v>
       </c>
       <c r="K4" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="76" t="n">
+      <c r="L4" s="101" t="n">
         <v>7</v>
       </c>
-      <c r="M4" s="76" t="n">
+      <c r="M4" s="101" t="n">
         <v>0</v>
       </c>
-      <c r="N4" s="76" t="n">
+      <c r="N4" s="101" t="n">
         <v>1000000000</v>
       </c>
-      <c r="O4" s="76" t="n">
+      <c r="O4" s="101" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="77" t="n">
+      <c r="P4" s="102" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" s="77" t="n">
+      <c r="Q4" s="102" t="n">
         <v>2</v>
       </c>
-      <c r="R4" s="77" t="n">
+      <c r="R4" s="102" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="39" t="n">
@@ -4333,10 +5299,10 @@
       <c r="V4" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="W4" s="73"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="76" t="n">
+      <c r="W4" s="98"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="101" t="n">
         <v>10</v>
       </c>
       <c r="AA4" s="36" t="n">
@@ -4345,62 +5311,62 @@
       <c r="AB4" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="39" t="s">
-        <v>363</v>
+        <v>468</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>364</v>
+        <v>469</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>366</v>
-      </c>
-      <c r="E5" s="73" t="s">
-        <v>360</v>
-      </c>
-      <c r="F5" s="73" t="s">
-        <v>305</v>
-      </c>
-      <c r="G5" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>471</v>
+      </c>
+      <c r="E5" s="98" t="s">
+        <v>466</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>411</v>
+      </c>
+      <c r="G5" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="H5" s="74" t="n">
+      <c r="H5" s="99" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="73" t="s">
-        <v>361</v>
-      </c>
-      <c r="J5" s="75" t="s">
-        <v>362</v>
+      <c r="I5" s="98" t="s">
+        <v>301</v>
+      </c>
+      <c r="J5" s="100" t="s">
+        <v>467</v>
       </c>
       <c r="K5" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="L5" s="76" t="n">
+      <c r="L5" s="101" t="n">
         <v>7</v>
       </c>
-      <c r="M5" s="76" t="n">
+      <c r="M5" s="101" t="n">
         <v>0</v>
       </c>
-      <c r="N5" s="76" t="n">
+      <c r="N5" s="101" t="n">
         <v>1000000000</v>
       </c>
-      <c r="O5" s="76" t="n">
+      <c r="O5" s="101" t="n">
         <v>0</v>
       </c>
-      <c r="P5" s="77" t="n">
+      <c r="P5" s="102" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" s="77" t="n">
+      <c r="Q5" s="102" t="n">
         <v>2</v>
       </c>
-      <c r="R5" s="77" t="n">
+      <c r="R5" s="102" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="39" t="n">
@@ -4415,10 +5381,10 @@
       <c r="V5" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="W5" s="73"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="76" t="n">
+      <c r="W5" s="98"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="101" t="n">
         <v>10</v>
       </c>
       <c r="AA5" s="36" t="n">
@@ -4427,8 +5393,8 @@
       <c r="AB5" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="AC5" s="78"/>
-      <c r="AD5" s="78"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
     </row>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4533,7 +5499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4556,42 +5522,42 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>367</v>
+        <v>472</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>368</v>
+        <v>473</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>133</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>369</v>
+        <v>474</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>370</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>371</v>
+        <v>476</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" s="7" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>372</v>
+        <v>477</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>308</v>
+        <v>414</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>373</v>
+        <v>478</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>374</v>
+        <v>479</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>275</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -4605,7 +5571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4625,24 +5591,24 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>367</v>
+        <v>472</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>375</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>376</v>
+        <v>481</v>
       </c>
       <c r="B2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>377</v>
+        <v>482</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>378</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -4656,7 +5622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4676,24 +5642,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>367</v>
+        <v>472</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>379</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>380</v>
+        <v>485</v>
       </c>
       <c r="B2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>377</v>
+        <v>482</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>381</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -4707,7 +5673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4730,63 +5696,63 @@
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="24.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="39" t="s">
-        <v>367</v>
+        <v>472</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>382</v>
+        <v>487</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>383</v>
+        <v>488</v>
       </c>
       <c r="AMJ1" s="39"/>
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>384</v>
+        <v>489</v>
       </c>
       <c r="C2" s="15"/>
-      <c r="AMJ2" s="65"/>
+      <c r="AMJ2" s="61"/>
     </row>
     <row r="3" s="7" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>386</v>
+        <v>490</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>491</v>
       </c>
       <c r="AMJ3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="80" t="s">
-        <v>363</v>
+      <c r="A4" s="105" t="s">
+        <v>468</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>387</v>
+        <v>492</v>
       </c>
       <c r="C4" s="38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="80" t="s">
-        <v>363</v>
+      <c r="A5" s="105" t="s">
+        <v>468</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>388</v>
+        <v>493</v>
       </c>
       <c r="C5" s="38" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="80" t="s">
-        <v>363</v>
+      <c r="A6" s="105" t="s">
+        <v>468</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>389</v>
+        <v>494</v>
       </c>
       <c r="C6" s="38" t="n">
         <v>2</v>
@@ -4830,7 +5796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4852,39 +5818,39 @@
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="39" t="s">
-        <v>367</v>
+        <v>472</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>390</v>
+        <v>495</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>391</v>
+        <v>496</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>392</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>393</v>
+        <v>498</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="15"/>
       <c r="D2" s="30"/>
-      <c r="AMJ2" s="65"/>
+      <c r="AMJ2" s="61"/>
     </row>
     <row r="3" s="7" customFormat="true" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>394</v>
+        <v>499</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>395</v>
+        <v>500</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>396</v>
+        <v>501</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>397</v>
+        <v>502</v>
       </c>
     </row>
     <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5001,464 +5967,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C65536"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.5951417004049"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.31983805668016"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="81" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="81" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="2" s="82" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="C2" s="83"/>
-    </row>
-    <row r="3" s="84" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="4" s="85" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="85" t="s">
-        <v>400</v>
-      </c>
-      <c r="B4" s="85" t="s">
-        <v>401</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Results Calculations"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F65536"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" s="7" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
-        <v>400</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="D4" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="86" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="87"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="s">
-        <v>400</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="D5" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="87"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="63"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="63"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="63"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="63"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="63"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="63"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="63"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="63"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="63"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="63"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="63"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="63"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="63"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="63"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="63"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="63"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="63"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="63"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="63"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="63"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="63"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="63"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="63"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="63"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="63"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="63"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="63"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="63"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="63"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="63"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="63"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="63"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="63"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="63"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="63"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="63"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="63"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="63"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="63"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="63"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="63"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="63"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="63"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="63"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="63"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="63"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="63"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="63"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="63"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="63"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="63"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="63"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="63"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="63"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="63"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="63"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="63"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="63"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="63"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="63"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="63"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="63"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="63"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="63"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="63"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="63"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="63"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="63"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="63"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="63"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="63"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="63"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="63"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="63"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="63"/>
-    </row>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:A85" type="list">
-      <formula1>#ref!!$A$4:$A$52</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A4:A5" type="list">
-      <formula1>'AnalysisService InterimFields'!$A$4:$A$52</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Interim fields used in calculations"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -5821,6 +6329,464 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.31983805668016"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="106" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="106" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" s="107" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" s="108"/>
+    </row>
+    <row r="3" s="109" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="4" s="110" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="110" t="s">
+        <v>505</v>
+      </c>
+      <c r="B4" s="110" t="s">
+        <v>506</v>
+      </c>
+      <c r="C4" s="110" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="Results Calculations"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" s="7" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="89" t="s">
+        <v>505</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="D4" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="112"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="89" t="s">
+        <v>505</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="D5" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="112"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="89"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="89"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="89"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="89"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="89"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="89"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="89"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="89"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="89"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="89"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="89"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="89"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="89"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="89"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="89"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="89"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="89"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="89"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="89"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="89"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="89"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="89"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="89"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="89"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="89"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="89"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="89"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="89"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="89"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="89"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="89"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="89"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="89"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="89"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="89"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="89"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="89"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="89"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="89"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="89"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="89"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="89"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="89"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="89"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="89"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="89"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="89"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="89"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="89"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="89"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="89"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="89"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="89"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="89"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="89"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="89"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="89"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="89"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="89"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="89"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="89"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="89"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="89"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="89"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="89"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="89"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="89"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="89"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="89"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="89"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="89"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="89"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="89"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="89"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="89"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="89"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="89"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="89"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="89"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="89"/>
+    </row>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:A85" type="list">
+      <formula1>#ref!!$A$4:$A$52</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A4:A5" type="list">
+      <formula1>'AnalysisService InterimFields'!$A$4:$A$52</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="Interim fields used in calculations"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -5832,7 +6798,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="58.914979757085"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="66" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="91" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -5848,22 +6814,22 @@
         <v>0</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>411</v>
+        <v>516</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="F1" s="88" t="s">
-        <v>326</v>
+        <v>429</v>
+      </c>
+      <c r="F1" s="113" t="s">
+        <v>432</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="89" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="73" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="46" t="s">
-        <v>412</v>
+        <v>517</v>
       </c>
       <c r="C2" s="46"/>
-      <c r="E2" s="90"/>
+      <c r="E2" s="114"/>
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="17" customFormat="true" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5877,33 +6843,33 @@
         <v>0</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>413</v>
+        <v>518</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>349</v>
+        <v>455</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="21.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="43" t="s">
-        <v>414</v>
+        <v>519</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>415</v>
+        <v>520</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>416</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>400</v>
-      </c>
-      <c r="E4" s="92" t="n">
+        <v>521</v>
+      </c>
+      <c r="D4" s="115" t="s">
+        <v>505</v>
+      </c>
+      <c r="E4" s="116" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="93"/>
+      <c r="F4" s="117"/>
     </row>
     <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5994,7 +6960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6022,7 +6988,7 @@
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>417</v>
+        <v>522</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="14"/>
@@ -6040,7 +7006,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>418</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6066,7 +7032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6102,229 +7068,229 @@
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="95" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="94" t="s">
-        <v>419</v>
-      </c>
-      <c r="B1" s="95" t="s">
+    <row r="1" s="119" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="118" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="119" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="95" t="s">
-        <v>420</v>
-      </c>
-      <c r="E1" s="95" t="s">
-        <v>421</v>
-      </c>
-      <c r="F1" s="95" t="s">
-        <v>422</v>
-      </c>
-      <c r="G1" s="96" t="s">
-        <v>423</v>
-      </c>
-      <c r="H1" s="96" t="s">
-        <v>424</v>
-      </c>
-      <c r="I1" s="96" t="s">
-        <v>425</v>
-      </c>
-      <c r="J1" s="97" t="s">
-        <v>426</v>
-      </c>
-      <c r="K1" s="97" t="s">
-        <v>427</v>
-      </c>
-      <c r="L1" s="98" t="s">
-        <v>428</v>
-      </c>
-      <c r="M1" s="97" t="s">
-        <v>429</v>
-      </c>
-      <c r="N1" s="97" t="s">
-        <v>430</v>
-      </c>
-      <c r="O1" s="99" t="s">
-        <v>431</v>
-      </c>
-      <c r="P1" s="99" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q1" s="99" t="s">
-        <v>433</v>
-      </c>
-      <c r="R1" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="S1" s="97" t="s">
-        <v>435</v>
-      </c>
-      <c r="T1" s="97" t="s">
-        <v>436</v>
-      </c>
-      <c r="U1" s="100" t="s">
-        <v>435</v>
-      </c>
-      <c r="V1" s="95" t="s">
-        <v>437</v>
-      </c>
-      <c r="W1" s="95" t="s">
-        <v>438</v>
+      <c r="D1" s="119" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1" s="119" t="s">
+        <v>526</v>
+      </c>
+      <c r="F1" s="119" t="s">
+        <v>527</v>
+      </c>
+      <c r="G1" s="120" t="s">
+        <v>528</v>
+      </c>
+      <c r="H1" s="120" t="s">
+        <v>529</v>
+      </c>
+      <c r="I1" s="120" t="s">
+        <v>530</v>
+      </c>
+      <c r="J1" s="121" t="s">
+        <v>531</v>
+      </c>
+      <c r="K1" s="121" t="s">
+        <v>532</v>
+      </c>
+      <c r="L1" s="122" t="s">
+        <v>533</v>
+      </c>
+      <c r="M1" s="121" t="s">
+        <v>534</v>
+      </c>
+      <c r="N1" s="121" t="s">
+        <v>535</v>
+      </c>
+      <c r="O1" s="123" t="s">
+        <v>536</v>
+      </c>
+      <c r="P1" s="123" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q1" s="123" t="s">
+        <v>538</v>
+      </c>
+      <c r="R1" s="120" t="s">
+        <v>539</v>
+      </c>
+      <c r="S1" s="121" t="s">
+        <v>540</v>
+      </c>
+      <c r="T1" s="121" t="s">
+        <v>541</v>
+      </c>
+      <c r="U1" s="124" t="s">
+        <v>540</v>
+      </c>
+      <c r="V1" s="119" t="s">
+        <v>542</v>
+      </c>
+      <c r="W1" s="119" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="101" t="s">
-        <v>439</v>
+      <c r="A2" s="125" t="s">
+        <v>544</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>439</v>
+        <v>544</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="14" t="s">
-        <v>440</v>
+        <v>545</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="103"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="126"/>
       <c r="V2" s="29"/>
       <c r="W2" s="29"/>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="B3" s="104" t="s">
+        <v>546</v>
+      </c>
+      <c r="B3" s="127" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="104" t="s">
-        <v>442</v>
-      </c>
-      <c r="E3" s="105" t="s">
-        <v>443</v>
-      </c>
-      <c r="F3" s="104" t="s">
-        <v>422</v>
-      </c>
-      <c r="G3" s="104" t="s">
-        <v>423</v>
-      </c>
-      <c r="H3" s="104" t="s">
-        <v>444</v>
-      </c>
-      <c r="I3" s="104" t="s">
-        <v>425</v>
-      </c>
-      <c r="J3" s="97" t="s">
-        <v>426</v>
+      <c r="D3" s="127" t="s">
+        <v>547</v>
+      </c>
+      <c r="E3" s="128" t="s">
+        <v>548</v>
+      </c>
+      <c r="F3" s="127" t="s">
+        <v>527</v>
+      </c>
+      <c r="G3" s="127" t="s">
+        <v>528</v>
+      </c>
+      <c r="H3" s="127" t="s">
+        <v>549</v>
+      </c>
+      <c r="I3" s="127" t="s">
+        <v>530</v>
+      </c>
+      <c r="J3" s="121" t="s">
+        <v>531</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>445</v>
-      </c>
-      <c r="L3" s="98" t="s">
-        <v>446</v>
+        <v>550</v>
+      </c>
+      <c r="L3" s="122" t="s">
+        <v>551</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>447</v>
+        <v>552</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>448</v>
-      </c>
-      <c r="O3" s="106" t="s">
-        <v>449</v>
-      </c>
-      <c r="P3" s="106" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q3" s="106" t="s">
-        <v>451</v>
-      </c>
-      <c r="R3" s="104" t="s">
-        <v>452</v>
+        <v>553</v>
+      </c>
+      <c r="O3" s="129" t="s">
+        <v>554</v>
+      </c>
+      <c r="P3" s="129" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q3" s="129" t="s">
+        <v>556</v>
+      </c>
+      <c r="R3" s="127" t="s">
+        <v>557</v>
       </c>
       <c r="S3" s="31" t="s">
-        <v>453</v>
+        <v>558</v>
       </c>
       <c r="T3" s="31" t="s">
-        <v>454</v>
-      </c>
-      <c r="U3" s="107" t="s">
-        <v>453</v>
-      </c>
-      <c r="V3" s="105" t="s">
-        <v>455</v>
-      </c>
-      <c r="W3" s="105" t="s">
-        <v>456</v>
+        <v>559</v>
+      </c>
+      <c r="U3" s="130" t="s">
+        <v>558</v>
+      </c>
+      <c r="V3" s="128" t="s">
+        <v>560</v>
+      </c>
+      <c r="W3" s="128" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="108" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4" s="109" t="s">
-        <v>458</v>
-      </c>
-      <c r="C4" s="110" t="s">
-        <v>459</v>
-      </c>
-      <c r="D4" s="111" t="s">
-        <v>418</v>
-      </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" s="112" t="s">
-        <v>460</v>
-      </c>
-      <c r="H4" s="112" t="n">
+      <c r="A4" s="131" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4" s="132" t="s">
+        <v>563</v>
+      </c>
+      <c r="C4" s="133" t="s">
+        <v>564</v>
+      </c>
+      <c r="D4" s="134" t="s">
+        <v>523</v>
+      </c>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="135" t="s">
+        <v>565</v>
+      </c>
+      <c r="H4" s="135" t="n">
         <v>30308</v>
       </c>
-      <c r="I4" s="112"/>
-      <c r="J4" s="108" t="s">
-        <v>461</v>
-      </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="113" t="n">
+      <c r="I4" s="135"/>
+      <c r="J4" s="131" t="s">
+        <v>566</v>
+      </c>
+      <c r="K4" s="131"/>
+      <c r="L4" s="136" t="n">
         <v>41086</v>
       </c>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="60" t="s">
-        <v>462</v>
-      </c>
-      <c r="P4" s="60" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q4" s="60" t="s">
-        <v>464</v>
-      </c>
-      <c r="R4" s="112" t="s">
-        <v>465</v>
-      </c>
-      <c r="S4" s="114"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="86" t="s">
+        <v>567</v>
+      </c>
+      <c r="P4" s="86" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q4" s="86" t="s">
+        <v>569</v>
+      </c>
+      <c r="R4" s="135" t="s">
+        <v>570</v>
+      </c>
+      <c r="S4" s="137"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="113"/>
+      <c r="U4" s="136"/>
       <c r="V4" s="19"/>
-      <c r="W4" s="115"/>
+      <c r="W4" s="138"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -6354,7 +7320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6382,116 +7348,116 @@
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
-    <row r="1" s="95" customFormat="true" ht="20.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="95" t="s">
+    <row r="1" s="119" customFormat="true" ht="20.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="116" t="s">
-        <v>466</v>
-      </c>
-      <c r="C1" s="95" t="s">
-        <v>467</v>
-      </c>
-      <c r="D1" s="117" t="s">
-        <v>468</v>
-      </c>
-      <c r="E1" s="95" t="s">
-        <v>469</v>
-      </c>
-      <c r="F1" s="95" t="s">
-        <v>470</v>
-      </c>
-      <c r="G1" s="95" t="s">
-        <v>471</v>
-      </c>
-      <c r="H1" s="95" t="s">
-        <v>472</v>
-      </c>
-      <c r="I1" s="116" t="s">
-        <v>473</v>
-      </c>
-      <c r="J1" s="116" t="s">
-        <v>474</v>
-      </c>
-      <c r="K1" s="95" t="s">
-        <v>475</v>
+      <c r="B1" s="139" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1" s="140" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1" s="119" t="s">
+        <v>574</v>
+      </c>
+      <c r="F1" s="119" t="s">
+        <v>575</v>
+      </c>
+      <c r="G1" s="119" t="s">
+        <v>576</v>
+      </c>
+      <c r="H1" s="119" t="s">
+        <v>577</v>
+      </c>
+      <c r="I1" s="139" t="s">
+        <v>578</v>
+      </c>
+      <c r="J1" s="139" t="s">
+        <v>579</v>
+      </c>
+      <c r="K1" s="119" t="s">
+        <v>580</v>
       </c>
       <c r="L1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="118" t="s">
-        <v>476</v>
-      </c>
-      <c r="B2" s="119"/>
-      <c r="D2" s="117"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
+      <c r="A2" s="141" t="s">
+        <v>581</v>
+      </c>
+      <c r="B2" s="142"/>
+      <c r="D2" s="140"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="120" t="s">
-        <v>477</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>478</v>
-      </c>
-      <c r="D3" s="117" t="s">
-        <v>479</v>
-      </c>
-      <c r="E3" s="95" t="s">
-        <v>480</v>
-      </c>
-      <c r="F3" s="95" t="s">
-        <v>481</v>
-      </c>
-      <c r="G3" s="95" t="s">
-        <v>482</v>
-      </c>
-      <c r="H3" s="95" t="s">
-        <v>483</v>
-      </c>
-      <c r="I3" s="121" t="s">
-        <v>484</v>
-      </c>
-      <c r="J3" s="122" t="s">
-        <v>485</v>
-      </c>
-      <c r="K3" s="95" t="s">
-        <v>486</v>
+      <c r="B3" s="143" t="s">
+        <v>582</v>
+      </c>
+      <c r="C3" s="119" t="s">
+        <v>583</v>
+      </c>
+      <c r="D3" s="140" t="s">
+        <v>584</v>
+      </c>
+      <c r="E3" s="119" t="s">
+        <v>585</v>
+      </c>
+      <c r="F3" s="119" t="s">
+        <v>586</v>
+      </c>
+      <c r="G3" s="119" t="s">
+        <v>587</v>
+      </c>
+      <c r="H3" s="119" t="s">
+        <v>588</v>
+      </c>
+      <c r="I3" s="144" t="s">
+        <v>589</v>
+      </c>
+      <c r="J3" s="145" t="s">
+        <v>590</v>
+      </c>
+      <c r="K3" s="119" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="B4" s="123" t="n">
+        <v>592</v>
+      </c>
+      <c r="B4" s="146" t="n">
         <v>42754</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>458</v>
-      </c>
-      <c r="D4" s="124" t="n">
+        <v>563</v>
+      </c>
+      <c r="D4" s="147" t="n">
         <v>42736</v>
       </c>
-      <c r="E4" s="124" t="n">
+      <c r="E4" s="147" t="n">
         <v>41290</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>183</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>488</v>
+        <v>593</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="I4" s="108" t="s">
+        <v>594</v>
+      </c>
+      <c r="I4" s="131" t="s">
         <v>183</v>
       </c>
-      <c r="J4" s="60" t="s">
-        <v>490</v>
+      <c r="J4" s="86" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6516,7 +7482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6543,106 +7509,106 @@
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
-    <row r="1" s="95" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="95" t="s">
+    <row r="1" s="119" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="116" t="s">
-        <v>466</v>
-      </c>
-      <c r="C1" s="95" t="s">
-        <v>467</v>
+      <c r="B1" s="139" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>572</v>
       </c>
       <c r="D1" s="0"/>
-      <c r="E1" s="95" t="s">
-        <v>469</v>
-      </c>
-      <c r="F1" s="95" t="s">
-        <v>491</v>
-      </c>
-      <c r="G1" s="95" t="s">
-        <v>471</v>
-      </c>
-      <c r="H1" s="95" t="s">
-        <v>472</v>
-      </c>
-      <c r="I1" s="116" t="s">
-        <v>473</v>
-      </c>
-      <c r="J1" s="116" t="s">
-        <v>474</v>
-      </c>
-      <c r="K1" s="95" t="s">
-        <v>475</v>
+      <c r="E1" s="119" t="s">
+        <v>574</v>
+      </c>
+      <c r="F1" s="119" t="s">
+        <v>596</v>
+      </c>
+      <c r="G1" s="119" t="s">
+        <v>576</v>
+      </c>
+      <c r="H1" s="119" t="s">
+        <v>577</v>
+      </c>
+      <c r="I1" s="139" t="s">
+        <v>578</v>
+      </c>
+      <c r="J1" s="139" t="s">
+        <v>579</v>
+      </c>
+      <c r="K1" s="119" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="118" t="s">
-        <v>492</v>
+      <c r="A2" s="141" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="120" t="s">
-        <v>477</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>478</v>
-      </c>
-      <c r="D3" s="117" t="s">
-        <v>479</v>
-      </c>
-      <c r="E3" s="95" t="s">
-        <v>480</v>
-      </c>
-      <c r="F3" s="95" t="s">
-        <v>493</v>
-      </c>
-      <c r="G3" s="95" t="s">
-        <v>482</v>
-      </c>
-      <c r="H3" s="95" t="s">
-        <v>483</v>
-      </c>
-      <c r="I3" s="121" t="s">
-        <v>484</v>
-      </c>
-      <c r="J3" s="122" t="s">
-        <v>485</v>
-      </c>
-      <c r="K3" s="95" t="s">
-        <v>486</v>
+      <c r="B3" s="143" t="s">
+        <v>582</v>
+      </c>
+      <c r="C3" s="119" t="s">
+        <v>583</v>
+      </c>
+      <c r="D3" s="140" t="s">
+        <v>584</v>
+      </c>
+      <c r="E3" s="119" t="s">
+        <v>585</v>
+      </c>
+      <c r="F3" s="119" t="s">
+        <v>598</v>
+      </c>
+      <c r="G3" s="119" t="s">
+        <v>587</v>
+      </c>
+      <c r="H3" s="119" t="s">
+        <v>588</v>
+      </c>
+      <c r="I3" s="144" t="s">
+        <v>589</v>
+      </c>
+      <c r="J3" s="145" t="s">
+        <v>590</v>
+      </c>
+      <c r="K3" s="119" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="B4" s="125" t="n">
+        <v>599</v>
+      </c>
+      <c r="B4" s="148" t="n">
         <v>41778</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>458</v>
-      </c>
-      <c r="D4" s="124" t="n">
+        <v>563</v>
+      </c>
+      <c r="D4" s="147" t="n">
         <v>42856</v>
       </c>
-      <c r="E4" s="124" t="n">
+      <c r="E4" s="147" t="n">
         <v>42859</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>495</v>
+        <v>600</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>496</v>
+        <v>601</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J4" s="126" t="s">
-        <v>497</v>
+      <c r="J4" s="149" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6667,7 +7633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6689,54 +7655,54 @@
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
-    <row r="1" s="95" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="95" t="s">
-        <v>467</v>
-      </c>
-      <c r="B1" s="95" t="s">
-        <v>498</v>
-      </c>
-      <c r="C1" s="95" t="s">
-        <v>499</v>
-      </c>
-      <c r="D1" s="95" t="s">
-        <v>500</v>
-      </c>
-      <c r="E1" s="95" t="s">
-        <v>501</v>
-      </c>
-      <c r="F1" s="95" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2" s="127" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="127" t="s">
-        <v>503</v>
+    <row r="1" s="119" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="119" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1" s="119" t="s">
+        <v>603</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>604</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>605</v>
+      </c>
+      <c r="E1" s="119" t="s">
+        <v>606</v>
+      </c>
+      <c r="F1" s="119" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2" s="150" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="150" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="128" t="s">
-        <v>381</v>
-      </c>
-      <c r="B3" s="128" t="s">
-        <v>504</v>
-      </c>
-      <c r="C3" s="128" t="s">
-        <v>505</v>
-      </c>
-      <c r="D3" s="128" t="s">
-        <v>506</v>
-      </c>
-      <c r="E3" s="128" t="s">
-        <v>507</v>
+      <c r="A3" s="151" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3" s="151" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3" s="151" t="s">
+        <v>610</v>
+      </c>
+      <c r="D3" s="151" t="s">
+        <v>611</v>
+      </c>
+      <c r="E3" s="151" t="s">
+        <v>612</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>502</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="129" t="s">
-        <v>458</v>
+      <c r="A4" s="152" t="s">
+        <v>563</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4566</v>
@@ -6745,13 +7711,13 @@
         <v>1.1</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>508</v>
+        <v>613</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>509</v>
+        <v>614</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>510</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -6771,7 +7737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6799,111 +7765,111 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B1" s="95" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" s="119" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="95" t="s">
-        <v>467</v>
-      </c>
-      <c r="D1" s="117" t="s">
-        <v>511</v>
-      </c>
-      <c r="E1" s="95" t="s">
-        <v>512</v>
-      </c>
-      <c r="F1" s="95" t="s">
-        <v>513</v>
-      </c>
-      <c r="G1" s="95" t="s">
-        <v>514</v>
-      </c>
-      <c r="H1" s="116" t="s">
-        <v>515</v>
-      </c>
-      <c r="I1" s="116" t="s">
-        <v>516</v>
-      </c>
-      <c r="J1" s="95" t="s">
-        <v>475</v>
-      </c>
-      <c r="K1" s="130" t="s">
-        <v>517</v>
+      <c r="C1" s="119" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1" s="140" t="s">
+        <v>616</v>
+      </c>
+      <c r="E1" s="119" t="s">
+        <v>617</v>
+      </c>
+      <c r="F1" s="119" t="s">
+        <v>618</v>
+      </c>
+      <c r="G1" s="119" t="s">
+        <v>619</v>
+      </c>
+      <c r="H1" s="139" t="s">
+        <v>620</v>
+      </c>
+      <c r="I1" s="139" t="s">
+        <v>621</v>
+      </c>
+      <c r="J1" s="119" t="s">
+        <v>580</v>
+      </c>
+      <c r="K1" s="153" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="131" t="s">
-        <v>518</v>
-      </c>
-      <c r="B2" s="118" t="s">
-        <v>518</v>
-      </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="K2" s="132"/>
+      <c r="A2" s="154" t="s">
+        <v>623</v>
+      </c>
+      <c r="B2" s="141" t="s">
+        <v>623</v>
+      </c>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="K2" s="155"/>
     </row>
     <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="121" t="s">
-        <v>441</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>519</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>478</v>
-      </c>
-      <c r="D3" s="117" t="s">
-        <v>520</v>
-      </c>
-      <c r="E3" s="95" t="s">
-        <v>521</v>
-      </c>
-      <c r="F3" s="95" t="s">
-        <v>522</v>
-      </c>
-      <c r="G3" s="95" t="s">
-        <v>523</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>524</v>
-      </c>
-      <c r="I3" s="121" t="s">
-        <v>525</v>
-      </c>
-      <c r="J3" s="95" t="s">
-        <v>486</v>
-      </c>
-      <c r="K3" s="121" t="s">
-        <v>526</v>
+      <c r="A3" s="144" t="s">
+        <v>546</v>
+      </c>
+      <c r="B3" s="119" t="s">
+        <v>624</v>
+      </c>
+      <c r="C3" s="119" t="s">
+        <v>583</v>
+      </c>
+      <c r="D3" s="140" t="s">
+        <v>625</v>
+      </c>
+      <c r="E3" s="119" t="s">
+        <v>626</v>
+      </c>
+      <c r="F3" s="119" t="s">
+        <v>627</v>
+      </c>
+      <c r="G3" s="119" t="s">
+        <v>628</v>
+      </c>
+      <c r="H3" s="156" t="s">
+        <v>629</v>
+      </c>
+      <c r="I3" s="144" t="s">
+        <v>630</v>
+      </c>
+      <c r="J3" s="119" t="s">
+        <v>591</v>
+      </c>
+      <c r="K3" s="144" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="108" t="s">
-        <v>527</v>
+      <c r="A4" s="131" t="s">
+        <v>632</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>528</v>
+        <v>633</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>458</v>
-      </c>
-      <c r="D4" s="124" t="n">
+        <v>563</v>
+      </c>
+      <c r="D4" s="147" t="n">
         <v>42736</v>
       </c>
-      <c r="E4" s="124" t="n">
+      <c r="E4" s="147" t="n">
         <v>42736</v>
       </c>
-      <c r="F4" s="124" t="n">
+      <c r="F4" s="147" t="n">
         <v>43465</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="H4" s="108" t="s">
+        <v>634</v>
+      </c>
+      <c r="H4" s="131" t="s">
         <v>183</v>
       </c>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="131" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6949,7 +7915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6978,15 +7944,15 @@
       <c r="B1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="157" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="C2" s="135"/>
+        <v>635</v>
+      </c>
+      <c r="C2" s="158"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
@@ -6995,315 +7961,315 @@
       <c r="B3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="157" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>531</v>
+        <v>636</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>532</v>
-      </c>
-      <c r="C4" s="136" t="n">
+        <v>637</v>
+      </c>
+      <c r="C4" s="159" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>533</v>
+        <v>638</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>534</v>
-      </c>
-      <c r="C5" s="136" t="n">
+        <v>639</v>
+      </c>
+      <c r="C5" s="159" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>535</v>
+        <v>640</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>535</v>
-      </c>
-      <c r="C6" s="136" t="s">
-        <v>536</v>
+        <v>640</v>
+      </c>
+      <c r="C6" s="159" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>537</v>
+        <v>642</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>538</v>
-      </c>
-      <c r="C7" s="137" t="n">
+        <v>643</v>
+      </c>
+      <c r="C7" s="160" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>539</v>
+        <v>644</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>540</v>
-      </c>
-      <c r="C8" s="137" t="n">
+        <v>645</v>
+      </c>
+      <c r="C8" s="160" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>541</v>
+        <v>646</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>542</v>
-      </c>
-      <c r="C9" s="136" t="n">
+        <v>647</v>
+      </c>
+      <c r="C9" s="159" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>322</v>
+        <v>428</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>543</v>
-      </c>
-      <c r="C10" s="136" t="n">
+        <v>648</v>
+      </c>
+      <c r="C10" s="159" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>544</v>
+        <v>649</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>545</v>
-      </c>
-      <c r="C11" s="136" t="n">
+        <v>650</v>
+      </c>
+      <c r="C11" s="159" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>546</v>
+        <v>651</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>547</v>
-      </c>
-      <c r="C12" s="136" t="n">
+        <v>652</v>
+      </c>
+      <c r="C12" s="159" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>548</v>
+        <v>653</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>549</v>
-      </c>
-      <c r="C13" s="136" t="n">
+        <v>654</v>
+      </c>
+      <c r="C13" s="159" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>550</v>
+        <v>655</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>551</v>
-      </c>
-      <c r="C14" s="136"/>
+        <v>656</v>
+      </c>
+      <c r="C14" s="159"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>552</v>
+        <v>657</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>553</v>
-      </c>
-      <c r="C15" s="137" t="n">
+        <v>658</v>
+      </c>
+      <c r="C15" s="160" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>554</v>
+        <v>659</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>555</v>
-      </c>
-      <c r="C16" s="137" t="n">
+        <v>660</v>
+      </c>
+      <c r="C16" s="160" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>556</v>
+        <v>661</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>557</v>
-      </c>
-      <c r="C17" s="137" t="n">
+        <v>662</v>
+      </c>
+      <c r="C17" s="160" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>558</v>
+        <v>663</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>559</v>
-      </c>
-      <c r="C18" s="138" t="s">
-        <v>560</v>
-      </c>
-      <c r="D18" s="139"/>
+        <v>664</v>
+      </c>
+      <c r="C18" s="161" t="s">
+        <v>665</v>
+      </c>
+      <c r="D18" s="162"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>561</v>
+        <v>666</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>562</v>
-      </c>
-      <c r="C19" s="140" t="s">
-        <v>361</v>
-      </c>
-      <c r="D19" s="139"/>
+        <v>667</v>
+      </c>
+      <c r="C19" s="163" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" s="162"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>563</v>
+        <v>668</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>564</v>
-      </c>
-      <c r="C20" s="140" t="s">
-        <v>361</v>
+        <v>669</v>
+      </c>
+      <c r="C20" s="163" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>565</v>
+        <v>670</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>566</v>
-      </c>
-      <c r="C21" s="138" t="n">
+        <v>671</v>
+      </c>
+      <c r="C21" s="161" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>567</v>
+        <v>672</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>568</v>
-      </c>
-      <c r="C22" s="138" t="n">
+        <v>673</v>
+      </c>
+      <c r="C22" s="161" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>569</v>
+        <v>674</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>570</v>
-      </c>
-      <c r="C23" s="138" t="n">
+        <v>675</v>
+      </c>
+      <c r="C23" s="161" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>571</v>
+        <v>676</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>572</v>
-      </c>
-      <c r="C24" s="140" t="s">
-        <v>573</v>
-      </c>
-      <c r="D24" s="141"/>
+        <v>677</v>
+      </c>
+      <c r="C24" s="163" t="s">
+        <v>678</v>
+      </c>
+      <c r="D24" s="164"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>574</v>
+        <v>679</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>575</v>
-      </c>
-      <c r="C25" s="140" t="s">
-        <v>576</v>
+        <v>680</v>
+      </c>
+      <c r="C25" s="163" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>577</v>
+        <v>682</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>578</v>
-      </c>
-      <c r="C26" s="137" t="n">
+        <v>683</v>
+      </c>
+      <c r="C26" s="160" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>579</v>
+        <v>684</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>580</v>
-      </c>
-      <c r="C27" s="136" t="s">
-        <v>581</v>
+        <v>685</v>
+      </c>
+      <c r="C27" s="159" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>582</v>
+        <v>687</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>583</v>
-      </c>
-      <c r="C28" s="136" t="n">
+        <v>688</v>
+      </c>
+      <c r="C28" s="159" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>584</v>
+        <v>689</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>585</v>
-      </c>
-      <c r="C29" s="137" t="n">
+        <v>690</v>
+      </c>
+      <c r="C29" s="160" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>586</v>
+        <v>691</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>587</v>
-      </c>
-      <c r="C30" s="136"/>
+        <v>692</v>
+      </c>
+      <c r="C30" s="159"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>588</v>
+        <v>693</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>589</v>
-      </c>
-      <c r="C31" s="142" t="s">
-        <v>590</v>
+        <v>694</v>
+      </c>
+      <c r="C31" s="165" t="s">
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -7418,1276 +8384,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L200"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.35627530364373"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="31" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="143" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="143" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>591</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>592</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>593</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="G1" s="144" t="s">
-        <v>595</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>596</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>597</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>598</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>335</v>
-      </c>
-      <c r="L1" s="32"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>560</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>599</v>
-      </c>
-      <c r="E2" s="145" t="s">
-        <v>600</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>601</v>
-      </c>
-      <c r="G2" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>602</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>603</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>604</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>607</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>361</v>
-      </c>
-      <c r="E3" s="145" t="s">
-        <v>576</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>608</v>
-      </c>
-      <c r="G3" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>609</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>610</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>611</v>
-      </c>
-      <c r="K3" s="51" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>613</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>614</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>573</v>
-      </c>
-      <c r="G4" s="145"/>
-      <c r="H4" s="51" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="s">
-        <v>616</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>617</v>
-      </c>
-      <c r="G5" s="145"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="G6" s="145"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51" t="s">
-        <v>620</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>621</v>
-      </c>
-      <c r="G7" s="145"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="G8" s="145"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G9" s="145"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G10" s="145"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G11" s="145"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G12" s="145"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G13" s="145"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G14" s="145"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G15" s="145"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G16" s="145"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G17" s="145"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G18" s="145"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G19" s="145"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="146"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-    </row>
-    <row r="21" s="149" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>623</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>624</v>
-      </c>
-      <c r="E21" s="148" t="s">
-        <v>625</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>626</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>627</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>628</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="150" t="s">
-        <v>630</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>631</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>632</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>633</v>
-      </c>
-      <c r="E22" s="145" t="s">
-        <v>634</v>
-      </c>
-      <c r="F22" s="51" t="s">
-        <v>635</v>
-      </c>
-      <c r="G22" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="H22" s="51" t="s">
-        <v>636</v>
-      </c>
-      <c r="I22" s="51" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="51" t="s">
-        <v>637</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>638</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>639</v>
-      </c>
-      <c r="E23" s="145" t="s">
-        <v>640</v>
-      </c>
-      <c r="F23" s="51" t="s">
-        <v>641</v>
-      </c>
-      <c r="G23" s="51" t="s">
-        <v>642</v>
-      </c>
-      <c r="H23" s="51" t="s">
-        <v>642</v>
-      </c>
-      <c r="I23" s="51" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="51" t="s">
-        <v>644</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>645</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>646</v>
-      </c>
-      <c r="F24" s="51" t="s">
-        <v>647</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>648</v>
-      </c>
-      <c r="H24" s="51" t="s">
-        <v>648</v>
-      </c>
-      <c r="I24" s="51" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="51" t="s">
-        <v>650</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>651</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>652</v>
-      </c>
-      <c r="H25" s="51" t="s">
-        <v>653</v>
-      </c>
-      <c r="I25" s="51" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="51" t="s">
-        <v>655</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>656</v>
-      </c>
-      <c r="H26" s="51" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="51" t="s">
-        <v>658</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="51" t="s">
-        <v>660</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="51" t="s">
-        <v>662</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="51" t="s">
-        <v>664</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="51" t="s">
-        <v>666</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="51" t="s">
-        <v>668</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="51" t="s">
-        <v>670</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="51" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="51" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="51" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="51" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="51" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="51" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="51" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="51" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="51" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="51" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="51" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="51" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="51" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="51" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="51" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="51" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="51" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="51" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="51" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="51" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="51" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="51" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="51" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="51" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="51" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="51" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="51" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="51" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="51" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="51" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="51" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="51" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="51" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="51" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="51" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="51" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="51" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="51" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="51" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="51" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="51" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="51" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="51" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="51" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="51" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="51" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B80" s="51" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="51" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="51" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="51" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="51" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="51" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B86" s="51" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B87" s="51" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B88" s="51" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B89" s="51" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B90" s="51" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B91" s="51" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="51" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="51" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B94" s="51" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B95" s="51" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B96" s="51" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B97" s="51" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B98" s="51" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B99" s="51" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B100" s="51" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="51" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B102" s="51" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B103" s="51" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B104" s="51" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B105" s="51" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B106" s="51" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B107" s="51" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B108" s="51" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B109" s="51" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B110" s="51" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B111" s="51" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B112" s="51" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="51" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B114" s="51" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B115" s="51" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="51" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B117" s="51" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B118" s="51" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B119" s="51" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B120" s="51" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="51" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="51" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B123" s="51" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B124" s="51" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="51" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="51" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B127" s="51" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B128" s="51" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="51" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="51" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="51" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="51" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="51" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B134" s="51" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B135" s="51" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B136" s="51" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B137" s="51" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B138" s="51" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B139" s="51" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="51" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="51" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B142" s="51" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="51" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="51" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="51" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B146" s="51" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B147" s="51" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="51" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B149" s="51" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B150" s="51" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B151" s="51" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B152" s="51" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B153" s="51" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B154" s="51" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B155" s="51" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B156" s="51" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B157" s="51" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B158" s="51" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B159" s="51" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B160" s="51" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B161" s="51" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B162" s="51" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B163" s="51" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B164" s="51" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B165" s="51" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B166" s="51" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B167" s="51" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B168" s="51" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B169" s="51" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B170" s="51" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B171" s="51" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B172" s="51" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B173" s="51" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B174" s="51" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B175" s="51" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B176" s="51" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B177" s="51" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B178" s="51" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B179" s="51" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B180" s="51" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="51" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B182" s="51" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B183" s="51" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B184" s="51" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B185" s="51" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B186" s="51" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B187" s="51" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B188" s="51" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B189" s="51" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B190" s="51" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B191" s="51" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B192" s="51" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B193" s="51" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B194" s="51" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B195" s="51" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B196" s="51" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B197" s="51" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B198" s="51" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B199" s="51" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B200" s="51" t="s">
-        <v>837</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -9080,6 +8776,1276 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L200"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.74898785425101"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.35627530364373"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="31" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="166" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="166" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>696</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>697</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>698</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="G1" s="167" t="s">
+        <v>700</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>701</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>702</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>703</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="L1" s="32"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>665</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>704</v>
+      </c>
+      <c r="E2" s="168" t="s">
+        <v>705</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>706</v>
+      </c>
+      <c r="G2" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>707</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>708</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>709</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>712</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="168" t="s">
+        <v>681</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>713</v>
+      </c>
+      <c r="G3" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>714</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>715</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>716</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>718</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>719</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>678</v>
+      </c>
+      <c r="G4" s="168"/>
+      <c r="H4" s="51" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="51" t="s">
+        <v>720</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>721</v>
+      </c>
+      <c r="G5" s="168"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="G6" s="168"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="51" t="s">
+        <v>724</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>725</v>
+      </c>
+      <c r="G7" s="168"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G8" s="168"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G9" s="168"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G10" s="168"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G11" s="168"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G12" s="168"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G13" s="168"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G14" s="168"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G15" s="168"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G16" s="168"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G17" s="168"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G18" s="168"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G19" s="168"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="169"/>
+      <c r="B20" s="169"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="169"/>
+    </row>
+    <row r="21" s="172" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="31" t="s">
+        <v>726</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>640</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>727</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>728</v>
+      </c>
+      <c r="E21" s="171" t="s">
+        <v>729</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>730</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>731</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="173" t="s">
+        <v>734</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>735</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>736</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>737</v>
+      </c>
+      <c r="E22" s="168" t="s">
+        <v>738</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>739</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>740</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>740</v>
+      </c>
+      <c r="I22" s="51" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="51" t="s">
+        <v>741</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>742</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>743</v>
+      </c>
+      <c r="E23" s="168" t="s">
+        <v>744</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>745</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>746</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>746</v>
+      </c>
+      <c r="I23" s="51" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="51" t="s">
+        <v>748</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>749</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>751</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>752</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>752</v>
+      </c>
+      <c r="I24" s="51" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="51" t="s">
+        <v>754</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>756</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>757</v>
+      </c>
+      <c r="I25" s="51" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="51" t="s">
+        <v>759</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>760</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="51" t="s">
+        <v>762</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="51" t="s">
+        <v>764</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="51" t="s">
+        <v>766</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="51" t="s">
+        <v>768</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="51" t="s">
+        <v>770</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="51" t="s">
+        <v>772</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="51" t="s">
+        <v>774</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="51" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="51" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="51" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="51" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="51" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="51" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="51" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="51" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="51" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="51" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="51" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="51" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="51" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="51" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="51" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="51" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="51" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="51" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="51" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="51" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="51" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="51" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="51" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B57" s="51" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="51" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="51" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="51" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="51" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="51" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="51" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="51" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="51" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B66" s="51" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B67" s="51" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B68" s="51" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B69" s="51" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B70" s="51" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="51" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B72" s="51" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B73" s="51" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B74" s="51" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B75" s="51" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B76" s="51" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B77" s="51" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B78" s="51" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B79" s="51" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B80" s="51" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B81" s="51" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B82" s="51" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B83" s="51" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B84" s="51" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B85" s="51" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B86" s="51" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B87" s="51" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B88" s="51" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B89" s="51" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B90" s="51" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B91" s="51" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B92" s="51" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B93" s="51" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B94" s="51" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B95" s="51" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B96" s="51" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B97" s="51" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B98" s="51" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B99" s="51" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B100" s="51" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B101" s="51" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B102" s="51" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B103" s="51" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B104" s="51" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B105" s="51" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B106" s="51" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B107" s="51" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B108" s="51" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B109" s="51" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B110" s="51" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B111" s="51" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B112" s="51" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B113" s="51" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B114" s="51" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B115" s="51" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B116" s="51" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B117" s="51" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B118" s="51" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B119" s="51" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B120" s="51" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B121" s="51" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B122" s="51" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B123" s="51" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B124" s="51" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B125" s="51" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B126" s="51" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B127" s="51" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B128" s="51" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B129" s="51" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B130" s="51" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B131" s="51" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B132" s="51" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B133" s="51" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B134" s="51" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B135" s="51" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B136" s="51" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B137" s="51" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B138" s="51" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B139" s="51" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B140" s="51" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B141" s="51" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B142" s="51" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B143" s="51" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B144" s="51" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B145" s="51" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B146" s="51" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B147" s="51" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B148" s="51" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B149" s="51" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B150" s="51" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B151" s="51" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B152" s="51" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B153" s="51" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B154" s="51" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B155" s="51" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B156" s="51" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B157" s="51" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B158" s="51" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B159" s="51" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B160" s="51" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B161" s="51" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B162" s="51" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B163" s="51" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B164" s="51" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B165" s="51" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B166" s="51" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B167" s="51" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B168" s="51" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B169" s="51" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B170" s="51" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B171" s="51" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B172" s="51" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B173" s="51" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B174" s="51" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B175" s="51" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B176" s="51" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B177" s="51" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B178" s="51" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B179" s="51" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B180" s="51" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B181" s="51" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B182" s="51" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B183" s="51" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B184" s="51" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B185" s="51" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B186" s="51" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B187" s="51" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B188" s="51" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B189" s="51" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B190" s="51" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B191" s="51" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B192" s="51" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B193" s="51" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B194" s="51" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B195" s="51" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B196" s="51" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B197" s="51" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B198" s="51" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B199" s="51" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B200" s="51" t="s">
+        <v>941</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -9629,8 +10595,8 @@
   </sheetPr>
   <dimension ref="A1:Y65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10109,307 +11075,352 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="1:5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2388663967611"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.68421052631579"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.7327935222672"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6599190283401"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.5263157894737"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.2186234817814"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7975708502024"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.17813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.0202429149798"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.77732793522267"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.7975708502024"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.5546558704453"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.50607287449393"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.77732793522267"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.54251012145749"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.5546558704453"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.6923076923077"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.70445344129555"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.90688259109312"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.66801619433198"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.6923076923077"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.3684210526316"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="7.66801619433198"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="52" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="M1" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="O1" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="P1" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="Q1" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="R1" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="S1" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="T1" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="U1" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="V1" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="W1" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="U1" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" s="29" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="X1" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="AMJ1" s="56"/>
+    </row>
+    <row r="2" s="29" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="F2" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-    </row>
-    <row r="3" s="7" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="I2" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="60"/>
+      <c r="AMJ2" s="61"/>
+    </row>
+    <row r="3" s="62" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="G3" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="J3" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="K3" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="L3" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="M3" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="N3" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="O3" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="P3" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="Q3" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="R3" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="S3" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="T3" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="U3" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="V3" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="W3" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F4" s="55" t="s">
+      <c r="X3" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="AMJ3" s="66"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="67" t="s">
         <v>264</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="B4" s="68" t="s">
         <v>265</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="K4" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="L4" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="M4" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="57" t="s">
-        <v>266</v>
-      </c>
-      <c r="P4" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q4" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="R4" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="S4" s="56"/>
-      <c r="T4" s="57" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="53" t="s">
+      <c r="F4" s="70" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="5" t="n">
-        <v>12346</v>
-      </c>
-      <c r="C5" s="54" t="s">
+      <c r="G4" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="H4" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F5" s="55" t="s">
+      <c r="I4" s="67" t="s">
         <v>270</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="53" t="s">
+      <c r="J4" s="68" t="s">
         <v>271</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="K4" s="67" t="s">
         <v>272</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="L4" s="68" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M4" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="72"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="67" t="s">
         <v>273</v>
       </c>
-      <c r="K5" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="L5" s="58"/>
-      <c r="M5" s="53" t="s">
+      <c r="B5" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>277</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="J5" s="67" t="s">
         <v>271</v>
       </c>
-      <c r="N5" s="59" t="s">
+      <c r="K5" s="67" t="s">
         <v>272</v>
       </c>
-      <c r="O5" s="57" t="s">
-        <v>273</v>
-      </c>
-      <c r="P5" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="S5" s="59" t="s">
-        <v>272</v>
-      </c>
-      <c r="T5" s="57" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="L5" s="67" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M5" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="72"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" error="Only ISO 3166 countries are valid" errorTitle="Please select a valid country from the drop-down" operator="equal" prompt="Valid ISO 3166 countries for selection" promptTitle="Select a country from the drop down lits" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J4:J5 O4:O5 T4:T5" type="list">
-      <formula1>#ref!!$B$2:$B$250</formula1>
+  <dataValidations count="4">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="M1:M3" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="M4:M5" type="list">
+      <formula1>#REF!!$B$2:$B$1000</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Does the client get bulk discount?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D5" type="list">
+      <formula1>Constants!$G$2:$G$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Does the client get membership discount?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C5" type="list">
+      <formula1>Constants!$G$2:$G$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="supplier@example.com"/>
-    <hyperlink ref="E5" r:id="rId2" display="supplier@example.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="Clients"/>
+    <hyperlink ref="H4" r:id="rId2" display="apsc@example.com"/>
+    <hyperlink ref="H5" r:id="rId3" display="bchp@example.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -10426,165 +11437,644 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:5"/>
+  <dimension ref="1:10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R16" activeCellId="0" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9959514170041"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3238866396761"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.8421052631579"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.7246963562753"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6558704453441"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6396761133603"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.64777327935223"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.5263157894737"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.7287449392713"/>
+    <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.70445344129555"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.12550607287449"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="ALW1" s="0"/>
-      <c r="ALX1" s="0"/>
-      <c r="ALY1" s="0"/>
-      <c r="ALZ1" s="0"/>
-      <c r="AMA1" s="0"/>
-      <c r="AMB1" s="0"/>
-      <c r="AMC1" s="0"/>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" s="29" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="ALW2" s="0"/>
-      <c r="ALX2" s="0"/>
-      <c r="ALY2" s="0"/>
-      <c r="ALZ2" s="0"/>
-      <c r="AMA2" s="0"/>
-      <c r="AMB2" s="0"/>
-      <c r="AMC2" s="0"/>
-      <c r="AMD2" s="0"/>
-      <c r="AME2" s="0"/>
-      <c r="AMF2" s="0"/>
-      <c r="AMG2" s="0"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" s="7" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="ALW3" s="0"/>
-      <c r="ALX3" s="0"/>
-      <c r="ALY3" s="0"/>
-      <c r="ALZ3" s="0"/>
-      <c r="AMA3" s="0"/>
-      <c r="AMB3" s="0"/>
-      <c r="AMC3" s="0"/>
-      <c r="AMD3" s="0"/>
-      <c r="AME3" s="0"/>
-      <c r="AMF3" s="0"/>
-      <c r="AMG3" s="0"/>
-      <c r="AMH3" s="0"/>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" s="61" t="s">
+    <row r="1" s="17" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="57" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" s="62" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="53" t="s">
+      <c r="B1" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="O1" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="P1" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="D5" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="57" t="s">
-        <v>259</v>
-      </c>
-      <c r="G5" s="62" t="n">
-        <v>10</v>
-      </c>
+      <c r="Q1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AMI1" s="39"/>
+      <c r="AMJ1" s="39"/>
+    </row>
+    <row r="2" s="73" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="Q2" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AMI2" s="75"/>
+      <c r="AMJ2" s="75"/>
+    </row>
+    <row r="3" s="17" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="AMI3" s="39"/>
+      <c r="AMJ3" s="39"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="M4" s="77" t="s">
+        <v>298</v>
+      </c>
+      <c r="N4" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="P4" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="M5" s="77" t="s">
+        <v>310</v>
+      </c>
+      <c r="N5" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="P5" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>314</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="M6" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="N6" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="P6" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="M7" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="N7" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="E8" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="M8" s="77" t="s">
+        <v>342</v>
+      </c>
+      <c r="N8" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>345</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>345</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="M9" s="77" t="s">
+        <v>351</v>
+      </c>
+      <c r="N9" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="O9" s="35"/>
+      <c r="P9" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>354</v>
+      </c>
+      <c r="F10" s="77" t="s">
+        <v>354</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="M10" s="77" t="s">
+        <v>361</v>
+      </c>
+      <c r="N10" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="O10" s="35"/>
+      <c r="P10" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" prompt="Please select a valid Suppliers  the staff member belongs to from the drop-down menu" promptTitle="Suppliers" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F5" type="list">
-      <formula1>Suppliers!$A$4:$A$20</formula1>
+  <mergeCells count="2">
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="false" error="Select a valid entry from the drop-down  list of all clients listed on the Clients sheet" errorTitle="Invalid entry" operator="equal" prompt="From the drop-down list of all clients listed on the Clients sheet" promptTitle="Select a valid Client" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A10" type="list">
+      <formula1>Clients!$A$4:$A$178</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Select an entry from the drop down list" errorTitle="Invalid entry" operator="equal" prompt="If the contact wants more than one publication method and the combination is not on the list, enter them by hand and separate with commas" promptTitle="Select valid publication preferences from the drop-down list" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N4:N10" type="list">
+      <formula1>Constants!$H$2:$H$20</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Is  the contact permitted file attachments for emailed results?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P4:P10" type="list">
+      <formula1>Constants!$G$2:$G$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -10595,5 +12085,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/baobab/lims/setupdata/test/test.xlsx
+++ b/baobab/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="21"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="975" firstSheet="0" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,11 +41,6 @@
     <sheet name="Constants" sheetId="31" state="visible" r:id="rId32"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -136,2907 +131,2904 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="967">
-  <si>
-    <t xml:space="preserve">Instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheet names are case sensitive, and the keys in row 0 are always special.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheet order is important – dependencies should be loaded in earlier sheets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please also do not edit the last sheet, 'Constants', which is used to populate some of the drop down menus.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some sheets are linked to their corresponding setup items in the manual. Blue text against grey shading are HTML links.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grey shaded cells contain validation rules, mostly look-up references and formatting. If you add rows below the shaded areas, copy the shaded cells into the new rows for the best results, ensuring that the validation is applied on the new rows too.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Files to be uploaded, e.g. scans of signatures (jpg) or method documents (pdf), must be available in the same folder as this spreadsheet and only the file name entered into the corresponding cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">portal_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">counter_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">counter_reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">split_length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object ID prefixes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequence Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counter Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counter Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnalysisRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{sampleId}-R{seq:02d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnalysisRequestSample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B-{seq:03d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{sampleType}-{seq:04d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worksheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS-{seq:03d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worksheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I-{seq:03d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARImport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR Import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI-{seq:03d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arimport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReferenceSample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference Sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QC-{seq:03d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refsample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReferenceAnalysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA-{seq:03d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refanalysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DuplicateAnalysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duplicate Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-{seq:03d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duplicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SamplePartition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Partition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{sampleId}-P{seq:d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboratory and Accreditation Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANBI Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LabURL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab web address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.sanbi.ac.za/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confidence level %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LaboratoryAccredited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboratory accredited ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccreditationBodyLong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accreditation body  title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccreditationBody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accreditation body abbreviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccreditationBodyURL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accreditation body web address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accreditation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accreditation standard, e.g ISO 17025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccreditationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab's accreditation reference number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccreditationBodyLogo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accreditation body logo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TaxNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fax number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EmailAddress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lims@sanbi.ac.za</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical_Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modderdam Rd, Sacks Circle Industrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical_City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical address city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bellville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical_State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical address state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical_Zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical address zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical_Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical address country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal_Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal_City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal address city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal_State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal address state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal_Zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal address zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal_Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal address country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing_Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing_City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing address city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing_State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing address state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing_Zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing address zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing_Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing address country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pricePremium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sortKey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isDefault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smallIcon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bigIcon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARPriorities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Premium %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small Icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priority_hold.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priority_hold_big.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priority_normal.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priority_normal_big.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priority_high.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priority_high_big.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urgent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priority_urgent.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priority_urgent_big.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RetentionPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hazardous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinimumVolume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retention period (days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum volume or weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood Plasma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The liquid portion of normal unclotted blood containing the red and white cells and platelets. The straw-colored/pale-yellow liquid component of blood that normally holds the blood cells in whole blood in suspension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The clear liquid that can be separated from clotted blood. Serum differs from plasma, the liquid portion of normal unclotted blood containing the red and white cells and platelets. It is the clot that makes the difference between serum and plasma.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A typically sterile liquid by-product of the body secreted by the kidneys through a process called urination and excreted through the urethra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potable or river water. Not sewage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whole Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood drawn from the body from which no constituent, such as plasma or platelets, has been removed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LabContact_Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab Departments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biobank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Biobank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salutation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firstname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BusinessPhone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BusinessFax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HomePhone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MobilePhone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JobTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab contacts - staff members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only if a Lab contact is a LIMS user too, does he/she get given a (unique) user name and password, and assigned a role or to a group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business fax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">»Lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">» Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labmanager@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">021 555 1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">021 555 1233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">048 813 9515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">082 555 9910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">»Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LabManagers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clerk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labclerk@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010 417 2743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010 417 3007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010417 5849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">073 965 3368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labclerk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LabClerks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analyst@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">021 555 1236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">050 866 9887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">083 555 8108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistant manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verifier@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">021 555 1235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">021 555 1201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">050 866 9808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">083 333 8101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verifiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClientID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemberDiscountApplies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BulkDiscount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member discount applies?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulk discount applies?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bellville Medical Centre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA62914-27121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+27-21-2442645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+27-21-2442647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apsc@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Brickdam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brooklyn Chest Hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA62914-27120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+27-21-2442561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+27-21-2442563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bchp@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oceana Complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PublicationPreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCContacts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AttachmentsPermitted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Contacts - Staff Members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publication preference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contacts to be cc'd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attachments permitted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ritamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product assistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">038 664 6469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">038 664 7338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">038 664 7757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">082 607 8405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mohale@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email,pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ŝarel Seemonster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permitted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ŝarel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seemonster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sarelse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutrient management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">040 666 6630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">040 666 7834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">040 666 7858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">083 644 8576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seemonster@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rita Mohale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ŝtandard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neilst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research  assistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">035 597 5814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">035 597 6876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">035 597 6344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080 564 7509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standard@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ŝarel Seemonster, Rita Mohale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johanna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">johannasm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scientist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">036 640 6016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">036 6406911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">036 6407167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">081 569 7909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smith@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fredtu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QC manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">041 670 6654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">041 6708002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">041 670 8848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">084 677 8884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turner@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruffian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chrisru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">025 557 4204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">025 557 4531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">025 557 3131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">074 304 5021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruffian@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corbin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andreco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R&amp;D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">032 586 5303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">032 586 6331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">032 586 5622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">078 469 7035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corbin@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suppliers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomerieux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">012 440 9555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">012 440 9765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supplier@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemin de l'Orme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcy-l'Étoile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhône-Alpes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BioRad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">012 440 8445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">012 440 8447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000 Alfred Nobel Drive, Hercules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">California</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA 94547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tube 15ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empty tube to contain biospecimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gloves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gloves for specimens extraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplier_Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplier Contacts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplier Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Fax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salesman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">028 274 8819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">086 222 3600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">089 445 0440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dobson@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 main street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pringle Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genome Analysis: DNA/RNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proteome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proteomic Analysis: Mass spectrometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShortTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PointOfCapture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnalysisCategory_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReportDryMatter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attachment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExponentialFormatPrecision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LowerDetectionLimit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UpperDetectionLimit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DetectionLimitSelector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxTimeAllowed_days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxTimeAllowed_hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxTimeAllowed_minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BulkPrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ManualEntryOfResults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultMethod_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultInstrument_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculation_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DuplicateVariation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accredited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Separate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preservation_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Services - The 'tests' Offered By The Lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Turnaround Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point of capture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be reported as dry matter?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results file attachment permitted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exponential format precision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display DL selector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulk price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual Entry of Results?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default Instrument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duplicate variation %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default Container</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default Preservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA Ex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA concentration determination of sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dnaex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mg/l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Spectrometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MALDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass spectrometry MALDI-TOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldi-tof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interim Fields Used In Analysis Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Services – Methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Services – Instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResultText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResultValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Services results options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indeterminable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range Max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uncertainty Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Service Uncertainties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis service title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result Range min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result range max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uncertainty value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results Calculations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC20 Biorad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC20 Automated Cell Counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[LCC] * 100 / [TCC]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interim fields used in calculations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculation title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Cell Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Live Cell Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StudyType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AgeHigh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AgeLow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumParticipants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SampleTypes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnalysisServices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DateCreated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Crated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green Goblin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development of serum which gives superhuman strength and intelligence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Military research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whole Blood; Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012/06/26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscorp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MethodDocument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell counting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated cell counting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument will count the total of live cells and the quantity of cells in each sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument Types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated cell counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assetnumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SerialNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instalationdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InstalationCertificate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserManualFile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserManualID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserManualVersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserManualLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CalibrationCertificate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CalibrationExpiryDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VerificationExpiryDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataInterface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataInterfaceOptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab Instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand/Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serial no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photo image file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instalation date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installation certificate upload file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User manual upload file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User manual ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User manual version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User manual location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calibration certificate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calibration expiry date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verification expiration date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data interface options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LABEQG-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell Counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated cell counter for cell counting analyses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual LABEQG-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version 2 - July 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2.5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANCal 11/6010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DateIssued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instrument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">downfrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">downto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">considerations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">workperformed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReportID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument Validations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Down from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Down to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Considerations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work performed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Performed by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report identification Nº</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conductivity validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if instrument is plugged before</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some measuraments using salty water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMT20145004182/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calibrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument Calibrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calibrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spectro calibration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professional Calibrations Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easiest to calibrate than Spectro 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMT20145004182/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DocumentID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DocumentVersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DocumentLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DocumentType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument Documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manual1.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validfrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preparedby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approvedby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument Certifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certification code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepared by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approved by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LABEQG-003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANCal 11/5783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANCal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setup – Global defaults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PasswordLifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password lifetime (days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoLogOff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto log off period (minutes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShowPartitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show Sample Partitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShowPricing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show pricing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemberDiscount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member discount %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vat %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinimumResults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum results for stats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BatchEmail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max email batch size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BatchFax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max fax batch size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMSGatewayAddress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sms gateway address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SamplingWorkflowEnabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampling workflow enabled?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ScheduleSamplingEnabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schedule Sampling workflow enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CategoriseAnalysisServices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis services categorised in setup?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARImportOption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulk ar import option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARAttachmentOption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ar results file attachment option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnalysisAttachmentOption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis results attachment option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultSampleLifetime_days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default sample retention period – days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultSampleLifetime_hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default sample retention period – hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultSampleLifetime_minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default sample retention period – minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoPrintLabels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto label printing workflow step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoLabelSize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto label printing size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">small</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YearInPrefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must the year be included in sample prefixes?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SampleIDPadding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample id padding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARIDPadding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ar id padding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExternalIDServer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External id server?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDServerURL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id server url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultCountry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR Import options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results Attachment option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto label print size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto Label Printing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publication Preferences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East West</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Permitted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">receive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LabClerk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LabManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Special</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preserver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preservers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publishers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samplers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClientType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worksheet template analysis types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument Maintenance task types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument Scheduled tasks types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument Scheduled Repeat unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noncorporate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corporate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preventive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-corporate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don't Know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enhancement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duplicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calibration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BWP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BZD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DKK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FJD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FKP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GHS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GYD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HKD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HRK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KWD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KYD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KZT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LKR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LVL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LYD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MVR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MXN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MXV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PGK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PKR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PYG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RWF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TJS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UGX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UYI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UYU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VUV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XFU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZMK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZWL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="966">
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Sheet names are case sensitive, and the keys in row 0 are always special.</t>
+  </si>
+  <si>
+    <t>Sheet order is important – dependencies should be loaded in earlier sheets.</t>
+  </si>
+  <si>
+    <t>Please also do not edit the last sheet, 'Constants', which is used to populate some of the drop down menus.</t>
+  </si>
+  <si>
+    <t>Some sheets are linked to their corresponding setup items in the manual. Blue text against grey shading are HTML links.</t>
+  </si>
+  <si>
+    <t>Grey shaded cells contain validation rules, mostly look-up references and formatting. If you add rows below the shaded areas, copy the shaded cells into the new rows for the best results, ensuring that the validation is applied on the new rows too.</t>
+  </si>
+  <si>
+    <t>Files to be uploaded, e.g. scans of signatures (jpg) or method documents (pdf), must be available in the same folder as this spreadsheet and only the file name entered into the corresponding cell</t>
+  </si>
+  <si>
+    <t>portal_type</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>sequence_type</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>counter_type</t>
+  </si>
+  <si>
+    <t>counter_reference</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>split_length</t>
+  </si>
+  <si>
+    <t>Object ID prefixes</t>
+  </si>
+  <si>
+    <t>Data object</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Sequence Type</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Counter Type</t>
+  </si>
+  <si>
+    <t>Counter Reference</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>Split Length</t>
+  </si>
+  <si>
+    <t>AnalysisRequest</t>
+  </si>
+  <si>
+    <t>Analysis Request</t>
+  </si>
+  <si>
+    <t>{sampleId}-R{seq:02d}</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>backreference</t>
+  </si>
+  <si>
+    <t>AnalysisRequestSample</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>B-{seq:03d}</t>
+  </si>
+  <si>
+    <t>generated</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>{sampleType}-{seq:04d}</t>
+  </si>
+  <si>
+    <t>Worksheet</t>
+  </si>
+  <si>
+    <t>WS-{seq:03d}</t>
+  </si>
+  <si>
+    <t>worksheet</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>I-{seq:03d}</t>
+  </si>
+  <si>
+    <t>invoice</t>
+  </si>
+  <si>
+    <t>ARImport</t>
+  </si>
+  <si>
+    <t>AR Import</t>
+  </si>
+  <si>
+    <t>AI-{seq:03d}</t>
+  </si>
+  <si>
+    <t>arimport</t>
+  </si>
+  <si>
+    <t>ReferenceSample</t>
+  </si>
+  <si>
+    <t>Reference Sample</t>
+  </si>
+  <si>
+    <t>QC-{seq:03d}</t>
+  </si>
+  <si>
+    <t>refsample</t>
+  </si>
+  <si>
+    <t>ReferenceAnalysis</t>
+  </si>
+  <si>
+    <t>Reference Analysis</t>
+  </si>
+  <si>
+    <t>SA-{seq:03d}</t>
+  </si>
+  <si>
+    <t>refanalysis</t>
+  </si>
+  <si>
+    <t>DuplicateAnalysis</t>
+  </si>
+  <si>
+    <t>Duplicate Analysis</t>
+  </si>
+  <si>
+    <t>D-{seq:03d}</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>SamplePartition</t>
+  </si>
+  <si>
+    <t>Sample Partition</t>
+  </si>
+  <si>
+    <t>{sampleId}-P{seq:d}</t>
+  </si>
+  <si>
+    <t>contained</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Laboratory and Accreditation Information</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>SANBI Institute</t>
+  </si>
+  <si>
+    <t>LabURL</t>
+  </si>
+  <si>
+    <t>Lab web address</t>
+  </si>
+  <si>
+    <t>http://www.sanbi.ac.za/</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Confidence level %</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>LaboratoryAccredited</t>
+  </si>
+  <si>
+    <t>Laboratory accredited ?</t>
+  </si>
+  <si>
+    <t>AccreditationBodyLong</t>
+  </si>
+  <si>
+    <t>Accreditation body  title</t>
+  </si>
+  <si>
+    <t>AccreditationBody</t>
+  </si>
+  <si>
+    <t>Accreditation body abbreviation</t>
+  </si>
+  <si>
+    <t>AccreditationBodyURL</t>
+  </si>
+  <si>
+    <t>Accreditation body web address</t>
+  </si>
+  <si>
+    <t>Accreditation</t>
+  </si>
+  <si>
+    <t>Accreditation standard, e.g ISO 17025</t>
+  </si>
+  <si>
+    <t>AccreditationReference</t>
+  </si>
+  <si>
+    <t>Lab's accreditation reference number</t>
+  </si>
+  <si>
+    <t>AccreditationBodyLogo</t>
+  </si>
+  <si>
+    <t>Accreditation body logo</t>
+  </si>
+  <si>
+    <t>TaxNumber</t>
+  </si>
+  <si>
+    <t>Tax number</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Fax number</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>Email address</t>
+  </si>
+  <si>
+    <t>lims@sanbi.ac.za</t>
+  </si>
+  <si>
+    <t>Physical_Address</t>
+  </si>
+  <si>
+    <t>Physical address</t>
+  </si>
+  <si>
+    <t>Modderdam Rd, Sacks Circle Industrial</t>
+  </si>
+  <si>
+    <t>Physical_City</t>
+  </si>
+  <si>
+    <t>Physical address city</t>
+  </si>
+  <si>
+    <t>Bellville</t>
+  </si>
+  <si>
+    <t>Physical_State</t>
+  </si>
+  <si>
+    <t>Physical address state</t>
+  </si>
+  <si>
+    <t>Western Province</t>
+  </si>
+  <si>
+    <t>Physical_Zip</t>
+  </si>
+  <si>
+    <t>Physical address zip</t>
+  </si>
+  <si>
+    <t>Physical_Country</t>
+  </si>
+  <si>
+    <t>Physical address country</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Postal_Address</t>
+  </si>
+  <si>
+    <t>Postal address</t>
+  </si>
+  <si>
+    <t>Postal_City</t>
+  </si>
+  <si>
+    <t>Postal address city</t>
+  </si>
+  <si>
+    <t>Postal_State</t>
+  </si>
+  <si>
+    <t>Postal address state</t>
+  </si>
+  <si>
+    <t>Postal_Zip</t>
+  </si>
+  <si>
+    <t>Postal address zip</t>
+  </si>
+  <si>
+    <t>Postal_Country</t>
+  </si>
+  <si>
+    <t>Postal address country</t>
+  </si>
+  <si>
+    <t>Billing_Address</t>
+  </si>
+  <si>
+    <t>Billing address</t>
+  </si>
+  <si>
+    <t>Billing_City</t>
+  </si>
+  <si>
+    <t>Billing address city</t>
+  </si>
+  <si>
+    <t>Billing_State</t>
+  </si>
+  <si>
+    <t>Billing address state</t>
+  </si>
+  <si>
+    <t>Billing_Zip</t>
+  </si>
+  <si>
+    <t>Billing address zip</t>
+  </si>
+  <si>
+    <t>Billing_Country</t>
+  </si>
+  <si>
+    <t>Billing address country</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>pricePremium</t>
+  </si>
+  <si>
+    <t>sortKey</t>
+  </si>
+  <si>
+    <t>isDefault</t>
+  </si>
+  <si>
+    <t>smallIcon</t>
+  </si>
+  <si>
+    <t>bigIcon</t>
+  </si>
+  <si>
+    <t>ARPriorities</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Price Premium %</t>
+  </si>
+  <si>
+    <t>Sort Key</t>
+  </si>
+  <si>
+    <t>Default ?</t>
+  </si>
+  <si>
+    <t>Small Icon</t>
+  </si>
+  <si>
+    <t>Big Icon</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>priority_hold.png</t>
+  </si>
+  <si>
+    <t>priority_hold_big.png</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>priority_normal.png</t>
+  </si>
+  <si>
+    <t>priority_normal_big.png</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>priority_high.png</t>
+  </si>
+  <si>
+    <t>priority_high_big.png</t>
+  </si>
+  <si>
+    <t>Urgent</t>
+  </si>
+  <si>
+    <t>priority_urgent.png</t>
+  </si>
+  <si>
+    <t>priority_urgent_big.png</t>
+  </si>
+  <si>
+    <t>RetentionPeriod</t>
+  </si>
+  <si>
+    <t>Hazardous</t>
+  </si>
+  <si>
+    <t>MinimumVolume</t>
+  </si>
+  <si>
+    <t>Sample Types</t>
+  </si>
+  <si>
+    <t>Retention period (days)</t>
+  </si>
+  <si>
+    <t>Minimum volume or weight</t>
+  </si>
+  <si>
+    <t>Blood Plasma</t>
+  </si>
+  <si>
+    <t>The liquid portion of normal unclotted blood containing the red and white cells and platelets. The straw-colored/pale-yellow liquid component of blood that normally holds the blood cells in whole blood in suspension.</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>1 ml</t>
+  </si>
+  <si>
+    <t>Serum</t>
+  </si>
+  <si>
+    <t>The clear liquid that can be separated from clotted blood. Serum differs from plasma, the liquid portion of normal unclotted blood containing the red and white cells and platelets. It is the clot that makes the difference between serum and plasma.</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Urine</t>
+  </si>
+  <si>
+    <t>A typically sterile liquid by-product of the body secreted by the kidneys through a process called urination and excreted through the urethra.</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Potable or river water. Not sewage</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>Whole Blood</t>
+  </si>
+  <si>
+    <t>Blood drawn from the body from which no constituent, such as plasma or platelets, has been removed.</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>LabContact_Username</t>
+  </si>
+  <si>
+    <t>Lab Departments</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Biobank</t>
+  </si>
+  <si>
+    <t>Human Biobank</t>
+  </si>
+  <si>
+    <t>labman</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>BusinessPhone</t>
+  </si>
+  <si>
+    <t>BusinessFax</t>
+  </si>
+  <si>
+    <t>HomePhone</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>Department_title</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>Lab contacts - staff members</t>
+  </si>
+  <si>
+    <t>Only if a Lab contact is a LIMS user too, does he/she get given a (unique) user name and password, and assigned a role or to a group</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Business phone</t>
+  </si>
+  <si>
+    <t>Business fax</t>
+  </si>
+  <si>
+    <t>Home phone</t>
+  </si>
+  <si>
+    <t>Mobile phone</t>
+  </si>
+  <si>
+    <t>Job title</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>User name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>»Lab</t>
+  </si>
+  <si>
+    <t>» Manager</t>
+  </si>
+  <si>
+    <t>labmanager@example.com</t>
+  </si>
+  <si>
+    <t>021 555 1234</t>
+  </si>
+  <si>
+    <t>021 555 1233</t>
+  </si>
+  <si>
+    <t>048 813 9515</t>
+  </si>
+  <si>
+    <t>082 555 9910</t>
+  </si>
+  <si>
+    <t>»Manager</t>
+  </si>
+  <si>
+    <t>LabManagers</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Clerk</t>
+  </si>
+  <si>
+    <t>labclerk@example.com</t>
+  </si>
+  <si>
+    <t>010 417 2743</t>
+  </si>
+  <si>
+    <t>010 417 3007</t>
+  </si>
+  <si>
+    <t>010417 5849</t>
+  </si>
+  <si>
+    <t>073 965 3368</t>
+  </si>
+  <si>
+    <t>labclerk</t>
+  </si>
+  <si>
+    <t>LabClerks</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>analyst@example.com</t>
+  </si>
+  <si>
+    <t>021 555 1236</t>
+  </si>
+  <si>
+    <t>050 866 9887</t>
+  </si>
+  <si>
+    <t>083 555 8108</t>
+  </si>
+  <si>
+    <t>Assistant manager</t>
+  </si>
+  <si>
+    <t>analyst</t>
+  </si>
+  <si>
+    <t>Analysts</t>
+  </si>
+  <si>
+    <t>Verifier</t>
+  </si>
+  <si>
+    <t>verifier@example.com</t>
+  </si>
+  <si>
+    <t>021 555 1235</t>
+  </si>
+  <si>
+    <t>021 555 1201</t>
+  </si>
+  <si>
+    <t>050 866 9808</t>
+  </si>
+  <si>
+    <t>083 333 8101</t>
+  </si>
+  <si>
+    <t>verifier</t>
+  </si>
+  <si>
+    <t>Verifiers</t>
+  </si>
+  <si>
+    <t>ClientID</t>
+  </si>
+  <si>
+    <t>MemberDiscountApplies</t>
+  </si>
+  <si>
+    <t>BulkDiscount</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>Clients</t>
+  </si>
+  <si>
+    <t>Physical Address</t>
+  </si>
+  <si>
+    <t>Postal Address</t>
+  </si>
+  <si>
+    <t>Billing Address</t>
+  </si>
+  <si>
+    <t>Client ID</t>
+  </si>
+  <si>
+    <t>Member discount applies?</t>
+  </si>
+  <si>
+    <t>Bulk discount applies?</t>
+  </si>
+  <si>
+    <t>Account number</t>
+  </si>
+  <si>
+    <t>Bellville Medical Centre</t>
+  </si>
+  <si>
+    <t>BMC</t>
+  </si>
+  <si>
+    <t>SA62914-27121</t>
+  </si>
+  <si>
+    <t>+27-21-2442645</t>
+  </si>
+  <si>
+    <t>+27-21-2442647</t>
+  </si>
+  <si>
+    <t>apsc@example.com</t>
+  </si>
+  <si>
+    <t>1 Brickdam</t>
+  </si>
+  <si>
+    <t>Cape Town</t>
+  </si>
+  <si>
+    <t>Western Cape</t>
+  </si>
+  <si>
+    <t>Brooklyn Chest Hospital</t>
+  </si>
+  <si>
+    <t>BCHP</t>
+  </si>
+  <si>
+    <t>SA62914-27120</t>
+  </si>
+  <si>
+    <t>+27-21-2442561</t>
+  </si>
+  <si>
+    <t>+27-21-2442563</t>
+  </si>
+  <si>
+    <t>bchp@example.com</t>
+  </si>
+  <si>
+    <t>Oceana Complex</t>
+  </si>
+  <si>
+    <t>Client_title</t>
+  </si>
+  <si>
+    <t>PublicationPreference</t>
+  </si>
+  <si>
+    <t>CCContacts</t>
+  </si>
+  <si>
+    <t>AttachmentsPermitted</t>
+  </si>
+  <si>
+    <t>Client Contacts - Staff Members</t>
+  </si>
+  <si>
+    <t>Client title</t>
+  </si>
+  <si>
+    <t>Publication preference</t>
+  </si>
+  <si>
+    <t>Contacts to be cc'd</t>
+  </si>
+  <si>
+    <t>Attachments permitted</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Mohale</t>
+  </si>
+  <si>
+    <t>ritamo</t>
+  </si>
+  <si>
+    <t>Product assistant</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>038 664 6469</t>
+  </si>
+  <si>
+    <t>038 664 7338</t>
+  </si>
+  <si>
+    <t>038 664 7757</t>
+  </si>
+  <si>
+    <t>082 607 8405</t>
+  </si>
+  <si>
+    <t>mohale@example.com</t>
+  </si>
+  <si>
+    <t>email,pdf</t>
+  </si>
+  <si>
+    <t>Ŝarel Seemonster</t>
+  </si>
+  <si>
+    <t>Permitted</t>
+  </si>
+  <si>
+    <t>Ŝarel</t>
+  </si>
+  <si>
+    <t>Seemonster</t>
+  </si>
+  <si>
+    <t>sarelse</t>
+  </si>
+  <si>
+    <t>Nutrient management</t>
+  </si>
+  <si>
+    <t>040 666 6630</t>
+  </si>
+  <si>
+    <t>040 666 7834</t>
+  </si>
+  <si>
+    <t>040 666 7858</t>
+  </si>
+  <si>
+    <t>083 644 8576</t>
+  </si>
+  <si>
+    <t>seemonster@example.com</t>
+  </si>
+  <si>
+    <t>Rita Mohale</t>
+  </si>
+  <si>
+    <t>Neil</t>
+  </si>
+  <si>
+    <t>Ŝtandard</t>
+  </si>
+  <si>
+    <t>neilst</t>
+  </si>
+  <si>
+    <t>Research  assistant</t>
+  </si>
+  <si>
+    <t>Product development</t>
+  </si>
+  <si>
+    <t>035 597 5814</t>
+  </si>
+  <si>
+    <t>035 597 6876</t>
+  </si>
+  <si>
+    <t>035 597 6344</t>
+  </si>
+  <si>
+    <t>080 564 7509</t>
+  </si>
+  <si>
+    <t>standard@example.com</t>
+  </si>
+  <si>
+    <t>Ŝarel Seemonster, Rita Mohale</t>
+  </si>
+  <si>
+    <t>Johanna</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>johannasm</t>
+  </si>
+  <si>
+    <t>Scientist</t>
+  </si>
+  <si>
+    <t>Soil science</t>
+  </si>
+  <si>
+    <t>036 640 6016</t>
+  </si>
+  <si>
+    <t>036 6406911</t>
+  </si>
+  <si>
+    <t>036 6407167</t>
+  </si>
+  <si>
+    <t>081 569 7909</t>
+  </si>
+  <si>
+    <t>smith@example.com</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>fredtu</t>
+  </si>
+  <si>
+    <t>QC manager</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>041 670 6654</t>
+  </si>
+  <si>
+    <t>041 6708002</t>
+  </si>
+  <si>
+    <t>041 670 8848</t>
+  </si>
+  <si>
+    <t>084 677 8884</t>
+  </si>
+  <si>
+    <t>turner@example.com</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Ruffian</t>
+  </si>
+  <si>
+    <t>chrisru</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>025 557 4204</t>
+  </si>
+  <si>
+    <t>025 557 4531</t>
+  </si>
+  <si>
+    <t>025 557 3131</t>
+  </si>
+  <si>
+    <t>074 304 5021</t>
+  </si>
+  <si>
+    <t>ruffian@example.com</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>Corbin</t>
+  </si>
+  <si>
+    <t>andreco</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>032 586 5303</t>
+  </si>
+  <si>
+    <t>032 586 6331</t>
+  </si>
+  <si>
+    <t>032 586 5622</t>
+  </si>
+  <si>
+    <t>078 469 7035</t>
+  </si>
+  <si>
+    <t>corbin@example.com</t>
+  </si>
+  <si>
+    <t>Suppliers</t>
+  </si>
+  <si>
+    <t>Tax Number</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Biomerieux</t>
+  </si>
+  <si>
+    <t>012 440 9555</t>
+  </si>
+  <si>
+    <t>012 440 9765</t>
+  </si>
+  <si>
+    <t>supplier@example.com</t>
+  </si>
+  <si>
+    <t>Chemin de l'Orme</t>
+  </si>
+  <si>
+    <t>Marcy-l'Étoile</t>
+  </si>
+  <si>
+    <t>Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>BioRad</t>
+  </si>
+  <si>
+    <t>012 440 8445</t>
+  </si>
+  <si>
+    <t>012 440 8447</t>
+  </si>
+  <si>
+    <t>1000 Alfred Nobel Drive, Hercules</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>CA 94547</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Tube 15ml</t>
+  </si>
+  <si>
+    <t>Empty tube to contain biospecimen</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>Gloves for specimens extraction</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Supplier_Name</t>
+  </si>
+  <si>
+    <t>Supplier Contacts</t>
+  </si>
+  <si>
+    <t>Supplier Name</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Business Phone</t>
+  </si>
+  <si>
+    <t>Business Fax</t>
+  </si>
+  <si>
+    <t>Home Phone</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Dobson</t>
+  </si>
+  <si>
+    <t>Salesman</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>028 274 8819</t>
+  </si>
+  <si>
+    <t>086 222 3600</t>
+  </si>
+  <si>
+    <t>089 445 0440</t>
+  </si>
+  <si>
+    <t>dobson@example.com</t>
+  </si>
+  <si>
+    <t>1 main street</t>
+  </si>
+  <si>
+    <t>Pringle Bay</t>
+  </si>
+  <si>
+    <t>Analysis Categories</t>
+  </si>
+  <si>
+    <t>Genome</t>
+  </si>
+  <si>
+    <t>Genome Analysis: DNA/RNA</t>
+  </si>
+  <si>
+    <t>Proteome</t>
+  </si>
+  <si>
+    <t>Proteomic Analysis: Mass spectrometry</t>
+  </si>
+  <si>
+    <t>ShortTitle</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>PointOfCapture</t>
+  </si>
+  <si>
+    <t>AnalysisCategory_title</t>
+  </si>
+  <si>
+    <t>ReportDryMatter</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>ExponentialFormatPrecision</t>
+  </si>
+  <si>
+    <t>LowerDetectionLimit</t>
+  </si>
+  <si>
+    <t>UpperDetectionLimit</t>
+  </si>
+  <si>
+    <t>DetectionLimitSelector</t>
+  </si>
+  <si>
+    <t>MaxTimeAllowed_days</t>
+  </si>
+  <si>
+    <t>MaxTimeAllowed_hours</t>
+  </si>
+  <si>
+    <t>MaxTimeAllowed_minutes</t>
+  </si>
+  <si>
+    <t>BulkPrice</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>ManualEntryOfResults</t>
+  </si>
+  <si>
+    <t>DefaultMethod_title</t>
+  </si>
+  <si>
+    <t>DefaultInstrument_title</t>
+  </si>
+  <si>
+    <t>Calculation_title</t>
+  </si>
+  <si>
+    <t>DuplicateVariation</t>
+  </si>
+  <si>
+    <t>Accredited</t>
+  </si>
+  <si>
+    <t>Separate</t>
+  </si>
+  <si>
+    <t>Container_title</t>
+  </si>
+  <si>
+    <t>Preservation_title</t>
+  </si>
+  <si>
+    <t>Analysis Services - The 'tests' Offered By The Lab</t>
+  </si>
+  <si>
+    <t>Maximum Turnaround Time</t>
+  </si>
+  <si>
+    <t>Short Title</t>
+  </si>
+  <si>
+    <t>Point of capture</t>
+  </si>
+  <si>
+    <t>Analysis category</t>
+  </si>
+  <si>
+    <t>Lab department</t>
+  </si>
+  <si>
+    <t>Can be reported as dry matter?</t>
+  </si>
+  <si>
+    <t>Results file attachment permitted</t>
+  </si>
+  <si>
+    <t>Exponential format precision</t>
+  </si>
+  <si>
+    <t>LDL</t>
+  </si>
+  <si>
+    <t>UDL</t>
+  </si>
+  <si>
+    <t>Display DL selector</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>Bulk price</t>
+  </si>
+  <si>
+    <t>Vat</t>
+  </si>
+  <si>
+    <t>Manual Entry of Results?</t>
+  </si>
+  <si>
+    <t>Default Method</t>
+  </si>
+  <si>
+    <t>Default Instrument</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>Duplicate variation %</t>
+  </si>
+  <si>
+    <t>Default Container</t>
+  </si>
+  <si>
+    <t>Default Preservation</t>
+  </si>
+  <si>
+    <t>DNA concentration</t>
+  </si>
+  <si>
+    <t>DNA Ex</t>
+  </si>
+  <si>
+    <t>DNA concentration determination of sample</t>
+  </si>
+  <si>
+    <t>dnaex</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>mg/l</t>
+  </si>
+  <si>
+    <t>Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>MALDI</t>
+  </si>
+  <si>
+    <t>Mass spectrometry MALDI-TOF</t>
+  </si>
+  <si>
+    <t>Maldi-tof</t>
+  </si>
+  <si>
+    <t>Service_title</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Interim Fields Used In Analysis Services</t>
+  </si>
+  <si>
+    <t>Service Title</t>
+  </si>
+  <si>
+    <t>Field Title</t>
+  </si>
+  <si>
+    <t>Default value</t>
+  </si>
+  <si>
+    <t>Method_title</t>
+  </si>
+  <si>
+    <t>Analysis Services – Methods</t>
+  </si>
+  <si>
+    <t>Service title</t>
+  </si>
+  <si>
+    <t>Method title</t>
+  </si>
+  <si>
+    <t>Instrument_title</t>
+  </si>
+  <si>
+    <t>Analysis Services – Instruments</t>
+  </si>
+  <si>
+    <t>Instrument title</t>
+  </si>
+  <si>
+    <t>ResultText</t>
+  </si>
+  <si>
+    <t>ResultValue</t>
+  </si>
+  <si>
+    <t>Analysis Services results options</t>
+  </si>
+  <si>
+    <t>Result options</t>
+  </si>
+  <si>
+    <t>Result value</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Indeterminable</t>
+  </si>
+  <si>
+    <t>Range Min</t>
+  </si>
+  <si>
+    <t>Range Max</t>
+  </si>
+  <si>
+    <t>Uncertainty Value</t>
+  </si>
+  <si>
+    <t>Analysis Service Uncertainties</t>
+  </si>
+  <si>
+    <t>Analysis service title</t>
+  </si>
+  <si>
+    <t>Result Range min</t>
+  </si>
+  <si>
+    <t>Result range max</t>
+  </si>
+  <si>
+    <t>Uncertainty value</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Results Calculations</t>
+  </si>
+  <si>
+    <t>TC20 Biorad</t>
+  </si>
+  <si>
+    <t>TC20 Automated Cell Counter</t>
+  </si>
+  <si>
+    <t>[LCC] * 100 / [TCC]</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>Interim fields used in calculations</t>
+  </si>
+  <si>
+    <t>Calculation title</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>TCC</t>
+  </si>
+  <si>
+    <t>Total Cell Count</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>Live Cell Count</t>
+  </si>
+  <si>
+    <t>StudyType</t>
+  </si>
+  <si>
+    <t>AgeHigh</t>
+  </si>
+  <si>
+    <t>AgeLow</t>
+  </si>
+  <si>
+    <t>NumParticipants</t>
+  </si>
+  <si>
+    <t>SampleTypes</t>
+  </si>
+  <si>
+    <t>AnalysisServices</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>DateCreated</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Study Type</t>
+  </si>
+  <si>
+    <t>Maximum Age</t>
+  </si>
+  <si>
+    <t>Minimum Age</t>
+  </si>
+  <si>
+    <t>Number of Participants</t>
+  </si>
+  <si>
+    <t>Sample Type</t>
+  </si>
+  <si>
+    <t>Analysis Services</t>
+  </si>
+  <si>
+    <t>Date Crated</t>
+  </si>
+  <si>
+    <t>Green Goblin</t>
+  </si>
+  <si>
+    <t>Development of serum which gives superhuman strength and intelligence</t>
+  </si>
+  <si>
+    <t>Military research</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Whole Blood; Water</t>
+  </si>
+  <si>
+    <t>2012/06/26</t>
+  </si>
+  <si>
+    <t>MethodDocument</t>
+  </si>
+  <si>
+    <t>Analysis Methods</t>
+  </si>
+  <si>
+    <t>Method document</t>
+  </si>
+  <si>
+    <t>Cell counting</t>
+  </si>
+  <si>
+    <t>Automated cell counting</t>
+  </si>
+  <si>
+    <t>Instrument will count the total of live cells and the quantity of cells in each sample</t>
+  </si>
+  <si>
+    <t>Instrument Types</t>
+  </si>
+  <si>
+    <t>Automated cell counter</t>
+  </si>
+  <si>
+    <t>assetnumber</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>SerialNo</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Instalationdate</t>
+  </si>
+  <si>
+    <t>InstalationCertificate</t>
+  </si>
+  <si>
+    <t>UserManualFile</t>
+  </si>
+  <si>
+    <t>UserManualID</t>
+  </si>
+  <si>
+    <t>UserManualVersion</t>
+  </si>
+  <si>
+    <t>UserManualLocation</t>
+  </si>
+  <si>
+    <t>CalibrationCertificate</t>
+  </si>
+  <si>
+    <t>CalibrationExpiryDate</t>
+  </si>
+  <si>
+    <t>VerificationExpiryDate</t>
+  </si>
+  <si>
+    <t>DataInterface</t>
+  </si>
+  <si>
+    <t>DataInterfaceOptions</t>
+  </si>
+  <si>
+    <t>Lab Instruments</t>
+  </si>
+  <si>
+    <t>Instruments</t>
+  </si>
+  <si>
+    <t>Asset number</t>
+  </si>
+  <si>
+    <t>Instrument type</t>
+  </si>
+  <si>
+    <t>Brand/Manufacturer</t>
+  </si>
+  <si>
+    <t>Serial no</t>
+  </si>
+  <si>
+    <t>Photo image file</t>
+  </si>
+  <si>
+    <t>Instalation date</t>
+  </si>
+  <si>
+    <t>Installation certificate upload file</t>
+  </si>
+  <si>
+    <t>User manual upload file</t>
+  </si>
+  <si>
+    <t>User manual ID</t>
+  </si>
+  <si>
+    <t>User manual version</t>
+  </si>
+  <si>
+    <t>User manual location</t>
+  </si>
+  <si>
+    <t>Calibration certificate</t>
+  </si>
+  <si>
+    <t>Calibration expiry date</t>
+  </si>
+  <si>
+    <t>Verification expiration date</t>
+  </si>
+  <si>
+    <t>Data interface</t>
+  </si>
+  <si>
+    <t>Data interface options</t>
+  </si>
+  <si>
+    <t>LABEQG-001</t>
+  </si>
+  <si>
+    <t>Cell Counter</t>
+  </si>
+  <si>
+    <t>Automated cell counter for cell counting analyses</t>
+  </si>
+  <si>
+    <t>2000B</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Manual LABEQG-001</t>
+  </si>
+  <si>
+    <t>Version 2 - July 2010</t>
+  </si>
+  <si>
+    <t>S2.5.1</t>
+  </si>
+  <si>
+    <t>SANCal 11/6010</t>
+  </si>
+  <si>
+    <t>DateIssued</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>downfrom</t>
+  </si>
+  <si>
+    <t>downto</t>
+  </si>
+  <si>
+    <t>validator</t>
+  </si>
+  <si>
+    <t>considerations</t>
+  </si>
+  <si>
+    <t>workperformed</t>
+  </si>
+  <si>
+    <t>Worker</t>
+  </si>
+  <si>
+    <t>ReportID</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>Instrument Validations</t>
+  </si>
+  <si>
+    <t>Report Date</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Down from</t>
+  </si>
+  <si>
+    <t>Down to</t>
+  </si>
+  <si>
+    <t>Validator</t>
+  </si>
+  <si>
+    <t>Considerations</t>
+  </si>
+  <si>
+    <t>Work performed</t>
+  </si>
+  <si>
+    <t>Performed by</t>
+  </si>
+  <si>
+    <t>Report identification Nº</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Conductivity validation</t>
+  </si>
+  <si>
+    <t>Check if instrument is plugged before</t>
+  </si>
+  <si>
+    <t>Some measuraments using salty water</t>
+  </si>
+  <si>
+    <t>LMT20145004182/20</t>
+  </si>
+  <si>
+    <t>calibrator</t>
+  </si>
+  <si>
+    <t>Instrument Calibrations</t>
+  </si>
+  <si>
+    <t>Calibrator</t>
+  </si>
+  <si>
+    <t>Spectro calibration</t>
+  </si>
+  <si>
+    <t>Professional Calibrations Inc.</t>
+  </si>
+  <si>
+    <t>Easiest to calibrate than Spectro 1</t>
+  </si>
+  <si>
+    <t>LMT20145004182/10</t>
+  </si>
+  <si>
+    <t>DocumentID</t>
+  </si>
+  <si>
+    <t>DocumentVersion</t>
+  </si>
+  <si>
+    <t>DocumentLocation</t>
+  </si>
+  <si>
+    <t>DocumentType</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Instrument Documents</t>
+  </si>
+  <si>
+    <t>Document ID</t>
+  </si>
+  <si>
+    <t>Document Version</t>
+  </si>
+  <si>
+    <t>Document Location</t>
+  </si>
+  <si>
+    <t>Document Type</t>
+  </si>
+  <si>
+    <t>Lab1</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>manual1.pdf</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>validfrom</t>
+  </si>
+  <si>
+    <t>validto</t>
+  </si>
+  <si>
+    <t>agency</t>
+  </si>
+  <si>
+    <t>preparedby</t>
+  </si>
+  <si>
+    <t>approvedby</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>Instrument Certifications</t>
+  </si>
+  <si>
+    <t>Certification code</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Valid from</t>
+  </si>
+  <si>
+    <t>Valid to</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Prepared by</t>
+  </si>
+  <si>
+    <t>Approved by</t>
+  </si>
+  <si>
+    <t>Report upload</t>
+  </si>
+  <si>
+    <t>LABEQG-003</t>
+  </si>
+  <si>
+    <t>SANCal 11/5783</t>
+  </si>
+  <si>
+    <t>SANCal</t>
+  </si>
+  <si>
+    <t>Setup – Global defaults</t>
+  </si>
+  <si>
+    <t>PasswordLifetime</t>
+  </si>
+  <si>
+    <t>Password lifetime (days)</t>
+  </si>
+  <si>
+    <t>AutoLogOff</t>
+  </si>
+  <si>
+    <t>Auto log off period (minutes)</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>ZAR</t>
+  </si>
+  <si>
+    <t>ShowPartitions</t>
+  </si>
+  <si>
+    <t>Show Sample Partitions</t>
+  </si>
+  <si>
+    <t>ShowPricing</t>
+  </si>
+  <si>
+    <t>Show pricing</t>
+  </si>
+  <si>
+    <t>MemberDiscount</t>
+  </si>
+  <si>
+    <t>Member discount %</t>
+  </si>
+  <si>
+    <t>Vat %</t>
+  </si>
+  <si>
+    <t>MinimumResults</t>
+  </si>
+  <si>
+    <t>Minimum results for stats</t>
+  </si>
+  <si>
+    <t>BatchEmail</t>
+  </si>
+  <si>
+    <t>Max email batch size</t>
+  </si>
+  <si>
+    <t>BatchFax</t>
+  </si>
+  <si>
+    <t>Max fax batch size</t>
+  </si>
+  <si>
+    <t>SMSGatewayAddress</t>
+  </si>
+  <si>
+    <t>Sms gateway address</t>
+  </si>
+  <si>
+    <t>SamplingWorkflowEnabled</t>
+  </si>
+  <si>
+    <t>Sampling workflow enabled?</t>
+  </si>
+  <si>
+    <t>ScheduleSamplingEnabled</t>
+  </si>
+  <si>
+    <t>Schedule Sampling workflow enabled</t>
+  </si>
+  <si>
+    <t>CategoriseAnalysisServices</t>
+  </si>
+  <si>
+    <t>Analysis services categorised in setup?</t>
+  </si>
+  <si>
+    <t>ARImportOption</t>
+  </si>
+  <si>
+    <t>Bulk ar import option</t>
+  </si>
+  <si>
+    <t>Classic</t>
+  </si>
+  <si>
+    <t>ARAttachmentOption</t>
+  </si>
+  <si>
+    <t>Ar results file attachment option</t>
+  </si>
+  <si>
+    <t>AnalysisAttachmentOption</t>
+  </si>
+  <si>
+    <t>Analysis results attachment option</t>
+  </si>
+  <si>
+    <t>DefaultSampleLifetime_days</t>
+  </si>
+  <si>
+    <t>Default sample retention period – days</t>
+  </si>
+  <si>
+    <t>DefaultSampleLifetime_hours</t>
+  </si>
+  <si>
+    <t>Default sample retention period – hours</t>
+  </si>
+  <si>
+    <t>DefaultSampleLifetime_minutes</t>
+  </si>
+  <si>
+    <t>Default sample retention period – minutes</t>
+  </si>
+  <si>
+    <t>AutoPrintLabels</t>
+  </si>
+  <si>
+    <t>Auto label printing workflow step</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>AutoLabelSize</t>
+  </si>
+  <si>
+    <t>Auto label printing size</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>YearInPrefix</t>
+  </si>
+  <si>
+    <t>Must the year be included in sample prefixes?</t>
+  </si>
+  <si>
+    <t>SampleIDPadding</t>
+  </si>
+  <si>
+    <t>Sample id padding</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ARIDPadding</t>
+  </si>
+  <si>
+    <t>Ar id padding</t>
+  </si>
+  <si>
+    <t>ExternalIDServer</t>
+  </si>
+  <si>
+    <t>External id server?</t>
+  </si>
+  <si>
+    <t>IDServerURL</t>
+  </si>
+  <si>
+    <t>Id server url</t>
+  </si>
+  <si>
+    <t>DefaultCountry</t>
+  </si>
+  <si>
+    <t>Default Country</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>AR Import options</t>
+  </si>
+  <si>
+    <t>Results Attachment option</t>
+  </si>
+  <si>
+    <t>Auto label print size</t>
+  </si>
+  <si>
+    <t>Auto Label Printing</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Publication Preferences</t>
+  </si>
+  <si>
+    <t>North South</t>
+  </si>
+  <si>
+    <t>East West</t>
+  </si>
+  <si>
+    <t>Not Permitted</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>receive</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>LabClerk</t>
+  </si>
+  <si>
+    <t>Profiles</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>LabManager</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Preserver</t>
+  </si>
+  <si>
+    <t>Preservers</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Publishers</t>
+  </si>
+  <si>
+    <t>Sampler</t>
+  </si>
+  <si>
+    <t>Samplers</t>
+  </si>
+  <si>
+    <t>ClientType</t>
+  </si>
+  <si>
+    <t>Partitions</t>
+  </si>
+  <si>
+    <t>Worksheet template analysis types</t>
+  </si>
+  <si>
+    <t>Client types</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Instrument Maintenance task types</t>
+  </si>
+  <si>
+    <t>Instrument Scheduled tasks types</t>
+  </si>
+  <si>
+    <t>Instrument Scheduled Repeat unit</t>
+  </si>
+  <si>
+    <t>noncorporate</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>part-1</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Preventive</t>
+  </si>
+  <si>
+    <t>AFN</t>
+  </si>
+  <si>
+    <t>part-2</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Non-corporate</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>Weeks</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>part-3</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Enhancement</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>part-4</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>Calibration</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>ANG</t>
+  </si>
+  <si>
+    <t>part-5</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>AOA</t>
+  </si>
+  <si>
+    <t>part-6</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>part-7</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>part-8</t>
+  </si>
+  <si>
+    <t>AWG</t>
+  </si>
+  <si>
+    <t>part-9</t>
+  </si>
+  <si>
+    <t>AZN</t>
+  </si>
+  <si>
+    <t>part-10</t>
+  </si>
+  <si>
+    <t>BAM</t>
+  </si>
+  <si>
+    <t>part-11</t>
+  </si>
+  <si>
+    <t>BBD</t>
+  </si>
+  <si>
+    <t>part-12</t>
+  </si>
+  <si>
+    <t>BDT</t>
+  </si>
+  <si>
+    <t>BGN</t>
+  </si>
+  <si>
+    <t>BHD</t>
+  </si>
+  <si>
+    <t>BIF</t>
+  </si>
+  <si>
+    <t>BMD</t>
+  </si>
+  <si>
+    <t>BND</t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>BOV</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t>BSD</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>BWP</t>
+  </si>
+  <si>
+    <t>BYR</t>
+  </si>
+  <si>
+    <t>BZD</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>CDF</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>CHW</t>
+  </si>
+  <si>
+    <t>CLF</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>COU</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>CUC</t>
+  </si>
+  <si>
+    <t>CUP</t>
+  </si>
+  <si>
+    <t>CVE</t>
+  </si>
+  <si>
+    <t>CZK</t>
+  </si>
+  <si>
+    <t>DJF</t>
+  </si>
+  <si>
+    <t>DKK</t>
+  </si>
+  <si>
+    <t>DOP</t>
+  </si>
+  <si>
+    <t>DZD</t>
+  </si>
+  <si>
+    <t>EGP</t>
+  </si>
+  <si>
+    <t>ERN</t>
+  </si>
+  <si>
+    <t>ETB</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>FJD</t>
+  </si>
+  <si>
+    <t>FKP</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>GEL</t>
+  </si>
+  <si>
+    <t>GHS</t>
+  </si>
+  <si>
+    <t>GIP</t>
+  </si>
+  <si>
+    <t>GMD</t>
+  </si>
+  <si>
+    <t>GNF</t>
+  </si>
+  <si>
+    <t>GTQ</t>
+  </si>
+  <si>
+    <t>GYD</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>HNL</t>
+  </si>
+  <si>
+    <t>HRK</t>
+  </si>
+  <si>
+    <t>HTG</t>
+  </si>
+  <si>
+    <t>HUF</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>ILS</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>IQD</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>ISK</t>
+  </si>
+  <si>
+    <t>JMD</t>
+  </si>
+  <si>
+    <t>JOD</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>KES</t>
+  </si>
+  <si>
+    <t>KGS</t>
+  </si>
+  <si>
+    <t>KHR</t>
+  </si>
+  <si>
+    <t>KMF</t>
+  </si>
+  <si>
+    <t>KPW</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>KWD</t>
+  </si>
+  <si>
+    <t>KYD</t>
+  </si>
+  <si>
+    <t>KZT</t>
+  </si>
+  <si>
+    <t>LAK</t>
+  </si>
+  <si>
+    <t>LBP</t>
+  </si>
+  <si>
+    <t>LKR</t>
+  </si>
+  <si>
+    <t>LRD</t>
+  </si>
+  <si>
+    <t>LSL</t>
+  </si>
+  <si>
+    <t>LTL</t>
+  </si>
+  <si>
+    <t>LVL</t>
+  </si>
+  <si>
+    <t>LYD</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>MDL</t>
+  </si>
+  <si>
+    <t>MGA</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>MMK</t>
+  </si>
+  <si>
+    <t>MNT</t>
+  </si>
+  <si>
+    <t>MOP</t>
+  </si>
+  <si>
+    <t>MRO</t>
+  </si>
+  <si>
+    <t>MUR</t>
+  </si>
+  <si>
+    <t>MVR</t>
+  </si>
+  <si>
+    <t>MWK</t>
+  </si>
+  <si>
+    <t>MXN</t>
+  </si>
+  <si>
+    <t>MXV</t>
+  </si>
+  <si>
+    <t>MYR</t>
+  </si>
+  <si>
+    <t>MZN</t>
+  </si>
+  <si>
+    <t>NAD</t>
+  </si>
+  <si>
+    <t>NGN</t>
+  </si>
+  <si>
+    <t>NIO</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>OMR</t>
+  </si>
+  <si>
+    <t>PAB</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>PGK</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>PKR</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t>PYG</t>
+  </si>
+  <si>
+    <t>QAR</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>RSD</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>RWF</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>SBD</t>
+  </si>
+  <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>SDG</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>SHP</t>
+  </si>
+  <si>
+    <t>SLL</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>SRD</t>
+  </si>
+  <si>
+    <t>SSP</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>SYP</t>
+  </si>
+  <si>
+    <t>SZL</t>
+  </si>
+  <si>
+    <t>THB</t>
+  </si>
+  <si>
+    <t>TJS</t>
+  </si>
+  <si>
+    <t>TMT</t>
+  </si>
+  <si>
+    <t>TND</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>TTD</t>
+  </si>
+  <si>
+    <t>TWD</t>
+  </si>
+  <si>
+    <t>TZS</t>
+  </si>
+  <si>
+    <t>UAH</t>
+  </si>
+  <si>
+    <t>UGX</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>USN</t>
+  </si>
+  <si>
+    <t>USS</t>
+  </si>
+  <si>
+    <t>UYI</t>
+  </si>
+  <si>
+    <t>UYU</t>
+  </si>
+  <si>
+    <t>UZS</t>
+  </si>
+  <si>
+    <t>VEF</t>
+  </si>
+  <si>
+    <t>VND</t>
+  </si>
+  <si>
+    <t>VUV</t>
+  </si>
+  <si>
+    <t>WST</t>
+  </si>
+  <si>
+    <t>XAF</t>
+  </si>
+  <si>
+    <t>XAG</t>
+  </si>
+  <si>
+    <t>XAU</t>
+  </si>
+  <si>
+    <t>XBA</t>
+  </si>
+  <si>
+    <t>XBB</t>
+  </si>
+  <si>
+    <t>XBC</t>
+  </si>
+  <si>
+    <t>XBD</t>
+  </si>
+  <si>
+    <t>XCD</t>
+  </si>
+  <si>
+    <t>XDR</t>
+  </si>
+  <si>
+    <t>XFU</t>
+  </si>
+  <si>
+    <t>XOF</t>
+  </si>
+  <si>
+    <t>XPD</t>
+  </si>
+  <si>
+    <t>XPF</t>
+  </si>
+  <si>
+    <t>XPT</t>
+  </si>
+  <si>
+    <t>XTS</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>YER</t>
+  </si>
+  <si>
+    <t>ZMK</t>
+  </si>
+  <si>
+    <t>ZWL</t>
   </si>
 </sst>
 </file>
@@ -3044,7 +3036,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
@@ -6875,7 +6867,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7001,7 +6993,7 @@
         <v>539</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>540</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -7047,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E1" s="48" t="s">
         <v>429</v>
@@ -7059,7 +7051,7 @@
     </row>
     <row r="2" s="73" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="46" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C2" s="46"/>
       <c r="E2" s="115"/>
@@ -7076,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E3" s="48" t="s">
         <v>455</v>
@@ -7088,13 +7080,13 @@
     </row>
     <row r="4" customFormat="false" ht="21.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="43" t="s">
+        <v>543</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>544</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="C4" s="43" t="s">
         <v>545</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>546</v>
       </c>
       <c r="D4" s="116" t="s">
         <v>505</v>
@@ -7221,7 +7213,7 @@
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="14"/>
@@ -7239,7 +7231,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7303,7 +7295,7 @@
   <sheetData>
     <row r="1" s="120" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="119" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B1" s="120" t="s">
         <v>133</v>
@@ -7312,76 +7304,76 @@
         <v>134</v>
       </c>
       <c r="D1" s="120" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1" s="120" t="s">
         <v>550</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="F1" s="120" t="s">
         <v>551</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="G1" s="121" t="s">
         <v>552</v>
       </c>
-      <c r="G1" s="121" t="s">
+      <c r="H1" s="121" t="s">
         <v>553</v>
       </c>
-      <c r="H1" s="121" t="s">
+      <c r="I1" s="121" t="s">
         <v>554</v>
       </c>
-      <c r="I1" s="121" t="s">
+      <c r="J1" s="122" t="s">
         <v>555</v>
       </c>
-      <c r="J1" s="122" t="s">
+      <c r="K1" s="122" t="s">
         <v>556</v>
       </c>
-      <c r="K1" s="122" t="s">
+      <c r="L1" s="123" t="s">
         <v>557</v>
       </c>
-      <c r="L1" s="123" t="s">
+      <c r="M1" s="122" t="s">
         <v>558</v>
       </c>
-      <c r="M1" s="122" t="s">
+      <c r="N1" s="122" t="s">
         <v>559</v>
       </c>
-      <c r="N1" s="122" t="s">
+      <c r="O1" s="124" t="s">
         <v>560</v>
       </c>
-      <c r="O1" s="124" t="s">
+      <c r="P1" s="124" t="s">
         <v>561</v>
       </c>
-      <c r="P1" s="124" t="s">
+      <c r="Q1" s="124" t="s">
         <v>562</v>
       </c>
-      <c r="Q1" s="124" t="s">
+      <c r="R1" s="121" t="s">
         <v>563</v>
       </c>
-      <c r="R1" s="121" t="s">
+      <c r="S1" s="122" t="s">
         <v>564</v>
       </c>
-      <c r="S1" s="122" t="s">
+      <c r="T1" s="122" t="s">
         <v>565</v>
       </c>
-      <c r="T1" s="122" t="s">
+      <c r="U1" s="125" t="s">
+        <v>564</v>
+      </c>
+      <c r="V1" s="120" t="s">
         <v>566</v>
       </c>
-      <c r="U1" s="125" t="s">
-        <v>565</v>
-      </c>
-      <c r="V1" s="120" t="s">
+      <c r="W1" s="120" t="s">
         <v>567</v>
-      </c>
-      <c r="W1" s="120" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="126" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -7405,7 +7397,7 @@
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B3" s="128" t="s">
         <v>141</v>
@@ -7414,92 +7406,92 @@
         <v>65</v>
       </c>
       <c r="D3" s="128" t="s">
+        <v>571</v>
+      </c>
+      <c r="E3" s="129" t="s">
         <v>572</v>
       </c>
-      <c r="E3" s="129" t="s">
+      <c r="F3" s="128" t="s">
+        <v>551</v>
+      </c>
+      <c r="G3" s="128" t="s">
+        <v>552</v>
+      </c>
+      <c r="H3" s="128" t="s">
         <v>573</v>
       </c>
-      <c r="F3" s="128" t="s">
-        <v>552</v>
-      </c>
-      <c r="G3" s="128" t="s">
-        <v>553</v>
-      </c>
-      <c r="H3" s="128" t="s">
+      <c r="I3" s="128" t="s">
+        <v>554</v>
+      </c>
+      <c r="J3" s="122" t="s">
+        <v>555</v>
+      </c>
+      <c r="K3" s="31" t="s">
         <v>574</v>
       </c>
-      <c r="I3" s="128" t="s">
-        <v>555</v>
-      </c>
-      <c r="J3" s="122" t="s">
-        <v>556</v>
-      </c>
-      <c r="K3" s="31" t="s">
+      <c r="L3" s="123" t="s">
         <v>575</v>
       </c>
-      <c r="L3" s="123" t="s">
+      <c r="M3" s="31" t="s">
         <v>576</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="N3" s="31" t="s">
         <v>577</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="O3" s="130" t="s">
         <v>578</v>
       </c>
-      <c r="O3" s="130" t="s">
+      <c r="P3" s="130" t="s">
         <v>579</v>
       </c>
-      <c r="P3" s="130" t="s">
+      <c r="Q3" s="130" t="s">
         <v>580</v>
       </c>
-      <c r="Q3" s="130" t="s">
+      <c r="R3" s="128" t="s">
         <v>581</v>
       </c>
-      <c r="R3" s="128" t="s">
+      <c r="S3" s="31" t="s">
         <v>582</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="T3" s="31" t="s">
         <v>583</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="U3" s="131" t="s">
+        <v>582</v>
+      </c>
+      <c r="V3" s="129" t="s">
         <v>584</v>
       </c>
-      <c r="U3" s="131" t="s">
-        <v>583</v>
-      </c>
-      <c r="V3" s="129" t="s">
+      <c r="W3" s="129" t="s">
         <v>585</v>
-      </c>
-      <c r="W3" s="129" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="132" t="s">
+        <v>586</v>
+      </c>
+      <c r="B4" s="133" t="s">
         <v>587</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="C4" s="134" t="s">
         <v>588</v>
       </c>
-      <c r="C4" s="134" t="s">
-        <v>589</v>
-      </c>
       <c r="D4" s="135" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E4" s="135"/>
       <c r="F4" s="135" t="s">
         <v>365</v>
       </c>
       <c r="G4" s="136" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H4" s="136" t="n">
         <v>30308</v>
       </c>
       <c r="I4" s="136"/>
       <c r="J4" s="132" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K4" s="132"/>
       <c r="L4" s="137" t="n">
@@ -7508,16 +7500,16 @@
       <c r="M4" s="132"/>
       <c r="N4" s="132"/>
       <c r="O4" s="86" t="s">
+        <v>591</v>
+      </c>
+      <c r="P4" s="86" t="s">
         <v>592</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="Q4" s="86" t="s">
         <v>593</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="R4" s="136" t="s">
         <v>594</v>
-      </c>
-      <c r="R4" s="136" t="s">
-        <v>595</v>
       </c>
       <c r="S4" s="138"/>
       <c r="T4" s="5"/>
@@ -7586,40 +7578,40 @@
         <v>133</v>
       </c>
       <c r="B1" s="140" t="s">
+        <v>595</v>
+      </c>
+      <c r="C1" s="120" t="s">
         <v>596</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="D1" s="141" t="s">
         <v>597</v>
       </c>
-      <c r="D1" s="141" t="s">
+      <c r="E1" s="120" t="s">
         <v>598</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="F1" s="120" t="s">
         <v>599</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="G1" s="120" t="s">
         <v>600</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="H1" s="120" t="s">
         <v>601</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="I1" s="140" t="s">
         <v>602</v>
       </c>
-      <c r="I1" s="140" t="s">
+      <c r="J1" s="140" t="s">
         <v>603</v>
       </c>
-      <c r="J1" s="140" t="s">
+      <c r="K1" s="120" t="s">
         <v>604</v>
-      </c>
-      <c r="K1" s="120" t="s">
-        <v>605</v>
       </c>
       <c r="L1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="142" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B2" s="143"/>
       <c r="D2" s="141"/>
@@ -7631,45 +7623,45 @@
         <v>141</v>
       </c>
       <c r="B3" s="144" t="s">
+        <v>606</v>
+      </c>
+      <c r="C3" s="120" t="s">
         <v>607</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="D3" s="141" t="s">
         <v>608</v>
       </c>
-      <c r="D3" s="141" t="s">
+      <c r="E3" s="120" t="s">
         <v>609</v>
       </c>
-      <c r="E3" s="120" t="s">
+      <c r="F3" s="120" t="s">
         <v>610</v>
       </c>
-      <c r="F3" s="120" t="s">
+      <c r="G3" s="120" t="s">
         <v>611</v>
       </c>
-      <c r="G3" s="120" t="s">
+      <c r="H3" s="120" t="s">
         <v>612</v>
       </c>
-      <c r="H3" s="120" t="s">
+      <c r="I3" s="145" t="s">
         <v>613</v>
       </c>
-      <c r="I3" s="145" t="s">
+      <c r="J3" s="146" t="s">
         <v>614</v>
       </c>
-      <c r="J3" s="146" t="s">
+      <c r="K3" s="120" t="s">
         <v>615</v>
-      </c>
-      <c r="K3" s="120" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B4" s="147" t="n">
         <v>42754</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D4" s="148" t="n">
         <v>42736</v>
@@ -7681,16 +7673,16 @@
         <v>183</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>618</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>619</v>
       </c>
       <c r="I4" s="132" t="s">
         <v>183</v>
       </c>
       <c r="J4" s="86" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7747,37 +7739,37 @@
         <v>133</v>
       </c>
       <c r="B1" s="140" t="s">
+        <v>595</v>
+      </c>
+      <c r="C1" s="120" t="s">
         <v>596</v>
-      </c>
-      <c r="C1" s="120" t="s">
-        <v>597</v>
       </c>
       <c r="D1" s="0"/>
       <c r="E1" s="120" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F1" s="120" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G1" s="120" t="s">
+        <v>600</v>
+      </c>
+      <c r="H1" s="120" t="s">
         <v>601</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="I1" s="140" t="s">
         <v>602</v>
       </c>
-      <c r="I1" s="140" t="s">
+      <c r="J1" s="140" t="s">
         <v>603</v>
       </c>
-      <c r="J1" s="140" t="s">
+      <c r="K1" s="120" t="s">
         <v>604</v>
-      </c>
-      <c r="K1" s="120" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="142" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7785,45 +7777,45 @@
         <v>141</v>
       </c>
       <c r="B3" s="144" t="s">
+        <v>606</v>
+      </c>
+      <c r="C3" s="120" t="s">
         <v>607</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="D3" s="141" t="s">
         <v>608</v>
       </c>
-      <c r="D3" s="141" t="s">
+      <c r="E3" s="120" t="s">
         <v>609</v>
       </c>
-      <c r="E3" s="120" t="s">
-        <v>610</v>
-      </c>
       <c r="F3" s="120" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G3" s="120" t="s">
+        <v>611</v>
+      </c>
+      <c r="H3" s="120" t="s">
         <v>612</v>
       </c>
-      <c r="H3" s="120" t="s">
+      <c r="I3" s="145" t="s">
         <v>613</v>
       </c>
-      <c r="I3" s="145" t="s">
+      <c r="J3" s="146" t="s">
         <v>614</v>
       </c>
-      <c r="J3" s="146" t="s">
+      <c r="K3" s="120" t="s">
         <v>615</v>
-      </c>
-      <c r="K3" s="120" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B4" s="149" t="n">
         <v>41778</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D4" s="148" t="n">
         <v>42856</v>
@@ -7832,16 +7824,16 @@
         <v>42859</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>625</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>626</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>183</v>
       </c>
       <c r="J4" s="150" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7890,27 +7882,27 @@
   <sheetData>
     <row r="1" s="120" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="120" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B1" s="120" t="s">
+        <v>627</v>
+      </c>
+      <c r="C1" s="120" t="s">
         <v>628</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="D1" s="120" t="s">
         <v>629</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="E1" s="120" t="s">
         <v>630</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="F1" s="120" t="s">
         <v>631</v>
-      </c>
-      <c r="F1" s="120" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="2" s="151" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="151" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7918,24 +7910,24 @@
         <v>486</v>
       </c>
       <c r="B3" s="152" t="s">
+        <v>633</v>
+      </c>
+      <c r="C3" s="152" t="s">
         <v>634</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="D3" s="152" t="s">
         <v>635</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="E3" s="152" t="s">
         <v>636</v>
       </c>
-      <c r="E3" s="152" t="s">
-        <v>637</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="153" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4566</v>
@@ -7944,13 +7936,13 @@
         <v>1.1</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>638</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>639</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -7998,45 +7990,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B1" s="120" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="120" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D1" s="141" t="s">
+        <v>640</v>
+      </c>
+      <c r="E1" s="120" t="s">
         <v>641</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="F1" s="120" t="s">
         <v>642</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="G1" s="120" t="s">
         <v>643</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="H1" s="140" t="s">
         <v>644</v>
       </c>
-      <c r="H1" s="140" t="s">
+      <c r="I1" s="140" t="s">
         <v>645</v>
       </c>
-      <c r="I1" s="140" t="s">
+      <c r="J1" s="120" t="s">
+        <v>604</v>
+      </c>
+      <c r="K1" s="154" t="s">
         <v>646</v>
-      </c>
-      <c r="J1" s="120" t="s">
-        <v>605</v>
-      </c>
-      <c r="K1" s="154" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="155" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B2" s="142" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="142"/>
@@ -8044,48 +8036,48 @@
     </row>
     <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="145" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B3" s="120" t="s">
+        <v>648</v>
+      </c>
+      <c r="C3" s="120" t="s">
+        <v>607</v>
+      </c>
+      <c r="D3" s="141" t="s">
         <v>649</v>
       </c>
-      <c r="C3" s="120" t="s">
-        <v>608</v>
-      </c>
-      <c r="D3" s="141" t="s">
+      <c r="E3" s="120" t="s">
         <v>650</v>
       </c>
-      <c r="E3" s="120" t="s">
+      <c r="F3" s="120" t="s">
         <v>651</v>
       </c>
-      <c r="F3" s="120" t="s">
+      <c r="G3" s="120" t="s">
         <v>652</v>
       </c>
-      <c r="G3" s="120" t="s">
+      <c r="H3" s="157" t="s">
         <v>653</v>
       </c>
-      <c r="H3" s="157" t="s">
+      <c r="I3" s="145" t="s">
         <v>654</v>
       </c>
-      <c r="I3" s="145" t="s">
+      <c r="J3" s="120" t="s">
+        <v>615</v>
+      </c>
+      <c r="K3" s="145" t="s">
         <v>655</v>
-      </c>
-      <c r="J3" s="120" t="s">
-        <v>616</v>
-      </c>
-      <c r="K3" s="145" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="132" t="s">
+        <v>656</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>657</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>658</v>
-      </c>
       <c r="C4" s="44" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D4" s="148" t="n">
         <v>42736</v>
@@ -8097,7 +8089,7 @@
         <v>43465</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H4" s="132" t="s">
         <v>183</v>
@@ -8579,7 +8571,7 @@
     </row>
     <row r="2" s="7" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C2" s="159"/>
     </row>
@@ -8596,10 +8588,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="B4" s="51" t="s">
         <v>661</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>662</v>
       </c>
       <c r="C4" s="160" t="n">
         <v>0</v>
@@ -8607,10 +8599,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B5" s="51" t="s">
         <v>663</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>664</v>
       </c>
       <c r="C5" s="160" t="n">
         <v>0</v>
@@ -8618,21 +8610,21 @@
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>664</v>
+      </c>
+      <c r="C6" s="160" t="s">
         <v>665</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>665</v>
-      </c>
-      <c r="C6" s="160" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="B7" s="51" t="s">
         <v>667</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>668</v>
       </c>
       <c r="C7" s="161" t="n">
         <v>0</v>
@@ -8640,10 +8632,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="B8" s="51" t="s">
         <v>669</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>670</v>
       </c>
       <c r="C8" s="161" t="n">
         <v>1</v>
@@ -8651,10 +8643,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="B9" s="51" t="s">
         <v>671</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>672</v>
       </c>
       <c r="C9" s="160" t="n">
         <v>15</v>
@@ -8665,7 +8657,7 @@
         <v>428</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C10" s="160" t="n">
         <v>14</v>
@@ -8673,10 +8665,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="B11" s="51" t="s">
         <v>674</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>675</v>
       </c>
       <c r="C11" s="160" t="n">
         <v>5</v>
@@ -8684,10 +8676,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="B12" s="51" t="s">
         <v>676</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>677</v>
       </c>
       <c r="C12" s="160" t="n">
         <v>5</v>
@@ -8695,10 +8687,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="B13" s="51" t="s">
         <v>678</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>679</v>
       </c>
       <c r="C13" s="160" t="n">
         <v>4</v>
@@ -8706,19 +8698,19 @@
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="B14" s="51" t="s">
         <v>680</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>681</v>
       </c>
       <c r="C14" s="160"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="B15" s="51" t="s">
         <v>682</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>683</v>
       </c>
       <c r="C15" s="161" t="n">
         <v>0</v>
@@ -8726,10 +8718,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B16" s="51" t="s">
         <v>684</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>685</v>
       </c>
       <c r="C16" s="161" t="n">
         <v>0</v>
@@ -8737,10 +8729,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="B17" s="51" t="s">
         <v>686</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>687</v>
       </c>
       <c r="C17" s="161" t="n">
         <v>1</v>
@@ -8748,22 +8740,22 @@
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="B18" s="51" t="s">
         <v>688</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="C18" s="162" t="s">
         <v>689</v>
-      </c>
-      <c r="C18" s="162" t="s">
-        <v>690</v>
       </c>
       <c r="D18" s="163"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="B19" s="51" t="s">
         <v>691</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>692</v>
       </c>
       <c r="C19" s="164" t="s">
         <v>301</v>
@@ -8772,10 +8764,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="B20" s="51" t="s">
         <v>693</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>694</v>
       </c>
       <c r="C20" s="164" t="s">
         <v>301</v>
@@ -8783,10 +8775,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="B21" s="51" t="s">
         <v>695</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>696</v>
       </c>
       <c r="C21" s="162" t="n">
         <v>30</v>
@@ -8794,10 +8786,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="B22" s="51" t="s">
         <v>697</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>698</v>
       </c>
       <c r="C22" s="162" t="n">
         <v>0</v>
@@ -8805,10 +8797,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="B23" s="51" t="s">
         <v>699</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>700</v>
       </c>
       <c r="C23" s="162" t="n">
         <v>0</v>
@@ -8816,33 +8808,33 @@
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="B24" s="51" t="s">
         <v>701</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="C24" s="164" t="s">
         <v>702</v>
-      </c>
-      <c r="C24" s="164" t="s">
-        <v>703</v>
       </c>
       <c r="D24" s="165"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="B25" s="51" t="s">
         <v>704</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="C25" s="164" t="s">
         <v>705</v>
-      </c>
-      <c r="C25" s="164" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B26" s="51" t="s">
         <v>707</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>708</v>
       </c>
       <c r="C26" s="161" t="n">
         <v>0</v>
@@ -8850,21 +8842,21 @@
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="B27" s="51" t="s">
         <v>709</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="C27" s="160" t="s">
         <v>710</v>
-      </c>
-      <c r="C27" s="160" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="B28" s="51" t="s">
         <v>712</v>
-      </c>
-      <c r="B28" s="51" t="s">
-        <v>713</v>
       </c>
       <c r="C28" s="160" t="n">
         <v>2</v>
@@ -8872,10 +8864,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="B29" s="51" t="s">
         <v>714</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>715</v>
       </c>
       <c r="C29" s="161" t="n">
         <v>0</v>
@@ -8883,22 +8875,22 @@
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="B30" s="51" t="s">
         <v>716</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>717</v>
       </c>
       <c r="C30" s="160"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="B31" s="51" t="s">
         <v>718</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="C31" s="166" t="s">
         <v>719</v>
-      </c>
-      <c r="C31" s="166" t="s">
-        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -9044,28 +9036,28 @@
         <v>198</v>
       </c>
       <c r="C1" s="32" t="s">
+        <v>720</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>721</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>722</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>723</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="168" t="s">
         <v>724</v>
       </c>
-      <c r="G1" s="168" t="s">
+      <c r="H1" s="32" t="s">
         <v>725</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="32" t="s">
         <v>726</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>727</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>728</v>
       </c>
       <c r="K1" s="32" t="s">
         <v>441</v>
@@ -9080,63 +9072,63 @@
         <v>243</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D2" s="51" t="s">
+        <v>728</v>
+      </c>
+      <c r="E2" s="169" t="s">
         <v>729</v>
       </c>
-      <c r="E2" s="169" t="s">
+      <c r="F2" s="51" t="s">
         <v>730</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>731</v>
       </c>
       <c r="G2" s="51" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="51" t="s">
+        <v>731</v>
+      </c>
+      <c r="I2" s="51" t="s">
         <v>732</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="J2" s="51" t="s">
         <v>733</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="K2" s="51" t="s">
         <v>734</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>301</v>
       </c>
       <c r="E3" s="169" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G3" s="51" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="51" t="s">
+        <v>738</v>
+      </c>
+      <c r="I3" s="51" t="s">
         <v>739</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="J3" s="51" t="s">
         <v>740</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>741</v>
       </c>
       <c r="K3" s="51" t="s">
         <v>466</v>
@@ -9144,19 +9136,19 @@
     </row>
     <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>225</v>
       </c>
       <c r="C4" s="51" t="s">
+        <v>742</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>743</v>
       </c>
-      <c r="D4" s="51" t="s">
-        <v>744</v>
-      </c>
       <c r="F4" s="51" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G4" s="169"/>
       <c r="H4" s="51" t="s">
@@ -9165,28 +9157,28 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="51" t="s">
+        <v>744</v>
+      </c>
+      <c r="B5" s="51" t="s">
         <v>745</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>746</v>
       </c>
       <c r="G5" s="169"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>747</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>748</v>
       </c>
       <c r="G6" s="169"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="51" t="s">
+        <v>748</v>
+      </c>
+      <c r="B7" s="51" t="s">
         <v>749</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>750</v>
       </c>
       <c r="G7" s="169"/>
     </row>
@@ -9248,57 +9240,57 @@
     </row>
     <row r="21" s="173" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>751</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>665</v>
-      </c>
-      <c r="C21" s="31" t="s">
+      <c r="D21" s="31" t="s">
         <v>752</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="E21" s="172" t="s">
         <v>753</v>
       </c>
-      <c r="E21" s="172" t="s">
+      <c r="F21" s="31" t="s">
         <v>754</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="G21" s="31" t="s">
         <v>755</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="H21" s="31" t="s">
         <v>756</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="I21" s="31" t="s">
         <v>757</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="174" t="s">
+        <v>758</v>
+      </c>
+      <c r="B22" s="51" t="s">
         <v>759</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="C22" s="51" t="s">
         <v>760</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="D22" s="51" t="s">
         <v>761</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="E22" s="169" t="s">
         <v>762</v>
       </c>
-      <c r="E22" s="169" t="s">
+      <c r="F22" s="51" t="s">
         <v>763</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="G22" s="51" t="s">
         <v>764</v>
       </c>
-      <c r="G22" s="51" t="s">
-        <v>765</v>
-      </c>
       <c r="H22" s="51" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I22" s="51" t="s">
         <v>450</v>
@@ -9306,970 +9298,970 @@
     </row>
     <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="51" t="s">
+        <v>765</v>
+      </c>
+      <c r="C23" s="51" t="s">
         <v>766</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="D23" s="51" t="s">
         <v>767</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="E23" s="169" t="s">
         <v>768</v>
       </c>
-      <c r="E23" s="169" t="s">
+      <c r="F23" s="51" t="s">
         <v>769</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="G23" s="51" t="s">
         <v>770</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="H23" s="51" t="s">
+        <v>770</v>
+      </c>
+      <c r="I23" s="51" t="s">
         <v>771</v>
-      </c>
-      <c r="H23" s="51" t="s">
-        <v>771</v>
-      </c>
-      <c r="I23" s="51" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="51" t="s">
+        <v>772</v>
+      </c>
+      <c r="C24" s="51" t="s">
         <v>773</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="D24" s="51" t="s">
         <v>774</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="F24" s="51" t="s">
         <v>775</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="G24" s="51" t="s">
         <v>776</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="H24" s="51" t="s">
+        <v>776</v>
+      </c>
+      <c r="I24" s="51" t="s">
         <v>777</v>
-      </c>
-      <c r="H24" s="51" t="s">
-        <v>777</v>
-      </c>
-      <c r="I24" s="51" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="C25" s="51" t="s">
         <v>779</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="D25" s="51" t="s">
         <v>780</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="H25" s="51" t="s">
         <v>781</v>
       </c>
-      <c r="H25" s="51" t="s">
+      <c r="I25" s="51" t="s">
         <v>782</v>
-      </c>
-      <c r="I25" s="51" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="51" t="s">
+        <v>783</v>
+      </c>
+      <c r="C26" s="51" t="s">
         <v>784</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="H26" s="51" t="s">
         <v>785</v>
-      </c>
-      <c r="H26" s="51" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="51" t="s">
+        <v>786</v>
+      </c>
+      <c r="C27" s="51" t="s">
         <v>787</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="51" t="s">
+        <v>788</v>
+      </c>
+      <c r="C28" s="51" t="s">
         <v>789</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="51" t="s">
+        <v>790</v>
+      </c>
+      <c r="C29" s="51" t="s">
         <v>791</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="51" t="s">
+        <v>792</v>
+      </c>
+      <c r="C30" s="51" t="s">
         <v>793</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="51" t="s">
+        <v>794</v>
+      </c>
+      <c r="C31" s="51" t="s">
         <v>795</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="51" t="s">
+        <v>796</v>
+      </c>
+      <c r="C32" s="51" t="s">
         <v>797</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="51" t="s">
+        <v>798</v>
+      </c>
+      <c r="C33" s="51" t="s">
         <v>799</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="51" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="51" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="51" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="51" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="51" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="51" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="51" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="51" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="51" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="51" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="51" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="51" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="51" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="51" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="51" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="51" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="51" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="51" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="51" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="51" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="51" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="51" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="51" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="51" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="51" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="51" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="51" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="51" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="51" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="51" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="51" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="51" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="51" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="51" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="51" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="51" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="51" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="51" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="51" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="51" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="51" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="51" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="51" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="51" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="51" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="51" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="51" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="51" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="51" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="51" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="51" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="51" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="51" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="51" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="51" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="51" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="51" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="51" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="51" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="51" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="51" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="51" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="51" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="51" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="51" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="51" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="51" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="51" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="51" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="51" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="51" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="51" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="51" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="51" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="51" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="51" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="51" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="51" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="51" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="51" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="51" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="51" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="51" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="51" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="51" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="51" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="51" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="51" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="51" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="51" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="51" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="51" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="51" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="51" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="51" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="51" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="51" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="51" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="51" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="51" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="51" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="51" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="51" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="51" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="51" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="51" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="51" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="51" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="51" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="51" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="51" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="51" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="51" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="51" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="51" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="51" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="51" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="51" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="51" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="51" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="51" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="51" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="51" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="51" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="51" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="51" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="51" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="51" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="51" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="51" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="51" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="51" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="51" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="51" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="51" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="51" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="51" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="51" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="51" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="51" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="51" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="51" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="51" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="51" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="51" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="51" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="51" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="51" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="51" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="51" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="51" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="51" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="51" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="51" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="51" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="51" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="51" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="51" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="51" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="51" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="51" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="51" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="51" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="51" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
   </sheetData>

--- a/baobab/lims/setupdata/test/test.xlsx
+++ b/baobab/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="975" firstSheet="0" activeTab="21"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="961" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,33 +18,35 @@
     <sheet name="Clients" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Client Contacts" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Suppliers" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Products" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Supplier Contacts" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Analysis Categories" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Analysis Services" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="AnalysisService InterimFields" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="AnalysisService Methods" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="AnalysisService Instruments" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="AnalysisService ResultOptions" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="Analysis Service Uncertainties" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="Calculations" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="Calculation Interim Fields" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="Projects" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="Methods" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="Instrument Types" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="Instruments" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="Instrument Validations" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="Instrument Calibrations" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="Instrument Documents" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="Instrument Certifications" sheetId="29" state="visible" r:id="rId30"/>
-    <sheet name="Setup" sheetId="30" state="visible" r:id="rId31"/>
-    <sheet name="Constants" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="Supplier Contacts" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Products" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Kit Templates" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Kit Components" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Analysis Categories" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Analysis Services" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="AnalysisService InterimFields" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="AnalysisService Methods" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="AnalysisService Instruments" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="AnalysisService ResultOptions" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="Analysis Service Uncertainties" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="Calculations" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="Calculation Interim Fields" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="Projects" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="Methods" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="Instrument Types" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="Instruments" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="Instrument Validations" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="Instrument Calibrations" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="Instrument Documents" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="Instrument Certifications" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="Setup" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="Constants" sheetId="33" state="visible" r:id="rId34"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
-<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
@@ -131,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="978">
   <si>
     <t>Instructions</t>
   </si>
@@ -1273,6 +1275,60 @@
     <t>United States</t>
   </si>
   <si>
+    <t>Supplier_Name</t>
+  </si>
+  <si>
+    <t>Supplier Contacts</t>
+  </si>
+  <si>
+    <t>Supplier Name</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Business Phone</t>
+  </si>
+  <si>
+    <t>Business Fax</t>
+  </si>
+  <si>
+    <t>Home Phone</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Dobson</t>
+  </si>
+  <si>
+    <t>Salesman</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>028 274 8819</t>
+  </si>
+  <si>
+    <t>086 222 3600</t>
+  </si>
+  <si>
+    <t>089 445 0440</t>
+  </si>
+  <si>
+    <t>dobson@example.com</t>
+  </si>
+  <si>
+    <t>1 main street</t>
+  </si>
+  <si>
+    <t>Pringle Bay</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -1303,58 +1359,40 @@
     <t>1</t>
   </si>
   <si>
-    <t>Supplier_Name</t>
-  </si>
-  <si>
-    <t>Supplier Contacts</t>
-  </si>
-  <si>
-    <t>Supplier Name</t>
-  </si>
-  <si>
-    <t>Job Title</t>
-  </si>
-  <si>
-    <t>Business Phone</t>
-  </si>
-  <si>
-    <t>Business Fax</t>
-  </si>
-  <si>
-    <t>Home Phone</t>
-  </si>
-  <si>
-    <t>Mobile Phone</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Dobson</t>
-  </si>
-  <si>
-    <t>Salesman</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>028 274 8819</t>
-  </si>
-  <si>
-    <t>086 222 3600</t>
-  </si>
-  <si>
-    <t>089 445 0440</t>
-  </si>
-  <si>
-    <t>dobson@example.com</t>
-  </si>
-  <si>
-    <t>1 main street</t>
-  </si>
-  <si>
-    <t>Pringle Bay</t>
+    <t>templateID</t>
+  </si>
+  <si>
+    <t>templateName</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Kit Templates</t>
+  </si>
+  <si>
+    <t>Template ID</t>
+  </si>
+  <si>
+    <t>Template Name</t>
+  </si>
+  <si>
+    <t>KITEMP01</t>
+  </si>
+  <si>
+    <t>Kit Template 01</t>
+  </si>
+  <si>
+    <t>componentID</t>
+  </si>
+  <si>
+    <t>componentName</t>
+  </si>
+  <si>
+    <t>Component ID</t>
+  </si>
+  <si>
+    <t>Component Name</t>
   </si>
   <si>
     <t>Analysis Categories</t>
@@ -3045,7 +3083,7 @@
     <numFmt numFmtId="170" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="171" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3221,6 +3259,28 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <i val="true"/>
       <sz val="10"/>
       <color rgb="FF2323DC"/>
@@ -3257,14 +3317,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3356,7 +3408,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="179">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3701,6 +3753,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3713,18 +3773,30 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3757,7 +3829,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3769,7 +3841,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3781,7 +3853,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3793,7 +3865,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3837,31 +3909,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3869,11 +3941,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3881,7 +3953,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3921,11 +3993,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3961,7 +4029,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4204,7 +4272,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
@@ -4490,6 +4558,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F2:J2"/>
@@ -4521,183 +4590,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:5"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="ALW1" s="0"/>
-      <c r="ALX1" s="0"/>
-      <c r="ALY1" s="0"/>
-      <c r="ALZ1" s="0"/>
-      <c r="AMA1" s="0"/>
-      <c r="AMB1" s="0"/>
-      <c r="AMC1" s="0"/>
-      <c r="AMD1" s="0"/>
-      <c r="AME1" s="0"/>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" s="29" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="ALW2" s="0"/>
-      <c r="ALX2" s="0"/>
-      <c r="ALY2" s="0"/>
-      <c r="ALZ2" s="0"/>
-      <c r="AMA2" s="0"/>
-      <c r="AMB2" s="0"/>
-      <c r="AMC2" s="0"/>
-      <c r="AMD2" s="0"/>
-      <c r="AME2" s="0"/>
-      <c r="AMF2" s="0"/>
-      <c r="AMG2" s="0"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" s="7" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="ALW3" s="0"/>
-      <c r="ALX3" s="0"/>
-      <c r="ALY3" s="0"/>
-      <c r="ALZ3" s="0"/>
-      <c r="AMA3" s="0"/>
-      <c r="AMB3" s="0"/>
-      <c r="AMC3" s="0"/>
-      <c r="AMD3" s="0"/>
-      <c r="AME3" s="0"/>
-      <c r="AMF3" s="0"/>
-      <c r="AMG3" s="0"/>
-      <c r="AMH3" s="0"/>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="79" t="s">
-        <v>384</v>
-      </c>
-      <c r="B4" s="86" t="s">
-        <v>385</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>386</v>
-      </c>
-      <c r="D4" s="87" t="s">
-        <v>386</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="83" t="s">
-        <v>365</v>
-      </c>
-      <c r="G4" s="88" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="79" t="s">
-        <v>387</v>
-      </c>
-      <c r="B5" s="86" t="s">
-        <v>388</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>389</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>386</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="83" t="s">
-        <v>365</v>
-      </c>
-      <c r="G5" s="88" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" prompt="Please select a valid Suppliers  the staff member belongs to from the drop-down menu" promptTitle="Suppliers" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F5" type="list">
-      <formula1>Suppliers!$A$4:$A$20</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -4715,7 +4607,7 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>187</v>
@@ -4780,7 +4672,7 @@
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C2" s="14"/>
       <c r="L2" s="59" t="s">
@@ -4800,7 +4692,7 @@
     </row>
     <row r="3" s="7" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>187</v>
@@ -4812,22 +4704,22 @@
         <v>189</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>209</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>96</v>
@@ -4864,82 +4756,82 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="86" t="s">
         <v>365</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>216</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="G4" s="90" t="s">
-        <v>402</v>
-      </c>
-      <c r="H4" s="90" t="s">
-        <v>403</v>
+        <v>391</v>
+      </c>
+      <c r="G4" s="87" t="s">
+        <v>392</v>
+      </c>
+      <c r="H4" s="87" t="s">
+        <v>393</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="86" t="s">
         <v>373</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>216</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>107</v>
@@ -4970,7 +4862,357 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="1:5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="29" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="7" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="ALW3" s="0"/>
+      <c r="ALX3" s="0"/>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+      <c r="AMB3" s="0"/>
+      <c r="AMC3" s="0"/>
+      <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="79" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>403</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>404</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="90" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="79" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>407</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="G5" s="90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" prompt="Please select a valid Suppliers  the staff member belongs to from the drop-down menu" promptTitle="Suppliers" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F5" type="list">
+      <formula1>Suppliers!$A$4:$A$20</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="1:4"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7408906882591"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="91" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="91" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>410</v>
+      </c>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="92" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="1:5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4736842105263"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2024291497976"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.0242914979757"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="93" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="93" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>417</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>410</v>
+      </c>
+      <c r="F1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="92" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="92" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="53" t="s">
+        <v>412</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>418</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>419</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="F3" s="94"/>
+      <c r="AMJ3" s="94"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="95" t="s">
+        <v>414</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="95" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5003,7 +5245,7 @@
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="C2" s="14"/>
       <c r="AMJ2" s="61"/>
@@ -5022,10 +5264,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="43" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>184</v>
@@ -5033,10 +5275,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="43" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>184</v>
@@ -5063,7 +5305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5085,10 +5327,10 @@
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.10526315789474"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="91" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="91" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="91" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="91" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="94" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="94" width="6.85425101214575"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="94" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="94" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="18" min="16" style="0" width="3.64372469635628"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="3.8582995951417"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.42914979757085"/>
@@ -5108,260 +5350,260 @@
         <v>133</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>134</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="92" t="s">
-        <v>417</v>
+      <c r="H1" s="97" t="s">
+        <v>429</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="L1" s="92" t="s">
-        <v>420</v>
-      </c>
-      <c r="M1" s="92" t="s">
-        <v>421</v>
-      </c>
-      <c r="N1" s="92" t="s">
-        <v>422</v>
-      </c>
-      <c r="O1" s="92" t="s">
-        <v>423</v>
+        <v>431</v>
+      </c>
+      <c r="L1" s="97" t="s">
+        <v>432</v>
+      </c>
+      <c r="M1" s="97" t="s">
+        <v>433</v>
+      </c>
+      <c r="N1" s="97" t="s">
+        <v>434</v>
+      </c>
+      <c r="O1" s="97" t="s">
+        <v>435</v>
       </c>
       <c r="P1" s="39" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="R1" s="39" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="V1" s="17" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="X1" s="17" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="Y1" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="Z1" s="92" t="s">
-        <v>433</v>
+        <v>444</v>
+      </c>
+      <c r="Z1" s="97" t="s">
+        <v>445</v>
       </c>
       <c r="AA1" s="17" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="AB1" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="AC1" s="93" t="s">
-        <v>436</v>
-      </c>
-      <c r="AD1" s="93" t="s">
-        <v>437</v>
-      </c>
-      <c r="AE1" s="93"/>
+        <v>447</v>
+      </c>
+      <c r="AC1" s="98" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD1" s="98" t="s">
+        <v>449</v>
+      </c>
+      <c r="AE1" s="98"/>
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="H2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="95" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="Z2" s="94"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-    </row>
-    <row r="3" s="97" customFormat="true" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="97" t="s">
+      <c r="H2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="100" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="Z2" s="99"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+    </row>
+    <row r="3" s="102" customFormat="true" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="97" t="s">
-        <v>440</v>
-      </c>
-      <c r="C3" s="97" t="s">
+      <c r="B3" s="102" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="97" t="s">
-        <v>414</v>
-      </c>
-      <c r="E3" s="97" t="s">
-        <v>441</v>
-      </c>
-      <c r="F3" s="97" t="s">
-        <v>442</v>
-      </c>
-      <c r="G3" s="97" t="s">
-        <v>443</v>
+      <c r="D3" s="102" t="s">
+        <v>426</v>
+      </c>
+      <c r="E3" s="102" t="s">
+        <v>453</v>
+      </c>
+      <c r="F3" s="102" t="s">
+        <v>454</v>
+      </c>
+      <c r="G3" s="102" t="s">
+        <v>455</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>444</v>
-      </c>
-      <c r="I3" s="97" t="s">
-        <v>445</v>
-      </c>
-      <c r="J3" s="97" t="s">
-        <v>381</v>
-      </c>
-      <c r="K3" s="97" t="s">
-        <v>419</v>
+        <v>456</v>
+      </c>
+      <c r="I3" s="102" t="s">
+        <v>457</v>
+      </c>
+      <c r="J3" s="102" t="s">
+        <v>399</v>
+      </c>
+      <c r="K3" s="102" t="s">
+        <v>431</v>
       </c>
       <c r="L3" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="P3" s="102" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q3" s="102" t="s">
+        <v>463</v>
+      </c>
+      <c r="R3" s="102" t="s">
+        <v>464</v>
+      </c>
+      <c r="S3" s="102" t="s">
+        <v>400</v>
+      </c>
+      <c r="T3" s="102" t="s">
+        <v>465</v>
+      </c>
+      <c r="U3" s="102" t="s">
+        <v>466</v>
+      </c>
+      <c r="V3" s="102" t="s">
+        <v>467</v>
+      </c>
+      <c r="W3" s="102" t="s">
+        <v>468</v>
+      </c>
+      <c r="X3" s="102" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y3" s="102" t="s">
+        <v>470</v>
+      </c>
+      <c r="Z3" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA3" s="102" t="s">
         <v>446</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="AB3" s="102" t="s">
         <v>447</v>
       </c>
-      <c r="N3" s="31" t="s">
-        <v>448</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="P3" s="97" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q3" s="97" t="s">
-        <v>451</v>
-      </c>
-      <c r="R3" s="97" t="s">
-        <v>452</v>
-      </c>
-      <c r="S3" s="97" t="s">
-        <v>382</v>
-      </c>
-      <c r="T3" s="97" t="s">
-        <v>453</v>
-      </c>
-      <c r="U3" s="97" t="s">
-        <v>454</v>
-      </c>
-      <c r="V3" s="97" t="s">
-        <v>455</v>
-      </c>
-      <c r="W3" s="97" t="s">
-        <v>456</v>
-      </c>
-      <c r="X3" s="97" t="s">
-        <v>457</v>
-      </c>
-      <c r="Y3" s="97" t="s">
-        <v>458</v>
-      </c>
-      <c r="Z3" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="AA3" s="97" t="s">
-        <v>434</v>
-      </c>
-      <c r="AB3" s="97" t="s">
-        <v>435</v>
-      </c>
-      <c r="AC3" s="97" t="s">
-        <v>460</v>
-      </c>
-      <c r="AD3" s="97" t="s">
-        <v>461</v>
+      <c r="AC3" s="102" t="s">
+        <v>472</v>
+      </c>
+      <c r="AD3" s="102" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="39" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>464</v>
-      </c>
-      <c r="D4" s="98" t="s">
-        <v>465</v>
-      </c>
-      <c r="E4" s="98" t="s">
-        <v>466</v>
-      </c>
-      <c r="F4" s="98" t="s">
-        <v>409</v>
-      </c>
-      <c r="G4" s="98" t="s">
+        <v>476</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>477</v>
+      </c>
+      <c r="E4" s="103" t="s">
+        <v>478</v>
+      </c>
+      <c r="F4" s="103" t="s">
+        <v>421</v>
+      </c>
+      <c r="G4" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="H4" s="99" t="n">
+      <c r="H4" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="103" t="s">
         <v>301</v>
       </c>
-      <c r="J4" s="100" t="s">
-        <v>467</v>
+      <c r="J4" s="105" t="s">
+        <v>479</v>
       </c>
       <c r="K4" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="101" t="n">
+      <c r="L4" s="106" t="n">
         <v>7</v>
       </c>
-      <c r="M4" s="101" t="n">
+      <c r="M4" s="106" t="n">
         <v>0</v>
       </c>
-      <c r="N4" s="101" t="n">
+      <c r="N4" s="106" t="n">
         <v>1000000000</v>
       </c>
-      <c r="O4" s="101" t="n">
+      <c r="O4" s="106" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="102" t="n">
+      <c r="P4" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" s="102" t="n">
+      <c r="Q4" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="R4" s="102" t="n">
+      <c r="R4" s="107" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="39" t="n">
@@ -5376,10 +5618,10 @@
       <c r="V4" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="W4" s="98"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="101" t="n">
+      <c r="W4" s="103"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="106" t="n">
         <v>10</v>
       </c>
       <c r="AA4" s="36" t="n">
@@ -5388,62 +5630,62 @@
       <c r="AB4" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="108"/>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="39" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>470</v>
-      </c>
-      <c r="D5" s="98" t="s">
-        <v>471</v>
-      </c>
-      <c r="E5" s="98" t="s">
-        <v>466</v>
-      </c>
-      <c r="F5" s="98" t="s">
-        <v>411</v>
-      </c>
-      <c r="G5" s="98" t="s">
+        <v>482</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>483</v>
+      </c>
+      <c r="E5" s="103" t="s">
+        <v>478</v>
+      </c>
+      <c r="F5" s="103" t="s">
+        <v>423</v>
+      </c>
+      <c r="G5" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="H5" s="99" t="n">
+      <c r="H5" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="98" t="s">
+      <c r="I5" s="103" t="s">
         <v>301</v>
       </c>
-      <c r="J5" s="100" t="s">
-        <v>467</v>
+      <c r="J5" s="105" t="s">
+        <v>479</v>
       </c>
       <c r="K5" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="L5" s="101" t="n">
+      <c r="L5" s="106" t="n">
         <v>7</v>
       </c>
-      <c r="M5" s="101" t="n">
+      <c r="M5" s="106" t="n">
         <v>0</v>
       </c>
-      <c r="N5" s="101" t="n">
+      <c r="N5" s="106" t="n">
         <v>1000000000</v>
       </c>
-      <c r="O5" s="101" t="n">
+      <c r="O5" s="106" t="n">
         <v>0</v>
       </c>
-      <c r="P5" s="102" t="n">
+      <c r="P5" s="107" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" s="102" t="n">
+      <c r="Q5" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="R5" s="102" t="n">
+      <c r="R5" s="107" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="39" t="n">
@@ -5458,10 +5700,10 @@
       <c r="V5" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="W5" s="98"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="101" t="n">
+      <c r="W5" s="103"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="108"/>
+      <c r="Z5" s="106" t="n">
         <v>10</v>
       </c>
       <c r="AA5" s="36" t="n">
@@ -5470,8 +5712,8 @@
       <c r="AB5" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
+      <c r="AC5" s="108"/>
+      <c r="AD5" s="108"/>
     </row>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5576,7 +5818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5599,42 +5841,42 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>133</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" s="7" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -5648,7 +5890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5668,24 +5910,24 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="B2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -5699,7 +5941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5719,24 +5961,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="B2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -5750,7 +5992,364 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="true" max="1" min="1" style="5" width="0"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.21457489878543"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="5" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" s="7" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation allowBlank="true" error="Please enter a whole number bigger than 0" errorTitle="Invalid entry" operator="equal" prompt="Please enter a whole number bigger than 0" promptTitle="Integer" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4:C13" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D4:D13" type="list">
+      <formula1>"generated,counter"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Select a valid separator from the drop-down menu" errorTitle="Invalid entry" operator="equal" promptTitle="Select a valid separator" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:E12" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F13" type="list">
+      <formula1>"backreference,contained"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" promptTitle="Whole numbers" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I4:I13" type="whole">
+      <formula1>1</formula1>
+      <formula2>20</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Object ID prefixes"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5773,19 +6372,19 @@
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="24.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="39" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="AMJ1" s="39"/>
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="C2" s="15"/>
       <c r="AMJ2" s="61"/>
@@ -5795,41 +6394,41 @@
         <v>141</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="C3" s="104" t="s">
-        <v>491</v>
+        <v>502</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>503</v>
       </c>
       <c r="AMJ3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="105" t="s">
-        <v>468</v>
+      <c r="A4" s="110" t="s">
+        <v>480</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="C4" s="38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="105" t="s">
-        <v>468</v>
+      <c r="A5" s="110" t="s">
+        <v>480</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="C5" s="38" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="105" t="s">
-        <v>468</v>
+      <c r="A6" s="110" t="s">
+        <v>480</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="C6" s="38" t="n">
         <v>2</v>
@@ -5873,7 +6472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5895,21 +6494,21 @@
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="39" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="15"/>
@@ -5918,16 +6517,16 @@
     </row>
     <row r="3" s="7" customFormat="true" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6044,364 +6643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="true" max="1" min="1" style="5" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.21457489878543"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="5" width="9.10526315789474"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" s="7" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="5">
-    <dataValidation allowBlank="true" error="Please enter a whole number bigger than 0" errorTitle="Invalid entry" operator="equal" prompt="Please enter a whole number bigger than 0" promptTitle="Integer" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4:C13" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D4:D13" type="list">
-      <formula1>"generated,counter"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid separator from the drop-down menu" errorTitle="Invalid entry" operator="equal" promptTitle="Select a valid separator" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:E12" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F13" type="list">
-      <formula1>"backreference,contained"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" promptTitle="Whole numbers" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I4:I13" type="whole">
-      <formula1>1</formula1>
-      <formula2>20</formula2>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Object ID prefixes"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6420,24 +6662,24 @@
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.31983805668016"/>
   </cols>
   <sheetData>
-    <row r="1" s="106" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="106" t="s">
+    <row r="1" s="111" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="106" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="2" s="107" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="111" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" s="112" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="C2" s="108"/>
-    </row>
-    <row r="3" s="109" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>516</v>
+      </c>
+      <c r="C2" s="113"/>
+    </row>
+    <row r="3" s="114" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>141</v>
       </c>
@@ -6445,18 +6687,18 @@
         <v>65</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="4" s="110" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="110" t="s">
-        <v>505</v>
-      </c>
-      <c r="B4" s="110" t="s">
-        <v>506</v>
-      </c>
-      <c r="C4" s="110" t="s">
-        <v>507</v>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" s="115" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="115" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4" s="115" t="s">
+        <v>518</v>
+      </c>
+      <c r="C4" s="115" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6480,7 +6722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6501,325 +6743,325 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>133</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" s="7" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="89" t="s">
-        <v>505</v>
+      <c r="A4" s="86" t="s">
+        <v>517</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="D4" s="111" t="n">
+        <v>525</v>
+      </c>
+      <c r="D4" s="116" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="111" t="n">
+      <c r="E4" s="116" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="112"/>
+      <c r="F4" s="117"/>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="89" t="s">
-        <v>505</v>
+      <c r="A5" s="86" t="s">
+        <v>517</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="D5" s="111" t="n">
+        <v>527</v>
+      </c>
+      <c r="D5" s="116" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="111" t="n">
+      <c r="E5" s="116" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="112"/>
+      <c r="F5" s="117"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="89"/>
+      <c r="A6" s="86"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="89"/>
+      <c r="A7" s="86"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="89"/>
+      <c r="A8" s="86"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="89"/>
+      <c r="A9" s="86"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="89"/>
+      <c r="A10" s="86"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="89"/>
+      <c r="A11" s="86"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="89"/>
+      <c r="A12" s="86"/>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="89"/>
+      <c r="A13" s="86"/>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="89"/>
+      <c r="A14" s="86"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="89"/>
+      <c r="A15" s="86"/>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="89"/>
+      <c r="A16" s="86"/>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="89"/>
+      <c r="A17" s="86"/>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="89"/>
+      <c r="A18" s="86"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="89"/>
+      <c r="A19" s="86"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="89"/>
+      <c r="A20" s="86"/>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="89"/>
+      <c r="A21" s="86"/>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="89"/>
+      <c r="A22" s="86"/>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="89"/>
+      <c r="A23" s="86"/>
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="89"/>
+      <c r="A24" s="86"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="89"/>
+      <c r="A25" s="86"/>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="89"/>
+      <c r="A26" s="86"/>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="89"/>
+      <c r="A27" s="86"/>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="89"/>
+      <c r="A28" s="86"/>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="89"/>
+      <c r="A29" s="86"/>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="89"/>
+      <c r="A30" s="86"/>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="89"/>
+      <c r="A31" s="86"/>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="89"/>
+      <c r="A32" s="86"/>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="89"/>
+      <c r="A33" s="86"/>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="89"/>
+      <c r="A34" s="86"/>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="89"/>
+      <c r="A35" s="86"/>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="89"/>
+      <c r="A36" s="86"/>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="89"/>
+      <c r="A37" s="86"/>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="89"/>
+      <c r="A38" s="86"/>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="89"/>
+      <c r="A39" s="86"/>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="89"/>
+      <c r="A40" s="86"/>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="89"/>
+      <c r="A41" s="86"/>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="89"/>
+      <c r="A42" s="86"/>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="89"/>
+      <c r="A43" s="86"/>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="89"/>
+      <c r="A44" s="86"/>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="89"/>
+      <c r="A45" s="86"/>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="89"/>
+      <c r="A46" s="86"/>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="89"/>
+      <c r="A47" s="86"/>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="89"/>
+      <c r="A48" s="86"/>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="89"/>
+      <c r="A49" s="86"/>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="89"/>
+      <c r="A50" s="86"/>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="89"/>
+      <c r="A51" s="86"/>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="89"/>
+      <c r="A52" s="86"/>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="89"/>
+      <c r="A53" s="86"/>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="89"/>
+      <c r="A54" s="86"/>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="89"/>
+      <c r="A55" s="86"/>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="89"/>
+      <c r="A56" s="86"/>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="89"/>
+      <c r="A57" s="86"/>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="89"/>
+      <c r="A58" s="86"/>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="89"/>
+      <c r="A59" s="86"/>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="89"/>
+      <c r="A60" s="86"/>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="89"/>
+      <c r="A61" s="86"/>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="89"/>
+      <c r="A62" s="86"/>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="89"/>
+      <c r="A63" s="86"/>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="89"/>
+      <c r="A64" s="86"/>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="89"/>
+      <c r="A65" s="86"/>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="89"/>
+      <c r="A66" s="86"/>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="89"/>
+      <c r="A67" s="86"/>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="89"/>
+      <c r="A68" s="86"/>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="89"/>
+      <c r="A69" s="86"/>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="89"/>
+      <c r="A70" s="86"/>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="89"/>
+      <c r="A71" s="86"/>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="89"/>
+      <c r="A72" s="86"/>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="89"/>
+      <c r="A73" s="86"/>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="89"/>
+      <c r="A74" s="86"/>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="89"/>
+      <c r="A75" s="86"/>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="89"/>
+      <c r="A76" s="86"/>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="89"/>
+      <c r="A77" s="86"/>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="89"/>
+      <c r="A78" s="86"/>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="89"/>
+      <c r="A79" s="86"/>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="89"/>
+      <c r="A80" s="86"/>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="89"/>
+      <c r="A81" s="86"/>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="89"/>
+      <c r="A82" s="86"/>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="89"/>
+      <c r="A83" s="86"/>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="89"/>
+      <c r="A84" s="86"/>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="89"/>
+      <c r="A85" s="86"/>
     </row>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6859,14 +7101,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -6887,36 +7129,36 @@
         <v>134</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -6937,60 +7179,60 @@
         <v>65</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="79" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>535</v>
-      </c>
-      <c r="D4" s="86" t="n">
+        <v>547</v>
+      </c>
+      <c r="D4" s="88" t="n">
         <v>34</v>
       </c>
-      <c r="E4" s="87" t="s">
-        <v>536</v>
-      </c>
-      <c r="F4" s="87" t="s">
-        <v>537</v>
+      <c r="E4" s="89" t="s">
+        <v>548</v>
+      </c>
+      <c r="F4" s="89" t="s">
+        <v>549</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="J4" s="113" t="s">
-        <v>539</v>
+        <v>474</v>
+      </c>
+      <c r="J4" s="118" t="s">
+        <v>551</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>264</v>
@@ -7007,7 +7249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7023,7 +7265,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="59.3441295546559"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="91" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="94" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
@@ -7039,22 +7281,22 @@
         <v>0</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="F1" s="114" t="s">
-        <v>432</v>
+        <v>441</v>
+      </c>
+      <c r="F1" s="119" t="s">
+        <v>444</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="73" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="46" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="C2" s="46"/>
-      <c r="E2" s="115"/>
+      <c r="E2" s="120"/>
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="17" customFormat="true" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7068,33 +7310,33 @@
         <v>0</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="21.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="43" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>545</v>
-      </c>
-      <c r="D4" s="116" t="s">
-        <v>505</v>
-      </c>
-      <c r="E4" s="117" t="n">
+        <v>557</v>
+      </c>
+      <c r="D4" s="121" t="s">
+        <v>517</v>
+      </c>
+      <c r="E4" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="118"/>
+      <c r="F4" s="123"/>
     </row>
     <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7185,7 +7427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7213,7 +7455,7 @@
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="14"/>
@@ -7231,7 +7473,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7257,7 +7499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7265,7 +7507,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7293,229 +7535,229 @@
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="120" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="119" t="s">
-        <v>548</v>
-      </c>
-      <c r="B1" s="120" t="s">
+    <row r="1" s="125" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="124" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1" s="125" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="125" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="120" t="s">
-        <v>549</v>
-      </c>
-      <c r="E1" s="120" t="s">
-        <v>550</v>
-      </c>
-      <c r="F1" s="120" t="s">
-        <v>551</v>
-      </c>
-      <c r="G1" s="121" t="s">
-        <v>552</v>
-      </c>
-      <c r="H1" s="121" t="s">
-        <v>553</v>
-      </c>
-      <c r="I1" s="121" t="s">
-        <v>554</v>
-      </c>
-      <c r="J1" s="122" t="s">
-        <v>555</v>
-      </c>
-      <c r="K1" s="122" t="s">
-        <v>556</v>
-      </c>
-      <c r="L1" s="123" t="s">
-        <v>557</v>
-      </c>
-      <c r="M1" s="122" t="s">
-        <v>558</v>
-      </c>
-      <c r="N1" s="122" t="s">
-        <v>559</v>
-      </c>
-      <c r="O1" s="124" t="s">
-        <v>560</v>
-      </c>
-      <c r="P1" s="124" t="s">
+      <c r="D1" s="125" t="s">
         <v>561</v>
       </c>
-      <c r="Q1" s="124" t="s">
+      <c r="E1" s="125" t="s">
         <v>562</v>
       </c>
-      <c r="R1" s="121" t="s">
+      <c r="F1" s="125" t="s">
         <v>563</v>
       </c>
-      <c r="S1" s="122" t="s">
+      <c r="G1" s="126" t="s">
         <v>564</v>
       </c>
-      <c r="T1" s="122" t="s">
+      <c r="H1" s="126" t="s">
         <v>565</v>
       </c>
-      <c r="U1" s="125" t="s">
-        <v>564</v>
-      </c>
-      <c r="V1" s="120" t="s">
+      <c r="I1" s="126" t="s">
         <v>566</v>
       </c>
-      <c r="W1" s="120" t="s">
+      <c r="J1" s="127" t="s">
         <v>567</v>
       </c>
+      <c r="K1" s="127" t="s">
+        <v>568</v>
+      </c>
+      <c r="L1" s="128" t="s">
+        <v>569</v>
+      </c>
+      <c r="M1" s="127" t="s">
+        <v>570</v>
+      </c>
+      <c r="N1" s="127" t="s">
+        <v>571</v>
+      </c>
+      <c r="O1" s="129" t="s">
+        <v>572</v>
+      </c>
+      <c r="P1" s="129" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q1" s="129" t="s">
+        <v>574</v>
+      </c>
+      <c r="R1" s="126" t="s">
+        <v>575</v>
+      </c>
+      <c r="S1" s="127" t="s">
+        <v>576</v>
+      </c>
+      <c r="T1" s="127" t="s">
+        <v>577</v>
+      </c>
+      <c r="U1" s="130" t="s">
+        <v>576</v>
+      </c>
+      <c r="V1" s="125" t="s">
+        <v>578</v>
+      </c>
+      <c r="W1" s="125" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="126" t="s">
-        <v>568</v>
+      <c r="A2" s="131" t="s">
+        <v>580</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="14" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="60"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
       <c r="O2" s="60"/>
       <c r="P2" s="60"/>
       <c r="Q2" s="60"/>
       <c r="R2" s="60"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="127"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="132"/>
       <c r="V2" s="29"/>
       <c r="W2" s="29"/>
     </row>
     <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>570</v>
-      </c>
-      <c r="B3" s="128" t="s">
+        <v>582</v>
+      </c>
+      <c r="B3" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="128" t="s">
-        <v>571</v>
-      </c>
-      <c r="E3" s="129" t="s">
-        <v>572</v>
-      </c>
-      <c r="F3" s="128" t="s">
-        <v>551</v>
-      </c>
-      <c r="G3" s="128" t="s">
-        <v>552</v>
-      </c>
-      <c r="H3" s="128" t="s">
-        <v>573</v>
-      </c>
-      <c r="I3" s="128" t="s">
-        <v>554</v>
-      </c>
-      <c r="J3" s="122" t="s">
-        <v>555</v>
+      <c r="D3" s="133" t="s">
+        <v>583</v>
+      </c>
+      <c r="E3" s="134" t="s">
+        <v>584</v>
+      </c>
+      <c r="F3" s="133" t="s">
+        <v>563</v>
+      </c>
+      <c r="G3" s="133" t="s">
+        <v>564</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>585</v>
+      </c>
+      <c r="I3" s="133" t="s">
+        <v>566</v>
+      </c>
+      <c r="J3" s="127" t="s">
+        <v>567</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>574</v>
-      </c>
-      <c r="L3" s="123" t="s">
-        <v>575</v>
+        <v>586</v>
+      </c>
+      <c r="L3" s="128" t="s">
+        <v>587</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="O3" s="130" t="s">
-        <v>578</v>
-      </c>
-      <c r="P3" s="130" t="s">
-        <v>579</v>
-      </c>
-      <c r="Q3" s="130" t="s">
-        <v>580</v>
-      </c>
-      <c r="R3" s="128" t="s">
-        <v>581</v>
+        <v>589</v>
+      </c>
+      <c r="O3" s="135" t="s">
+        <v>590</v>
+      </c>
+      <c r="P3" s="135" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q3" s="135" t="s">
+        <v>592</v>
+      </c>
+      <c r="R3" s="133" t="s">
+        <v>593</v>
       </c>
       <c r="S3" s="31" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="T3" s="31" t="s">
-        <v>583</v>
-      </c>
-      <c r="U3" s="131" t="s">
-        <v>582</v>
-      </c>
-      <c r="V3" s="129" t="s">
-        <v>584</v>
-      </c>
-      <c r="W3" s="129" t="s">
-        <v>585</v>
+        <v>595</v>
+      </c>
+      <c r="U3" s="136" t="s">
+        <v>594</v>
+      </c>
+      <c r="V3" s="134" t="s">
+        <v>596</v>
+      </c>
+      <c r="W3" s="134" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="132" t="s">
-        <v>586</v>
-      </c>
-      <c r="B4" s="133" t="s">
-        <v>587</v>
-      </c>
-      <c r="C4" s="134" t="s">
-        <v>588</v>
-      </c>
-      <c r="D4" s="135" t="s">
-        <v>547</v>
-      </c>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135" t="s">
+      <c r="A4" s="137" t="s">
+        <v>598</v>
+      </c>
+      <c r="B4" s="138" t="s">
+        <v>599</v>
+      </c>
+      <c r="C4" s="139" t="s">
+        <v>600</v>
+      </c>
+      <c r="D4" s="140" t="s">
+        <v>559</v>
+      </c>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140" t="s">
         <v>365</v>
       </c>
-      <c r="G4" s="136" t="s">
-        <v>589</v>
-      </c>
-      <c r="H4" s="136" t="n">
+      <c r="G4" s="141" t="s">
+        <v>601</v>
+      </c>
+      <c r="H4" s="141" t="n">
         <v>30308</v>
       </c>
-      <c r="I4" s="136"/>
-      <c r="J4" s="132" t="s">
-        <v>590</v>
-      </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="137" t="n">
+      <c r="I4" s="141"/>
+      <c r="J4" s="137" t="s">
+        <v>602</v>
+      </c>
+      <c r="K4" s="137"/>
+      <c r="L4" s="142" t="n">
         <v>41086</v>
       </c>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="86" t="s">
-        <v>591</v>
-      </c>
-      <c r="P4" s="86" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q4" s="86" t="s">
-        <v>593</v>
-      </c>
-      <c r="R4" s="136" t="s">
-        <v>594</v>
-      </c>
-      <c r="S4" s="138"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="88" t="s">
+        <v>603</v>
+      </c>
+      <c r="P4" s="88" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q4" s="88" t="s">
+        <v>605</v>
+      </c>
+      <c r="R4" s="141" t="s">
+        <v>606</v>
+      </c>
+      <c r="S4" s="143"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="137"/>
+      <c r="U4" s="142"/>
       <c r="V4" s="19"/>
-      <c r="W4" s="139"/>
+      <c r="W4" s="144"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -7545,7 +7787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7573,116 +7815,116 @@
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
-    <row r="1" s="120" customFormat="true" ht="20.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="120" t="s">
+    <row r="1" s="125" customFormat="true" ht="20.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="125" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="140" t="s">
-        <v>595</v>
-      </c>
-      <c r="C1" s="120" t="s">
-        <v>596</v>
-      </c>
-      <c r="D1" s="141" t="s">
-        <v>597</v>
-      </c>
-      <c r="E1" s="120" t="s">
-        <v>598</v>
-      </c>
-      <c r="F1" s="120" t="s">
-        <v>599</v>
-      </c>
-      <c r="G1" s="120" t="s">
-        <v>600</v>
-      </c>
-      <c r="H1" s="120" t="s">
-        <v>601</v>
-      </c>
-      <c r="I1" s="140" t="s">
-        <v>602</v>
-      </c>
-      <c r="J1" s="140" t="s">
-        <v>603</v>
-      </c>
-      <c r="K1" s="120" t="s">
-        <v>604</v>
+      <c r="B1" s="145" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1" s="125" t="s">
+        <v>608</v>
+      </c>
+      <c r="D1" s="146" t="s">
+        <v>609</v>
+      </c>
+      <c r="E1" s="125" t="s">
+        <v>610</v>
+      </c>
+      <c r="F1" s="125" t="s">
+        <v>611</v>
+      </c>
+      <c r="G1" s="125" t="s">
+        <v>612</v>
+      </c>
+      <c r="H1" s="125" t="s">
+        <v>613</v>
+      </c>
+      <c r="I1" s="145" t="s">
+        <v>614</v>
+      </c>
+      <c r="J1" s="145" t="s">
+        <v>615</v>
+      </c>
+      <c r="K1" s="125" t="s">
+        <v>616</v>
       </c>
       <c r="L1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="142" t="s">
-        <v>605</v>
-      </c>
-      <c r="B2" s="143"/>
-      <c r="D2" s="141"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="A2" s="92" t="s">
+        <v>617</v>
+      </c>
+      <c r="B2" s="147"/>
+      <c r="D2" s="146"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
     </row>
     <row r="3" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="125" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="144" t="s">
-        <v>606</v>
-      </c>
-      <c r="C3" s="120" t="s">
-        <v>607</v>
-      </c>
-      <c r="D3" s="141" t="s">
-        <v>608</v>
-      </c>
-      <c r="E3" s="120" t="s">
-        <v>609</v>
-      </c>
-      <c r="F3" s="120" t="s">
-        <v>610</v>
-      </c>
-      <c r="G3" s="120" t="s">
-        <v>611</v>
-      </c>
-      <c r="H3" s="120" t="s">
-        <v>612</v>
-      </c>
-      <c r="I3" s="145" t="s">
-        <v>613</v>
-      </c>
-      <c r="J3" s="146" t="s">
-        <v>614</v>
-      </c>
-      <c r="K3" s="120" t="s">
-        <v>615</v>
+      <c r="B3" s="148" t="s">
+        <v>618</v>
+      </c>
+      <c r="C3" s="125" t="s">
+        <v>619</v>
+      </c>
+      <c r="D3" s="146" t="s">
+        <v>620</v>
+      </c>
+      <c r="E3" s="125" t="s">
+        <v>621</v>
+      </c>
+      <c r="F3" s="125" t="s">
+        <v>622</v>
+      </c>
+      <c r="G3" s="125" t="s">
+        <v>623</v>
+      </c>
+      <c r="H3" s="125" t="s">
+        <v>624</v>
+      </c>
+      <c r="I3" s="149" t="s">
+        <v>625</v>
+      </c>
+      <c r="J3" s="150" t="s">
+        <v>626</v>
+      </c>
+      <c r="K3" s="125" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="B4" s="147" t="n">
+        <v>628</v>
+      </c>
+      <c r="B4" s="151" t="n">
         <v>42754</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>587</v>
-      </c>
-      <c r="D4" s="148" t="n">
+        <v>599</v>
+      </c>
+      <c r="D4" s="152" t="n">
         <v>42736</v>
       </c>
-      <c r="E4" s="148" t="n">
+      <c r="E4" s="152" t="n">
         <v>41290</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>183</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="I4" s="132" t="s">
+        <v>630</v>
+      </c>
+      <c r="I4" s="137" t="s">
         <v>183</v>
       </c>
-      <c r="J4" s="86" t="s">
-        <v>619</v>
+      <c r="J4" s="88" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7707,7 +7949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7734,106 +7976,106 @@
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
-    <row r="1" s="120" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="120" t="s">
+    <row r="1" s="125" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="125" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="140" t="s">
-        <v>595</v>
-      </c>
-      <c r="C1" s="120" t="s">
-        <v>596</v>
+      <c r="B1" s="145" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1" s="125" t="s">
+        <v>608</v>
       </c>
       <c r="D1" s="0"/>
-      <c r="E1" s="120" t="s">
-        <v>598</v>
-      </c>
-      <c r="F1" s="120" t="s">
+      <c r="E1" s="125" t="s">
+        <v>610</v>
+      </c>
+      <c r="F1" s="125" t="s">
+        <v>632</v>
+      </c>
+      <c r="G1" s="125" t="s">
+        <v>612</v>
+      </c>
+      <c r="H1" s="125" t="s">
+        <v>613</v>
+      </c>
+      <c r="I1" s="145" t="s">
+        <v>614</v>
+      </c>
+      <c r="J1" s="145" t="s">
+        <v>615</v>
+      </c>
+      <c r="K1" s="125" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="92" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="125" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="148" t="s">
+        <v>618</v>
+      </c>
+      <c r="C3" s="125" t="s">
+        <v>619</v>
+      </c>
+      <c r="D3" s="146" t="s">
         <v>620</v>
       </c>
-      <c r="G1" s="120" t="s">
-        <v>600</v>
-      </c>
-      <c r="H1" s="120" t="s">
-        <v>601</v>
-      </c>
-      <c r="I1" s="140" t="s">
-        <v>602</v>
-      </c>
-      <c r="J1" s="140" t="s">
-        <v>603</v>
-      </c>
-      <c r="K1" s="120" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="142" t="s">
+      <c r="E3" s="125" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="120" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="144" t="s">
-        <v>606</v>
-      </c>
-      <c r="C3" s="120" t="s">
-        <v>607</v>
-      </c>
-      <c r="D3" s="141" t="s">
-        <v>608</v>
-      </c>
-      <c r="E3" s="120" t="s">
-        <v>609</v>
-      </c>
-      <c r="F3" s="120" t="s">
-        <v>622</v>
-      </c>
-      <c r="G3" s="120" t="s">
-        <v>611</v>
-      </c>
-      <c r="H3" s="120" t="s">
-        <v>612</v>
-      </c>
-      <c r="I3" s="145" t="s">
-        <v>613</v>
-      </c>
-      <c r="J3" s="146" t="s">
-        <v>614</v>
-      </c>
-      <c r="K3" s="120" t="s">
-        <v>615</v>
+      <c r="F3" s="125" t="s">
+        <v>634</v>
+      </c>
+      <c r="G3" s="125" t="s">
+        <v>623</v>
+      </c>
+      <c r="H3" s="125" t="s">
+        <v>624</v>
+      </c>
+      <c r="I3" s="149" t="s">
+        <v>625</v>
+      </c>
+      <c r="J3" s="150" t="s">
+        <v>626</v>
+      </c>
+      <c r="K3" s="125" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="B4" s="149" t="n">
+        <v>635</v>
+      </c>
+      <c r="B4" s="153" t="n">
         <v>41778</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>587</v>
-      </c>
-      <c r="D4" s="148" t="n">
+        <v>599</v>
+      </c>
+      <c r="D4" s="152" t="n">
         <v>42856</v>
       </c>
-      <c r="E4" s="148" t="n">
+      <c r="E4" s="152" t="n">
         <v>42859</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J4" s="150" t="s">
-        <v>626</v>
+      <c r="J4" s="154" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7858,7 +8100,403 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.74898785425101"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="6" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" s="14" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="26" t="n">
+        <v>7530</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="26" t="n">
+        <v>7530</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="26" t="n">
+        <v>7530</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="false" errorTitle="Invalid entry" operator="between" prompt="Between 0 and 100" promptTitle="Enter a % value" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6 D10" type="decimal">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Boolean" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C7" type="list">
+      <formula1>$#REF!.$G$2:$G$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select TRUE or FALSE from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select TRUE or FALSE from the drop-down menu" promptTitle="Boolean" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E5 D11" type="list">
+      <formula1>$#REF!.$G$2:$G$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="http://www.sanbi.ac.za/"/>
+    <hyperlink ref="C17" r:id="rId2" display="lims@sanbi.ac.za"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7880,54 +8518,54 @@
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
-    <row r="1" s="120" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="120" t="s">
-        <v>596</v>
-      </c>
-      <c r="B1" s="120" t="s">
-        <v>627</v>
-      </c>
-      <c r="C1" s="120" t="s">
-        <v>628</v>
-      </c>
-      <c r="D1" s="120" t="s">
-        <v>629</v>
-      </c>
-      <c r="E1" s="120" t="s">
-        <v>630</v>
-      </c>
-      <c r="F1" s="120" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="2" s="151" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="151" t="s">
-        <v>632</v>
+    <row r="1" s="125" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="125" t="s">
+        <v>608</v>
+      </c>
+      <c r="B1" s="125" t="s">
+        <v>639</v>
+      </c>
+      <c r="C1" s="125" t="s">
+        <v>640</v>
+      </c>
+      <c r="D1" s="125" t="s">
+        <v>641</v>
+      </c>
+      <c r="E1" s="125" t="s">
+        <v>642</v>
+      </c>
+      <c r="F1" s="125" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2" s="155" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="155" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="152" t="s">
-        <v>486</v>
-      </c>
-      <c r="B3" s="152" t="s">
-        <v>633</v>
-      </c>
-      <c r="C3" s="152" t="s">
-        <v>634</v>
-      </c>
-      <c r="D3" s="152" t="s">
-        <v>635</v>
-      </c>
-      <c r="E3" s="152" t="s">
-        <v>636</v>
+      <c r="A3" s="156" t="s">
+        <v>498</v>
+      </c>
+      <c r="B3" s="156" t="s">
+        <v>645</v>
+      </c>
+      <c r="C3" s="156" t="s">
+        <v>646</v>
+      </c>
+      <c r="D3" s="156" t="s">
+        <v>647</v>
+      </c>
+      <c r="E3" s="156" t="s">
+        <v>648</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="153" t="s">
-        <v>587</v>
+      <c r="A4" s="157" t="s">
+        <v>599</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4566</v>
@@ -7936,13 +8574,13 @@
         <v>1.1</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -7962,14 +8600,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -7990,111 +8628,111 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B1" s="120" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1" s="125" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="120" t="s">
-        <v>596</v>
-      </c>
-      <c r="D1" s="141" t="s">
-        <v>640</v>
-      </c>
-      <c r="E1" s="120" t="s">
-        <v>641</v>
-      </c>
-      <c r="F1" s="120" t="s">
-        <v>642</v>
-      </c>
-      <c r="G1" s="120" t="s">
-        <v>643</v>
-      </c>
-      <c r="H1" s="140" t="s">
-        <v>644</v>
-      </c>
-      <c r="I1" s="140" t="s">
-        <v>645</v>
-      </c>
-      <c r="J1" s="120" t="s">
-        <v>604</v>
-      </c>
-      <c r="K1" s="154" t="s">
-        <v>646</v>
+      <c r="C1" s="125" t="s">
+        <v>608</v>
+      </c>
+      <c r="D1" s="146" t="s">
+        <v>652</v>
+      </c>
+      <c r="E1" s="125" t="s">
+        <v>653</v>
+      </c>
+      <c r="F1" s="125" t="s">
+        <v>654</v>
+      </c>
+      <c r="G1" s="125" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1" s="145" t="s">
+        <v>656</v>
+      </c>
+      <c r="I1" s="145" t="s">
+        <v>657</v>
+      </c>
+      <c r="J1" s="125" t="s">
+        <v>616</v>
+      </c>
+      <c r="K1" s="158" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="155" t="s">
-        <v>647</v>
-      </c>
-      <c r="B2" s="142" t="s">
-        <v>647</v>
-      </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="K2" s="156"/>
+      <c r="A2" s="159" t="s">
+        <v>659</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>659</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="K2" s="160"/>
     </row>
     <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="145" t="s">
-        <v>570</v>
-      </c>
-      <c r="B3" s="120" t="s">
-        <v>648</v>
-      </c>
-      <c r="C3" s="120" t="s">
-        <v>607</v>
-      </c>
-      <c r="D3" s="141" t="s">
-        <v>649</v>
-      </c>
-      <c r="E3" s="120" t="s">
-        <v>650</v>
-      </c>
-      <c r="F3" s="120" t="s">
-        <v>651</v>
-      </c>
-      <c r="G3" s="120" t="s">
-        <v>652</v>
-      </c>
-      <c r="H3" s="157" t="s">
-        <v>653</v>
-      </c>
-      <c r="I3" s="145" t="s">
-        <v>654</v>
-      </c>
-      <c r="J3" s="120" t="s">
-        <v>615</v>
-      </c>
-      <c r="K3" s="145" t="s">
-        <v>655</v>
+      <c r="A3" s="149" t="s">
+        <v>582</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>660</v>
+      </c>
+      <c r="C3" s="125" t="s">
+        <v>619</v>
+      </c>
+      <c r="D3" s="146" t="s">
+        <v>661</v>
+      </c>
+      <c r="E3" s="125" t="s">
+        <v>662</v>
+      </c>
+      <c r="F3" s="125" t="s">
+        <v>663</v>
+      </c>
+      <c r="G3" s="125" t="s">
+        <v>664</v>
+      </c>
+      <c r="H3" s="161" t="s">
+        <v>665</v>
+      </c>
+      <c r="I3" s="149" t="s">
+        <v>666</v>
+      </c>
+      <c r="J3" s="125" t="s">
+        <v>627</v>
+      </c>
+      <c r="K3" s="149" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="132" t="s">
-        <v>656</v>
+      <c r="A4" s="137" t="s">
+        <v>668</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>587</v>
-      </c>
-      <c r="D4" s="148" t="n">
+        <v>599</v>
+      </c>
+      <c r="D4" s="152" t="n">
         <v>42736</v>
       </c>
-      <c r="E4" s="148" t="n">
+      <c r="E4" s="152" t="n">
         <v>42736</v>
       </c>
-      <c r="F4" s="148" t="n">
+      <c r="F4" s="152" t="n">
         <v>43465</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="H4" s="132" t="s">
+        <v>670</v>
+      </c>
+      <c r="H4" s="137" t="s">
         <v>183</v>
       </c>
-      <c r="I4" s="132" t="s">
+      <c r="I4" s="137" t="s">
         <v>183</v>
       </c>
     </row>
@@ -8140,403 +8778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E32"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.74898785425101"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="6" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" s="14" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="26"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="27"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="26" t="n">
-        <v>7530</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="26" t="n">
-        <v>7530</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="26" t="n">
-        <v>7530</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="false" errorTitle="Invalid entry" operator="between" prompt="Between 0 and 100" promptTitle="Enter a % value" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6 D10" type="decimal">
-      <formula1>0</formula1>
-      <formula2>100</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Boolean" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C7" type="list">
-      <formula1>$#REF!.$G$2:$G$3</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Select TRUE or FALSE from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select TRUE or FALSE from the drop-down menu" promptTitle="Boolean" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E5 D11" type="list">
-      <formula1>$#REF!.$G$2:$G$3</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="http://www.sanbi.ac.za/"/>
-    <hyperlink ref="C17" r:id="rId2" display="lims@sanbi.ac.za"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -8565,15 +8807,15 @@
       <c r="B1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="158" t="s">
+      <c r="C1" s="162" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="14" t="s">
-        <v>659</v>
-      </c>
-      <c r="C2" s="159"/>
+        <v>671</v>
+      </c>
+      <c r="C2" s="163"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
@@ -8582,315 +8824,315 @@
       <c r="B3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="158" t="s">
+      <c r="C3" s="162" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>661</v>
-      </c>
-      <c r="C4" s="160" t="n">
+        <v>673</v>
+      </c>
+      <c r="C4" s="164" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>663</v>
-      </c>
-      <c r="C5" s="160" t="n">
+        <v>675</v>
+      </c>
+      <c r="C5" s="164" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>664</v>
-      </c>
-      <c r="C6" s="160" t="s">
-        <v>665</v>
+        <v>676</v>
+      </c>
+      <c r="C6" s="164" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>667</v>
-      </c>
-      <c r="C7" s="161" t="n">
+        <v>679</v>
+      </c>
+      <c r="C7" s="165" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>669</v>
-      </c>
-      <c r="C8" s="161" t="n">
+        <v>681</v>
+      </c>
+      <c r="C8" s="165" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>671</v>
-      </c>
-      <c r="C9" s="160" t="n">
+        <v>683</v>
+      </c>
+      <c r="C9" s="164" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>672</v>
-      </c>
-      <c r="C10" s="160" t="n">
+        <v>684</v>
+      </c>
+      <c r="C10" s="164" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>674</v>
-      </c>
-      <c r="C11" s="160" t="n">
+        <v>686</v>
+      </c>
+      <c r="C11" s="164" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>676</v>
-      </c>
-      <c r="C12" s="160" t="n">
+        <v>688</v>
+      </c>
+      <c r="C12" s="164" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>678</v>
-      </c>
-      <c r="C13" s="160" t="n">
+        <v>690</v>
+      </c>
+      <c r="C13" s="164" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>680</v>
-      </c>
-      <c r="C14" s="160"/>
+        <v>692</v>
+      </c>
+      <c r="C14" s="164"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>682</v>
-      </c>
-      <c r="C15" s="161" t="n">
+        <v>694</v>
+      </c>
+      <c r="C15" s="165" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>684</v>
-      </c>
-      <c r="C16" s="161" t="n">
+        <v>696</v>
+      </c>
+      <c r="C16" s="165" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>686</v>
-      </c>
-      <c r="C17" s="161" t="n">
+        <v>698</v>
+      </c>
+      <c r="C17" s="165" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>688</v>
-      </c>
-      <c r="C18" s="162" t="s">
-        <v>689</v>
-      </c>
-      <c r="D18" s="163"/>
+        <v>700</v>
+      </c>
+      <c r="C18" s="166" t="s">
+        <v>701</v>
+      </c>
+      <c r="D18" s="167"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>691</v>
-      </c>
-      <c r="C19" s="164" t="s">
+        <v>703</v>
+      </c>
+      <c r="C19" s="168" t="s">
         <v>301</v>
       </c>
-      <c r="D19" s="163"/>
+      <c r="D19" s="167"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>693</v>
-      </c>
-      <c r="C20" s="164" t="s">
+        <v>705</v>
+      </c>
+      <c r="C20" s="168" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>695</v>
-      </c>
-      <c r="C21" s="162" t="n">
+        <v>707</v>
+      </c>
+      <c r="C21" s="166" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>697</v>
-      </c>
-      <c r="C22" s="162" t="n">
+        <v>709</v>
+      </c>
+      <c r="C22" s="166" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>699</v>
-      </c>
-      <c r="C23" s="162" t="n">
+        <v>711</v>
+      </c>
+      <c r="C23" s="166" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>701</v>
-      </c>
-      <c r="C24" s="164" t="s">
-        <v>702</v>
-      </c>
-      <c r="D24" s="165"/>
+        <v>713</v>
+      </c>
+      <c r="C24" s="168" t="s">
+        <v>714</v>
+      </c>
+      <c r="D24" s="169"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>704</v>
-      </c>
-      <c r="C25" s="164" t="s">
-        <v>705</v>
+        <v>716</v>
+      </c>
+      <c r="C25" s="168" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>707</v>
-      </c>
-      <c r="C26" s="161" t="n">
+        <v>719</v>
+      </c>
+      <c r="C26" s="165" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>709</v>
-      </c>
-      <c r="C27" s="160" t="s">
-        <v>710</v>
+        <v>721</v>
+      </c>
+      <c r="C27" s="164" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>712</v>
-      </c>
-      <c r="C28" s="160" t="n">
+        <v>724</v>
+      </c>
+      <c r="C28" s="164" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>714</v>
-      </c>
-      <c r="C29" s="161" t="n">
+        <v>726</v>
+      </c>
+      <c r="C29" s="165" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>716</v>
-      </c>
-      <c r="C30" s="160"/>
+        <v>728</v>
+      </c>
+      <c r="C30" s="164"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>718</v>
-      </c>
-      <c r="C31" s="166" t="s">
-        <v>719</v>
+        <v>730</v>
+      </c>
+      <c r="C31" s="170" t="s">
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -9005,7 +9247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -9029,38 +9271,38 @@
   </cols>
   <sheetData>
     <row r="1" s="31" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="171" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="171" t="s">
         <v>198</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="G1" s="168" t="s">
-        <v>724</v>
+        <v>735</v>
+      </c>
+      <c r="G1" s="172" t="s">
+        <v>736</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="L1" s="32"/>
     </row>
@@ -9072,115 +9314,115 @@
         <v>243</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>728</v>
-      </c>
-      <c r="E2" s="169" t="s">
-        <v>729</v>
+        <v>740</v>
+      </c>
+      <c r="E2" s="173" t="s">
+        <v>741</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="G2" s="51" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="E3" s="169" t="s">
-        <v>705</v>
+      <c r="E3" s="173" t="s">
+        <v>717</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="G3" s="51" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="K3" s="51" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>225</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>702</v>
-      </c>
-      <c r="G4" s="169"/>
+        <v>714</v>
+      </c>
+      <c r="G4" s="173"/>
       <c r="H4" s="51" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="51" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>745</v>
-      </c>
-      <c r="G5" s="169"/>
+        <v>757</v>
+      </c>
+      <c r="G5" s="173"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="G6" s="169"/>
+        <v>759</v>
+      </c>
+      <c r="G6" s="173"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="51" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>749</v>
-      </c>
-      <c r="G7" s="169"/>
+        <v>761</v>
+      </c>
+      <c r="G7" s="173"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
@@ -9189,1079 +9431,1079 @@
       <c r="B8" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="G8" s="169"/>
+      <c r="G8" s="173"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G9" s="169"/>
+      <c r="G9" s="173"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G10" s="169"/>
+      <c r="G10" s="173"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G11" s="169"/>
+      <c r="G11" s="173"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G12" s="169"/>
+      <c r="G12" s="173"/>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G13" s="169"/>
+      <c r="G13" s="173"/>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G14" s="169"/>
+      <c r="G14" s="173"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G15" s="169"/>
+      <c r="G15" s="173"/>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G16" s="169"/>
+      <c r="G16" s="173"/>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G17" s="169"/>
+      <c r="G17" s="173"/>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G18" s="169"/>
+      <c r="G18" s="173"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G19" s="169"/>
+      <c r="G19" s="173"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="170"/>
-      <c r="B20" s="170"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="170"/>
-    </row>
-    <row r="21" s="173" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="174"/>
+      <c r="B20" s="174"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="174"/>
+      <c r="L20" s="174"/>
+    </row>
+    <row r="21" s="177" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>752</v>
-      </c>
-      <c r="E21" s="172" t="s">
-        <v>753</v>
+        <v>764</v>
+      </c>
+      <c r="E21" s="176" t="s">
+        <v>765</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="174" t="s">
-        <v>758</v>
+      <c r="A22" s="178" t="s">
+        <v>770</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>761</v>
-      </c>
-      <c r="E22" s="169" t="s">
-        <v>762</v>
+        <v>773</v>
+      </c>
+      <c r="E22" s="173" t="s">
+        <v>774</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="I22" s="51" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="51" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>767</v>
-      </c>
-      <c r="E23" s="169" t="s">
-        <v>768</v>
+        <v>779</v>
+      </c>
+      <c r="E23" s="173" t="s">
+        <v>780</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="H23" s="51" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="I23" s="51" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="51" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="H24" s="51" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="I24" s="51" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="51" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="H25" s="51" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="I25" s="51" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="51" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="H26" s="51" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="51" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="51" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="51" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="51" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="51" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="51" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="51" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="51" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="51" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="51" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="51" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="51" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="51" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="51" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="51" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="51" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="51" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="51" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="51" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="51" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="51" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="51" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="51" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="51" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="51" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="51" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="51" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="51" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="51" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="51" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="51" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="51" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="51" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="51" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="51" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="51" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="51" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="51" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="51" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="51" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="51" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="51" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="51" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="51" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="51" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="51" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="51" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="51" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="51" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="51" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="51" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="51" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="51" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="51" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="51" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="51" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="51" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="51" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="51" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="51" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="51" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="51" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="51" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="51" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="51" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="51" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="51" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="51" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="51" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="51" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="51" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="51" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="51" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="51" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="51" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="51" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="51" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="51" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="51" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="51" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="51" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="51" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="51" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="51" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="51" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="51" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="51" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="51" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="51" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="51" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="51" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="51" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="51" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="51" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="51" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="51" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="51" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="51" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="51" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="51" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="51" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="51" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="51" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="51" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="51" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="51" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="51" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="51" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="51" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="51" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="51" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="51" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="51" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="51" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="51" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="51" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="51" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="51" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="51" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="51" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="51" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="51" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="51" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="51" t="s">
-        <v>916</v>
+        <v>928</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="51" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="51" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="51" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="51" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="51" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="51" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="51" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="51" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="51" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="51" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="51" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="51" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="51" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="51" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="51" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="51" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="51" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="51" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="51" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="51" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="51" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="51" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="51" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="51" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="51" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="51" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="51" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="51" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="51" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="51" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="51" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="51" t="s">
-        <v>948</v>
+        <v>960</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="51" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="51" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="51" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="51" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="51" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="51" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="51" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="51" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="51" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="51" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="51" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="51" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="51" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="51" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="51" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="51" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="51" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="51" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
     </row>
   </sheetData>

--- a/baobab/lims/setupdata/test/test.xlsx
+++ b/baobab/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="25"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="879" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -47,11 +47,6 @@
     <sheet name="Constants" sheetId="37" state="visible" r:id="rId38"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -144,3301 +139,3301 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="1099">
   <si>
-    <t xml:space="preserve">Instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheet names are case sensitive, and the keys in row 0 are always special.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheet order is important – dependencies should be loaded in earlier sheets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please also do not edit the last sheet, 'Constants', which is used to populate some of the drop down menus.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some sheets are linked to their corresponding setup items in the manual. Blue text against grey shading are HTML links.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grey shaded cells contain validation rules, mostly look-up references and formatting. If you add rows below the shaded areas, copy the shaded cells into the new rows for the best results, ensuring that the validation is applied on the new rows too.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Files to be uploaded, e.g. scans of signatures (jpg) or method documents (pdf), must be available in the same folder as this spreadsheet and only the file name entered into the corresponding cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">portal_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">counter_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">counter_reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">split_length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object ID prefixes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequence Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counter Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counter Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnalysisRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{sampleId}-R{seq:02d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnalysisRequestSample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B-{seq:03d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">batch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{sampleType}-{seq:04d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worksheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS-{seq:03d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worksheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I-{seq:03d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invoice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARImport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR Import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI-{seq:03d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arimport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReferenceSample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference Sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QC-{seq:03d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refsample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReferenceAnalysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA-{seq:03d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refanalysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DuplicateAnalysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duplicate Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-{seq:03d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duplicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SamplePartition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Partition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{sampleId}-P{seq:d}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboratory and Accreditation Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANBI Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LabURL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab web address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.sanbi.ac.za/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confidence level %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LaboratoryAccredited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboratory accredited ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccreditationBodyLong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accreditation body  title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccreditationBody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accreditation body abbreviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccreditationBodyURL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accreditation body web address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accreditation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accreditation standard, e.g ISO 17025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccreditationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab's accreditation reference number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccreditationBodyLogo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accreditation body logo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TaxNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fax number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EmailAddress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lims@sanbi.ac.za</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical_Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modderdam Rd, Sacks Circle Industrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical_City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical address city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bellville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical_State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical address state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical_Zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical address zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical_Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical address country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal_Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal_City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal address city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal_State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal address state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal_Zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal address zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal_Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal address country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing_Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing_City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing address city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing_State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing address state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing_Zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing address zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing_Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing address country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pricePremium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sortKey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isDefault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smallIcon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bigIcon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARPriorities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Premium %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small Icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priority_hold.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priority_hold_big.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priority_normal.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priority_normal_big.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priority_high.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priority_high_big.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urgent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priority_urgent.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priority_urgent_big.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RetentionPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hazardous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinimumVolume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retention period (days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum volume or weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood Plasma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The liquid portion of normal unclotted blood containing the red and white cells and platelets. The straw-colored/pale-yellow liquid component of blood that normally holds the blood cells in whole blood in suspension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The clear liquid that can be separated from clotted blood. Serum differs from plasma, the liquid portion of normal unclotted blood containing the red and white cells and platelets. It is the clot that makes the difference between serum and plasma.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A typically sterile liquid by-product of the body secreted by the kidneys through a process called urination and excreted through the urethra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potable or river water. Not sewage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whole Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood drawn from the body from which no constituent, such as plasma or platelets, has been removed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LabContact_Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab Departments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biobank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Biobank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salutation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firstname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BusinessPhone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BusinessFax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HomePhone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MobilePhone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JobTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab contacts - staff members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only if a Lab contact is a LIMS user too, does he/she get given a (unique) user name and password, and assigned a role or to a group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business fax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">»Lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">» Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labmanager@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">021 555 1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">021 555 1233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">048 813 9515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">082 555 9910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">»Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LabManagers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clerk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labclerk@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010 417 2743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010 417 3007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010417 5849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">073 965 3368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labclerk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LabClerks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analyst@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">021 555 1236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">050 866 9887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">083 555 8108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistant manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verifier@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">021 555 1235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">021 555 1201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">050 866 9808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">083 333 8101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verifiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClientID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemberDiscountApplies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BulkDiscount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member discount applies?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulk discount applies?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bellville Medical Centre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA62914-27121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+27-21-2442645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+27-21-2442647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apsc@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Brickdam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Cape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brooklyn Chest Hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA62914-27120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+27-21-2442561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+27-21-2442563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bchp@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oceana Complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PublicationPreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCContacts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AttachmentsPermitted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Contacts - Staff Members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publication preference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contacts to be cc'd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attachments permitted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ritamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product assistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">038 664 6469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">038 664 7338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">038 664 7757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">082 607 8405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mohale@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email,pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ŝarel Seemonster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permitted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ŝarel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seemonster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sarelse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutrient management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">040 666 6630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">040 666 7834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">040 666 7858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">083 644 8576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seemonster@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rita Mohale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ŝtandard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neilst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research  assistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">035 597 5814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">035 597 6876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">035 597 6344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080 564 7509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standard@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ŝarel Seemonster, Rita Mohale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johanna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">johannasm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scientist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">036 640 6016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">036 6406911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">036 6407167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">081 569 7909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smith@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fredtu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QC manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">041 670 6654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">041 6708002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">041 670 8848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">084 677 8884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turner@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruffian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chrisru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">025 557 4204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">025 557 4531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">025 557 3131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">074 304 5021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruffian@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corbin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andreco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R&amp;D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">032 586 5303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">032 586 6331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">032 586 5622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">078 469 7035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corbin@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suppliers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomerieux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">012 440 9555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">012 440 9765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supplier@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemin de l'Orme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcy-l'Étoile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhône-Alpes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BioRad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">012 440 8445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">012 440 8447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000 Alfred Nobel Drive, Hercules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">California</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA 94547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplier_Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplier Contacts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplier Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Fax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salesman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">028 274 8819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">086 222 3600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">089 445 0440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dobson@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 main street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pringle Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tube 15ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empty tube to contain biospecimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gloves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gloves for specimens extraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">templateID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">templateName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kit Templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KITEMP01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kit Template 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StudyType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AgeHigh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AgeLow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumParticipants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SampleTypes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnalysisServices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DateCreated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Crated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green Goblin Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development of serum which gives superhuman strength and intelligence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Military research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whole Blood; Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012/06/26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hierarchy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumberOfPoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Columns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StorageUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freezer 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room-2.Freezer-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freezer-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room-3.Freezer-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Box 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room-2.Freezer-1.Box-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Box-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ManagedStorage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room-3.Freezer-1.Box-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Box 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room-3.Freezer-1.Box-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Box-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room-3.Shelf-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UnmanagedStorage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room-3.Shelf-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">componentID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">componentName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Component ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Component Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genome Analysis: DNA/RNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proteome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proteomic Analysis: Mass spectrometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShortTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PointOfCapture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnalysisCategory_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReportDryMatter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attachment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExponentialFormatPrecision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LowerDetectionLimit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UpperDetectionLimit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DetectionLimitSelector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxTimeAllowed_days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxTimeAllowed_hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxTimeAllowed_minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BulkPrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ManualEntryOfResults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultMethod_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultInstrument_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculation_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DuplicateVariation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accredited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Separate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preservation_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Services - The 'tests' Offered By The Lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Turnaround Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point of capture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be reported as dry matter?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results file attachment permitted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exponential format precision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display DL selector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulk price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual Entry of Results?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default Instrument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duplicate variation %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default Container</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default Preservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA Ex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA concentration determination of sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dnaex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mg/l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Spectrometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MALDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass spectrometry MALDI-TOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldi-tof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interim Fields Used In Analysis Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Services – Methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Services – Instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResultText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResultValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Services results options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indeterminable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range Max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uncertainty Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Service Uncertainties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis service title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result Range min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result range max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uncertainty value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results Calculations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC20 Biorad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC20 Automated Cell Counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[LCC] * 100 / [TCC]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interim fields used in calculations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculation title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Cell Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Live Cell Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StorageLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InvoiceNr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BatchNr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReceivedBy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DateReceived</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StockItems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batch Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received By</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stock items tubes 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tim Jones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stock items tubes 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shame Pane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stock items tubes 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelvin Kelp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stock items tubes 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trip Weir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stock items gloves 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent Mett</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stock items gloves 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grigor Bites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MethodDocument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell counting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated cell counting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument will count the total of live cells and the quantity of cells in each sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument Types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated cell counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assetnumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SerialNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instalationdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InstalationCertificate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserManualFile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserManualID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserManualVersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserManualLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CalibrationCertificate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CalibrationExpiryDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VerificationExpiryDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataInterface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataInterfaceOptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab Instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand/Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serial no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photo image file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instalation date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installation certificate upload file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User manual upload file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User manual ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User manual version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User manual location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calibration certificate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calibration expiry date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verification expiration date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data interface options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LABEQG-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell Counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated cell counter for cell counting analyses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual LABEQG-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version 2 - July 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2.5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANCal 11/6010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DateIssued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instrument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">downfrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">downto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">considerations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">workperformed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReportID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument Validations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Down from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Down to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Considerations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work performed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Performed by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report identification Nº</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conductivity validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if instrument is plugged before</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some measuraments using salty water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMT20145004182/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calibrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument Calibrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calibrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spectro calibration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professional Calibrations Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easiest to calibrate than Spectro 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMT20145004182/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DocumentID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DocumentVersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DocumentLocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DocumentType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument Documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manual1.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validfrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preparedby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approvedby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument Certifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certification code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepared by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approved by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LABEQG-003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANCal 11/5783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANCal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KitTemplate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StockItemsStorage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FormsThere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kit Template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storage Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stock Items Storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forms There</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test kit 33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test kit one for testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test kit 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test kit two for testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AllowSharing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubjectID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LinkedSample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocationTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SampleType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biospecimens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linked Sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Sample 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test sample 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room-2.Freezer-1.Box-01.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Def 001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Sample 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test sample 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room-2.Freezer-1.Box-01.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Def 002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Sample 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test sample 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room-2.Freezer-1.Box-01.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Def 003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Sample 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test sample 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room-2.Freezer-1.Box-01.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Sample 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test sample 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room-2.Freezer-1.Box-01.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Def 005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Sample 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test sample 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room-2.Freezer-1.Box-01.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Def 006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setup – Global defaults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PasswordLifetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password lifetime (days)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoLogOff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto log off period (minutes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShowPartitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show Sample Partitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShowPricing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show pricing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MemberDiscount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member discount %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vat %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinimumResults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum results for stats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BatchEmail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max email batch size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BatchFax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max fax batch size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMSGatewayAddress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sms gateway address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SamplingWorkflowEnabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampling workflow enabled?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ScheduleSamplingEnabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schedule Sampling workflow enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CategoriseAnalysisServices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis services categorised in setup?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARImportOption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulk ar import option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARAttachmentOption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ar results file attachment option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnalysisAttachmentOption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis results attachment option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultSampleLifetime_days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default sample retention period – days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultSampleLifetime_hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default sample retention period – hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultSampleLifetime_minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default sample retention period – minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoPrintLabels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto label printing workflow step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoLabelSize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto label printing size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">small</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YearInPrefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must the year be included in sample prefixes?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SampleIDPadding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample id padding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARIDPadding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ar id padding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExternalIDServer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External id server?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDServerURL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id server url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultCountry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR Import options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results Attachment option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto label print size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto Label Printing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publication Preferences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East West</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Permitted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">receive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LabClerk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LabManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Special</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preserver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preservers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publishers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samplers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClientType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worksheet template analysis types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument Maintenance task types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument Scheduled tasks types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrument Scheduled Repeat unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noncorporate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corporate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preventive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-corporate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don't Know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enhancement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duplicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calibration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BWP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BZD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DKK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FJD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FKP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GHS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GYD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HKD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HRK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KWD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KYD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KZT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LKR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LVL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LYD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MVR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MXN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MXV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PGK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PKR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PYG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RWF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TJS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UGX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UYI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UYU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VUV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XFU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZMK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZWL</t>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Sheet names are case sensitive, and the keys in row 0 are always special.</t>
+  </si>
+  <si>
+    <t>Sheet order is important – dependencies should be loaded in earlier sheets.</t>
+  </si>
+  <si>
+    <t>Please also do not edit the last sheet, 'Constants', which is used to populate some of the drop down menus.</t>
+  </si>
+  <si>
+    <t>Some sheets are linked to their corresponding setup items in the manual. Blue text against grey shading are HTML links.</t>
+  </si>
+  <si>
+    <t>Grey shaded cells contain validation rules, mostly look-up references and formatting. If you add rows below the shaded areas, copy the shaded cells into the new rows for the best results, ensuring that the validation is applied on the new rows too.</t>
+  </si>
+  <si>
+    <t>Files to be uploaded, e.g. scans of signatures (jpg) or method documents (pdf), must be available in the same folder as this spreadsheet and only the file name entered into the corresponding cell</t>
+  </si>
+  <si>
+    <t>portal_type</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>sequence_type</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>counter_type</t>
+  </si>
+  <si>
+    <t>counter_reference</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>split_length</t>
+  </si>
+  <si>
+    <t>Object ID prefixes</t>
+  </si>
+  <si>
+    <t>Data object</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Sequence Type</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Counter Type</t>
+  </si>
+  <si>
+    <t>Counter Reference</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>Split Length</t>
+  </si>
+  <si>
+    <t>AnalysisRequest</t>
+  </si>
+  <si>
+    <t>Analysis Request</t>
+  </si>
+  <si>
+    <t>{sampleId}-R{seq:02d}</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>backreference</t>
+  </si>
+  <si>
+    <t>AnalysisRequestSample</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>B-{seq:03d}</t>
+  </si>
+  <si>
+    <t>generated</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>{sampleType}-{seq:04d}</t>
+  </si>
+  <si>
+    <t>Worksheet</t>
+  </si>
+  <si>
+    <t>WS-{seq:03d}</t>
+  </si>
+  <si>
+    <t>worksheet</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>I-{seq:03d}</t>
+  </si>
+  <si>
+    <t>invoice</t>
+  </si>
+  <si>
+    <t>ARImport</t>
+  </si>
+  <si>
+    <t>AR Import</t>
+  </si>
+  <si>
+    <t>AI-{seq:03d}</t>
+  </si>
+  <si>
+    <t>arimport</t>
+  </si>
+  <si>
+    <t>ReferenceSample</t>
+  </si>
+  <si>
+    <t>Reference Sample</t>
+  </si>
+  <si>
+    <t>QC-{seq:03d}</t>
+  </si>
+  <si>
+    <t>refsample</t>
+  </si>
+  <si>
+    <t>ReferenceAnalysis</t>
+  </si>
+  <si>
+    <t>Reference Analysis</t>
+  </si>
+  <si>
+    <t>SA-{seq:03d}</t>
+  </si>
+  <si>
+    <t>refanalysis</t>
+  </si>
+  <si>
+    <t>DuplicateAnalysis</t>
+  </si>
+  <si>
+    <t>Duplicate Analysis</t>
+  </si>
+  <si>
+    <t>D-{seq:03d}</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>SamplePartition</t>
+  </si>
+  <si>
+    <t>Sample Partition</t>
+  </si>
+  <si>
+    <t>{sampleId}-P{seq:d}</t>
+  </si>
+  <si>
+    <t>contained</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Laboratory and Accreditation Information</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>SANBI Institute</t>
+  </si>
+  <si>
+    <t>LabURL</t>
+  </si>
+  <si>
+    <t>Lab web address</t>
+  </si>
+  <si>
+    <t>http://www.sanbi.ac.za/</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Confidence level %</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>LaboratoryAccredited</t>
+  </si>
+  <si>
+    <t>Laboratory accredited ?</t>
+  </si>
+  <si>
+    <t>AccreditationBodyLong</t>
+  </si>
+  <si>
+    <t>Accreditation body  title</t>
+  </si>
+  <si>
+    <t>AccreditationBody</t>
+  </si>
+  <si>
+    <t>Accreditation body abbreviation</t>
+  </si>
+  <si>
+    <t>AccreditationBodyURL</t>
+  </si>
+  <si>
+    <t>Accreditation body web address</t>
+  </si>
+  <si>
+    <t>Accreditation</t>
+  </si>
+  <si>
+    <t>Accreditation standard, e.g ISO 17025</t>
+  </si>
+  <si>
+    <t>AccreditationReference</t>
+  </si>
+  <si>
+    <t>Lab's accreditation reference number</t>
+  </si>
+  <si>
+    <t>AccreditationBodyLogo</t>
+  </si>
+  <si>
+    <t>Accreditation body logo</t>
+  </si>
+  <si>
+    <t>TaxNumber</t>
+  </si>
+  <si>
+    <t>Tax number</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Fax number</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>Email address</t>
+  </si>
+  <si>
+    <t>lims@sanbi.ac.za</t>
+  </si>
+  <si>
+    <t>Physical_Address</t>
+  </si>
+  <si>
+    <t>Physical address</t>
+  </si>
+  <si>
+    <t>Modderdam Rd, Sacks Circle Industrial</t>
+  </si>
+  <si>
+    <t>Physical_City</t>
+  </si>
+  <si>
+    <t>Physical address city</t>
+  </si>
+  <si>
+    <t>Bellville</t>
+  </si>
+  <si>
+    <t>Physical_State</t>
+  </si>
+  <si>
+    <t>Physical address state</t>
+  </si>
+  <si>
+    <t>Western Province</t>
+  </si>
+  <si>
+    <t>Physical_Zip</t>
+  </si>
+  <si>
+    <t>Physical address zip</t>
+  </si>
+  <si>
+    <t>Physical_Country</t>
+  </si>
+  <si>
+    <t>Physical address country</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Postal_Address</t>
+  </si>
+  <si>
+    <t>Postal address</t>
+  </si>
+  <si>
+    <t>Postal_City</t>
+  </si>
+  <si>
+    <t>Postal address city</t>
+  </si>
+  <si>
+    <t>Postal_State</t>
+  </si>
+  <si>
+    <t>Postal address state</t>
+  </si>
+  <si>
+    <t>Postal_Zip</t>
+  </si>
+  <si>
+    <t>Postal address zip</t>
+  </si>
+  <si>
+    <t>Postal_Country</t>
+  </si>
+  <si>
+    <t>Postal address country</t>
+  </si>
+  <si>
+    <t>Billing_Address</t>
+  </si>
+  <si>
+    <t>Billing address</t>
+  </si>
+  <si>
+    <t>Billing_City</t>
+  </si>
+  <si>
+    <t>Billing address city</t>
+  </si>
+  <si>
+    <t>Billing_State</t>
+  </si>
+  <si>
+    <t>Billing address state</t>
+  </si>
+  <si>
+    <t>Billing_Zip</t>
+  </si>
+  <si>
+    <t>Billing address zip</t>
+  </si>
+  <si>
+    <t>Billing_Country</t>
+  </si>
+  <si>
+    <t>Billing address country</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>pricePremium</t>
+  </si>
+  <si>
+    <t>sortKey</t>
+  </si>
+  <si>
+    <t>isDefault</t>
+  </si>
+  <si>
+    <t>smallIcon</t>
+  </si>
+  <si>
+    <t>bigIcon</t>
+  </si>
+  <si>
+    <t>ARPriorities</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Price Premium %</t>
+  </si>
+  <si>
+    <t>Sort Key</t>
+  </si>
+  <si>
+    <t>Default ?</t>
+  </si>
+  <si>
+    <t>Small Icon</t>
+  </si>
+  <si>
+    <t>Big Icon</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>priority_hold.png</t>
+  </si>
+  <si>
+    <t>priority_hold_big.png</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>priority_normal.png</t>
+  </si>
+  <si>
+    <t>priority_normal_big.png</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>priority_high.png</t>
+  </si>
+  <si>
+    <t>priority_high_big.png</t>
+  </si>
+  <si>
+    <t>Urgent</t>
+  </si>
+  <si>
+    <t>priority_urgent.png</t>
+  </si>
+  <si>
+    <t>priority_urgent_big.png</t>
+  </si>
+  <si>
+    <t>RetentionPeriod</t>
+  </si>
+  <si>
+    <t>Hazardous</t>
+  </si>
+  <si>
+    <t>MinimumVolume</t>
+  </si>
+  <si>
+    <t>Sample Types</t>
+  </si>
+  <si>
+    <t>Retention period (days)</t>
+  </si>
+  <si>
+    <t>Minimum volume or weight</t>
+  </si>
+  <si>
+    <t>Blood Plasma</t>
+  </si>
+  <si>
+    <t>The liquid portion of normal unclotted blood containing the red and white cells and platelets. The straw-colored/pale-yellow liquid component of blood that normally holds the blood cells in whole blood in suspension.</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>1 ml</t>
+  </si>
+  <si>
+    <t>Serum</t>
+  </si>
+  <si>
+    <t>The clear liquid that can be separated from clotted blood. Serum differs from plasma, the liquid portion of normal unclotted blood containing the red and white cells and platelets. It is the clot that makes the difference between serum and plasma.</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Urine</t>
+  </si>
+  <si>
+    <t>A typically sterile liquid by-product of the body secreted by the kidneys through a process called urination and excreted through the urethra.</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Potable or river water. Not sewage</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>Whole Blood</t>
+  </si>
+  <si>
+    <t>Blood drawn from the body from which no constituent, such as plasma or platelets, has been removed.</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>LabContact_Username</t>
+  </si>
+  <si>
+    <t>Lab Departments</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Biobank</t>
+  </si>
+  <si>
+    <t>Human Biobank</t>
+  </si>
+  <si>
+    <t>labman</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>BusinessPhone</t>
+  </si>
+  <si>
+    <t>BusinessFax</t>
+  </si>
+  <si>
+    <t>HomePhone</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>Department_title</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>Lab contacts - staff members</t>
+  </si>
+  <si>
+    <t>Only if a Lab contact is a LIMS user too, does he/she get given a (unique) user name and password, and assigned a role or to a group</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Business phone</t>
+  </si>
+  <si>
+    <t>Business fax</t>
+  </si>
+  <si>
+    <t>Home phone</t>
+  </si>
+  <si>
+    <t>Mobile phone</t>
+  </si>
+  <si>
+    <t>Job title</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>User name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>»Lab</t>
+  </si>
+  <si>
+    <t>» Manager</t>
+  </si>
+  <si>
+    <t>labmanager@example.com</t>
+  </si>
+  <si>
+    <t>021 555 1234</t>
+  </si>
+  <si>
+    <t>021 555 1233</t>
+  </si>
+  <si>
+    <t>048 813 9515</t>
+  </si>
+  <si>
+    <t>082 555 9910</t>
+  </si>
+  <si>
+    <t>»Manager</t>
+  </si>
+  <si>
+    <t>LabManagers</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Clerk</t>
+  </si>
+  <si>
+    <t>labclerk@example.com</t>
+  </si>
+  <si>
+    <t>010 417 2743</t>
+  </si>
+  <si>
+    <t>010 417 3007</t>
+  </si>
+  <si>
+    <t>010417 5849</t>
+  </si>
+  <si>
+    <t>073 965 3368</t>
+  </si>
+  <si>
+    <t>labclerk</t>
+  </si>
+  <si>
+    <t>LabClerks</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>analyst@example.com</t>
+  </si>
+  <si>
+    <t>021 555 1236</t>
+  </si>
+  <si>
+    <t>050 866 9887</t>
+  </si>
+  <si>
+    <t>083 555 8108</t>
+  </si>
+  <si>
+    <t>Assistant manager</t>
+  </si>
+  <si>
+    <t>analyst</t>
+  </si>
+  <si>
+    <t>Analysts</t>
+  </si>
+  <si>
+    <t>Verifier</t>
+  </si>
+  <si>
+    <t>verifier@example.com</t>
+  </si>
+  <si>
+    <t>021 555 1235</t>
+  </si>
+  <si>
+    <t>021 555 1201</t>
+  </si>
+  <si>
+    <t>050 866 9808</t>
+  </si>
+  <si>
+    <t>083 333 8101</t>
+  </si>
+  <si>
+    <t>verifier</t>
+  </si>
+  <si>
+    <t>Verifiers</t>
+  </si>
+  <si>
+    <t>ClientID</t>
+  </si>
+  <si>
+    <t>MemberDiscountApplies</t>
+  </si>
+  <si>
+    <t>BulkDiscount</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>Clients</t>
+  </si>
+  <si>
+    <t>Physical Address</t>
+  </si>
+  <si>
+    <t>Postal Address</t>
+  </si>
+  <si>
+    <t>Billing Address</t>
+  </si>
+  <si>
+    <t>Client ID</t>
+  </si>
+  <si>
+    <t>Member discount applies?</t>
+  </si>
+  <si>
+    <t>Bulk discount applies?</t>
+  </si>
+  <si>
+    <t>Account number</t>
+  </si>
+  <si>
+    <t>Bellville Medical Centre</t>
+  </si>
+  <si>
+    <t>BMC</t>
+  </si>
+  <si>
+    <t>SA62914-27121</t>
+  </si>
+  <si>
+    <t>+27-21-2442645</t>
+  </si>
+  <si>
+    <t>+27-21-2442647</t>
+  </si>
+  <si>
+    <t>apsc@example.com</t>
+  </si>
+  <si>
+    <t>1 Brickdam</t>
+  </si>
+  <si>
+    <t>Cape Town</t>
+  </si>
+  <si>
+    <t>Western Cape</t>
+  </si>
+  <si>
+    <t>Brooklyn Chest Hospital</t>
+  </si>
+  <si>
+    <t>BCHP</t>
+  </si>
+  <si>
+    <t>SA62914-27120</t>
+  </si>
+  <si>
+    <t>+27-21-2442561</t>
+  </si>
+  <si>
+    <t>+27-21-2442563</t>
+  </si>
+  <si>
+    <t>bchp@example.com</t>
+  </si>
+  <si>
+    <t>Oceana Complex</t>
+  </si>
+  <si>
+    <t>Client_title</t>
+  </si>
+  <si>
+    <t>PublicationPreference</t>
+  </si>
+  <si>
+    <t>CCContacts</t>
+  </si>
+  <si>
+    <t>AttachmentsPermitted</t>
+  </si>
+  <si>
+    <t>Client Contacts - Staff Members</t>
+  </si>
+  <si>
+    <t>Client title</t>
+  </si>
+  <si>
+    <t>Publication preference</t>
+  </si>
+  <si>
+    <t>Contacts to be cc'd</t>
+  </si>
+  <si>
+    <t>Attachments permitted</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Mohale</t>
+  </si>
+  <si>
+    <t>ritamo</t>
+  </si>
+  <si>
+    <t>Product assistant</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>038 664 6469</t>
+  </si>
+  <si>
+    <t>038 664 7338</t>
+  </si>
+  <si>
+    <t>038 664 7757</t>
+  </si>
+  <si>
+    <t>082 607 8405</t>
+  </si>
+  <si>
+    <t>mohale@example.com</t>
+  </si>
+  <si>
+    <t>email,pdf</t>
+  </si>
+  <si>
+    <t>Ŝarel Seemonster</t>
+  </si>
+  <si>
+    <t>Permitted</t>
+  </si>
+  <si>
+    <t>Ŝarel</t>
+  </si>
+  <si>
+    <t>Seemonster</t>
+  </si>
+  <si>
+    <t>sarelse</t>
+  </si>
+  <si>
+    <t>Nutrient management</t>
+  </si>
+  <si>
+    <t>040 666 6630</t>
+  </si>
+  <si>
+    <t>040 666 7834</t>
+  </si>
+  <si>
+    <t>040 666 7858</t>
+  </si>
+  <si>
+    <t>083 644 8576</t>
+  </si>
+  <si>
+    <t>seemonster@example.com</t>
+  </si>
+  <si>
+    <t>Rita Mohale</t>
+  </si>
+  <si>
+    <t>Neil</t>
+  </si>
+  <si>
+    <t>Ŝtandard</t>
+  </si>
+  <si>
+    <t>neilst</t>
+  </si>
+  <si>
+    <t>Research  assistant</t>
+  </si>
+  <si>
+    <t>Product development</t>
+  </si>
+  <si>
+    <t>035 597 5814</t>
+  </si>
+  <si>
+    <t>035 597 6876</t>
+  </si>
+  <si>
+    <t>035 597 6344</t>
+  </si>
+  <si>
+    <t>080 564 7509</t>
+  </si>
+  <si>
+    <t>standard@example.com</t>
+  </si>
+  <si>
+    <t>Ŝarel Seemonster, Rita Mohale</t>
+  </si>
+  <si>
+    <t>Johanna</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>johannasm</t>
+  </si>
+  <si>
+    <t>Scientist</t>
+  </si>
+  <si>
+    <t>Soil science</t>
+  </si>
+  <si>
+    <t>036 640 6016</t>
+  </si>
+  <si>
+    <t>036 6406911</t>
+  </si>
+  <si>
+    <t>036 6407167</t>
+  </si>
+  <si>
+    <t>081 569 7909</t>
+  </si>
+  <si>
+    <t>smith@example.com</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>fredtu</t>
+  </si>
+  <si>
+    <t>QC manager</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>041 670 6654</t>
+  </si>
+  <si>
+    <t>041 6708002</t>
+  </si>
+  <si>
+    <t>041 670 8848</t>
+  </si>
+  <si>
+    <t>084 677 8884</t>
+  </si>
+  <si>
+    <t>turner@example.com</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Ruffian</t>
+  </si>
+  <si>
+    <t>chrisru</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>025 557 4204</t>
+  </si>
+  <si>
+    <t>025 557 4531</t>
+  </si>
+  <si>
+    <t>025 557 3131</t>
+  </si>
+  <si>
+    <t>074 304 5021</t>
+  </si>
+  <si>
+    <t>ruffian@example.com</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>Corbin</t>
+  </si>
+  <si>
+    <t>andreco</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>032 586 5303</t>
+  </si>
+  <si>
+    <t>032 586 6331</t>
+  </si>
+  <si>
+    <t>032 586 5622</t>
+  </si>
+  <si>
+    <t>078 469 7035</t>
+  </si>
+  <si>
+    <t>corbin@example.com</t>
+  </si>
+  <si>
+    <t>Suppliers</t>
+  </si>
+  <si>
+    <t>Tax Number</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Biomerieux</t>
+  </si>
+  <si>
+    <t>012 440 9555</t>
+  </si>
+  <si>
+    <t>012 440 9765</t>
+  </si>
+  <si>
+    <t>supplier@example.com</t>
+  </si>
+  <si>
+    <t>Chemin de l'Orme</t>
+  </si>
+  <si>
+    <t>Marcy-l'Étoile</t>
+  </si>
+  <si>
+    <t>Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>BioRad</t>
+  </si>
+  <si>
+    <t>012 440 8445</t>
+  </si>
+  <si>
+    <t>012 440 8447</t>
+  </si>
+  <si>
+    <t>1000 Alfred Nobel Drive, Hercules</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>CA 94547</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Supplier_Name</t>
+  </si>
+  <si>
+    <t>Supplier Contacts</t>
+  </si>
+  <si>
+    <t>Supplier Name</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Business Phone</t>
+  </si>
+  <si>
+    <t>Business Fax</t>
+  </si>
+  <si>
+    <t>Home Phone</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Dobson</t>
+  </si>
+  <si>
+    <t>Salesman</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>028 274 8819</t>
+  </si>
+  <si>
+    <t>086 222 3600</t>
+  </si>
+  <si>
+    <t>089 445 0440</t>
+  </si>
+  <si>
+    <t>dobson@example.com</t>
+  </si>
+  <si>
+    <t>1 main street</t>
+  </si>
+  <si>
+    <t>Pringle Bay</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Tube 15ml</t>
+  </si>
+  <si>
+    <t>Empty tube to contain biospecimen</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>Gloves for specimens extraction</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>templateID</t>
+  </si>
+  <si>
+    <t>templateName</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Kit Templates</t>
+  </si>
+  <si>
+    <t>Template ID</t>
+  </si>
+  <si>
+    <t>Template Name</t>
+  </si>
+  <si>
+    <t>KITEMP01</t>
+  </si>
+  <si>
+    <t>Kit Template 01</t>
+  </si>
+  <si>
+    <t>StudyType</t>
+  </si>
+  <si>
+    <t>AgeHigh</t>
+  </si>
+  <si>
+    <t>AgeLow</t>
+  </si>
+  <si>
+    <t>NumParticipants</t>
+  </si>
+  <si>
+    <t>SampleTypes</t>
+  </si>
+  <si>
+    <t>AnalysisServices</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>DateCreated</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Study Type</t>
+  </si>
+  <si>
+    <t>Maximum Age</t>
+  </si>
+  <si>
+    <t>Minimum Age</t>
+  </si>
+  <si>
+    <t>Number of Participants</t>
+  </si>
+  <si>
+    <t>Sample Type</t>
+  </si>
+  <si>
+    <t>Analysis Services</t>
+  </si>
+  <si>
+    <t>Date Crated</t>
+  </si>
+  <si>
+    <t>Green Goblin Project</t>
+  </si>
+  <si>
+    <t>Development of serum which gives superhuman strength and intelligence</t>
+  </si>
+  <si>
+    <t>Military research</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Whole Blood; Water</t>
+  </si>
+  <si>
+    <t>DNA concentration</t>
+  </si>
+  <si>
+    <t>2012/06/26</t>
+  </si>
+  <si>
+    <t>hierarchy</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>NumberOfPoints</t>
+  </si>
+  <si>
+    <t>Rows</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Room 1</t>
+  </si>
+  <si>
+    <t>Room-1</t>
+  </si>
+  <si>
+    <t>StorageUnit</t>
+  </si>
+  <si>
+    <t>Room 2</t>
+  </si>
+  <si>
+    <t>Room-2</t>
+  </si>
+  <si>
+    <t>Room 3</t>
+  </si>
+  <si>
+    <t>Room-3</t>
+  </si>
+  <si>
+    <t>Freezer 1</t>
+  </si>
+  <si>
+    <t>Room-2.Freezer-1</t>
+  </si>
+  <si>
+    <t>Freezer-1</t>
+  </si>
+  <si>
+    <t>Room-3.Freezer-1</t>
+  </si>
+  <si>
+    <t>Box 01</t>
+  </si>
+  <si>
+    <t>Room-2.Freezer-1.Box-01</t>
+  </si>
+  <si>
+    <t>Box-01</t>
+  </si>
+  <si>
+    <t>ManagedStorage</t>
+  </si>
+  <si>
+    <t>Room-3.Freezer-1.Box-01</t>
+  </si>
+  <si>
+    <t>Box 02</t>
+  </si>
+  <si>
+    <t>Room-3.Freezer-1.Box-02</t>
+  </si>
+  <si>
+    <t>Box-02</t>
+  </si>
+  <si>
+    <t>Shelf 1</t>
+  </si>
+  <si>
+    <t>Room-3.Shelf-1</t>
+  </si>
+  <si>
+    <t>Shelf-1</t>
+  </si>
+  <si>
+    <t>UnmanagedStorage</t>
+  </si>
+  <si>
+    <t>Shelf 2</t>
+  </si>
+  <si>
+    <t>Room-3.Shelf-2</t>
+  </si>
+  <si>
+    <t>Shelf-2</t>
+  </si>
+  <si>
+    <t>componentID</t>
+  </si>
+  <si>
+    <t>componentName</t>
+  </si>
+  <si>
+    <t>Component ID</t>
+  </si>
+  <si>
+    <t>Component Name</t>
+  </si>
+  <si>
+    <t>Analysis Categories</t>
+  </si>
+  <si>
+    <t>Genome</t>
+  </si>
+  <si>
+    <t>Genome Analysis: DNA/RNA</t>
+  </si>
+  <si>
+    <t>Proteome</t>
+  </si>
+  <si>
+    <t>Proteomic Analysis: Mass spectrometry</t>
+  </si>
+  <si>
+    <t>ShortTitle</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>PointOfCapture</t>
+  </si>
+  <si>
+    <t>AnalysisCategory_title</t>
+  </si>
+  <si>
+    <t>ReportDryMatter</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>ExponentialFormatPrecision</t>
+  </si>
+  <si>
+    <t>LowerDetectionLimit</t>
+  </si>
+  <si>
+    <t>UpperDetectionLimit</t>
+  </si>
+  <si>
+    <t>DetectionLimitSelector</t>
+  </si>
+  <si>
+    <t>MaxTimeAllowed_days</t>
+  </si>
+  <si>
+    <t>MaxTimeAllowed_hours</t>
+  </si>
+  <si>
+    <t>MaxTimeAllowed_minutes</t>
+  </si>
+  <si>
+    <t>BulkPrice</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>ManualEntryOfResults</t>
+  </si>
+  <si>
+    <t>DefaultMethod_title</t>
+  </si>
+  <si>
+    <t>DefaultInstrument_title</t>
+  </si>
+  <si>
+    <t>Calculation_title</t>
+  </si>
+  <si>
+    <t>DuplicateVariation</t>
+  </si>
+  <si>
+    <t>Accredited</t>
+  </si>
+  <si>
+    <t>Separate</t>
+  </si>
+  <si>
+    <t>Container_title</t>
+  </si>
+  <si>
+    <t>Preservation_title</t>
+  </si>
+  <si>
+    <t>Analysis Services - The 'tests' Offered By The Lab</t>
+  </si>
+  <si>
+    <t>Maximum Turnaround Time</t>
+  </si>
+  <si>
+    <t>Short Title</t>
+  </si>
+  <si>
+    <t>Point of capture</t>
+  </si>
+  <si>
+    <t>Analysis category</t>
+  </si>
+  <si>
+    <t>Lab department</t>
+  </si>
+  <si>
+    <t>Can be reported as dry matter?</t>
+  </si>
+  <si>
+    <t>Results file attachment permitted</t>
+  </si>
+  <si>
+    <t>Exponential format precision</t>
+  </si>
+  <si>
+    <t>LDL</t>
+  </si>
+  <si>
+    <t>UDL</t>
+  </si>
+  <si>
+    <t>Display DL selector</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>Bulk price</t>
+  </si>
+  <si>
+    <t>Vat</t>
+  </si>
+  <si>
+    <t>Manual Entry of Results?</t>
+  </si>
+  <si>
+    <t>Default Method</t>
+  </si>
+  <si>
+    <t>Default Instrument</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>Duplicate variation %</t>
+  </si>
+  <si>
+    <t>Default Container</t>
+  </si>
+  <si>
+    <t>Default Preservation</t>
+  </si>
+  <si>
+    <t>DNA Ex</t>
+  </si>
+  <si>
+    <t>DNA concentration determination of sample</t>
+  </si>
+  <si>
+    <t>dnaex</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>mg/l</t>
+  </si>
+  <si>
+    <t>Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>MALDI</t>
+  </si>
+  <si>
+    <t>Mass spectrometry MALDI-TOF</t>
+  </si>
+  <si>
+    <t>Maldi-tof</t>
+  </si>
+  <si>
+    <t>Service_title</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Interim Fields Used In Analysis Services</t>
+  </si>
+  <si>
+    <t>Service Title</t>
+  </si>
+  <si>
+    <t>Field Title</t>
+  </si>
+  <si>
+    <t>Default value</t>
+  </si>
+  <si>
+    <t>Method_title</t>
+  </si>
+  <si>
+    <t>Analysis Services – Methods</t>
+  </si>
+  <si>
+    <t>Service title</t>
+  </si>
+  <si>
+    <t>Method title</t>
+  </si>
+  <si>
+    <t>Instrument_title</t>
+  </si>
+  <si>
+    <t>Analysis Services – Instruments</t>
+  </si>
+  <si>
+    <t>Instrument title</t>
+  </si>
+  <si>
+    <t>ResultText</t>
+  </si>
+  <si>
+    <t>ResultValue</t>
+  </si>
+  <si>
+    <t>Analysis Services results options</t>
+  </si>
+  <si>
+    <t>Result options</t>
+  </si>
+  <si>
+    <t>Result value</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Indeterminable</t>
+  </si>
+  <si>
+    <t>Range Min</t>
+  </si>
+  <si>
+    <t>Range Max</t>
+  </si>
+  <si>
+    <t>Uncertainty Value</t>
+  </si>
+  <si>
+    <t>Analysis Service Uncertainties</t>
+  </si>
+  <si>
+    <t>Analysis service title</t>
+  </si>
+  <si>
+    <t>Result Range min</t>
+  </si>
+  <si>
+    <t>Result range max</t>
+  </si>
+  <si>
+    <t>Uncertainty value</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Results Calculations</t>
+  </si>
+  <si>
+    <t>TC20 Biorad</t>
+  </si>
+  <si>
+    <t>TC20 Automated Cell Counter</t>
+  </si>
+  <si>
+    <t>[LCC] * 100 / [TCC]</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>Interim fields used in calculations</t>
+  </si>
+  <si>
+    <t>Calculation title</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>TCC</t>
+  </si>
+  <si>
+    <t>Total Cell Count</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>Live Cell Count</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>StorageLocation</t>
+  </si>
+  <si>
+    <t>InvoiceNr</t>
+  </si>
+  <si>
+    <t>BatchNr</t>
+  </si>
+  <si>
+    <t>ReceivedBy</t>
+  </si>
+  <si>
+    <t>DateReceived</t>
+  </si>
+  <si>
+    <t>StockItems</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Batch Number</t>
+  </si>
+  <si>
+    <t>Received By</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Stock items tubes 1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>i001</t>
+  </si>
+  <si>
+    <t>b001</t>
+  </si>
+  <si>
+    <t>Tim Jones</t>
+  </si>
+  <si>
+    <t>Stock items tubes 2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>i002</t>
+  </si>
+  <si>
+    <t>b002</t>
+  </si>
+  <si>
+    <t>Shame Pane</t>
+  </si>
+  <si>
+    <t>Stock items tubes 3</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>i003</t>
+  </si>
+  <si>
+    <t>b003</t>
+  </si>
+  <si>
+    <t>Kelvin Kelp</t>
+  </si>
+  <si>
+    <t>Stock items tubes 4</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>i004</t>
+  </si>
+  <si>
+    <t>b004</t>
+  </si>
+  <si>
+    <t>Trip Weir</t>
+  </si>
+  <si>
+    <t>Stock items gloves 1</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>i005</t>
+  </si>
+  <si>
+    <t>b005</t>
+  </si>
+  <si>
+    <t>Kent Mett</t>
+  </si>
+  <si>
+    <t>Stock items gloves 2</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>i006</t>
+  </si>
+  <si>
+    <t>b006</t>
+  </si>
+  <si>
+    <t>Grigor Bites</t>
+  </si>
+  <si>
+    <t>MethodDocument</t>
+  </si>
+  <si>
+    <t>Analysis Methods</t>
+  </si>
+  <si>
+    <t>Method document</t>
+  </si>
+  <si>
+    <t>Cell counting</t>
+  </si>
+  <si>
+    <t>Automated cell counting</t>
+  </si>
+  <si>
+    <t>Instrument will count the total of live cells and the quantity of cells in each sample</t>
+  </si>
+  <si>
+    <t>Instrument Types</t>
+  </si>
+  <si>
+    <t>Automated cell counter</t>
+  </si>
+  <si>
+    <t>assetnumber</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>SerialNo</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Instalationdate</t>
+  </si>
+  <si>
+    <t>InstalationCertificate</t>
+  </si>
+  <si>
+    <t>UserManualFile</t>
+  </si>
+  <si>
+    <t>UserManualID</t>
+  </si>
+  <si>
+    <t>UserManualVersion</t>
+  </si>
+  <si>
+    <t>UserManualLocation</t>
+  </si>
+  <si>
+    <t>CalibrationCertificate</t>
+  </si>
+  <si>
+    <t>CalibrationExpiryDate</t>
+  </si>
+  <si>
+    <t>VerificationExpiryDate</t>
+  </si>
+  <si>
+    <t>DataInterface</t>
+  </si>
+  <si>
+    <t>DataInterfaceOptions</t>
+  </si>
+  <si>
+    <t>Lab Instruments</t>
+  </si>
+  <si>
+    <t>Instruments</t>
+  </si>
+  <si>
+    <t>Asset number</t>
+  </si>
+  <si>
+    <t>Instrument type</t>
+  </si>
+  <si>
+    <t>Brand/Manufacturer</t>
+  </si>
+  <si>
+    <t>Serial no</t>
+  </si>
+  <si>
+    <t>Photo image file</t>
+  </si>
+  <si>
+    <t>Instalation date</t>
+  </si>
+  <si>
+    <t>Installation certificate upload file</t>
+  </si>
+  <si>
+    <t>User manual upload file</t>
+  </si>
+  <si>
+    <t>User manual ID</t>
+  </si>
+  <si>
+    <t>User manual version</t>
+  </si>
+  <si>
+    <t>User manual location</t>
+  </si>
+  <si>
+    <t>Calibration certificate</t>
+  </si>
+  <si>
+    <t>Calibration expiry date</t>
+  </si>
+  <si>
+    <t>Verification expiration date</t>
+  </si>
+  <si>
+    <t>Data interface</t>
+  </si>
+  <si>
+    <t>Data interface options</t>
+  </si>
+  <si>
+    <t>LABEQG-001</t>
+  </si>
+  <si>
+    <t>Cell Counter</t>
+  </si>
+  <si>
+    <t>Automated cell counter for cell counting analyses</t>
+  </si>
+  <si>
+    <t>2000B</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Manual LABEQG-001</t>
+  </si>
+  <si>
+    <t>Version 2 - July 2010</t>
+  </si>
+  <si>
+    <t>S2.5.1</t>
+  </si>
+  <si>
+    <t>SANCal 11/6010</t>
+  </si>
+  <si>
+    <t>DateIssued</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>downfrom</t>
+  </si>
+  <si>
+    <t>downto</t>
+  </si>
+  <si>
+    <t>validator</t>
+  </si>
+  <si>
+    <t>considerations</t>
+  </si>
+  <si>
+    <t>workperformed</t>
+  </si>
+  <si>
+    <t>Worker</t>
+  </si>
+  <si>
+    <t>ReportID</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>Instrument Validations</t>
+  </si>
+  <si>
+    <t>Report Date</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Down from</t>
+  </si>
+  <si>
+    <t>Down to</t>
+  </si>
+  <si>
+    <t>Validator</t>
+  </si>
+  <si>
+    <t>Considerations</t>
+  </si>
+  <si>
+    <t>Work performed</t>
+  </si>
+  <si>
+    <t>Performed by</t>
+  </si>
+  <si>
+    <t>Report identification Nº</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Conductivity validation</t>
+  </si>
+  <si>
+    <t>Check if instrument is plugged before</t>
+  </si>
+  <si>
+    <t>Some measuraments using salty water</t>
+  </si>
+  <si>
+    <t>LMT20145004182/20</t>
+  </si>
+  <si>
+    <t>calibrator</t>
+  </si>
+  <si>
+    <t>Instrument Calibrations</t>
+  </si>
+  <si>
+    <t>Calibrator</t>
+  </si>
+  <si>
+    <t>Spectro calibration</t>
+  </si>
+  <si>
+    <t>Professional Calibrations Inc.</t>
+  </si>
+  <si>
+    <t>Easiest to calibrate than Spectro 1</t>
+  </si>
+  <si>
+    <t>LMT20145004182/10</t>
+  </si>
+  <si>
+    <t>DocumentID</t>
+  </si>
+  <si>
+    <t>DocumentVersion</t>
+  </si>
+  <si>
+    <t>DocumentLocation</t>
+  </si>
+  <si>
+    <t>DocumentType</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Instrument Documents</t>
+  </si>
+  <si>
+    <t>Document ID</t>
+  </si>
+  <si>
+    <t>Document Version</t>
+  </si>
+  <si>
+    <t>Document Location</t>
+  </si>
+  <si>
+    <t>Document Type</t>
+  </si>
+  <si>
+    <t>Lab1</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>manual1.pdf</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>validfrom</t>
+  </si>
+  <si>
+    <t>validto</t>
+  </si>
+  <si>
+    <t>agency</t>
+  </si>
+  <si>
+    <t>preparedby</t>
+  </si>
+  <si>
+    <t>approvedby</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>Instrument Certifications</t>
+  </si>
+  <si>
+    <t>Certification code</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Valid from</t>
+  </si>
+  <si>
+    <t>Valid to</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Prepared by</t>
+  </si>
+  <si>
+    <t>Approved by</t>
+  </si>
+  <si>
+    <t>Report upload</t>
+  </si>
+  <si>
+    <t>LABEQG-003</t>
+  </si>
+  <si>
+    <t>SANCal 11/5783</t>
+  </si>
+  <si>
+    <t>SANCal</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>KitTemplate</t>
+  </si>
+  <si>
+    <t>StockItemsStorage</t>
+  </si>
+  <si>
+    <t>FormsThere</t>
+  </si>
+  <si>
+    <t>Kits</t>
+  </si>
+  <si>
+    <t>Kit Template</t>
+  </si>
+  <si>
+    <t>Storage Location</t>
+  </si>
+  <si>
+    <t>Stock Items Storage</t>
+  </si>
+  <si>
+    <t>Forms There</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>test kit 33</t>
+  </si>
+  <si>
+    <t>test kit one for testing</t>
+  </si>
+  <si>
+    <t>Test kit 34</t>
+  </si>
+  <si>
+    <t>test kit two for testing</t>
+  </si>
+  <si>
+    <t>AllowSharing</t>
+  </si>
+  <si>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t>SubjectID</t>
+  </si>
+  <si>
+    <t>Barcode</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>LinkedSample</t>
+  </si>
+  <si>
+    <t>LocationTitle</t>
+  </si>
+  <si>
+    <t>SampleType</t>
+  </si>
+  <si>
+    <t>Biospecimens</t>
+  </si>
+  <si>
+    <t>Linked Sample</t>
+  </si>
+  <si>
+    <t>Test Sample 1</t>
+  </si>
+  <si>
+    <t>Test sample 1</t>
+  </si>
+  <si>
+    <t>Room-2.Freezer-1.Box-01.3</t>
+  </si>
+  <si>
+    <t>Def 001</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>Test Sample 2</t>
+  </si>
+  <si>
+    <t>Test sample 2</t>
+  </si>
+  <si>
+    <t>Room-2.Freezer-1.Box-01.5</t>
+  </si>
+  <si>
+    <t>Def 002</t>
+  </si>
+  <si>
+    <t>Test Sample 3</t>
+  </si>
+  <si>
+    <t>Test sample 3</t>
+  </si>
+  <si>
+    <t>Room-2.Freezer-1.Box-01.8</t>
+  </si>
+  <si>
+    <t>Def 003</t>
+  </si>
+  <si>
+    <t>Test Sample 4</t>
+  </si>
+  <si>
+    <t>Test sample 4</t>
+  </si>
+  <si>
+    <t>Room-2.Freezer-1.Box-01.10</t>
+  </si>
+  <si>
+    <t>Test Sample 5</t>
+  </si>
+  <si>
+    <t>Test sample 5</t>
+  </si>
+  <si>
+    <t>Room-2.Freezer-1.Box-01.12</t>
+  </si>
+  <si>
+    <t>Def 005</t>
+  </si>
+  <si>
+    <t>Test Sample 6</t>
+  </si>
+  <si>
+    <t>Test sample 6</t>
+  </si>
+  <si>
+    <t>Room-2.Freezer-1.Box-01.13</t>
+  </si>
+  <si>
+    <t>Def 006</t>
+  </si>
+  <si>
+    <t>Setup – Global defaults</t>
+  </si>
+  <si>
+    <t>PasswordLifetime</t>
+  </si>
+  <si>
+    <t>Password lifetime (days)</t>
+  </si>
+  <si>
+    <t>AutoLogOff</t>
+  </si>
+  <si>
+    <t>Auto log off period (minutes)</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>ZAR</t>
+  </si>
+  <si>
+    <t>ShowPartitions</t>
+  </si>
+  <si>
+    <t>Show Sample Partitions</t>
+  </si>
+  <si>
+    <t>ShowPricing</t>
+  </si>
+  <si>
+    <t>Show pricing</t>
+  </si>
+  <si>
+    <t>MemberDiscount</t>
+  </si>
+  <si>
+    <t>Member discount %</t>
+  </si>
+  <si>
+    <t>Vat %</t>
+  </si>
+  <si>
+    <t>MinimumResults</t>
+  </si>
+  <si>
+    <t>Minimum results for stats</t>
+  </si>
+  <si>
+    <t>BatchEmail</t>
+  </si>
+  <si>
+    <t>Max email batch size</t>
+  </si>
+  <si>
+    <t>BatchFax</t>
+  </si>
+  <si>
+    <t>Max fax batch size</t>
+  </si>
+  <si>
+    <t>SMSGatewayAddress</t>
+  </si>
+  <si>
+    <t>Sms gateway address</t>
+  </si>
+  <si>
+    <t>SamplingWorkflowEnabled</t>
+  </si>
+  <si>
+    <t>Sampling workflow enabled?</t>
+  </si>
+  <si>
+    <t>ScheduleSamplingEnabled</t>
+  </si>
+  <si>
+    <t>Schedule Sampling workflow enabled</t>
+  </si>
+  <si>
+    <t>CategoriseAnalysisServices</t>
+  </si>
+  <si>
+    <t>Analysis services categorised in setup?</t>
+  </si>
+  <si>
+    <t>ARImportOption</t>
+  </si>
+  <si>
+    <t>Bulk ar import option</t>
+  </si>
+  <si>
+    <t>Classic</t>
+  </si>
+  <si>
+    <t>ARAttachmentOption</t>
+  </si>
+  <si>
+    <t>Ar results file attachment option</t>
+  </si>
+  <si>
+    <t>AnalysisAttachmentOption</t>
+  </si>
+  <si>
+    <t>Analysis results attachment option</t>
+  </si>
+  <si>
+    <t>DefaultSampleLifetime_days</t>
+  </si>
+  <si>
+    <t>Default sample retention period – days</t>
+  </si>
+  <si>
+    <t>DefaultSampleLifetime_hours</t>
+  </si>
+  <si>
+    <t>Default sample retention period – hours</t>
+  </si>
+  <si>
+    <t>DefaultSampleLifetime_minutes</t>
+  </si>
+  <si>
+    <t>Default sample retention period – minutes</t>
+  </si>
+  <si>
+    <t>AutoPrintLabels</t>
+  </si>
+  <si>
+    <t>Auto label printing workflow step</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>AutoLabelSize</t>
+  </si>
+  <si>
+    <t>Auto label printing size</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>YearInPrefix</t>
+  </si>
+  <si>
+    <t>Must the year be included in sample prefixes?</t>
+  </si>
+  <si>
+    <t>SampleIDPadding</t>
+  </si>
+  <si>
+    <t>Sample id padding</t>
+  </si>
+  <si>
+    <t>ARIDPadding</t>
+  </si>
+  <si>
+    <t>Ar id padding</t>
+  </si>
+  <si>
+    <t>ExternalIDServer</t>
+  </si>
+  <si>
+    <t>External id server?</t>
+  </si>
+  <si>
+    <t>IDServerURL</t>
+  </si>
+  <si>
+    <t>Id server url</t>
+  </si>
+  <si>
+    <t>DefaultCountry</t>
+  </si>
+  <si>
+    <t>Default Country</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>AR Import options</t>
+  </si>
+  <si>
+    <t>Results Attachment option</t>
+  </si>
+  <si>
+    <t>Auto label print size</t>
+  </si>
+  <si>
+    <t>Auto Label Printing</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Publication Preferences</t>
+  </si>
+  <si>
+    <t>North South</t>
+  </si>
+  <si>
+    <t>East West</t>
+  </si>
+  <si>
+    <t>Not Permitted</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>receive</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>LabClerk</t>
+  </si>
+  <si>
+    <t>Profiles</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>LabManager</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Preserver</t>
+  </si>
+  <si>
+    <t>Preservers</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Publishers</t>
+  </si>
+  <si>
+    <t>Sampler</t>
+  </si>
+  <si>
+    <t>Samplers</t>
+  </si>
+  <si>
+    <t>ClientType</t>
+  </si>
+  <si>
+    <t>Partitions</t>
+  </si>
+  <si>
+    <t>Worksheet template analysis types</t>
+  </si>
+  <si>
+    <t>Client types</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Instrument Maintenance task types</t>
+  </si>
+  <si>
+    <t>Instrument Scheduled tasks types</t>
+  </si>
+  <si>
+    <t>Instrument Scheduled Repeat unit</t>
+  </si>
+  <si>
+    <t>noncorporate</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>part-1</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Preventive</t>
+  </si>
+  <si>
+    <t>AFN</t>
+  </si>
+  <si>
+    <t>part-2</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Non-corporate</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>Weeks</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>part-3</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Enhancement</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>part-4</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>Calibration</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>ANG</t>
+  </si>
+  <si>
+    <t>part-5</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>AOA</t>
+  </si>
+  <si>
+    <t>part-6</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>part-7</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>part-8</t>
+  </si>
+  <si>
+    <t>AWG</t>
+  </si>
+  <si>
+    <t>part-9</t>
+  </si>
+  <si>
+    <t>AZN</t>
+  </si>
+  <si>
+    <t>part-10</t>
+  </si>
+  <si>
+    <t>BAM</t>
+  </si>
+  <si>
+    <t>part-11</t>
+  </si>
+  <si>
+    <t>BBD</t>
+  </si>
+  <si>
+    <t>part-12</t>
+  </si>
+  <si>
+    <t>BDT</t>
+  </si>
+  <si>
+    <t>BGN</t>
+  </si>
+  <si>
+    <t>BHD</t>
+  </si>
+  <si>
+    <t>BIF</t>
+  </si>
+  <si>
+    <t>BMD</t>
+  </si>
+  <si>
+    <t>BND</t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>BOV</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t>BSD</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>BWP</t>
+  </si>
+  <si>
+    <t>BYR</t>
+  </si>
+  <si>
+    <t>BZD</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>CDF</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>CHW</t>
+  </si>
+  <si>
+    <t>CLF</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>COU</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>CUC</t>
+  </si>
+  <si>
+    <t>CUP</t>
+  </si>
+  <si>
+    <t>CVE</t>
+  </si>
+  <si>
+    <t>CZK</t>
+  </si>
+  <si>
+    <t>DJF</t>
+  </si>
+  <si>
+    <t>DKK</t>
+  </si>
+  <si>
+    <t>DOP</t>
+  </si>
+  <si>
+    <t>DZD</t>
+  </si>
+  <si>
+    <t>EGP</t>
+  </si>
+  <si>
+    <t>ERN</t>
+  </si>
+  <si>
+    <t>ETB</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>FJD</t>
+  </si>
+  <si>
+    <t>FKP</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>GEL</t>
+  </si>
+  <si>
+    <t>GHS</t>
+  </si>
+  <si>
+    <t>GIP</t>
+  </si>
+  <si>
+    <t>GMD</t>
+  </si>
+  <si>
+    <t>GNF</t>
+  </si>
+  <si>
+    <t>GTQ</t>
+  </si>
+  <si>
+    <t>GYD</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>HNL</t>
+  </si>
+  <si>
+    <t>HRK</t>
+  </si>
+  <si>
+    <t>HTG</t>
+  </si>
+  <si>
+    <t>HUF</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>ILS</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>IQD</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>ISK</t>
+  </si>
+  <si>
+    <t>JMD</t>
+  </si>
+  <si>
+    <t>JOD</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>KES</t>
+  </si>
+  <si>
+    <t>KGS</t>
+  </si>
+  <si>
+    <t>KHR</t>
+  </si>
+  <si>
+    <t>KMF</t>
+  </si>
+  <si>
+    <t>KPW</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>KWD</t>
+  </si>
+  <si>
+    <t>KYD</t>
+  </si>
+  <si>
+    <t>KZT</t>
+  </si>
+  <si>
+    <t>LAK</t>
+  </si>
+  <si>
+    <t>LBP</t>
+  </si>
+  <si>
+    <t>LKR</t>
+  </si>
+  <si>
+    <t>LRD</t>
+  </si>
+  <si>
+    <t>LSL</t>
+  </si>
+  <si>
+    <t>LTL</t>
+  </si>
+  <si>
+    <t>LVL</t>
+  </si>
+  <si>
+    <t>LYD</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>MDL</t>
+  </si>
+  <si>
+    <t>MGA</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>MMK</t>
+  </si>
+  <si>
+    <t>MNT</t>
+  </si>
+  <si>
+    <t>MOP</t>
+  </si>
+  <si>
+    <t>MRO</t>
+  </si>
+  <si>
+    <t>MUR</t>
+  </si>
+  <si>
+    <t>MVR</t>
+  </si>
+  <si>
+    <t>MWK</t>
+  </si>
+  <si>
+    <t>MXN</t>
+  </si>
+  <si>
+    <t>MXV</t>
+  </si>
+  <si>
+    <t>MYR</t>
+  </si>
+  <si>
+    <t>MZN</t>
+  </si>
+  <si>
+    <t>NAD</t>
+  </si>
+  <si>
+    <t>NGN</t>
+  </si>
+  <si>
+    <t>NIO</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>OMR</t>
+  </si>
+  <si>
+    <t>PAB</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>PGK</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>PKR</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t>PYG</t>
+  </si>
+  <si>
+    <t>QAR</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>RSD</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>RWF</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>SBD</t>
+  </si>
+  <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>SDG</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>SHP</t>
+  </si>
+  <si>
+    <t>SLL</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>SRD</t>
+  </si>
+  <si>
+    <t>SSP</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>SYP</t>
+  </si>
+  <si>
+    <t>SZL</t>
+  </si>
+  <si>
+    <t>THB</t>
+  </si>
+  <si>
+    <t>TJS</t>
+  </si>
+  <si>
+    <t>TMT</t>
+  </si>
+  <si>
+    <t>TND</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>TTD</t>
+  </si>
+  <si>
+    <t>TWD</t>
+  </si>
+  <si>
+    <t>TZS</t>
+  </si>
+  <si>
+    <t>UAH</t>
+  </si>
+  <si>
+    <t>UGX</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>USN</t>
+  </si>
+  <si>
+    <t>USS</t>
+  </si>
+  <si>
+    <t>UYI</t>
+  </si>
+  <si>
+    <t>UYU</t>
+  </si>
+  <si>
+    <t>UZS</t>
+  </si>
+  <si>
+    <t>VEF</t>
+  </si>
+  <si>
+    <t>VND</t>
+  </si>
+  <si>
+    <t>VUV</t>
+  </si>
+  <si>
+    <t>WST</t>
+  </si>
+  <si>
+    <t>XAF</t>
+  </si>
+  <si>
+    <t>XAG</t>
+  </si>
+  <si>
+    <t>XAU</t>
+  </si>
+  <si>
+    <t>XBA</t>
+  </si>
+  <si>
+    <t>XBB</t>
+  </si>
+  <si>
+    <t>XBC</t>
+  </si>
+  <si>
+    <t>XBD</t>
+  </si>
+  <si>
+    <t>XCD</t>
+  </si>
+  <si>
+    <t>XDR</t>
+  </si>
+  <si>
+    <t>XFU</t>
+  </si>
+  <si>
+    <t>XOF</t>
+  </si>
+  <si>
+    <t>XPD</t>
+  </si>
+  <si>
+    <t>XPF</t>
+  </si>
+  <si>
+    <t>XPT</t>
+  </si>
+  <si>
+    <t>XTS</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>YER</t>
+  </si>
+  <si>
+    <t>ZMK</t>
+  </si>
+  <si>
+    <t>ZWL</t>
   </si>
 </sst>
 </file>
@@ -3446,7 +3441,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
@@ -5631,19 +5626,20 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.587044534413"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0971659919028"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2591093117409"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="6.63967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5786,7 +5782,7 @@
       <c r="F8" s="79"/>
       <c r="G8" s="88"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>459</v>
       </c>
@@ -5855,7 +5851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>467</v>
       </c>
@@ -7897,7 +7893,7 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -10500,13 +10496,13 @@
     </row>
   </sheetData>
   <dataValidations count="24">
+    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 59" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 59" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C23" type="whole">
+      <formula1>0</formula1>
+      <formula2>59</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 23" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 23" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C22" type="whole">
       <formula1>6</formula1>
       <formula2>23</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 59" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 59" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C23" type="whole">
-      <formula1>0</formula1>
-      <formula2>59</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" error="Please enter a whole number bigger than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Please enter a whole number bigger than 0" promptTitle="Integer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C21" type="whole">
       <formula1>0</formula1>

--- a/baobab/lims/setupdata/test/test.xlsx
+++ b/baobab/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="879" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -47,6 +47,11 @@
     <sheet name="Constants" sheetId="37" state="visible" r:id="rId38"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -139,3301 +144,3301 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="1099">
   <si>
-    <t>Instructions</t>
-  </si>
-  <si>
-    <t>Sheet names are case sensitive, and the keys in row 0 are always special.</t>
-  </si>
-  <si>
-    <t>Sheet order is important – dependencies should be loaded in earlier sheets.</t>
-  </si>
-  <si>
-    <t>Please also do not edit the last sheet, 'Constants', which is used to populate some of the drop down menus.</t>
-  </si>
-  <si>
-    <t>Some sheets are linked to their corresponding setup items in the manual. Blue text against grey shading are HTML links.</t>
-  </si>
-  <si>
-    <t>Grey shaded cells contain validation rules, mostly look-up references and formatting. If you add rows below the shaded areas, copy the shaded cells into the new rows for the best results, ensuring that the validation is applied on the new rows too.</t>
-  </si>
-  <si>
-    <t>Files to be uploaded, e.g. scans of signatures (jpg) or method documents (pdf), must be available in the same folder as this spreadsheet and only the file name entered into the corresponding cell</t>
-  </si>
-  <si>
-    <t>portal_type</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>sequence_type</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>counter_type</t>
-  </si>
-  <si>
-    <t>counter_reference</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>split_length</t>
-  </si>
-  <si>
-    <t>Object ID prefixes</t>
-  </si>
-  <si>
-    <t>Data object</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Sequence Type</t>
-  </si>
-  <si>
-    <t>Context</t>
-  </si>
-  <si>
-    <t>Counter Type</t>
-  </si>
-  <si>
-    <t>Counter Reference</t>
-  </si>
-  <si>
-    <t>Prefix</t>
-  </si>
-  <si>
-    <t>Split Length</t>
-  </si>
-  <si>
-    <t>AnalysisRequest</t>
-  </si>
-  <si>
-    <t>Analysis Request</t>
-  </si>
-  <si>
-    <t>{sampleId}-R{seq:02d}</t>
-  </si>
-  <si>
-    <t>counter</t>
-  </si>
-  <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>backreference</t>
-  </si>
-  <si>
-    <t>AnalysisRequestSample</t>
-  </si>
-  <si>
-    <t>Batch</t>
-  </si>
-  <si>
-    <t>B-{seq:03d}</t>
-  </si>
-  <si>
-    <t>generated</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>{sampleType}-{seq:04d}</t>
-  </si>
-  <si>
-    <t>Worksheet</t>
-  </si>
-  <si>
-    <t>WS-{seq:03d}</t>
-  </si>
-  <si>
-    <t>worksheet</t>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
-    <t>I-{seq:03d}</t>
-  </si>
-  <si>
-    <t>invoice</t>
-  </si>
-  <si>
-    <t>ARImport</t>
-  </si>
-  <si>
-    <t>AR Import</t>
-  </si>
-  <si>
-    <t>AI-{seq:03d}</t>
-  </si>
-  <si>
-    <t>arimport</t>
-  </si>
-  <si>
-    <t>ReferenceSample</t>
-  </si>
-  <si>
-    <t>Reference Sample</t>
-  </si>
-  <si>
-    <t>QC-{seq:03d}</t>
-  </si>
-  <si>
-    <t>refsample</t>
-  </si>
-  <si>
-    <t>ReferenceAnalysis</t>
-  </si>
-  <si>
-    <t>Reference Analysis</t>
-  </si>
-  <si>
-    <t>SA-{seq:03d}</t>
-  </si>
-  <si>
-    <t>refanalysis</t>
-  </si>
-  <si>
-    <t>DuplicateAnalysis</t>
-  </si>
-  <si>
-    <t>Duplicate Analysis</t>
-  </si>
-  <si>
-    <t>D-{seq:03d}</t>
-  </si>
-  <si>
-    <t>duplicate</t>
-  </si>
-  <si>
-    <t>SamplePartition</t>
-  </si>
-  <si>
-    <t>Sample Partition</t>
-  </si>
-  <si>
-    <t>{sampleId}-P{seq:d}</t>
-  </si>
-  <si>
-    <t>contained</t>
-  </si>
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Laboratory and Accreditation Information</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>SANBI Institute</t>
-  </si>
-  <si>
-    <t>LabURL</t>
-  </si>
-  <si>
-    <t>Lab web address</t>
-  </si>
-  <si>
-    <t>http://www.sanbi.ac.za/</t>
-  </si>
-  <si>
-    <t>Confidence</t>
-  </si>
-  <si>
-    <t>Confidence level %</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>LaboratoryAccredited</t>
-  </si>
-  <si>
-    <t>Laboratory accredited ?</t>
-  </si>
-  <si>
-    <t>AccreditationBodyLong</t>
-  </si>
-  <si>
-    <t>Accreditation body  title</t>
-  </si>
-  <si>
-    <t>AccreditationBody</t>
-  </si>
-  <si>
-    <t>Accreditation body abbreviation</t>
-  </si>
-  <si>
-    <t>AccreditationBodyURL</t>
-  </si>
-  <si>
-    <t>Accreditation body web address</t>
-  </si>
-  <si>
-    <t>Accreditation</t>
-  </si>
-  <si>
-    <t>Accreditation standard, e.g ISO 17025</t>
-  </si>
-  <si>
-    <t>AccreditationReference</t>
-  </si>
-  <si>
-    <t>Lab's accreditation reference number</t>
-  </si>
-  <si>
-    <t>AccreditationBodyLogo</t>
-  </si>
-  <si>
-    <t>Accreditation body logo</t>
-  </si>
-  <si>
-    <t>TaxNumber</t>
-  </si>
-  <si>
-    <t>Tax number</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Phone number</t>
-  </si>
-  <si>
-    <t>Fax</t>
-  </si>
-  <si>
-    <t>Fax number</t>
-  </si>
-  <si>
-    <t>EmailAddress</t>
-  </si>
-  <si>
-    <t>Email address</t>
-  </si>
-  <si>
-    <t>lims@sanbi.ac.za</t>
-  </si>
-  <si>
-    <t>Physical_Address</t>
-  </si>
-  <si>
-    <t>Physical address</t>
-  </si>
-  <si>
-    <t>Modderdam Rd, Sacks Circle Industrial</t>
-  </si>
-  <si>
-    <t>Physical_City</t>
-  </si>
-  <si>
-    <t>Physical address city</t>
-  </si>
-  <si>
-    <t>Bellville</t>
-  </si>
-  <si>
-    <t>Physical_State</t>
-  </si>
-  <si>
-    <t>Physical address state</t>
-  </si>
-  <si>
-    <t>Western Province</t>
-  </si>
-  <si>
-    <t>Physical_Zip</t>
-  </si>
-  <si>
-    <t>Physical address zip</t>
-  </si>
-  <si>
-    <t>Physical_Country</t>
-  </si>
-  <si>
-    <t>Physical address country</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Postal_Address</t>
-  </si>
-  <si>
-    <t>Postal address</t>
-  </si>
-  <si>
-    <t>Postal_City</t>
-  </si>
-  <si>
-    <t>Postal address city</t>
-  </si>
-  <si>
-    <t>Postal_State</t>
-  </si>
-  <si>
-    <t>Postal address state</t>
-  </si>
-  <si>
-    <t>Postal_Zip</t>
-  </si>
-  <si>
-    <t>Postal address zip</t>
-  </si>
-  <si>
-    <t>Postal_Country</t>
-  </si>
-  <si>
-    <t>Postal address country</t>
-  </si>
-  <si>
-    <t>Billing_Address</t>
-  </si>
-  <si>
-    <t>Billing address</t>
-  </si>
-  <si>
-    <t>Billing_City</t>
-  </si>
-  <si>
-    <t>Billing address city</t>
-  </si>
-  <si>
-    <t>Billing_State</t>
-  </si>
-  <si>
-    <t>Billing address state</t>
-  </si>
-  <si>
-    <t>Billing_Zip</t>
-  </si>
-  <si>
-    <t>Billing address zip</t>
-  </si>
-  <si>
-    <t>Billing_Country</t>
-  </si>
-  <si>
-    <t>Billing address country</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>pricePremium</t>
-  </si>
-  <si>
-    <t>sortKey</t>
-  </si>
-  <si>
-    <t>isDefault</t>
-  </si>
-  <si>
-    <t>smallIcon</t>
-  </si>
-  <si>
-    <t>bigIcon</t>
-  </si>
-  <si>
-    <t>ARPriorities</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Price Premium %</t>
-  </si>
-  <si>
-    <t>Sort Key</t>
-  </si>
-  <si>
-    <t>Default ?</t>
-  </si>
-  <si>
-    <t>Small Icon</t>
-  </si>
-  <si>
-    <t>Big Icon</t>
-  </si>
-  <si>
-    <t>Hold</t>
-  </si>
-  <si>
-    <t>priority_hold.png</t>
-  </si>
-  <si>
-    <t>priority_hold_big.png</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>priority_normal.png</t>
-  </si>
-  <si>
-    <t>priority_normal_big.png</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>priority_high.png</t>
-  </si>
-  <si>
-    <t>priority_high_big.png</t>
-  </si>
-  <si>
-    <t>Urgent</t>
-  </si>
-  <si>
-    <t>priority_urgent.png</t>
-  </si>
-  <si>
-    <t>priority_urgent_big.png</t>
-  </si>
-  <si>
-    <t>RetentionPeriod</t>
-  </si>
-  <si>
-    <t>Hazardous</t>
-  </si>
-  <si>
-    <t>MinimumVolume</t>
-  </si>
-  <si>
-    <t>Sample Types</t>
-  </si>
-  <si>
-    <t>Retention period (days)</t>
-  </si>
-  <si>
-    <t>Minimum volume or weight</t>
-  </si>
-  <si>
-    <t>Blood Plasma</t>
-  </si>
-  <si>
-    <t>The liquid portion of normal unclotted blood containing the red and white cells and platelets. The straw-colored/pale-yellow liquid component of blood that normally holds the blood cells in whole blood in suspension.</t>
-  </si>
-  <si>
-    <t>BP</t>
-  </si>
-  <si>
-    <t>1 ml</t>
-  </si>
-  <si>
-    <t>Serum</t>
-  </si>
-  <si>
-    <t>The clear liquid that can be separated from clotted blood. Serum differs from plasma, the liquid portion of normal unclotted blood containing the red and white cells and platelets. It is the clot that makes the difference between serum and plasma.</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>Urine</t>
-  </si>
-  <si>
-    <t>A typically sterile liquid by-product of the body secreted by the kidneys through a process called urination and excreted through the urethra.</t>
-  </si>
-  <si>
-    <t>UR</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Potable or river water. Not sewage</t>
-  </si>
-  <si>
-    <t>HO</t>
-  </si>
-  <si>
-    <t>Whole Blood</t>
-  </si>
-  <si>
-    <t>Blood drawn from the body from which no constituent, such as plasma or platelets, has been removed.</t>
-  </si>
-  <si>
-    <t>WB</t>
-  </si>
-  <si>
-    <t>LabContact_Username</t>
-  </si>
-  <si>
-    <t>Lab Departments</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Biobank</t>
-  </si>
-  <si>
-    <t>Human Biobank</t>
-  </si>
-  <si>
-    <t>labman</t>
-  </si>
-  <si>
-    <t>Salutation</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Surname</t>
-  </si>
-  <si>
-    <t>BusinessPhone</t>
-  </si>
-  <si>
-    <t>BusinessFax</t>
-  </si>
-  <si>
-    <t>HomePhone</t>
-  </si>
-  <si>
-    <t>MobilePhone</t>
-  </si>
-  <si>
-    <t>JobTitle</t>
-  </si>
-  <si>
-    <t>Department_title</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Groups</t>
-  </si>
-  <si>
-    <t>Roles</t>
-  </si>
-  <si>
-    <t>Signature</t>
-  </si>
-  <si>
-    <t>Lab contacts - staff members</t>
-  </si>
-  <si>
-    <t>Only if a Lab contact is a LIMS user too, does he/she get given a (unique) user name and password, and assigned a role or to a group</t>
-  </si>
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Business phone</t>
-  </si>
-  <si>
-    <t>Business fax</t>
-  </si>
-  <si>
-    <t>Home phone</t>
-  </si>
-  <si>
-    <t>Mobile phone</t>
-  </si>
-  <si>
-    <t>Job title</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>User name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>»Lab</t>
-  </si>
-  <si>
-    <t>» Manager</t>
-  </si>
-  <si>
-    <t>labmanager@example.com</t>
-  </si>
-  <si>
-    <t>021 555 1234</t>
-  </si>
-  <si>
-    <t>021 555 1233</t>
-  </si>
-  <si>
-    <t>048 813 9515</t>
-  </si>
-  <si>
-    <t>082 555 9910</t>
-  </si>
-  <si>
-    <t>»Manager</t>
-  </si>
-  <si>
-    <t>LabManagers</t>
-  </si>
-  <si>
-    <t>Lab</t>
-  </si>
-  <si>
-    <t>Clerk</t>
-  </si>
-  <si>
-    <t>labclerk@example.com</t>
-  </si>
-  <si>
-    <t>010 417 2743</t>
-  </si>
-  <si>
-    <t>010 417 3007</t>
-  </si>
-  <si>
-    <t>010417 5849</t>
-  </si>
-  <si>
-    <t>073 965 3368</t>
-  </si>
-  <si>
-    <t>labclerk</t>
-  </si>
-  <si>
-    <t>LabClerks</t>
-  </si>
-  <si>
-    <t>Ms</t>
-  </si>
-  <si>
-    <t>Analyst</t>
-  </si>
-  <si>
-    <t>analyst@example.com</t>
-  </si>
-  <si>
-    <t>021 555 1236</t>
-  </si>
-  <si>
-    <t>050 866 9887</t>
-  </si>
-  <si>
-    <t>083 555 8108</t>
-  </si>
-  <si>
-    <t>Assistant manager</t>
-  </si>
-  <si>
-    <t>analyst</t>
-  </si>
-  <si>
-    <t>Analysts</t>
-  </si>
-  <si>
-    <t>Verifier</t>
-  </si>
-  <si>
-    <t>verifier@example.com</t>
-  </si>
-  <si>
-    <t>021 555 1235</t>
-  </si>
-  <si>
-    <t>021 555 1201</t>
-  </si>
-  <si>
-    <t>050 866 9808</t>
-  </si>
-  <si>
-    <t>083 333 8101</t>
-  </si>
-  <si>
-    <t>verifier</t>
-  </si>
-  <si>
-    <t>Verifiers</t>
-  </si>
-  <si>
-    <t>ClientID</t>
-  </si>
-  <si>
-    <t>MemberDiscountApplies</t>
-  </si>
-  <si>
-    <t>BulkDiscount</t>
-  </si>
-  <si>
-    <t>AccountNumber</t>
-  </si>
-  <si>
-    <t>Clients</t>
-  </si>
-  <si>
-    <t>Physical Address</t>
-  </si>
-  <si>
-    <t>Postal Address</t>
-  </si>
-  <si>
-    <t>Billing Address</t>
-  </si>
-  <si>
-    <t>Client ID</t>
-  </si>
-  <si>
-    <t>Member discount applies?</t>
-  </si>
-  <si>
-    <t>Bulk discount applies?</t>
-  </si>
-  <si>
-    <t>Account number</t>
-  </si>
-  <si>
-    <t>Bellville Medical Centre</t>
-  </si>
-  <si>
-    <t>BMC</t>
-  </si>
-  <si>
-    <t>SA62914-27121</t>
-  </si>
-  <si>
-    <t>+27-21-2442645</t>
-  </si>
-  <si>
-    <t>+27-21-2442647</t>
-  </si>
-  <si>
-    <t>apsc@example.com</t>
-  </si>
-  <si>
-    <t>1 Brickdam</t>
-  </si>
-  <si>
-    <t>Cape Town</t>
-  </si>
-  <si>
-    <t>Western Cape</t>
-  </si>
-  <si>
-    <t>Brooklyn Chest Hospital</t>
-  </si>
-  <si>
-    <t>BCHP</t>
-  </si>
-  <si>
-    <t>SA62914-27120</t>
-  </si>
-  <si>
-    <t>+27-21-2442561</t>
-  </si>
-  <si>
-    <t>+27-21-2442563</t>
-  </si>
-  <si>
-    <t>bchp@example.com</t>
-  </si>
-  <si>
-    <t>Oceana Complex</t>
-  </si>
-  <si>
-    <t>Client_title</t>
-  </si>
-  <si>
-    <t>PublicationPreference</t>
-  </si>
-  <si>
-    <t>CCContacts</t>
-  </si>
-  <si>
-    <t>AttachmentsPermitted</t>
-  </si>
-  <si>
-    <t>Client Contacts - Staff Members</t>
-  </si>
-  <si>
-    <t>Client title</t>
-  </si>
-  <si>
-    <t>Publication preference</t>
-  </si>
-  <si>
-    <t>Contacts to be cc'd</t>
-  </si>
-  <si>
-    <t>Attachments permitted</t>
-  </si>
-  <si>
-    <t>Rita</t>
-  </si>
-  <si>
-    <t>Mohale</t>
-  </si>
-  <si>
-    <t>ritamo</t>
-  </si>
-  <si>
-    <t>Product assistant</t>
-  </si>
-  <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
-    <t>038 664 6469</t>
-  </si>
-  <si>
-    <t>038 664 7338</t>
-  </si>
-  <si>
-    <t>038 664 7757</t>
-  </si>
-  <si>
-    <t>082 607 8405</t>
-  </si>
-  <si>
-    <t>mohale@example.com</t>
-  </si>
-  <si>
-    <t>email,pdf</t>
-  </si>
-  <si>
-    <t>Ŝarel Seemonster</t>
-  </si>
-  <si>
-    <t>Permitted</t>
-  </si>
-  <si>
-    <t>Ŝarel</t>
-  </si>
-  <si>
-    <t>Seemonster</t>
-  </si>
-  <si>
-    <t>sarelse</t>
-  </si>
-  <si>
-    <t>Nutrient management</t>
-  </si>
-  <si>
-    <t>040 666 6630</t>
-  </si>
-  <si>
-    <t>040 666 7834</t>
-  </si>
-  <si>
-    <t>040 666 7858</t>
-  </si>
-  <si>
-    <t>083 644 8576</t>
-  </si>
-  <si>
-    <t>seemonster@example.com</t>
-  </si>
-  <si>
-    <t>Rita Mohale</t>
-  </si>
-  <si>
-    <t>Neil</t>
-  </si>
-  <si>
-    <t>Ŝtandard</t>
-  </si>
-  <si>
-    <t>neilst</t>
-  </si>
-  <si>
-    <t>Research  assistant</t>
-  </si>
-  <si>
-    <t>Product development</t>
-  </si>
-  <si>
-    <t>035 597 5814</t>
-  </si>
-  <si>
-    <t>035 597 6876</t>
-  </si>
-  <si>
-    <t>035 597 6344</t>
-  </si>
-  <si>
-    <t>080 564 7509</t>
-  </si>
-  <si>
-    <t>standard@example.com</t>
-  </si>
-  <si>
-    <t>Ŝarel Seemonster, Rita Mohale</t>
-  </si>
-  <si>
-    <t>Johanna</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>johannasm</t>
-  </si>
-  <si>
-    <t>Scientist</t>
-  </si>
-  <si>
-    <t>Soil science</t>
-  </si>
-  <si>
-    <t>036 640 6016</t>
-  </si>
-  <si>
-    <t>036 6406911</t>
-  </si>
-  <si>
-    <t>036 6407167</t>
-  </si>
-  <si>
-    <t>081 569 7909</t>
-  </si>
-  <si>
-    <t>smith@example.com</t>
-  </si>
-  <si>
-    <t>Fred</t>
-  </si>
-  <si>
-    <t>Turner</t>
-  </si>
-  <si>
-    <t>fredtu</t>
-  </si>
-  <si>
-    <t>QC manager</t>
-  </si>
-  <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>041 670 6654</t>
-  </si>
-  <si>
-    <t>041 6708002</t>
-  </si>
-  <si>
-    <t>041 670 8848</t>
-  </si>
-  <si>
-    <t>084 677 8884</t>
-  </si>
-  <si>
-    <t>turner@example.com</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Ruffian</t>
-  </si>
-  <si>
-    <t>chrisru</t>
-  </si>
-  <si>
-    <t>Controller</t>
-  </si>
-  <si>
-    <t>025 557 4204</t>
-  </si>
-  <si>
-    <t>025 557 4531</t>
-  </si>
-  <si>
-    <t>025 557 3131</t>
-  </si>
-  <si>
-    <t>074 304 5021</t>
-  </si>
-  <si>
-    <t>ruffian@example.com</t>
-  </si>
-  <si>
-    <t>Andre</t>
-  </si>
-  <si>
-    <t>Corbin</t>
-  </si>
-  <si>
-    <t>andreco</t>
-  </si>
-  <si>
-    <t>Administrator</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>032 586 5303</t>
-  </si>
-  <si>
-    <t>032 586 6331</t>
-  </si>
-  <si>
-    <t>032 586 5622</t>
-  </si>
-  <si>
-    <t>078 469 7035</t>
-  </si>
-  <si>
-    <t>corbin@example.com</t>
-  </si>
-  <si>
-    <t>Suppliers</t>
-  </si>
-  <si>
-    <t>Tax Number</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
-    <t>Biomerieux</t>
-  </si>
-  <si>
-    <t>012 440 9555</t>
-  </si>
-  <si>
-    <t>012 440 9765</t>
-  </si>
-  <si>
-    <t>supplier@example.com</t>
-  </si>
-  <si>
-    <t>Chemin de l'Orme</t>
-  </si>
-  <si>
-    <t>Marcy-l'Étoile</t>
-  </si>
-  <si>
-    <t>Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>BioRad</t>
-  </si>
-  <si>
-    <t>012 440 8445</t>
-  </si>
-  <si>
-    <t>012 440 8447</t>
-  </si>
-  <si>
-    <t>1000 Alfred Nobel Drive, Hercules</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>CA 94547</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Supplier_Name</t>
-  </si>
-  <si>
-    <t>Supplier Contacts</t>
-  </si>
-  <si>
-    <t>Supplier Name</t>
-  </si>
-  <si>
-    <t>Job Title</t>
-  </si>
-  <si>
-    <t>Business Phone</t>
-  </si>
-  <si>
-    <t>Business Fax</t>
-  </si>
-  <si>
-    <t>Home Phone</t>
-  </si>
-  <si>
-    <t>Mobile Phone</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Dobson</t>
-  </si>
-  <si>
-    <t>Salesman</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>028 274 8819</t>
-  </si>
-  <si>
-    <t>086 222 3600</t>
-  </si>
-  <si>
-    <t>089 445 0440</t>
-  </si>
-  <si>
-    <t>dobson@example.com</t>
-  </si>
-  <si>
-    <t>1 main street</t>
-  </si>
-  <si>
-    <t>Pringle Bay</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Products</t>
-  </si>
-  <si>
-    <t>Tube 15ml</t>
-  </si>
-  <si>
-    <t>Empty tube to contain biospecimen</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Gloves</t>
-  </si>
-  <si>
-    <t>Gloves for specimens extraction</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>templateID</t>
-  </si>
-  <si>
-    <t>templateName</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>Kit Templates</t>
-  </si>
-  <si>
-    <t>Template ID</t>
-  </si>
-  <si>
-    <t>Template Name</t>
-  </si>
-  <si>
-    <t>KITEMP01</t>
-  </si>
-  <si>
-    <t>Kit Template 01</t>
-  </si>
-  <si>
-    <t>StudyType</t>
-  </si>
-  <si>
-    <t>AgeHigh</t>
-  </si>
-  <si>
-    <t>AgeLow</t>
-  </si>
-  <si>
-    <t>NumParticipants</t>
-  </si>
-  <si>
-    <t>SampleTypes</t>
-  </si>
-  <si>
-    <t>AnalysisServices</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>DateCreated</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Projects</t>
-  </si>
-  <si>
-    <t>Study Type</t>
-  </si>
-  <si>
-    <t>Maximum Age</t>
-  </si>
-  <si>
-    <t>Minimum Age</t>
-  </si>
-  <si>
-    <t>Number of Participants</t>
-  </si>
-  <si>
-    <t>Sample Type</t>
-  </si>
-  <si>
-    <t>Analysis Services</t>
-  </si>
-  <si>
-    <t>Date Crated</t>
-  </si>
-  <si>
-    <t>Green Goblin Project</t>
-  </si>
-  <si>
-    <t>Development of serum which gives superhuman strength and intelligence</t>
-  </si>
-  <si>
-    <t>Military research</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Whole Blood; Water</t>
-  </si>
-  <si>
-    <t>DNA concentration</t>
-  </si>
-  <si>
-    <t>2012/06/26</t>
-  </si>
-  <si>
-    <t>hierarchy</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>NumberOfPoints</t>
-  </si>
-  <si>
-    <t>Rows</t>
-  </si>
-  <si>
-    <t>Columns</t>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>Room 1</t>
-  </si>
-  <si>
-    <t>Room-1</t>
-  </si>
-  <si>
-    <t>StorageUnit</t>
-  </si>
-  <si>
-    <t>Room 2</t>
-  </si>
-  <si>
-    <t>Room-2</t>
-  </si>
-  <si>
-    <t>Room 3</t>
-  </si>
-  <si>
-    <t>Room-3</t>
-  </si>
-  <si>
-    <t>Freezer 1</t>
-  </si>
-  <si>
-    <t>Room-2.Freezer-1</t>
-  </si>
-  <si>
-    <t>Freezer-1</t>
-  </si>
-  <si>
-    <t>Room-3.Freezer-1</t>
-  </si>
-  <si>
-    <t>Box 01</t>
-  </si>
-  <si>
-    <t>Room-2.Freezer-1.Box-01</t>
-  </si>
-  <si>
-    <t>Box-01</t>
-  </si>
-  <si>
-    <t>ManagedStorage</t>
-  </si>
-  <si>
-    <t>Room-3.Freezer-1.Box-01</t>
-  </si>
-  <si>
-    <t>Box 02</t>
-  </si>
-  <si>
-    <t>Room-3.Freezer-1.Box-02</t>
-  </si>
-  <si>
-    <t>Box-02</t>
-  </si>
-  <si>
-    <t>Shelf 1</t>
-  </si>
-  <si>
-    <t>Room-3.Shelf-1</t>
-  </si>
-  <si>
-    <t>Shelf-1</t>
-  </si>
-  <si>
-    <t>UnmanagedStorage</t>
-  </si>
-  <si>
-    <t>Shelf 2</t>
-  </si>
-  <si>
-    <t>Room-3.Shelf-2</t>
-  </si>
-  <si>
-    <t>Shelf-2</t>
-  </si>
-  <si>
-    <t>componentID</t>
-  </si>
-  <si>
-    <t>componentName</t>
-  </si>
-  <si>
-    <t>Component ID</t>
-  </si>
-  <si>
-    <t>Component Name</t>
-  </si>
-  <si>
-    <t>Analysis Categories</t>
-  </si>
-  <si>
-    <t>Genome</t>
-  </si>
-  <si>
-    <t>Genome Analysis: DNA/RNA</t>
-  </si>
-  <si>
-    <t>Proteome</t>
-  </si>
-  <si>
-    <t>Proteomic Analysis: Mass spectrometry</t>
-  </si>
-  <si>
-    <t>ShortTitle</t>
-  </si>
-  <si>
-    <t>Keyword</t>
-  </si>
-  <si>
-    <t>PointOfCapture</t>
-  </si>
-  <si>
-    <t>AnalysisCategory_title</t>
-  </si>
-  <si>
-    <t>ReportDryMatter</t>
-  </si>
-  <si>
-    <t>Attachment</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>ExponentialFormatPrecision</t>
-  </si>
-  <si>
-    <t>LowerDetectionLimit</t>
-  </si>
-  <si>
-    <t>UpperDetectionLimit</t>
-  </si>
-  <si>
-    <t>DetectionLimitSelector</t>
-  </si>
-  <si>
-    <t>MaxTimeAllowed_days</t>
-  </si>
-  <si>
-    <t>MaxTimeAllowed_hours</t>
-  </si>
-  <si>
-    <t>MaxTimeAllowed_minutes</t>
-  </si>
-  <si>
-    <t>BulkPrice</t>
-  </si>
-  <si>
-    <t>VAT</t>
-  </si>
-  <si>
-    <t>ManualEntryOfResults</t>
-  </si>
-  <si>
-    <t>DefaultMethod_title</t>
-  </si>
-  <si>
-    <t>DefaultInstrument_title</t>
-  </si>
-  <si>
-    <t>Calculation_title</t>
-  </si>
-  <si>
-    <t>DuplicateVariation</t>
-  </si>
-  <si>
-    <t>Accredited</t>
-  </si>
-  <si>
-    <t>Separate</t>
-  </si>
-  <si>
-    <t>Container_title</t>
-  </si>
-  <si>
-    <t>Preservation_title</t>
-  </si>
-  <si>
-    <t>Analysis Services - The 'tests' Offered By The Lab</t>
-  </si>
-  <si>
-    <t>Maximum Turnaround Time</t>
-  </si>
-  <si>
-    <t>Short Title</t>
-  </si>
-  <si>
-    <t>Point of capture</t>
-  </si>
-  <si>
-    <t>Analysis category</t>
-  </si>
-  <si>
-    <t>Lab department</t>
-  </si>
-  <si>
-    <t>Can be reported as dry matter?</t>
-  </si>
-  <si>
-    <t>Results file attachment permitted</t>
-  </si>
-  <si>
-    <t>Exponential format precision</t>
-  </si>
-  <si>
-    <t>LDL</t>
-  </si>
-  <si>
-    <t>UDL</t>
-  </si>
-  <si>
-    <t>Display DL selector</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Minutes</t>
-  </si>
-  <si>
-    <t>Bulk price</t>
-  </si>
-  <si>
-    <t>Vat</t>
-  </si>
-  <si>
-    <t>Manual Entry of Results?</t>
-  </si>
-  <si>
-    <t>Default Method</t>
-  </si>
-  <si>
-    <t>Default Instrument</t>
-  </si>
-  <si>
-    <t>Calculation</t>
-  </si>
-  <si>
-    <t>Duplicate variation %</t>
-  </si>
-  <si>
-    <t>Default Container</t>
-  </si>
-  <si>
-    <t>Default Preservation</t>
-  </si>
-  <si>
-    <t>DNA Ex</t>
-  </si>
-  <si>
-    <t>DNA concentration determination of sample</t>
-  </si>
-  <si>
-    <t>dnaex</t>
-  </si>
-  <si>
-    <t>lab</t>
-  </si>
-  <si>
-    <t>mg/l</t>
-  </si>
-  <si>
-    <t>Mass Spectrometry</t>
-  </si>
-  <si>
-    <t>MALDI</t>
-  </si>
-  <si>
-    <t>Mass spectrometry MALDI-TOF</t>
-  </si>
-  <si>
-    <t>Maldi-tof</t>
-  </si>
-  <si>
-    <t>Service_title</t>
-  </si>
-  <si>
-    <t>keyword</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>Interim Fields Used In Analysis Services</t>
-  </si>
-  <si>
-    <t>Service Title</t>
-  </si>
-  <si>
-    <t>Field Title</t>
-  </si>
-  <si>
-    <t>Default value</t>
-  </si>
-  <si>
-    <t>Method_title</t>
-  </si>
-  <si>
-    <t>Analysis Services – Methods</t>
-  </si>
-  <si>
-    <t>Service title</t>
-  </si>
-  <si>
-    <t>Method title</t>
-  </si>
-  <si>
-    <t>Instrument_title</t>
-  </si>
-  <si>
-    <t>Analysis Services – Instruments</t>
-  </si>
-  <si>
-    <t>Instrument title</t>
-  </si>
-  <si>
-    <t>ResultText</t>
-  </si>
-  <si>
-    <t>ResultValue</t>
-  </si>
-  <si>
-    <t>Analysis Services results options</t>
-  </si>
-  <si>
-    <t>Result options</t>
-  </si>
-  <si>
-    <t>Result value</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Indeterminable</t>
-  </si>
-  <si>
-    <t>Range Min</t>
-  </si>
-  <si>
-    <t>Range Max</t>
-  </si>
-  <si>
-    <t>Uncertainty Value</t>
-  </si>
-  <si>
-    <t>Analysis Service Uncertainties</t>
-  </si>
-  <si>
-    <t>Analysis service title</t>
-  </si>
-  <si>
-    <t>Result Range min</t>
-  </si>
-  <si>
-    <t>Result range max</t>
-  </si>
-  <si>
-    <t>Uncertainty value</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Results Calculations</t>
-  </si>
-  <si>
-    <t>TC20 Biorad</t>
-  </si>
-  <si>
-    <t>TC20 Automated Cell Counter</t>
-  </si>
-  <si>
-    <t>[LCC] * 100 / [TCC]</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>Interim fields used in calculations</t>
-  </si>
-  <si>
-    <t>Calculation title</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>TCC</t>
-  </si>
-  <si>
-    <t>Total Cell Count</t>
-  </si>
-  <si>
-    <t>LCC</t>
-  </si>
-  <si>
-    <t>Live Cell Count</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>StorageLocation</t>
-  </si>
-  <si>
-    <t>InvoiceNr</t>
-  </si>
-  <si>
-    <t>BatchNr</t>
-  </si>
-  <si>
-    <t>ReceivedBy</t>
-  </si>
-  <si>
-    <t>DateReceived</t>
-  </si>
-  <si>
-    <t>StockItems</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Batch Number</t>
-  </si>
-  <si>
-    <t>Received By</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Stock items tubes 1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>i001</t>
-  </si>
-  <si>
-    <t>b001</t>
-  </si>
-  <si>
-    <t>Tim Jones</t>
-  </si>
-  <si>
-    <t>Stock items tubes 2</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>i002</t>
-  </si>
-  <si>
-    <t>b002</t>
-  </si>
-  <si>
-    <t>Shame Pane</t>
-  </si>
-  <si>
-    <t>Stock items tubes 3</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>i003</t>
-  </si>
-  <si>
-    <t>b003</t>
-  </si>
-  <si>
-    <t>Kelvin Kelp</t>
-  </si>
-  <si>
-    <t>Stock items tubes 4</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>i004</t>
-  </si>
-  <si>
-    <t>b004</t>
-  </si>
-  <si>
-    <t>Trip Weir</t>
-  </si>
-  <si>
-    <t>Stock items gloves 1</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>i005</t>
-  </si>
-  <si>
-    <t>b005</t>
-  </si>
-  <si>
-    <t>Kent Mett</t>
-  </si>
-  <si>
-    <t>Stock items gloves 2</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>i006</t>
-  </si>
-  <si>
-    <t>b006</t>
-  </si>
-  <si>
-    <t>Grigor Bites</t>
-  </si>
-  <si>
-    <t>MethodDocument</t>
-  </si>
-  <si>
-    <t>Analysis Methods</t>
-  </si>
-  <si>
-    <t>Method document</t>
-  </si>
-  <si>
-    <t>Cell counting</t>
-  </si>
-  <si>
-    <t>Automated cell counting</t>
-  </si>
-  <si>
-    <t>Instrument will count the total of live cells and the quantity of cells in each sample</t>
-  </si>
-  <si>
-    <t>Instrument Types</t>
-  </si>
-  <si>
-    <t>Automated cell counter</t>
-  </si>
-  <si>
-    <t>assetnumber</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>SerialNo</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Photo</t>
-  </si>
-  <si>
-    <t>Instalationdate</t>
-  </si>
-  <si>
-    <t>InstalationCertificate</t>
-  </si>
-  <si>
-    <t>UserManualFile</t>
-  </si>
-  <si>
-    <t>UserManualID</t>
-  </si>
-  <si>
-    <t>UserManualVersion</t>
-  </si>
-  <si>
-    <t>UserManualLocation</t>
-  </si>
-  <si>
-    <t>CalibrationCertificate</t>
-  </si>
-  <si>
-    <t>CalibrationExpiryDate</t>
-  </si>
-  <si>
-    <t>VerificationExpiryDate</t>
-  </si>
-  <si>
-    <t>DataInterface</t>
-  </si>
-  <si>
-    <t>DataInterfaceOptions</t>
-  </si>
-  <si>
-    <t>Lab Instruments</t>
-  </si>
-  <si>
-    <t>Instruments</t>
-  </si>
-  <si>
-    <t>Asset number</t>
-  </si>
-  <si>
-    <t>Instrument type</t>
-  </si>
-  <si>
-    <t>Brand/Manufacturer</t>
-  </si>
-  <si>
-    <t>Serial no</t>
-  </si>
-  <si>
-    <t>Photo image file</t>
-  </si>
-  <si>
-    <t>Instalation date</t>
-  </si>
-  <si>
-    <t>Installation certificate upload file</t>
-  </si>
-  <si>
-    <t>User manual upload file</t>
-  </si>
-  <si>
-    <t>User manual ID</t>
-  </si>
-  <si>
-    <t>User manual version</t>
-  </si>
-  <si>
-    <t>User manual location</t>
-  </si>
-  <si>
-    <t>Calibration certificate</t>
-  </si>
-  <si>
-    <t>Calibration expiry date</t>
-  </si>
-  <si>
-    <t>Verification expiration date</t>
-  </si>
-  <si>
-    <t>Data interface</t>
-  </si>
-  <si>
-    <t>Data interface options</t>
-  </si>
-  <si>
-    <t>LABEQG-001</t>
-  </si>
-  <si>
-    <t>Cell Counter</t>
-  </si>
-  <si>
-    <t>Automated cell counter for cell counting analyses</t>
-  </si>
-  <si>
-    <t>2000B</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>Manual LABEQG-001</t>
-  </si>
-  <si>
-    <t>Version 2 - July 2010</t>
-  </si>
-  <si>
-    <t>S2.5.1</t>
-  </si>
-  <si>
-    <t>SANCal 11/6010</t>
-  </si>
-  <si>
-    <t>DateIssued</t>
-  </si>
-  <si>
-    <t>instrument</t>
-  </si>
-  <si>
-    <t>downfrom</t>
-  </si>
-  <si>
-    <t>downto</t>
-  </si>
-  <si>
-    <t>validator</t>
-  </si>
-  <si>
-    <t>considerations</t>
-  </si>
-  <si>
-    <t>workperformed</t>
-  </si>
-  <si>
-    <t>Worker</t>
-  </si>
-  <si>
-    <t>ReportID</t>
-  </si>
-  <si>
-    <t>remarks</t>
-  </si>
-  <si>
-    <t>Instrument Validations</t>
-  </si>
-  <si>
-    <t>Report Date</t>
-  </si>
-  <si>
-    <t>Instrument</t>
-  </si>
-  <si>
-    <t>Down from</t>
-  </si>
-  <si>
-    <t>Down to</t>
-  </si>
-  <si>
-    <t>Validator</t>
-  </si>
-  <si>
-    <t>Considerations</t>
-  </si>
-  <si>
-    <t>Work performed</t>
-  </si>
-  <si>
-    <t>Performed by</t>
-  </si>
-  <si>
-    <t>Report identification Nº</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Conductivity validation</t>
-  </si>
-  <si>
-    <t>Check if instrument is plugged before</t>
-  </si>
-  <si>
-    <t>Some measuraments using salty water</t>
-  </si>
-  <si>
-    <t>LMT20145004182/20</t>
-  </si>
-  <si>
-    <t>calibrator</t>
-  </si>
-  <si>
-    <t>Instrument Calibrations</t>
-  </si>
-  <si>
-    <t>Calibrator</t>
-  </si>
-  <si>
-    <t>Spectro calibration</t>
-  </si>
-  <si>
-    <t>Professional Calibrations Inc.</t>
-  </si>
-  <si>
-    <t>Easiest to calibrate than Spectro 1</t>
-  </si>
-  <si>
-    <t>LMT20145004182/10</t>
-  </si>
-  <si>
-    <t>DocumentID</t>
-  </si>
-  <si>
-    <t>DocumentVersion</t>
-  </si>
-  <si>
-    <t>DocumentLocation</t>
-  </si>
-  <si>
-    <t>DocumentType</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>Instrument Documents</t>
-  </si>
-  <si>
-    <t>Document ID</t>
-  </si>
-  <si>
-    <t>Document Version</t>
-  </si>
-  <si>
-    <t>Document Location</t>
-  </si>
-  <si>
-    <t>Document Type</t>
-  </si>
-  <si>
-    <t>Lab1</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>manual1.pdf</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>validfrom</t>
-  </si>
-  <si>
-    <t>validto</t>
-  </si>
-  <si>
-    <t>agency</t>
-  </si>
-  <si>
-    <t>preparedby</t>
-  </si>
-  <si>
-    <t>approvedby</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>Instrument Certifications</t>
-  </si>
-  <si>
-    <t>Certification code</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Valid from</t>
-  </si>
-  <si>
-    <t>Valid to</t>
-  </si>
-  <si>
-    <t>Agency</t>
-  </si>
-  <si>
-    <t>Prepared by</t>
-  </si>
-  <si>
-    <t>Approved by</t>
-  </si>
-  <si>
-    <t>Report upload</t>
-  </si>
-  <si>
-    <t>LABEQG-003</t>
-  </si>
-  <si>
-    <t>SANCal 11/5783</t>
-  </si>
-  <si>
-    <t>SANCal</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>KitTemplate</t>
-  </si>
-  <si>
-    <t>StockItemsStorage</t>
-  </si>
-  <si>
-    <t>FormsThere</t>
-  </si>
-  <si>
-    <t>Kits</t>
-  </si>
-  <si>
-    <t>Kit Template</t>
-  </si>
-  <si>
-    <t>Storage Location</t>
-  </si>
-  <si>
-    <t>Stock Items Storage</t>
-  </si>
-  <si>
-    <t>Forms There</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>test kit 33</t>
-  </si>
-  <si>
-    <t>test kit one for testing</t>
-  </si>
-  <si>
-    <t>Test kit 34</t>
-  </si>
-  <si>
-    <t>test kit two for testing</t>
-  </si>
-  <si>
-    <t>AllowSharing</t>
-  </si>
-  <si>
-    <t>Kit</t>
-  </si>
-  <si>
-    <t>SubjectID</t>
-  </si>
-  <si>
-    <t>Barcode</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>LinkedSample</t>
-  </si>
-  <si>
-    <t>LocationTitle</t>
-  </si>
-  <si>
-    <t>SampleType</t>
-  </si>
-  <si>
-    <t>Biospecimens</t>
-  </si>
-  <si>
-    <t>Linked Sample</t>
-  </si>
-  <si>
-    <t>Test Sample 1</t>
-  </si>
-  <si>
-    <t>Test sample 1</t>
-  </si>
-  <si>
-    <t>Room-2.Freezer-1.Box-01.3</t>
-  </si>
-  <si>
-    <t>Def 001</t>
-  </si>
-  <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>Test Sample 2</t>
-  </si>
-  <si>
-    <t>Test sample 2</t>
-  </si>
-  <si>
-    <t>Room-2.Freezer-1.Box-01.5</t>
-  </si>
-  <si>
-    <t>Def 002</t>
-  </si>
-  <si>
-    <t>Test Sample 3</t>
-  </si>
-  <si>
-    <t>Test sample 3</t>
-  </si>
-  <si>
-    <t>Room-2.Freezer-1.Box-01.8</t>
-  </si>
-  <si>
-    <t>Def 003</t>
-  </si>
-  <si>
-    <t>Test Sample 4</t>
-  </si>
-  <si>
-    <t>Test sample 4</t>
-  </si>
-  <si>
-    <t>Room-2.Freezer-1.Box-01.10</t>
-  </si>
-  <si>
-    <t>Test Sample 5</t>
-  </si>
-  <si>
-    <t>Test sample 5</t>
-  </si>
-  <si>
-    <t>Room-2.Freezer-1.Box-01.12</t>
-  </si>
-  <si>
-    <t>Def 005</t>
-  </si>
-  <si>
-    <t>Test Sample 6</t>
-  </si>
-  <si>
-    <t>Test sample 6</t>
-  </si>
-  <si>
-    <t>Room-2.Freezer-1.Box-01.13</t>
-  </si>
-  <si>
-    <t>Def 006</t>
-  </si>
-  <si>
-    <t>Setup – Global defaults</t>
-  </si>
-  <si>
-    <t>PasswordLifetime</t>
-  </si>
-  <si>
-    <t>Password lifetime (days)</t>
-  </si>
-  <si>
-    <t>AutoLogOff</t>
-  </si>
-  <si>
-    <t>Auto log off period (minutes)</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>ZAR</t>
-  </si>
-  <si>
-    <t>ShowPartitions</t>
-  </si>
-  <si>
-    <t>Show Sample Partitions</t>
-  </si>
-  <si>
-    <t>ShowPricing</t>
-  </si>
-  <si>
-    <t>Show pricing</t>
-  </si>
-  <si>
-    <t>MemberDiscount</t>
-  </si>
-  <si>
-    <t>Member discount %</t>
-  </si>
-  <si>
-    <t>Vat %</t>
-  </si>
-  <si>
-    <t>MinimumResults</t>
-  </si>
-  <si>
-    <t>Minimum results for stats</t>
-  </si>
-  <si>
-    <t>BatchEmail</t>
-  </si>
-  <si>
-    <t>Max email batch size</t>
-  </si>
-  <si>
-    <t>BatchFax</t>
-  </si>
-  <si>
-    <t>Max fax batch size</t>
-  </si>
-  <si>
-    <t>SMSGatewayAddress</t>
-  </si>
-  <si>
-    <t>Sms gateway address</t>
-  </si>
-  <si>
-    <t>SamplingWorkflowEnabled</t>
-  </si>
-  <si>
-    <t>Sampling workflow enabled?</t>
-  </si>
-  <si>
-    <t>ScheduleSamplingEnabled</t>
-  </si>
-  <si>
-    <t>Schedule Sampling workflow enabled</t>
-  </si>
-  <si>
-    <t>CategoriseAnalysisServices</t>
-  </si>
-  <si>
-    <t>Analysis services categorised in setup?</t>
-  </si>
-  <si>
-    <t>ARImportOption</t>
-  </si>
-  <si>
-    <t>Bulk ar import option</t>
-  </si>
-  <si>
-    <t>Classic</t>
-  </si>
-  <si>
-    <t>ARAttachmentOption</t>
-  </si>
-  <si>
-    <t>Ar results file attachment option</t>
-  </si>
-  <si>
-    <t>AnalysisAttachmentOption</t>
-  </si>
-  <si>
-    <t>Analysis results attachment option</t>
-  </si>
-  <si>
-    <t>DefaultSampleLifetime_days</t>
-  </si>
-  <si>
-    <t>Default sample retention period – days</t>
-  </si>
-  <si>
-    <t>DefaultSampleLifetime_hours</t>
-  </si>
-  <si>
-    <t>Default sample retention period – hours</t>
-  </si>
-  <si>
-    <t>DefaultSampleLifetime_minutes</t>
-  </si>
-  <si>
-    <t>Default sample retention period – minutes</t>
-  </si>
-  <si>
-    <t>AutoPrintLabels</t>
-  </si>
-  <si>
-    <t>Auto label printing workflow step</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>AutoLabelSize</t>
-  </si>
-  <si>
-    <t>Auto label printing size</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>YearInPrefix</t>
-  </si>
-  <si>
-    <t>Must the year be included in sample prefixes?</t>
-  </si>
-  <si>
-    <t>SampleIDPadding</t>
-  </si>
-  <si>
-    <t>Sample id padding</t>
-  </si>
-  <si>
-    <t>ARIDPadding</t>
-  </si>
-  <si>
-    <t>Ar id padding</t>
-  </si>
-  <si>
-    <t>ExternalIDServer</t>
-  </si>
-  <si>
-    <t>External id server?</t>
-  </si>
-  <si>
-    <t>IDServerURL</t>
-  </si>
-  <si>
-    <t>Id server url</t>
-  </si>
-  <si>
-    <t>DefaultCountry</t>
-  </si>
-  <si>
-    <t>Default Country</t>
-  </si>
-  <si>
-    <t>ZA</t>
-  </si>
-  <si>
-    <t>AR Import options</t>
-  </si>
-  <si>
-    <t>Results Attachment option</t>
-  </si>
-  <si>
-    <t>Auto label print size</t>
-  </si>
-  <si>
-    <t>Auto Label Printing</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>Publication Preferences</t>
-  </si>
-  <si>
-    <t>North South</t>
-  </si>
-  <si>
-    <t>East West</t>
-  </si>
-  <si>
-    <t>Not Permitted</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>receive</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>LabClerk</t>
-  </si>
-  <si>
-    <t>Profiles</t>
-  </si>
-  <si>
-    <t>register</t>
-  </si>
-  <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>LabManager</t>
-  </si>
-  <si>
-    <t>Special</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Preserver</t>
-  </si>
-  <si>
-    <t>Preservers</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Publishers</t>
-  </si>
-  <si>
-    <t>Sampler</t>
-  </si>
-  <si>
-    <t>Samplers</t>
-  </si>
-  <si>
-    <t>ClientType</t>
-  </si>
-  <si>
-    <t>Partitions</t>
-  </si>
-  <si>
-    <t>Worksheet template analysis types</t>
-  </si>
-  <si>
-    <t>Client types</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Instrument Maintenance task types</t>
-  </si>
-  <si>
-    <t>Instrument Scheduled tasks types</t>
-  </si>
-  <si>
-    <t>Instrument Scheduled Repeat unit</t>
-  </si>
-  <si>
-    <t>noncorporate</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>part-1</t>
-  </si>
-  <si>
-    <t>Blank</t>
-  </si>
-  <si>
-    <t>Corporate</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Preventive</t>
-  </si>
-  <si>
-    <t>AFN</t>
-  </si>
-  <si>
-    <t>part-2</t>
-  </si>
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Non-corporate</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Repair</t>
-  </si>
-  <si>
-    <t>Weeks</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>part-3</t>
-  </si>
-  <si>
-    <t>Analysis</t>
-  </si>
-  <si>
-    <t>Don't Know</t>
-  </si>
-  <si>
-    <t>Enhancement</t>
-  </si>
-  <si>
-    <t>Months</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>part-4</t>
-  </si>
-  <si>
-    <t>Duplicate</t>
-  </si>
-  <si>
-    <t>Calibration</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>ANG</t>
-  </si>
-  <si>
-    <t>part-5</t>
-  </si>
-  <si>
-    <t>Validation</t>
-  </si>
-  <si>
-    <t>AOA</t>
-  </si>
-  <si>
-    <t>part-6</t>
-  </si>
-  <si>
-    <t>ARS</t>
-  </si>
-  <si>
-    <t>part-7</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>part-8</t>
-  </si>
-  <si>
-    <t>AWG</t>
-  </si>
-  <si>
-    <t>part-9</t>
-  </si>
-  <si>
-    <t>AZN</t>
-  </si>
-  <si>
-    <t>part-10</t>
-  </si>
-  <si>
-    <t>BAM</t>
-  </si>
-  <si>
-    <t>part-11</t>
-  </si>
-  <si>
-    <t>BBD</t>
-  </si>
-  <si>
-    <t>part-12</t>
-  </si>
-  <si>
-    <t>BDT</t>
-  </si>
-  <si>
-    <t>BGN</t>
-  </si>
-  <si>
-    <t>BHD</t>
-  </si>
-  <si>
-    <t>BIF</t>
-  </si>
-  <si>
-    <t>BMD</t>
-  </si>
-  <si>
-    <t>BND</t>
-  </si>
-  <si>
-    <t>BOB</t>
-  </si>
-  <si>
-    <t>BOV</t>
-  </si>
-  <si>
-    <t>BRL</t>
-  </si>
-  <si>
-    <t>BSD</t>
-  </si>
-  <si>
-    <t>BTN</t>
-  </si>
-  <si>
-    <t>BWP</t>
-  </si>
-  <si>
-    <t>BYR</t>
-  </si>
-  <si>
-    <t>BZD</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>CDF</t>
-  </si>
-  <si>
-    <t>CHE</t>
-  </si>
-  <si>
-    <t>CHF</t>
-  </si>
-  <si>
-    <t>CHW</t>
-  </si>
-  <si>
-    <t>CLF</t>
-  </si>
-  <si>
-    <t>CLP</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>COP</t>
-  </si>
-  <si>
-    <t>COU</t>
-  </si>
-  <si>
-    <t>CRC</t>
-  </si>
-  <si>
-    <t>CUC</t>
-  </si>
-  <si>
-    <t>CUP</t>
-  </si>
-  <si>
-    <t>CVE</t>
-  </si>
-  <si>
-    <t>CZK</t>
-  </si>
-  <si>
-    <t>DJF</t>
-  </si>
-  <si>
-    <t>DKK</t>
-  </si>
-  <si>
-    <t>DOP</t>
-  </si>
-  <si>
-    <t>DZD</t>
-  </si>
-  <si>
-    <t>EGP</t>
-  </si>
-  <si>
-    <t>ERN</t>
-  </si>
-  <si>
-    <t>ETB</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>FJD</t>
-  </si>
-  <si>
-    <t>FKP</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>GEL</t>
-  </si>
-  <si>
-    <t>GHS</t>
-  </si>
-  <si>
-    <t>GIP</t>
-  </si>
-  <si>
-    <t>GMD</t>
-  </si>
-  <si>
-    <t>GNF</t>
-  </si>
-  <si>
-    <t>GTQ</t>
-  </si>
-  <si>
-    <t>GYD</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>HNL</t>
-  </si>
-  <si>
-    <t>HRK</t>
-  </si>
-  <si>
-    <t>HTG</t>
-  </si>
-  <si>
-    <t>HUF</t>
-  </si>
-  <si>
-    <t>IDR</t>
-  </si>
-  <si>
-    <t>ILS</t>
-  </si>
-  <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t>IQD</t>
-  </si>
-  <si>
-    <t>IRR</t>
-  </si>
-  <si>
-    <t>ISK</t>
-  </si>
-  <si>
-    <t>JMD</t>
-  </si>
-  <si>
-    <t>JOD</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>KES</t>
-  </si>
-  <si>
-    <t>KGS</t>
-  </si>
-  <si>
-    <t>KHR</t>
-  </si>
-  <si>
-    <t>KMF</t>
-  </si>
-  <si>
-    <t>KPW</t>
-  </si>
-  <si>
-    <t>KRW</t>
-  </si>
-  <si>
-    <t>KWD</t>
-  </si>
-  <si>
-    <t>KYD</t>
-  </si>
-  <si>
-    <t>KZT</t>
-  </si>
-  <si>
-    <t>LAK</t>
-  </si>
-  <si>
-    <t>LBP</t>
-  </si>
-  <si>
-    <t>LKR</t>
-  </si>
-  <si>
-    <t>LRD</t>
-  </si>
-  <si>
-    <t>LSL</t>
-  </si>
-  <si>
-    <t>LTL</t>
-  </si>
-  <si>
-    <t>LVL</t>
-  </si>
-  <si>
-    <t>LYD</t>
-  </si>
-  <si>
-    <t>MAD</t>
-  </si>
-  <si>
-    <t>MDL</t>
-  </si>
-  <si>
-    <t>MGA</t>
-  </si>
-  <si>
-    <t>MKD</t>
-  </si>
-  <si>
-    <t>MMK</t>
-  </si>
-  <si>
-    <t>MNT</t>
-  </si>
-  <si>
-    <t>MOP</t>
-  </si>
-  <si>
-    <t>MRO</t>
-  </si>
-  <si>
-    <t>MUR</t>
-  </si>
-  <si>
-    <t>MVR</t>
-  </si>
-  <si>
-    <t>MWK</t>
-  </si>
-  <si>
-    <t>MXN</t>
-  </si>
-  <si>
-    <t>MXV</t>
-  </si>
-  <si>
-    <t>MYR</t>
-  </si>
-  <si>
-    <t>MZN</t>
-  </si>
-  <si>
-    <t>NAD</t>
-  </si>
-  <si>
-    <t>NGN</t>
-  </si>
-  <si>
-    <t>NIO</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>NPR</t>
-  </si>
-  <si>
-    <t>NZD</t>
-  </si>
-  <si>
-    <t>OMR</t>
-  </si>
-  <si>
-    <t>PAB</t>
-  </si>
-  <si>
-    <t>PEN</t>
-  </si>
-  <si>
-    <t>PGK</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <t>PKR</t>
-  </si>
-  <si>
-    <t>PLN</t>
-  </si>
-  <si>
-    <t>PYG</t>
-  </si>
-  <si>
-    <t>QAR</t>
-  </si>
-  <si>
-    <t>RON</t>
-  </si>
-  <si>
-    <t>RSD</t>
-  </si>
-  <si>
-    <t>RUB</t>
-  </si>
-  <si>
-    <t>RWF</t>
-  </si>
-  <si>
-    <t>SAR</t>
-  </si>
-  <si>
-    <t>SBD</t>
-  </si>
-  <si>
-    <t>SCR</t>
-  </si>
-  <si>
-    <t>SDG</t>
-  </si>
-  <si>
-    <t>SEK</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>SHP</t>
-  </si>
-  <si>
-    <t>SLL</t>
-  </si>
-  <si>
-    <t>SOS</t>
-  </si>
-  <si>
-    <t>SRD</t>
-  </si>
-  <si>
-    <t>SSP</t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t>SYP</t>
-  </si>
-  <si>
-    <t>SZL</t>
-  </si>
-  <si>
-    <t>THB</t>
-  </si>
-  <si>
-    <t>TJS</t>
-  </si>
-  <si>
-    <t>TMT</t>
-  </si>
-  <si>
-    <t>TND</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>TRY</t>
-  </si>
-  <si>
-    <t>TTD</t>
-  </si>
-  <si>
-    <t>TWD</t>
-  </si>
-  <si>
-    <t>TZS</t>
-  </si>
-  <si>
-    <t>UAH</t>
-  </si>
-  <si>
-    <t>UGX</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>USN</t>
-  </si>
-  <si>
-    <t>USS</t>
-  </si>
-  <si>
-    <t>UYI</t>
-  </si>
-  <si>
-    <t>UYU</t>
-  </si>
-  <si>
-    <t>UZS</t>
-  </si>
-  <si>
-    <t>VEF</t>
-  </si>
-  <si>
-    <t>VND</t>
-  </si>
-  <si>
-    <t>VUV</t>
-  </si>
-  <si>
-    <t>WST</t>
-  </si>
-  <si>
-    <t>XAF</t>
-  </si>
-  <si>
-    <t>XAG</t>
-  </si>
-  <si>
-    <t>XAU</t>
-  </si>
-  <si>
-    <t>XBA</t>
-  </si>
-  <si>
-    <t>XBB</t>
-  </si>
-  <si>
-    <t>XBC</t>
-  </si>
-  <si>
-    <t>XBD</t>
-  </si>
-  <si>
-    <t>XCD</t>
-  </si>
-  <si>
-    <t>XDR</t>
-  </si>
-  <si>
-    <t>XFU</t>
-  </si>
-  <si>
-    <t>XOF</t>
-  </si>
-  <si>
-    <t>XPD</t>
-  </si>
-  <si>
-    <t>XPF</t>
-  </si>
-  <si>
-    <t>XPT</t>
-  </si>
-  <si>
-    <t>XTS</t>
-  </si>
-  <si>
-    <t>XXX</t>
-  </si>
-  <si>
-    <t>YER</t>
-  </si>
-  <si>
-    <t>ZMK</t>
-  </si>
-  <si>
-    <t>ZWL</t>
+    <t xml:space="preserve">Instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet names are case sensitive, and the keys in row 0 are always special.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet order is important – dependencies should be loaded in earlier sheets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please also do not edit the last sheet, 'Constants', which is used to populate some of the drop down menus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some sheets are linked to their corresponding setup items in the manual. Blue text against grey shading are HTML links.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grey shaded cells contain validation rules, mostly look-up references and formatting. If you add rows below the shaded areas, copy the shaded cells into the new rows for the best results, ensuring that the validation is applied on the new rows too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Files to be uploaded, e.g. scans of signatures (jpg) or method documents (pdf), must be available in the same folder as this spreadsheet and only the file name entered into the corresponding cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">portal_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counter_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counter_reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">split_length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object ID prefixes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counter Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counter Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnalysisRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{sampleId}-R{seq:02d}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnalysisRequestSample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-{seq:03d}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{sampleType}-{seq:04d}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worksheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS-{seq:03d}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worksheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I-{seq:03d}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARImport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR Import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI-{seq:03d}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arimport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReferenceSample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference Sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QC-{seq:03d}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refsample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReferenceAnalysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA-{seq:03d}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refanalysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuplicateAnalysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-{seq:03d}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duplicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SamplePartition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Partition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{sampleId}-P{seq:d}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratory and Accreditation Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANBI Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LabURL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab web address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.sanbi.ac.za/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confidence level %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LaboratoryAccredited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratory accredited ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccreditationBodyLong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accreditation body  title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccreditationBody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accreditation body abbreviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccreditationBodyURL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accreditation body web address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accreditation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accreditation standard, e.g ISO 17025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccreditationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab's accreditation reference number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccreditationBodyLogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accreditation body logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TaxNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fax number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmailAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lims@sanbi.ac.za</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical_Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modderdam Rd, Sacks Circle Industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical_City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical address city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bellville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical_State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical address state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Province</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical_Zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical address zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical_Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical address country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postal_Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postal address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postal_City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postal address city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postal_State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postal address state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postal_Zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postal address zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postal_Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postal address country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing_Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing_City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing address city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing_State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing address state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing_Zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing address zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing_Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing address country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pricePremium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sortKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isDefault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smallIcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bigIcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARPriorities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Premium %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priority_hold.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priority_hold_big.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priority_normal.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priority_normal_big.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priority_high.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priority_high_big.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urgent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priority_urgent.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priority_urgent_big.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RetentionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazardous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinimumVolume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retention period (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum volume or weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood Plasma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The liquid portion of normal unclotted blood containing the red and white cells and platelets. The straw-colored/pale-yellow liquid component of blood that normally holds the blood cells in whole blood in suspension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The clear liquid that can be separated from clotted blood. Serum differs from plasma, the liquid portion of normal unclotted blood containing the red and white cells and platelets. It is the clot that makes the difference between serum and plasma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A typically sterile liquid by-product of the body secreted by the kidneys through a process called urination and excreted through the urethra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potable or river water. Not sewage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whole Blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood drawn from the body from which no constituent, such as plasma or platelets, has been removed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LabContact_Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab Departments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biobank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Biobank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firstname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BusinessPhone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BusinessFax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomePhone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MobilePhone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JobTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab contacts - staff members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only if a Lab contact is a LIMS user too, does he/she get given a (unique) user name and password, and assigned a role or to a group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business fax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">»Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">» Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labmanager@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">021 555 1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">021 555 1233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">048 813 9515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">082 555 9910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">»Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LabManagers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clerk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labclerk@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010 417 2743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010 417 3007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010417 5849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">073 965 3368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labclerk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LabClerks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analyst@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">021 555 1236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">050 866 9887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">083 555 8108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistant manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifier@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">021 555 1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">021 555 1201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">050 866 9808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">083 333 8101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClientID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MemberDiscountApplies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BulkDiscount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postal Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member discount applies?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulk discount applies?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bellville Medical Centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA62914-27121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+27-21-2442645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+27-21-2442647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apsc@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Brickdam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Cape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brooklyn Chest Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA62914-27120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+27-21-2442561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+27-21-2442563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bchp@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oceana Complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PublicationPreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCContacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AttachmentsPermitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Contacts - Staff Members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publication preference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacts to be cc'd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachments permitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ritamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product assistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">038 664 6469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">038 664 7338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">038 664 7757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">082 607 8405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mohale@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email,pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ŝarel Seemonster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ŝarel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seemonster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sarelse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrient management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">040 666 6630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">040 666 7834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">040 666 7858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">083 644 8576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seemonster@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rita Mohale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ŝtandard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neilst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research  assistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">035 597 5814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">035 597 6876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">035 597 6344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">080 564 7509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ŝarel Seemonster, Rita Mohale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">johannasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">036 640 6016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">036 6406911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">036 6407167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">081 569 7909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smith@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fredtu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QC manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">041 670 6654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">041 6708002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">041 670 8848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">084 677 8884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turner@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruffian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrisru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">025 557 4204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">025 557 4531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">025 557 3131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">074 304 5021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruffian@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corbin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andreco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">032 586 5303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">032 586 6331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">032 586 5622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">078 469 7035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corbin@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suppliers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomerieux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012 440 9555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012 440 9765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supplier@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemin de l'Orme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcy-l'Étoile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhône-Alpes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioRad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012 440 8445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012 440 8447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 Alfred Nobel Drive, Hercules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA 94547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier Contacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Fax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salesman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">028 274 8819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">086 222 3600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">089 445 0440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dobson@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 main street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pringle Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tube 15ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty tube to contain biospecimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloves for specimens extraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">templateID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">templateName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kit Templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KITEMP01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kit Template 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StudyType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AgeHigh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AgeLow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumParticipants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SampleTypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnalysisServices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DateCreated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Crated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Goblin Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development of serum which gives superhuman strength and intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Military research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whole Blood; Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012/06/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hierarchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumberOfPoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StorageUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freezer 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-2.Freezer-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freezer-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-3.Freezer-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Box 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-2.Freezer-1.Box-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Box-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ManagedStorage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-3.Freezer-1.Box-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Box 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-3.Freezer-1.Box-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Box-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-3.Shelf-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnmanagedStorage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-3.Shelf-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">componentID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">componentName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Component ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Component Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis Categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genome Analysis: DNA/RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proteome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proteomic Analysis: Mass spectrometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShortTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PointOfCapture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnalysisCategory_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReportDryMatter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExponentialFormatPrecision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LowerDetectionLimit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UpperDetectionLimit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DetectionLimitSelector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxTimeAllowed_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxTimeAllowed_hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxTimeAllowed_minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BulkPrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ManualEntryOfResults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DefaultMethod_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DefaultInstrument_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DuplicateVariation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accredited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preservation_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis Services - The 'tests' Offered By The Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Turnaround Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Point of capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be reported as dry matter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results file attachment permitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exponential format precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display DL selector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulk price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual Entry of Results?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default Instrument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate variation %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default Container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default Preservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA Ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA concentration determination of sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dnaex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg/l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass Spectrometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass spectrometry MALDI-TOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldi-tof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keyword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interim Fields Used In Analysis Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis Services – Methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrument_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis Services – Instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrument title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis Services results options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indeterminable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uncertainty Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis Service Uncertainties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis service title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result Range min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result range max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uncertainty value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results Calculations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC20 Biorad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC20 Automated Cell Counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[LCC] * 100 / [TCC]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interim fields used in calculations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cell Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live Cell Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StorageLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InvoiceNr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BatchNr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReceivedBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DateReceived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StockItems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received By</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock items tubes 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock items tubes 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shame Pane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock items tubes 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelvin Kelp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock items tubes 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trip Weir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock items gloves 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent Mett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock items gloves 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grigor Bites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MethodDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis Methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell counting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated cell counting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrument will count the total of live cells and the quantity of cells in each sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrument Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated cell counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assetnumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SerialNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instalationdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InstalationCertificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserManualFile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserManualID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserManualVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserManualLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CalibrationCertificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CalibrationExpiryDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VerificationExpiryDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataInterface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataInterfaceOptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab Instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrument type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand/Manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serial no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photo image file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instalation date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation certificate upload file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User manual upload file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User manual ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User manual version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User manual location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calibration certificate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calibration expiry date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verification expiration date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data interface options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LABEQG-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell Counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated cell counter for cell counting analyses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual LABEQG-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version 2 - July 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCal 11/6010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DateIssued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instrument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">downfrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">downto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">considerations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workperformed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReportID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrument Validations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Down from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Down to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considerations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performed by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report identification Nº</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conductivity validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if instrument is plugged before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some measuraments using salty water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMT20145004182/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calibrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrument Calibrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calibrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spectro calibration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Calibrations Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easiest to calibrate than Spectro 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMT20145004182/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocumentID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocumentVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocumentLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocumentType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrument Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manual1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validfrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preparedby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approvedby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrument Certifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certification code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approved by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LABEQG-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCal 11/5783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KitTemplate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StockItemsStorage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FormsThere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kit Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storage Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock Items Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forms There</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test kit 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test kit one for testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test kit 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test kit two for testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AllowSharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubjectID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LinkedSample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationTitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SampleType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biospecimens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked Sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Sample 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test sample 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-2.Freezer-1.Box-01.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Def 001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Sample 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test sample 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-2.Freezer-1.Box-01.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Def 002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Sample 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test sample 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-2.Freezer-1.Box-01.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Def 003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Sample 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test sample 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-2.Freezer-1.Box-01.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Sample 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test sample 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-2.Freezer-1.Box-01.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Def 005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Sample 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test sample 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-2.Freezer-1.Box-01.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Def 006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup – Global defaults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PasswordLifetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password lifetime (days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoLogOff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto log off period (minutes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShowPartitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show Sample Partitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShowPricing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show pricing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MemberDiscount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member discount %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vat %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinimumResults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum results for stats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BatchEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max email batch size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BatchFax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max fax batch size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMSGatewayAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sms gateway address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SamplingWorkflowEnabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling workflow enabled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ScheduleSamplingEnabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedule Sampling workflow enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CategoriseAnalysisServices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis services categorised in setup?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARImportOption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulk ar import option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARAttachmentOption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ar results file attachment option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnalysisAttachmentOption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis results attachment option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DefaultSampleLifetime_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default sample retention period – days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DefaultSampleLifetime_hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default sample retention period – hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DefaultSampleLifetime_minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default sample retention period – minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoPrintLabels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto label printing workflow step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoLabelSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto label printing size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YearInPrefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must the year be included in sample prefixes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SampleIDPadding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample id padding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIDPadding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ar id padding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExternalIDServer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External id server?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDServerURL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id server url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DefaultCountry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR Import options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results Attachment option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto label print size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Label Printing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publication Preferences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East West</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Permitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">receive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LabClerk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LabManager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preserver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preservers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publishers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samplers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClientType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worksheet template analysis types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrument Maintenance task types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrument Scheduled tasks types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrument Scheduled Repeat unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noncorporate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preventive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-corporate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't Know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhancement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calibration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BWP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BZD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DKK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DZD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FJD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FKP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KYD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LVL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MWK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MXN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MXV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RWF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UGX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UYI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UYU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UZS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VUV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XFU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZMK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZWL</t>
   </si>
 </sst>
 </file>
@@ -3441,7 +3446,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
@@ -4575,7 +4580,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="103.368421052632"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="105.19028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="6.85425101214575"/>
   </cols>
   <sheetData>
@@ -4645,9 +4650,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
@@ -4958,14 +4963,14 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="10" min="2" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="21" min="12" style="0" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
@@ -5240,11 +5245,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
@@ -5417,9 +5422,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5487,7 +5492,7 @@
     <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5626,19 +5631,19 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.587044534413"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2591093117409"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="6.63967611336032"/>
   </cols>
   <sheetData>
@@ -5905,11 +5910,11 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6010,9 +6015,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6103,11 +6108,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.10526315789474"/>
@@ -6616,10 +6621,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -6689,12 +6694,12 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="5" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.21457489878543"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="5" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="5" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="5" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="5" width="9.10526315789474"/>
@@ -7045,8 +7050,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.4089068825911"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.2753036437247"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7096,8 +7101,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7150,7 +7155,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="973" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.1417004048583"/>
   </cols>
@@ -7270,7 +7275,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2064777327935"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.57085020242915"/>
@@ -7441,9 +7446,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.6315789473684"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.31983805668016"/>
   </cols>
   <sheetData>
@@ -7520,7 +7525,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -7899,9 +7904,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.63967611336032"/>
   </cols>
   <sheetData>
@@ -8137,10 +8142,10 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="60.417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="96" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8314,8 +8319,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -8386,26 +8391,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8675,8 +8680,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.74898785425101"/>
   </cols>
   <sheetData>
@@ -9070,18 +9075,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="41.8825910931174"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -9232,17 +9237,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.5627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -9385,9 +9390,9 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5708502024291"/>
   </cols>
@@ -9487,15 +9492,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.71255060728745"/>
   </cols>
@@ -9665,14 +9670,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1093117408907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2672064777328"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.165991902834"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="14.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.331983805668"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="14.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="6.42914979757085"/>
   </cols>
   <sheetData>
@@ -9807,19 +9811,21 @@
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="6.63967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10020,14 +10026,14 @@
         <v>781</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>773</v>
       </c>
       <c r="L6" s="93"/>
       <c r="N6" s="40" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O6" s="40"/>
     </row>
@@ -10093,7 +10099,7 @@
       </c>
       <c r="O8" s="40"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>789</v>
       </c>
@@ -10121,8 +10127,8 @@
         <v>773</v>
       </c>
       <c r="L9" s="93"/>
-      <c r="N9" s="40" t="s">
-        <v>178</v>
+      <c r="N9" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="O9" s="40"/>
     </row>
@@ -10151,10 +10157,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.1417004048583"/>
   </cols>
@@ -11891,10 +11897,10 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="28" width="9.4251012145749"/>
   </cols>
   <sheetData>
@@ -12060,13 +12066,13 @@
   <dimension ref="1:8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.74898785425101"/>
@@ -12270,10 +12276,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12430,16 +12436,16 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="32.5627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -12909,16 +12915,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.6032388663968"/>
@@ -13274,14 +13280,14 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>

--- a/baobab/lims/setupdata/test/test.xlsx
+++ b/baobab/lims/setupdata/test/test.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1104">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -2445,12 +2445,18 @@
     <t xml:space="preserve">SampleType</t>
   </si>
   <si>
+    <t xml:space="preserve">SampleState</t>
+  </si>
+  <si>
     <t xml:space="preserve">Biospecimens</t>
   </si>
   <si>
     <t xml:space="preserve">Linked Sample</t>
   </si>
   <si>
+    <t xml:space="preserve">Sample State: register, due or received(default)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Sample 1</t>
   </si>
   <si>
@@ -2466,6 +2472,9 @@
     <t xml:space="preserve">ml</t>
   </si>
   <si>
+    <t xml:space="preserve">due</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Sample 2</t>
   </si>
   <si>
@@ -2490,6 +2499,9 @@
     <t xml:space="preserve">Def 003</t>
   </si>
   <si>
+    <t xml:space="preserve">Due</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Sample 4</t>
   </si>
   <si>
@@ -2521,6 +2533,9 @@
   </si>
   <si>
     <t xml:space="preserve">Def 006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register</t>
   </si>
   <si>
     <t xml:space="preserve">Setup – Global defaults</t>
@@ -3455,7 +3470,7 @@
     <numFmt numFmtId="170" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="171" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3694,6 +3709,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3774,7 +3796,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4425,6 +4447,10 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -4580,7 +4606,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="105.19028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="110.866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="6.85425101214575"/>
   </cols>
   <sheetData>
@@ -4650,7 +4676,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="6" style="0" width="10.3886639676113"/>
@@ -4968,9 +4994,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="10" min="2" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="21" min="12" style="0" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
@@ -5245,11 +5271,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
@@ -5422,9 +5448,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5492,7 +5518,7 @@
     <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5637,12 +5663,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="6.63967611336032"/>
   </cols>
@@ -5910,11 +5936,11 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6015,9 +6041,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6108,11 +6134,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.10526315789474"/>
@@ -6621,10 +6647,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -6694,12 +6720,12 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="5" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.21457489878543"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="5" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="5" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="5" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="5" width="9.10526315789474"/>
@@ -7050,8 +7076,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.6315789473684"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7101,8 +7127,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7155,7 +7181,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="973" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.1417004048583"/>
   </cols>
@@ -7275,7 +7301,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.57085020242915"/>
@@ -7446,9 +7472,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.3076923076923"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.31983805668016"/>
   </cols>
   <sheetData>
@@ -7525,7 +7551,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -7898,16 +7924,18 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="6.63967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7981,7 +8009,7 @@
         <v>596</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D4" s="89" t="s">
         <v>597</v>
@@ -8005,7 +8033,7 @@
         <v>601</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D5" s="89" t="s">
         <v>602</v>
@@ -8029,7 +8057,7 @@
         <v>606</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D6" s="89" t="s">
         <v>607</v>
@@ -8053,7 +8081,7 @@
         <v>611</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D7" s="89" t="s">
         <v>612</v>
@@ -8077,7 +8105,7 @@
         <v>616</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D8" s="89" t="s">
         <v>617</v>
@@ -8101,7 +8129,7 @@
         <v>621</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D9" s="89" t="s">
         <v>622</v>
@@ -8142,10 +8170,10 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.4858299595142"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="96" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8319,8 +8347,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -8391,26 +8419,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8680,8 +8708,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.74898785425101"/>
   </cols>
   <sheetData>
@@ -9075,18 +9103,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="44.0242914979757"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -9237,17 +9265,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="40.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -9390,9 +9418,9 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5708502024291"/>
   </cols>
@@ -9492,15 +9520,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.7408906882591"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.71255060728745"/>
   </cols>
@@ -9671,12 +9699,12 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="6.42914979757085"/>
   </cols>
   <sheetData>
@@ -9809,23 +9837,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="6.63967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9874,10 +9905,13 @@
       <c r="O1" s="6" t="s">
         <v>764</v>
       </c>
+      <c r="P1" s="6" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="94" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -9935,15 +9969,18 @@
         <v>430</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>769</v>
+      </c>
+      <c r="P3" s="163" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C4" s="79" t="s">
         <v>433</v>
@@ -9953,30 +9990,33 @@
       </c>
       <c r="E4" s="79"/>
       <c r="F4" s="88" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G4" s="89"/>
       <c r="H4" s="89" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>10</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L4" s="93"/>
       <c r="N4" s="40" t="s">
         <v>178</v>
       </c>
       <c r="O4" s="40"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P4" s="0" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C5" s="79" t="s">
         <v>433</v>
@@ -9986,30 +10026,33 @@
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="88" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="G5" s="89"/>
       <c r="H5" s="89" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>10</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L5" s="93"/>
       <c r="N5" s="40" t="s">
         <v>178</v>
       </c>
       <c r="O5" s="40"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P5" s="0" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="C6" s="79" t="s">
         <v>433</v>
@@ -10019,30 +10062,33 @@
       </c>
       <c r="E6" s="79"/>
       <c r="F6" s="88" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="G6" s="89"/>
       <c r="H6" s="89" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>30</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L6" s="93"/>
       <c r="N6" s="40" t="s">
         <v>172</v>
       </c>
       <c r="O6" s="40"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P6" s="0" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C7" s="79" t="s">
         <v>433</v>
@@ -10052,7 +10098,7 @@
       </c>
       <c r="E7" s="79"/>
       <c r="F7" s="88" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="G7" s="89"/>
       <c r="H7" s="89"/>
@@ -10060,7 +10106,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L7" s="93"/>
       <c r="N7" s="40" t="s">
@@ -10068,12 +10114,12 @@
       </c>
       <c r="O7" s="40"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C8" s="79" t="s">
         <v>433</v>
@@ -10083,15 +10129,17 @@
       </c>
       <c r="E8" s="79"/>
       <c r="F8" s="88" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="G8" s="89"/>
       <c r="H8" s="89" t="s">
-        <v>788</v>
-      </c>
-      <c r="I8" s="5"/>
+        <v>792</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>15</v>
+      </c>
       <c r="J8" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L8" s="93"/>
       <c r="N8" s="40" t="s">
@@ -10101,10 +10149,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C9" s="79" t="s">
         <v>433</v>
@@ -10114,23 +10162,26 @@
       </c>
       <c r="E9" s="79"/>
       <c r="F9" s="88" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="G9" s="89"/>
       <c r="H9" s="89" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>10</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L9" s="93"/>
       <c r="N9" s="33" t="s">
         <v>165</v>
       </c>
       <c r="O9" s="40"/>
+      <c r="P9" s="0" t="s">
+        <v>797</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10157,10 +10208,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.1417004048583"/>
   </cols>
@@ -10172,15 +10223,15 @@
       <c r="B1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="164" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="C2" s="164"/>
+        <v>798</v>
+      </c>
+      <c r="C2" s="165"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
@@ -10189,73 +10240,73 @@
       <c r="B3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="164" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>795</v>
-      </c>
-      <c r="C4" s="165" t="n">
+        <v>800</v>
+      </c>
+      <c r="C4" s="166" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>797</v>
-      </c>
-      <c r="C5" s="165" t="n">
+        <v>802</v>
+      </c>
+      <c r="C5" s="166" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>798</v>
-      </c>
-      <c r="C6" s="165" t="s">
-        <v>799</v>
+        <v>803</v>
+      </c>
+      <c r="C6" s="166" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>801</v>
-      </c>
-      <c r="C7" s="166" t="n">
+        <v>806</v>
+      </c>
+      <c r="C7" s="167" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>803</v>
-      </c>
-      <c r="C8" s="166" t="n">
+        <v>808</v>
+      </c>
+      <c r="C8" s="167" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>805</v>
-      </c>
-      <c r="C9" s="165" t="n">
+        <v>810</v>
+      </c>
+      <c r="C9" s="166" t="n">
         <v>15</v>
       </c>
     </row>
@@ -10264,240 +10315,240 @@
         <v>498</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>806</v>
-      </c>
-      <c r="C10" s="165" t="n">
+        <v>811</v>
+      </c>
+      <c r="C10" s="166" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>808</v>
-      </c>
-      <c r="C11" s="165" t="n">
+        <v>813</v>
+      </c>
+      <c r="C11" s="166" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>810</v>
-      </c>
-      <c r="C12" s="165" t="n">
+        <v>815</v>
+      </c>
+      <c r="C12" s="166" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>812</v>
-      </c>
-      <c r="C13" s="165" t="n">
+        <v>817</v>
+      </c>
+      <c r="C13" s="166" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>814</v>
-      </c>
-      <c r="C14" s="165"/>
+        <v>819</v>
+      </c>
+      <c r="C14" s="166"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>816</v>
-      </c>
-      <c r="C15" s="166" t="n">
+        <v>821</v>
+      </c>
+      <c r="C15" s="167" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>818</v>
-      </c>
-      <c r="C16" s="166" t="n">
+        <v>823</v>
+      </c>
+      <c r="C16" s="167" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>820</v>
-      </c>
-      <c r="C17" s="166" t="n">
+        <v>825</v>
+      </c>
+      <c r="C17" s="167" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>822</v>
-      </c>
-      <c r="C18" s="167" t="s">
-        <v>823</v>
-      </c>
-      <c r="D18" s="168"/>
+        <v>827</v>
+      </c>
+      <c r="C18" s="168" t="s">
+        <v>828</v>
+      </c>
+      <c r="D18" s="169"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>825</v>
-      </c>
-      <c r="C19" s="169" t="s">
+        <v>830</v>
+      </c>
+      <c r="C19" s="170" t="s">
         <v>301</v>
       </c>
-      <c r="D19" s="168"/>
+      <c r="D19" s="169"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>827</v>
-      </c>
-      <c r="C20" s="169" t="s">
+        <v>832</v>
+      </c>
+      <c r="C20" s="170" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>829</v>
-      </c>
-      <c r="C21" s="167" t="n">
+        <v>834</v>
+      </c>
+      <c r="C21" s="168" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>831</v>
-      </c>
-      <c r="C22" s="167" t="n">
+        <v>836</v>
+      </c>
+      <c r="C22" s="168" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>833</v>
-      </c>
-      <c r="C23" s="167" t="n">
+        <v>838</v>
+      </c>
+      <c r="C23" s="168" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>835</v>
-      </c>
-      <c r="C24" s="169" t="s">
-        <v>836</v>
-      </c>
-      <c r="D24" s="170"/>
+        <v>840</v>
+      </c>
+      <c r="C24" s="170" t="s">
+        <v>841</v>
+      </c>
+      <c r="D24" s="171"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>838</v>
-      </c>
-      <c r="C25" s="169" t="s">
-        <v>839</v>
+        <v>843</v>
+      </c>
+      <c r="C25" s="170" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>841</v>
-      </c>
-      <c r="C26" s="166" t="n">
+        <v>846</v>
+      </c>
+      <c r="C26" s="167" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>843</v>
-      </c>
-      <c r="C27" s="165" t="s">
+        <v>848</v>
+      </c>
+      <c r="C27" s="166" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>845</v>
-      </c>
-      <c r="C28" s="165" t="n">
+        <v>850</v>
+      </c>
+      <c r="C28" s="166" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>847</v>
-      </c>
-      <c r="C29" s="166" t="n">
+        <v>852</v>
+      </c>
+      <c r="C29" s="167" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>849</v>
-      </c>
-      <c r="C30" s="165"/>
+        <v>854</v>
+      </c>
+      <c r="C30" s="166"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>851</v>
-      </c>
-      <c r="C31" s="171" t="s">
-        <v>852</v>
+        <v>856</v>
+      </c>
+      <c r="C31" s="172" t="s">
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -10636,35 +10687,35 @@
   </cols>
   <sheetData>
     <row r="1" s="31" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="173" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="173" t="s">
         <v>198</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>856</v>
-      </c>
-      <c r="G1" s="173" t="s">
-        <v>857</v>
+        <v>861</v>
+      </c>
+      <c r="G1" s="174" t="s">
+        <v>862</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="K1" s="32" t="s">
         <v>511</v>
@@ -10679,63 +10730,63 @@
         <v>243</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>861</v>
-      </c>
-      <c r="E2" s="174" t="s">
-        <v>862</v>
+        <v>866</v>
+      </c>
+      <c r="E2" s="175" t="s">
+        <v>867</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="G2" s="51" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="E3" s="174" t="s">
-        <v>839</v>
+      <c r="E3" s="175" t="s">
+        <v>844</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="G3" s="51" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="K3" s="51" t="s">
         <v>535</v>
@@ -10743,51 +10794,51 @@
     </row>
     <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>225</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>836</v>
-      </c>
-      <c r="G4" s="174"/>
+        <v>841</v>
+      </c>
+      <c r="G4" s="175"/>
       <c r="H4" s="51" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="51" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>878</v>
-      </c>
-      <c r="G5" s="174"/>
+        <v>883</v>
+      </c>
+      <c r="G5" s="175"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>880</v>
-      </c>
-      <c r="G6" s="174"/>
+        <v>885</v>
+      </c>
+      <c r="G6" s="175"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="51" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>882</v>
-      </c>
-      <c r="G7" s="174"/>
+        <v>887</v>
+      </c>
+      <c r="G7" s="175"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
@@ -10796,108 +10847,108 @@
       <c r="B8" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="G8" s="174"/>
+      <c r="G8" s="175"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G9" s="174"/>
+      <c r="G9" s="175"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G10" s="174"/>
+      <c r="G10" s="175"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G11" s="174"/>
+      <c r="G11" s="175"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G12" s="174"/>
+      <c r="G12" s="175"/>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G13" s="174"/>
+      <c r="G13" s="175"/>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G14" s="174"/>
+      <c r="G14" s="175"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G15" s="174"/>
+      <c r="G15" s="175"/>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G16" s="174"/>
+      <c r="G16" s="175"/>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G17" s="174"/>
+      <c r="G17" s="175"/>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G18" s="174"/>
+      <c r="G18" s="175"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G19" s="174"/>
+      <c r="G19" s="175"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="175"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="175"/>
-      <c r="L20" s="175"/>
-    </row>
-    <row r="21" s="178" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="176"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="176"/>
+      <c r="K20" s="176"/>
+      <c r="L20" s="176"/>
+    </row>
+    <row r="21" s="179" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>885</v>
-      </c>
-      <c r="E21" s="177" t="s">
-        <v>886</v>
+        <v>890</v>
+      </c>
+      <c r="E21" s="178" t="s">
+        <v>891</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="179" t="s">
-        <v>891</v>
+      <c r="A22" s="180" t="s">
+        <v>896</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>894</v>
-      </c>
-      <c r="E22" s="174" t="s">
-        <v>895</v>
+        <v>899</v>
+      </c>
+      <c r="E22" s="175" t="s">
+        <v>900</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="I22" s="51" t="s">
         <v>520</v>
@@ -10905,970 +10956,970 @@
     </row>
     <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="51" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>900</v>
-      </c>
-      <c r="E23" s="174" t="s">
-        <v>901</v>
+        <v>905</v>
+      </c>
+      <c r="E23" s="175" t="s">
+        <v>906</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="H23" s="51" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="I23" s="51" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="51" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="H24" s="51" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="I24" s="51" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="51" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="H25" s="51" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="I25" s="51" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="51" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="H26" s="51" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="51" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="51" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="51" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="51" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="51" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="51" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="51" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="51" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="51" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="51" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="51" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="51" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="51" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="51" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="51" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="51" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="51" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="51" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="51" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="51" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="51" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="51" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="51" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="51" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="51" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="51" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="51" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="51" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="51" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="51" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="51" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="51" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="51" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="51" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="51" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="51" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="51" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="51" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="51" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="51" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="51" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="51" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="51" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="51" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="51" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="51" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="51" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="51" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="51" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="51" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="51" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="51" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="51" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="51" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="51" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="51" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="51" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="51" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="51" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="51" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="51" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="51" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="51" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="51" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="51" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="51" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="51" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="51" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="51" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="51" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="51" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="51" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="51" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="51" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="51" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="51" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="51" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="51" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="51" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="51" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="51" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="51" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="51" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="51" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="51" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="51" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="51" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="51" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="51" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="51" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="51" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="51" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="51" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="51" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="51" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="51" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="51" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="51" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="51" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="51" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="51" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="51" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="51" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="51" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="51" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="51" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="51" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="51" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="51" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="51" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="51" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="51" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="51" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="51" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="51" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="51" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="51" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="51" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="51" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="51" t="s">
-        <v>1045</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="51" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="51" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="51" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="51" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="51" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="51" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="51" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="51" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="51" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="51" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="51" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="51" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="51" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="51" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="51" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="51" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="51" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="51" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="51" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="51" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="51" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="51" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="51" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="51" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="51" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="51" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="51" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="51" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="51" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="51" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="51" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="51" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="51" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="51" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="51" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="51" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="51" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="51" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="51" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="51" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="51" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="51" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="51" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="51" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="51" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="51" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="51" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="51" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="51" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="51" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="51" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="51" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="51" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="51" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
@@ -11897,10 +11948,10 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="28" width="9.4251012145749"/>
   </cols>
   <sheetData>
@@ -12072,7 +12123,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.74898785425101"/>
@@ -12276,10 +12327,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12436,16 +12487,16 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -12915,13 +12966,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.3886639676113"/>
@@ -13280,14 +13331,13 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>

--- a/baobab/lims/setupdata/test/test.xlsx
+++ b/baobab/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="34"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,31 +20,33 @@
     <sheet name="Suppliers" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Supplier Contacts" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Products" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Kit Templates" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Projects" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Storage" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Kit Components" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="Analysis Categories" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="Analysis Services" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="AnalysisService InterimFields" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="AnalysisService Methods" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="AnalysisService Instruments" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="AnalysisService ResultOptions" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="Analysis Service Uncertainties" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="Calculations" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="Calculation Interim Fields" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="StockItems" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="Methods" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="Instrument Types" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="Instruments" sheetId="29" state="visible" r:id="rId30"/>
-    <sheet name="Instrument Validations" sheetId="30" state="visible" r:id="rId31"/>
-    <sheet name="Instrument Calibrations" sheetId="31" state="visible" r:id="rId32"/>
-    <sheet name="Instrument Documents" sheetId="32" state="visible" r:id="rId33"/>
-    <sheet name="Instrument Certifications" sheetId="33" state="visible" r:id="rId34"/>
-    <sheet name="Kits" sheetId="34" state="visible" r:id="rId35"/>
-    <sheet name="Biospecimens" sheetId="35" state="visible" r:id="rId36"/>
-    <sheet name="Setup" sheetId="36" state="visible" r:id="rId37"/>
-    <sheet name="Constants" sheetId="37" state="visible" r:id="rId38"/>
+    <sheet name="Donor" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="DiseaseOntology" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Kit Templates" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Projects" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Storage" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Kit Components" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Analysis Categories" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="Analysis Services" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="AnalysisService InterimFields" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="AnalysisService Methods" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="AnalysisService Instruments" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="AnalysisService ResultOptions" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="Analysis Service Uncertainties" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="Calculations" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="Calculation Interim Fields" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="StockItems" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="Methods" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="Instrument Types" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="Instruments" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="Instrument Validations" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="Instrument Calibrations" sheetId="33" state="visible" r:id="rId34"/>
+    <sheet name="Instrument Documents" sheetId="34" state="visible" r:id="rId35"/>
+    <sheet name="Instrument Certifications" sheetId="35" state="visible" r:id="rId36"/>
+    <sheet name="Kits" sheetId="36" state="visible" r:id="rId37"/>
+    <sheet name="Biospecimens" sheetId="37" state="visible" r:id="rId38"/>
+    <sheet name="Setup" sheetId="38" state="visible" r:id="rId39"/>
+    <sheet name="Constants" sheetId="39" state="visible" r:id="rId40"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -55,7 +57,7 @@
 </workbook>
 </file>
 
-<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
@@ -142,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="1131">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -1368,6 +1370,123 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">SampleDonorID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SelectedProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AgeUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Goblin Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FreeText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body cells divide faster than normal and kill healthy tissue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Body cells divide faster than normal and kill healthy tissue.  Curable since the late 20</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> century.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human imunity virus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HI virus attacks and destroys the T4 cells of the human body and thus leaves the body incapable of defending itself against invading pathogens.</t>
+  </si>
+  <si>
     <t xml:space="preserve">templateID</t>
   </si>
   <si>
@@ -1443,9 +1562,6 @@
     <t xml:space="preserve">Date Crated</t>
   </si>
   <si>
-    <t xml:space="preserve">Green Goblin Project</t>
-  </si>
-  <si>
     <t xml:space="preserve">Development of serum which gives superhuman strength and intelligence</t>
   </si>
   <si>
@@ -1935,9 +2051,6 @@
     <t xml:space="preserve">Stock items tubes 1</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">i001</t>
   </si>
   <si>
@@ -1950,9 +2063,6 @@
     <t xml:space="preserve">Stock items tubes 2</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
     <t xml:space="preserve">i002</t>
   </si>
   <si>
@@ -2445,6 +2555,18 @@
     <t xml:space="preserve">SampleType</t>
   </si>
   <si>
+    <t xml:space="preserve">SampleDonor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiseaseOntology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnatomicalSiteTerm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnatomicalSiteDescription</t>
+  </si>
+  <si>
     <t xml:space="preserve">Biospecimens</t>
   </si>
   <si>
@@ -2466,6 +2588,12 @@
     <t xml:space="preserve">ml</t>
   </si>
   <si>
+    <t xml:space="preserve">ICD001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spleen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Sample 2</t>
   </si>
   <si>
@@ -2490,6 +2618,12 @@
     <t xml:space="preserve">Def 003</t>
   </si>
   <si>
+    <t xml:space="preserve">ICD002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Sample 4</t>
   </si>
   <si>
@@ -2499,6 +2633,12 @@
     <t xml:space="preserve">Room-2.Freezer-1.Box-01.10</t>
   </si>
   <si>
+    <t xml:space="preserve">ICD003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Sample 5</t>
   </si>
   <si>
@@ -2832,9 +2972,6 @@
     <t xml:space="preserve">Corporate</t>
   </si>
   <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
     <t xml:space="preserve">Preventive</t>
   </si>
   <si>
@@ -2850,9 +2987,6 @@
     <t xml:space="preserve">Non-corporate</t>
   </si>
   <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
     <t xml:space="preserve">Repair</t>
   </si>
   <si>
@@ -2874,9 +3008,6 @@
     <t xml:space="preserve">Enhancement</t>
   </si>
   <si>
-    <t xml:space="preserve">Months</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMD</t>
   </si>
   <si>
@@ -2887,9 +3018,6 @@
   </si>
   <si>
     <t xml:space="preserve">Calibration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Years</t>
   </si>
   <si>
     <t xml:space="preserve">ANG</t>
@@ -3455,7 +3583,7 @@
     <numFmt numFmtId="170" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="171" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3630,6 +3758,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -4139,23 +4275,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4199,7 +4335,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4211,7 +4347,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4223,7 +4359,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4235,7 +4371,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4279,27 +4415,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4307,11 +4443,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4319,7 +4455,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4359,7 +4495,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4395,7 +4531,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4580,7 +4716,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="105.19028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="107.012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="6.85425101214575"/>
   </cols>
   <sheetData>
@@ -4650,7 +4786,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="6" style="0" width="10.3886639676113"/>
@@ -4968,9 +5104,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="10" min="2" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="21" min="12" style="0" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
@@ -5245,11 +5381,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
@@ -5414,58 +5550,190 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="1:7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="91" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="91" t="s">
+    <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="6" t="s">
         <v>410</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="92" t="s">
+    <row r="2" s="29" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="7" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="3" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="s">
+      <c r="E3" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="ALW3" s="0"/>
+      <c r="ALX3" s="0"/>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+      <c r="AMB3" s="0"/>
+      <c r="AMC3" s="0"/>
+      <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="79" t="s">
         <v>413</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>398</v>
-      </c>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="79" t="s">
         <v>414</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="89" t="s">
         <v>415</v>
       </c>
+      <c r="D4" s="89" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>417</v>
+      </c>
+      <c r="F4" s="83"/>
+      <c r="G4" s="90"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="79" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>420</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F5" s="83"/>
+      <c r="G5" s="90"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="79" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>423</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>424</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" s="83"/>
+      <c r="G6" s="90"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="79" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>415</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>426</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F7" s="83"/>
+      <c r="G7" s="90"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" prompt="Please select a valid Suppliers  the staff member belongs to from the drop-down menu" promptTitle="Suppliers" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F7" type="list">
+      <formula1>Suppliers!$A$4:$A$20</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5481,139 +5749,152 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="1:5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="29" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="B2" s="14"/>
+        <v>401</v>
+      </c>
       <c r="C2" s="14"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>141</v>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="7" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="D3" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>424</v>
-      </c>
+      <c r="ALW3" s="0"/>
+      <c r="ALX3" s="0"/>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+      <c r="AMB3" s="0"/>
+      <c r="AMC3" s="0"/>
+      <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="79" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>432</v>
+      </c>
+      <c r="E4" s="88" t="s">
         <v>433</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="F4" s="83"/>
+      <c r="G4" s="90"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="79" t="s">
         <v>434</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="B5" s="88" t="s">
         <v>435</v>
       </c>
-      <c r="D4" s="88" t="n">
-        <v>34</v>
-      </c>
-      <c r="E4" s="89" t="s">
+      <c r="C5" s="89" t="s">
+        <v>407</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>434</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="F4" s="89" t="s">
-        <v>437</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="J4" s="93" t="s">
-        <v>440</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>264</v>
-      </c>
+      <c r="F5" s="83"/>
+      <c r="G5" s="90"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" prompt="Please select a valid Suppliers  the staff member belongs to from the drop-down menu" promptTitle="Suppliers" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F5" type="list">
+      <formula1>Suppliers!$A$4:$A$20</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5629,262 +5910,57 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="1:4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="94" t="s">
+    <row r="1" s="91" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="91" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>439</v>
+      </c>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="92" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="52" t="s">
         <v>441</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="B3" s="52" t="s">
         <v>442</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="C3" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="B4" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="94" t="s">
-        <v>447</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="94" t="s">
-        <v>441</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>442</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="D4" s="79" t="s">
-        <v>450</v>
-      </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="88"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>450</v>
-      </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="88"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="D6" s="79" t="s">
-        <v>450</v>
-      </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="88"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>450</v>
-      </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="88"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>450</v>
-      </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="88"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>462</v>
-      </c>
-      <c r="E9" s="79" t="n">
-        <v>24</v>
-      </c>
-      <c r="F9" s="79" t="n">
-        <v>6</v>
-      </c>
-      <c r="G9" s="88" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>462</v>
-      </c>
-      <c r="E10" s="79" t="n">
-        <v>42</v>
-      </c>
-      <c r="F10" s="79" t="n">
-        <v>7</v>
-      </c>
-      <c r="G10" s="88" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>462</v>
-      </c>
-      <c r="E11" s="79" t="n">
-        <v>36</v>
-      </c>
-      <c r="F11" s="79" t="n">
-        <v>4</v>
-      </c>
-      <c r="G11" s="88" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="D12" s="79" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="D13" s="79" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5901,94 +5977,136 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" s="95" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="95" t="s">
-        <v>408</v>
-      </c>
-      <c r="B1" s="95" t="s">
-        <v>409</v>
-      </c>
-      <c r="C1" s="95" t="s">
-        <v>474</v>
-      </c>
-      <c r="D1" s="95" t="s">
-        <v>475</v>
-      </c>
-      <c r="E1" s="95" t="s">
-        <v>410</v>
-      </c>
-      <c r="F1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" s="92" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="92" t="s">
-        <v>411</v>
-      </c>
-      <c r="F2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="53" t="s">
-        <v>412</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>413</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>476</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>477</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>398</v>
-      </c>
-      <c r="F3" s="96"/>
-      <c r="AMJ3" s="96"/>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="79" t="s">
         <v>414</v>
       </c>
-      <c r="B4" s="97" t="s">
-        <v>415</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="97" t="s">
-        <v>414</v>
-      </c>
-      <c r="B5" s="97" t="s">
-        <v>415</v>
-      </c>
-      <c r="D5" s="97" t="s">
-        <v>405</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
+      <c r="B4" s="79" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4" s="88" t="n">
+        <v>34</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>464</v>
+      </c>
+      <c r="F4" s="89" t="s">
+        <v>465</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="J4" s="93" t="s">
+        <v>468</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -6007,17 +6125,395 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="6.63967611336032"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="94" t="s">
+        <v>475</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>469</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>470</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>478</v>
+      </c>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="88"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>478</v>
+      </c>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="88"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>478</v>
+      </c>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="88"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>478</v>
+      </c>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="88"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>478</v>
+      </c>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="88"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>490</v>
+      </c>
+      <c r="E9" s="79" t="n">
+        <v>24</v>
+      </c>
+      <c r="F9" s="79" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" s="88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>490</v>
+      </c>
+      <c r="E10" s="79" t="n">
+        <v>42</v>
+      </c>
+      <c r="F10" s="79" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" s="88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>490</v>
+      </c>
+      <c r="E11" s="79" t="n">
+        <v>36</v>
+      </c>
+      <c r="F11" s="79" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" s="88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="D12" s="79" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="D13" s="79" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="1:5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="95" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="95" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1" s="95" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1" s="95" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="92" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="92" t="s">
+        <v>440</v>
+      </c>
+      <c r="F2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>504</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="F3" s="96"/>
+      <c r="AMJ3" s="96"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="97" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" s="97" t="s">
+        <v>444</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="97" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>444</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="W22" activeCellId="0" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6035,7 +6531,7 @@
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>478</v>
+        <v>506</v>
       </c>
       <c r="C2" s="14"/>
       <c r="AMJ2" s="61"/>
@@ -6054,10 +6550,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="43" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>184</v>
@@ -6065,10 +6561,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="43" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>184</v>
@@ -6095,7 +6591,364 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="true" max="1" min="1" style="5" width="0"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.21457489878543"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="5" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" s="7" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation allowBlank="true" error="Please enter a whole number bigger than 0" errorTitle="Invalid entry" operator="equal" prompt="Please enter a whole number bigger than 0" promptTitle="Integer" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4:C13" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D4:D13" type="list">
+      <formula1>"generated,counter"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Select a valid separator from the drop-down menu" errorTitle="Invalid entry" operator="equal" promptTitle="Select a valid separator" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:E12" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F13" type="list">
+      <formula1>"backreference,contained"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" promptTitle="Whole numbers" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I4:I13" type="whole">
+      <formula1>1</formula1>
+      <formula2>20</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Object ID prefixes"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6108,11 +6961,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="32.1376518218623"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.10526315789474"/>
@@ -6140,97 +6993,97 @@
         <v>133</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>483</v>
+        <v>511</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>134</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>195</v>
       </c>
       <c r="H1" s="98" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>399</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="L1" s="98" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="M1" s="98" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="N1" s="98" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="O1" s="98" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="P1" s="39" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="R1" s="39" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="S1" s="17" t="s">
         <v>400</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="V1" s="17" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
       <c r="W1" s="17" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="X1" s="17" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="Y1" s="17" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="Z1" s="98" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="AA1" s="17" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="AB1" s="17" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="AC1" s="99" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="AD1" s="99" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="AE1" s="99"/>
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="B2" s="14"/>
       <c r="D2" s="14"/>
@@ -6240,7 +7093,7 @@
       <c r="N2" s="100"/>
       <c r="O2" s="100"/>
       <c r="P2" s="101" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="Q2" s="101"/>
       <c r="R2" s="101"/>
@@ -6254,111 +7107,111 @@
         <v>141</v>
       </c>
       <c r="B3" s="103" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="C3" s="103" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="103" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="E3" s="103" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="F3" s="103" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="G3" s="103" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="I3" s="103" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="J3" s="103" t="s">
         <v>399</v>
       </c>
       <c r="K3" s="103" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="O3" s="31" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="P3" s="103" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="Q3" s="103" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="R3" s="103" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="S3" s="103" t="s">
         <v>400</v>
       </c>
       <c r="T3" s="103" t="s">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="U3" s="103" t="s">
-        <v>524</v>
+        <v>552</v>
       </c>
       <c r="V3" s="103" t="s">
-        <v>525</v>
+        <v>553</v>
       </c>
       <c r="W3" s="103" t="s">
-        <v>526</v>
+        <v>554</v>
       </c>
       <c r="X3" s="103" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
       <c r="Y3" s="103" t="s">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="Z3" s="31" t="s">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="AA3" s="103" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="AB3" s="103" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="AC3" s="103" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="AD3" s="103" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="39" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>532</v>
+        <v>560</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="D4" s="104" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="E4" s="104" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="F4" s="104" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="G4" s="104" t="s">
         <v>184</v>
@@ -6370,7 +7223,7 @@
         <v>301</v>
       </c>
       <c r="J4" s="106" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="K4" s="39" t="n">
         <v>2</v>
@@ -6425,22 +7278,22 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="39" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="D5" s="104" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="E5" s="104" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="F5" s="104" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="G5" s="104" t="s">
         <v>184</v>
@@ -6452,7 +7305,7 @@
         <v>301</v>
       </c>
       <c r="J5" s="106" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="K5" s="39" t="n">
         <v>2</v>
@@ -6608,7 +7461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6621,511 +7474,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>133</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" s="7" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>399</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="true" max="1" min="1" style="5" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.21457489878543"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="5" width="9.10526315789474"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" s="7" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="5">
-    <dataValidation allowBlank="true" error="Please enter a whole number bigger than 0" errorTitle="Invalid entry" operator="equal" prompt="Please enter a whole number bigger than 0" promptTitle="Integer" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4:C13" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D4:D13" type="list">
-      <formula1>"generated,counter"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid separator from the drop-down menu" errorTitle="Invalid entry" operator="equal" promptTitle="Select a valid separator" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:E12" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F13" type="list">
-      <formula1>"backreference,contained"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" promptTitle="Whole numbers" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I4:I13" type="whole">
-      <formula1>1</formula1>
-      <formula2>20</formula2>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Object ID prefixes"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.2753036437247"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>541</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="B2" s="14"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>551</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>552</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>541</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="B2" s="14"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>551</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -7144,6 +7538,108 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>580</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>583</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -7155,26 +7651,26 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="973" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="24.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="39" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="AMJ1" s="39"/>
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
       <c r="C2" s="15"/>
       <c r="AMJ2" s="61"/>
@@ -7184,19 +7680,19 @@
         <v>141</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="C3" s="110" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="AMJ3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="111" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="C4" s="38" t="n">
         <v>0</v>
@@ -7204,10 +7700,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="111" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="C5" s="38" t="n">
         <v>1</v>
@@ -7215,10 +7711,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="111" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="C6" s="38" t="n">
         <v>2</v>
@@ -7262,7 +7758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7275,7 +7771,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.57085020242915"/>
@@ -7284,21 +7780,21 @@
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="39" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="15"/>
@@ -7307,16 +7803,16 @@
     </row>
     <row r="3" s="7" customFormat="true" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
     </row>
     <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7433,7 +7929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7446,9 +7942,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.31983805668016"/>
   </cols>
   <sheetData>
@@ -7460,12 +7956,12 @@
         <v>134</v>
       </c>
       <c r="C1" s="112" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" s="113" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
       <c r="C2" s="114"/>
     </row>
@@ -7477,18 +7973,18 @@
         <v>65</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" s="116" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="116" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="B4" s="116" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
       <c r="C4" s="116" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7512,7 +8008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7525,7 +8021,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -7533,45 +8029,45 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>133</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" s="7" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>579</v>
+        <v>607</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>399</v>
@@ -7579,13 +8075,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="86" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="D4" s="117" t="n">
         <v>0</v>
@@ -7597,13 +8093,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="86" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="D5" s="117" t="n">
         <v>0</v>
@@ -7891,7 +8387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7904,41 +8400,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.63967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="94" t="s">
-        <v>585</v>
+        <v>613</v>
       </c>
       <c r="B1" s="94" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>398</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>590</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="94" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="14"/>
@@ -7949,28 +8445,28 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="94" t="s">
-        <v>585</v>
+        <v>613</v>
       </c>
       <c r="B3" s="94" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>398</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7978,22 +8474,22 @@
         <v>402</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>596</v>
+        <v>624</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="D4" s="89" t="s">
-        <v>597</v>
+        <v>416</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="H4" s="93"/>
     </row>
@@ -8002,22 +8498,22 @@
         <v>402</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>602</v>
+        <v>426</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="H5" s="93"/>
     </row>
@@ -8026,22 +8522,22 @@
         <v>402</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="D6" s="89" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>610</v>
+        <v>636</v>
       </c>
       <c r="H6" s="93"/>
     </row>
@@ -8050,22 +8546,22 @@
         <v>402</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="D7" s="89" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="H7" s="93"/>
     </row>
@@ -8074,22 +8570,22 @@
         <v>405</v>
       </c>
       <c r="B8" s="119" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="D8" s="89" t="s">
-        <v>617</v>
+        <v>643</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>618</v>
+        <v>644</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>619</v>
+        <v>645</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
       <c r="H8" s="93"/>
     </row>
@@ -8098,22 +8594,22 @@
         <v>405</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="D9" s="89" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>624</v>
+        <v>650</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>625</v>
+        <v>651</v>
       </c>
       <c r="H9" s="93"/>
     </row>
@@ -8128,7 +8624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -8142,10 +8638,10 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.4858299595142"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="96" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8160,19 +8656,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>626</v>
+        <v>652</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
       <c r="F1" s="120" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="73" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="46" t="s">
-        <v>627</v>
+        <v>653</v>
       </c>
       <c r="C2" s="46"/>
       <c r="E2" s="121"/>
@@ -8189,28 +8685,28 @@
         <v>0</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>525</v>
+        <v>553</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="21.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="43" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>630</v>
+        <v>656</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="D4" s="122" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="E4" s="123" t="n">
         <v>1</v>
@@ -8306,366 +8802,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D65536"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.71255060728745"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>632</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="29"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:W4"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="94" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="125" t="s">
-        <v>634</v>
-      </c>
-      <c r="B1" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="94" t="s">
-        <v>635</v>
-      </c>
-      <c r="E1" s="94" t="s">
-        <v>636</v>
-      </c>
-      <c r="F1" s="94" t="s">
-        <v>637</v>
-      </c>
-      <c r="G1" s="126" t="s">
-        <v>638</v>
-      </c>
-      <c r="H1" s="126" t="s">
-        <v>639</v>
-      </c>
-      <c r="I1" s="126" t="s">
-        <v>640</v>
-      </c>
-      <c r="J1" s="127" t="s">
-        <v>641</v>
-      </c>
-      <c r="K1" s="127" t="s">
-        <v>642</v>
-      </c>
-      <c r="L1" s="128" t="s">
-        <v>643</v>
-      </c>
-      <c r="M1" s="127" t="s">
-        <v>644</v>
-      </c>
-      <c r="N1" s="127" t="s">
-        <v>645</v>
-      </c>
-      <c r="O1" s="129" t="s">
-        <v>646</v>
-      </c>
-      <c r="P1" s="129" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q1" s="129" t="s">
-        <v>648</v>
-      </c>
-      <c r="R1" s="126" t="s">
-        <v>649</v>
-      </c>
-      <c r="S1" s="127" t="s">
-        <v>650</v>
-      </c>
-      <c r="T1" s="127" t="s">
-        <v>651</v>
-      </c>
-      <c r="U1" s="130" t="s">
-        <v>650</v>
-      </c>
-      <c r="V1" s="94" t="s">
-        <v>652</v>
-      </c>
-      <c r="W1" s="94" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="131" t="s">
-        <v>654</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>654</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-    </row>
-    <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>656</v>
-      </c>
-      <c r="B3" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="133" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="133" t="s">
-        <v>657</v>
-      </c>
-      <c r="E3" s="134" t="s">
-        <v>658</v>
-      </c>
-      <c r="F3" s="133" t="s">
-        <v>637</v>
-      </c>
-      <c r="G3" s="133" t="s">
-        <v>638</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>659</v>
-      </c>
-      <c r="I3" s="133" t="s">
-        <v>640</v>
-      </c>
-      <c r="J3" s="127" t="s">
-        <v>641</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="L3" s="128" t="s">
-        <v>661</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>662</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>663</v>
-      </c>
-      <c r="O3" s="135" t="s">
-        <v>664</v>
-      </c>
-      <c r="P3" s="135" t="s">
-        <v>665</v>
-      </c>
-      <c r="Q3" s="135" t="s">
-        <v>666</v>
-      </c>
-      <c r="R3" s="133" t="s">
-        <v>667</v>
-      </c>
-      <c r="S3" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>669</v>
-      </c>
-      <c r="U3" s="136" t="s">
-        <v>668</v>
-      </c>
-      <c r="V3" s="134" t="s">
-        <v>670</v>
-      </c>
-      <c r="W3" s="134" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="137" t="s">
-        <v>672</v>
-      </c>
-      <c r="B4" s="138" t="s">
-        <v>673</v>
-      </c>
-      <c r="C4" s="139" t="s">
-        <v>674</v>
-      </c>
-      <c r="D4" s="140" t="s">
-        <v>633</v>
-      </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140" t="s">
-        <v>365</v>
-      </c>
-      <c r="G4" s="141" t="s">
-        <v>675</v>
-      </c>
-      <c r="H4" s="141" t="n">
-        <v>30308</v>
-      </c>
-      <c r="I4" s="141"/>
-      <c r="J4" s="137" t="s">
-        <v>676</v>
-      </c>
-      <c r="K4" s="137"/>
-      <c r="L4" s="142" t="n">
-        <v>41086</v>
-      </c>
-      <c r="M4" s="137"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="88" t="s">
-        <v>677</v>
-      </c>
-      <c r="P4" s="88" t="s">
-        <v>678</v>
-      </c>
-      <c r="Q4" s="88" t="s">
-        <v>679</v>
-      </c>
-      <c r="R4" s="141" t="s">
-        <v>680</v>
-      </c>
-      <c r="S4" s="143"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="144"/>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Instrument Type" operator="equal" prompt="Select an Instrument Type  from the list. Maintain the list on the 'Instrument Types' sheet" promptTitle="Select an Instrument Type" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4" type="list">
-      <formula1>'Instrument Types'!$A$4:$A$20</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Instrument Type" operator="equal" prompt="Select an Instrument Type  from the list. Maintain the list on the 'Instrument Types' sheet" promptTitle="Select an Instrument Type" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F4" type="list">
-      <formula1>Suppliers!$A$4:$A$10</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid entry from the drop down list." errorTitle="Invalid Manufacturer" operator="equal" prompt="Select a Manufacturer from the list. Maintain the list on the 'Manufacturers' sheet" promptTitle="Select a Manufacturer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4" type="list">
-      <formula1>Suppliers!$A$4:$A$10</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="Instruments"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -8680,8 +8816,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.74898785425101"/>
   </cols>
   <sheetData>
@@ -9067,6 +9203,366 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:D65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.71255060728745"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:W4"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="94" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="125" t="s">
+        <v>660</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="94" t="s">
+        <v>661</v>
+      </c>
+      <c r="E1" s="94" t="s">
+        <v>662</v>
+      </c>
+      <c r="F1" s="94" t="s">
+        <v>663</v>
+      </c>
+      <c r="G1" s="126" t="s">
+        <v>664</v>
+      </c>
+      <c r="H1" s="126" t="s">
+        <v>665</v>
+      </c>
+      <c r="I1" s="126" t="s">
+        <v>666</v>
+      </c>
+      <c r="J1" s="127" t="s">
+        <v>667</v>
+      </c>
+      <c r="K1" s="127" t="s">
+        <v>668</v>
+      </c>
+      <c r="L1" s="128" t="s">
+        <v>669</v>
+      </c>
+      <c r="M1" s="127" t="s">
+        <v>670</v>
+      </c>
+      <c r="N1" s="127" t="s">
+        <v>671</v>
+      </c>
+      <c r="O1" s="129" t="s">
+        <v>672</v>
+      </c>
+      <c r="P1" s="129" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q1" s="129" t="s">
+        <v>674</v>
+      </c>
+      <c r="R1" s="126" t="s">
+        <v>675</v>
+      </c>
+      <c r="S1" s="127" t="s">
+        <v>676</v>
+      </c>
+      <c r="T1" s="127" t="s">
+        <v>677</v>
+      </c>
+      <c r="U1" s="130" t="s">
+        <v>676</v>
+      </c>
+      <c r="V1" s="94" t="s">
+        <v>678</v>
+      </c>
+      <c r="W1" s="94" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="131" t="s">
+        <v>680</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+    </row>
+    <row r="3" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="31" t="s">
+        <v>682</v>
+      </c>
+      <c r="B3" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="133" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="133" t="s">
+        <v>683</v>
+      </c>
+      <c r="E3" s="134" t="s">
+        <v>684</v>
+      </c>
+      <c r="F3" s="133" t="s">
+        <v>663</v>
+      </c>
+      <c r="G3" s="133" t="s">
+        <v>664</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>685</v>
+      </c>
+      <c r="I3" s="133" t="s">
+        <v>666</v>
+      </c>
+      <c r="J3" s="127" t="s">
+        <v>667</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="L3" s="128" t="s">
+        <v>687</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>688</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="O3" s="135" t="s">
+        <v>690</v>
+      </c>
+      <c r="P3" s="135" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q3" s="135" t="s">
+        <v>692</v>
+      </c>
+      <c r="R3" s="133" t="s">
+        <v>693</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>694</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>695</v>
+      </c>
+      <c r="U3" s="136" t="s">
+        <v>694</v>
+      </c>
+      <c r="V3" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="W3" s="134" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="137" t="s">
+        <v>698</v>
+      </c>
+      <c r="B4" s="138" t="s">
+        <v>699</v>
+      </c>
+      <c r="C4" s="139" t="s">
+        <v>700</v>
+      </c>
+      <c r="D4" s="140" t="s">
+        <v>659</v>
+      </c>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="141" t="s">
+        <v>701</v>
+      </c>
+      <c r="H4" s="141" t="n">
+        <v>30308</v>
+      </c>
+      <c r="I4" s="141"/>
+      <c r="J4" s="137" t="s">
+        <v>702</v>
+      </c>
+      <c r="K4" s="137"/>
+      <c r="L4" s="142" t="n">
+        <v>41086</v>
+      </c>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="88" t="s">
+        <v>703</v>
+      </c>
+      <c r="P4" s="88" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q4" s="88" t="s">
+        <v>705</v>
+      </c>
+      <c r="R4" s="141" t="s">
+        <v>706</v>
+      </c>
+      <c r="S4" s="143"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="142"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="144"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Instrument Type" operator="equal" prompt="Select an Instrument Type  from the list. Maintain the list on the 'Instrument Types' sheet" promptTitle="Select an Instrument Type" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4" type="list">
+      <formula1>'Instrument Types'!$A$4:$A$20</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Instrument Type" operator="equal" prompt="Select an Instrument Type  from the list. Maintain the list on the 'Instrument Types' sheet" promptTitle="Select an Instrument Type" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F4" type="list">
+      <formula1>Suppliers!$A$4:$A$10</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Select a valid entry from the drop down list." errorTitle="Invalid Manufacturer" operator="equal" prompt="Select a Manufacturer from the list. Maintain the list on the 'Manufacturers' sheet" promptTitle="Select a Manufacturer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4" type="list">
+      <formula1>Suppliers!$A$4:$A$10</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="Instruments"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -9075,18 +9571,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="42.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -9095,40 +9591,40 @@
         <v>133</v>
       </c>
       <c r="B1" s="145" t="s">
-        <v>681</v>
+        <v>707</v>
       </c>
       <c r="C1" s="94" t="s">
-        <v>682</v>
+        <v>708</v>
       </c>
       <c r="D1" s="146" t="s">
-        <v>683</v>
+        <v>709</v>
       </c>
       <c r="E1" s="94" t="s">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="F1" s="94" t="s">
-        <v>685</v>
+        <v>711</v>
       </c>
       <c r="G1" s="94" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="H1" s="94" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="I1" s="145" t="s">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="J1" s="145" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
       <c r="K1" s="94" t="s">
-        <v>690</v>
+        <v>716</v>
       </c>
       <c r="L1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="92" t="s">
-        <v>691</v>
+        <v>717</v>
       </c>
       <c r="B2" s="147"/>
       <c r="D2" s="146"/>
@@ -9140,45 +9636,45 @@
         <v>141</v>
       </c>
       <c r="B3" s="148" t="s">
-        <v>692</v>
+        <v>718</v>
       </c>
       <c r="C3" s="94" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="D3" s="146" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>695</v>
+        <v>721</v>
       </c>
       <c r="F3" s="94" t="s">
-        <v>696</v>
+        <v>722</v>
       </c>
       <c r="G3" s="94" t="s">
-        <v>697</v>
+        <v>723</v>
       </c>
       <c r="H3" s="94" t="s">
-        <v>698</v>
+        <v>724</v>
       </c>
       <c r="I3" s="149" t="s">
-        <v>699</v>
+        <v>725</v>
       </c>
       <c r="J3" s="150" t="s">
-        <v>700</v>
+        <v>726</v>
       </c>
       <c r="K3" s="94" t="s">
-        <v>701</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>702</v>
+        <v>728</v>
       </c>
       <c r="B4" s="151" t="n">
         <v>42754</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>673</v>
+        <v>699</v>
       </c>
       <c r="D4" s="152" t="n">
         <v>42736</v>
@@ -9190,16 +9686,16 @@
         <v>183</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>703</v>
+        <v>729</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>704</v>
+        <v>730</v>
       </c>
       <c r="I4" s="137" t="s">
         <v>183</v>
       </c>
       <c r="J4" s="88" t="s">
-        <v>705</v>
+        <v>731</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9224,7 +9720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -9237,17 +9733,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="39.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -9256,37 +9752,37 @@
         <v>133</v>
       </c>
       <c r="B1" s="145" t="s">
-        <v>681</v>
+        <v>707</v>
       </c>
       <c r="C1" s="94" t="s">
-        <v>682</v>
+        <v>708</v>
       </c>
       <c r="D1" s="0"/>
       <c r="E1" s="94" t="s">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="F1" s="94" t="s">
-        <v>706</v>
+        <v>732</v>
       </c>
       <c r="G1" s="94" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="H1" s="94" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="I1" s="145" t="s">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="J1" s="145" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
       <c r="K1" s="94" t="s">
-        <v>690</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="92" t="s">
-        <v>707</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9294,45 +9790,45 @@
         <v>141</v>
       </c>
       <c r="B3" s="148" t="s">
-        <v>692</v>
+        <v>718</v>
       </c>
       <c r="C3" s="94" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="D3" s="146" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>695</v>
+        <v>721</v>
       </c>
       <c r="F3" s="94" t="s">
-        <v>708</v>
+        <v>734</v>
       </c>
       <c r="G3" s="94" t="s">
-        <v>697</v>
+        <v>723</v>
       </c>
       <c r="H3" s="94" t="s">
-        <v>698</v>
+        <v>724</v>
       </c>
       <c r="I3" s="149" t="s">
-        <v>699</v>
+        <v>725</v>
       </c>
       <c r="J3" s="150" t="s">
-        <v>700</v>
+        <v>726</v>
       </c>
       <c r="K3" s="94" t="s">
-        <v>701</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>709</v>
+        <v>735</v>
       </c>
       <c r="B4" s="153" t="n">
         <v>41778</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>673</v>
+        <v>699</v>
       </c>
       <c r="D4" s="152" t="n">
         <v>42856</v>
@@ -9341,16 +9837,16 @@
         <v>42859</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>710</v>
+        <v>736</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>711</v>
+        <v>737</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>183</v>
       </c>
       <c r="J4" s="154" t="s">
-        <v>712</v>
+        <v>738</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9375,7 +9871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -9390,61 +9886,61 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
     <row r="1" s="94" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="94" t="s">
-        <v>682</v>
+        <v>708</v>
       </c>
       <c r="B1" s="94" t="s">
-        <v>713</v>
+        <v>739</v>
       </c>
       <c r="C1" s="94" t="s">
-        <v>714</v>
+        <v>740</v>
       </c>
       <c r="D1" s="94" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="E1" s="94" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="F1" s="94" t="s">
-        <v>717</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2" s="155" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="155" t="s">
-        <v>718</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="156" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="B3" s="156" t="s">
-        <v>719</v>
+        <v>745</v>
       </c>
       <c r="C3" s="156" t="s">
-        <v>720</v>
+        <v>746</v>
       </c>
       <c r="D3" s="156" t="s">
-        <v>721</v>
+        <v>747</v>
       </c>
       <c r="E3" s="156" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>717</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="157" t="s">
-        <v>673</v>
+        <v>699</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4566</v>
@@ -9453,13 +9949,13 @@
         <v>1.1</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>723</v>
+        <v>749</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>724</v>
+        <v>750</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>725</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -9479,7 +9975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -9492,60 +9988,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.6720647773279"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>634</v>
+        <v>660</v>
       </c>
       <c r="B1" s="94" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="94" t="s">
-        <v>682</v>
+        <v>708</v>
       </c>
       <c r="D1" s="146" t="s">
-        <v>726</v>
+        <v>752</v>
       </c>
       <c r="E1" s="94" t="s">
-        <v>727</v>
+        <v>753</v>
       </c>
       <c r="F1" s="94" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="G1" s="94" t="s">
-        <v>729</v>
+        <v>755</v>
       </c>
       <c r="H1" s="145" t="s">
-        <v>730</v>
+        <v>756</v>
       </c>
       <c r="I1" s="145" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
       <c r="J1" s="94" t="s">
-        <v>690</v>
+        <v>716</v>
       </c>
       <c r="K1" s="158" t="s">
-        <v>732</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="159" t="s">
-        <v>733</v>
+        <v>759</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>733</v>
+        <v>759</v>
       </c>
       <c r="C2" s="92"/>
       <c r="D2" s="92"/>
@@ -9553,48 +10049,48 @@
     </row>
     <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="149" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
       <c r="B3" s="94" t="s">
-        <v>734</v>
+        <v>760</v>
       </c>
       <c r="C3" s="94" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="D3" s="146" t="s">
-        <v>735</v>
+        <v>761</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>736</v>
+        <v>762</v>
       </c>
       <c r="F3" s="94" t="s">
-        <v>737</v>
+        <v>763</v>
       </c>
       <c r="G3" s="94" t="s">
-        <v>738</v>
+        <v>764</v>
       </c>
       <c r="H3" s="161" t="s">
-        <v>739</v>
+        <v>765</v>
       </c>
       <c r="I3" s="149" t="s">
-        <v>740</v>
+        <v>766</v>
       </c>
       <c r="J3" s="94" t="s">
-        <v>701</v>
+        <v>727</v>
       </c>
       <c r="K3" s="149" t="s">
-        <v>741</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="137" t="s">
-        <v>742</v>
+        <v>768</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>743</v>
+        <v>769</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>673</v>
+        <v>699</v>
       </c>
       <c r="D4" s="152" t="n">
         <v>42736</v>
@@ -9606,7 +10102,7 @@
         <v>43465</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>744</v>
+        <v>770</v>
       </c>
       <c r="H4" s="137" t="s">
         <v>183</v>
@@ -9657,7 +10153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -9671,12 +10167,12 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="6.42914979757085"/>
   </cols>
   <sheetData>
@@ -9688,30 +10184,30 @@
         <v>134</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>745</v>
+        <v>771</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>746</v>
+        <v>772</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>747</v>
+        <v>773</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>748</v>
+        <v>774</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="94" t="s">
-        <v>749</v>
+        <v>775</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -9729,43 +10225,43 @@
         <v>134</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>745</v>
+        <v>771</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>751</v>
+        <v>777</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>752</v>
+        <v>778</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>753</v>
+        <v>779</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>754</v>
+        <v>780</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>756</v>
+        <v>782</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D4" s="97" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="E4" s="88"/>
       <c r="F4" s="162" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="n">
@@ -9775,19 +10271,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D5" s="97" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="F5" s="162" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
@@ -9804,28 +10300,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="13" min="7" style="0" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.0971659919028"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.5060728744939"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="6.63967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9836,48 +10335,60 @@
         <v>134</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>745</v>
+        <v>771</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>759</v>
+        <v>785</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>760</v>
+        <v>786</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>761</v>
+        <v>787</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>762</v>
+        <v>788</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>763</v>
+        <v>789</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>399</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>764</v>
+        <v>790</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>765</v>
+        <v>791</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>766</v>
+        <v>792</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>764</v>
+        <v>790</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="94" t="s">
-        <v>767</v>
+        <v>797</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -9899,160 +10410,208 @@
         <v>134</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>745</v>
+        <v>771</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>759</v>
+        <v>785</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>760</v>
+        <v>786</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>761</v>
+        <v>787</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>762</v>
+        <v>788</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>763</v>
+        <v>789</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>399</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>764</v>
+        <v>790</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>765</v>
+        <v>791</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>798</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>769</v>
+        <v>799</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>770</v>
+        <v>800</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D4" s="79" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="79"/>
       <c r="F4" s="88" t="s">
-        <v>771</v>
+        <v>801</v>
       </c>
       <c r="G4" s="89"/>
       <c r="H4" s="89" t="s">
-        <v>772</v>
+        <v>802</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>10</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>773</v>
+        <v>803</v>
       </c>
       <c r="L4" s="93"/>
       <c r="N4" s="40" t="s">
         <v>178</v>
       </c>
       <c r="O4" s="40"/>
+      <c r="P4" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>774</v>
+        <v>806</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>775</v>
+        <v>807</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D5" s="79" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="88" t="s">
-        <v>776</v>
+        <v>808</v>
       </c>
       <c r="G5" s="89"/>
       <c r="H5" s="89" t="s">
-        <v>777</v>
+        <v>809</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>10</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>773</v>
+        <v>803</v>
       </c>
       <c r="L5" s="93"/>
       <c r="N5" s="40" t="s">
         <v>178</v>
       </c>
       <c r="O5" s="40"/>
+      <c r="P5" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>778</v>
+        <v>810</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>779</v>
+        <v>811</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D6" s="79" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="79"/>
       <c r="F6" s="88" t="s">
-        <v>780</v>
+        <v>812</v>
       </c>
       <c r="G6" s="89"/>
       <c r="H6" s="89" t="s">
-        <v>781</v>
+        <v>813</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>30</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>773</v>
+        <v>803</v>
       </c>
       <c r="L6" s="93"/>
       <c r="N6" s="40" t="s">
         <v>172</v>
       </c>
       <c r="O6" s="40"/>
+      <c r="P6" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>782</v>
+        <v>816</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>783</v>
+        <v>817</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D7" s="79" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="79"/>
       <c r="F7" s="88" t="s">
-        <v>784</v>
+        <v>818</v>
       </c>
       <c r="G7" s="89"/>
       <c r="H7" s="89"/>
@@ -10060,71 +10619,83 @@
         <v>10</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>773</v>
+        <v>803</v>
       </c>
       <c r="L7" s="93"/>
       <c r="N7" s="40" t="s">
         <v>178</v>
       </c>
       <c r="O7" s="40"/>
+      <c r="Q7" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>785</v>
+        <v>821</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>786</v>
+        <v>822</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D8" s="79" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="79"/>
       <c r="F8" s="88" t="s">
-        <v>787</v>
+        <v>823</v>
       </c>
       <c r="G8" s="89"/>
       <c r="H8" s="89" t="s">
-        <v>788</v>
+        <v>824</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>773</v>
+        <v>803</v>
       </c>
       <c r="L8" s="93"/>
       <c r="N8" s="40" t="s">
         <v>178</v>
       </c>
       <c r="O8" s="40"/>
+      <c r="Q8" s="0" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>789</v>
+        <v>825</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D9" s="79" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="79"/>
       <c r="F9" s="88" t="s">
-        <v>791</v>
+        <v>827</v>
       </c>
       <c r="G9" s="89"/>
       <c r="H9" s="89" t="s">
-        <v>792</v>
+        <v>828</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>10</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>773</v>
+        <v>803</v>
       </c>
       <c r="L9" s="93"/>
       <c r="N9" s="33" t="s">
@@ -10143,7 +10714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -10157,10 +10728,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.1417004048583"/>
   </cols>
@@ -10178,7 +10749,7 @@
     </row>
     <row r="2" s="7" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="14" t="s">
-        <v>793</v>
+        <v>829</v>
       </c>
       <c r="C2" s="164"/>
     </row>
@@ -10195,10 +10766,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>794</v>
+        <v>830</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>795</v>
+        <v>831</v>
       </c>
       <c r="C4" s="165" t="n">
         <v>0</v>
@@ -10206,10 +10777,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>796</v>
+        <v>832</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>797</v>
+        <v>833</v>
       </c>
       <c r="C5" s="165" t="n">
         <v>0</v>
@@ -10217,21 +10788,21 @@
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>798</v>
+        <v>834</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>798</v>
+        <v>834</v>
       </c>
       <c r="C6" s="165" t="s">
-        <v>799</v>
+        <v>835</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>800</v>
+        <v>836</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>801</v>
+        <v>837</v>
       </c>
       <c r="C7" s="166" t="n">
         <v>0</v>
@@ -10239,10 +10810,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>802</v>
+        <v>838</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>803</v>
+        <v>839</v>
       </c>
       <c r="C8" s="166" t="n">
         <v>1</v>
@@ -10250,10 +10821,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>804</v>
+        <v>840</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>805</v>
+        <v>841</v>
       </c>
       <c r="C9" s="165" t="n">
         <v>15</v>
@@ -10261,10 +10832,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>806</v>
+        <v>842</v>
       </c>
       <c r="C10" s="165" t="n">
         <v>14</v>
@@ -10272,10 +10843,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>807</v>
+        <v>843</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>808</v>
+        <v>844</v>
       </c>
       <c r="C11" s="165" t="n">
         <v>5</v>
@@ -10283,10 +10854,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>809</v>
+        <v>845</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>810</v>
+        <v>846</v>
       </c>
       <c r="C12" s="165" t="n">
         <v>5</v>
@@ -10294,10 +10865,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>811</v>
+        <v>847</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>812</v>
+        <v>848</v>
       </c>
       <c r="C13" s="165" t="n">
         <v>4</v>
@@ -10305,19 +10876,19 @@
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>813</v>
+        <v>849</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>814</v>
+        <v>850</v>
       </c>
       <c r="C14" s="165"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>815</v>
+        <v>851</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>816</v>
+        <v>852</v>
       </c>
       <c r="C15" s="166" t="n">
         <v>0</v>
@@ -10325,10 +10896,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>817</v>
+        <v>853</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>818</v>
+        <v>854</v>
       </c>
       <c r="C16" s="166" t="n">
         <v>0</v>
@@ -10336,10 +10907,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>819</v>
+        <v>855</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>820</v>
+        <v>856</v>
       </c>
       <c r="C17" s="166" t="n">
         <v>1</v>
@@ -10347,22 +10918,22 @@
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>821</v>
+        <v>857</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>822</v>
+        <v>858</v>
       </c>
       <c r="C18" s="167" t="s">
-        <v>823</v>
+        <v>859</v>
       </c>
       <c r="D18" s="168"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>824</v>
+        <v>860</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>825</v>
+        <v>861</v>
       </c>
       <c r="C19" s="169" t="s">
         <v>301</v>
@@ -10371,10 +10942,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>826</v>
+        <v>862</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>827</v>
+        <v>863</v>
       </c>
       <c r="C20" s="169" t="s">
         <v>301</v>
@@ -10382,10 +10953,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>828</v>
+        <v>864</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>829</v>
+        <v>865</v>
       </c>
       <c r="C21" s="167" t="n">
         <v>30</v>
@@ -10393,10 +10964,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>830</v>
+        <v>866</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>831</v>
+        <v>867</v>
       </c>
       <c r="C22" s="167" t="n">
         <v>0</v>
@@ -10404,10 +10975,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>832</v>
+        <v>868</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>833</v>
+        <v>869</v>
       </c>
       <c r="C23" s="167" t="n">
         <v>0</v>
@@ -10415,33 +10986,33 @@
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>834</v>
+        <v>870</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>835</v>
+        <v>871</v>
       </c>
       <c r="C24" s="169" t="s">
-        <v>836</v>
+        <v>872</v>
       </c>
       <c r="D24" s="170"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>837</v>
+        <v>873</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>838</v>
+        <v>874</v>
       </c>
       <c r="C25" s="169" t="s">
-        <v>839</v>
+        <v>875</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>840</v>
+        <v>876</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>841</v>
+        <v>877</v>
       </c>
       <c r="C26" s="166" t="n">
         <v>0</v>
@@ -10449,21 +11020,21 @@
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>842</v>
+        <v>878</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>843</v>
+        <v>879</v>
       </c>
       <c r="C27" s="165" t="s">
-        <v>597</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>844</v>
+        <v>880</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>845</v>
+        <v>881</v>
       </c>
       <c r="C28" s="165" t="n">
         <v>2</v>
@@ -10471,10 +11042,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>846</v>
+        <v>882</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>847</v>
+        <v>883</v>
       </c>
       <c r="C29" s="166" t="n">
         <v>0</v>
@@ -10482,22 +11053,22 @@
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>848</v>
+        <v>884</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>849</v>
+        <v>885</v>
       </c>
       <c r="C30" s="165"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>850</v>
+        <v>886</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="C31" s="171" t="s">
-        <v>852</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>
@@ -10612,7 +11183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -10643,31 +11214,31 @@
         <v>198</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>853</v>
+        <v>889</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>854</v>
+        <v>890</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>855</v>
+        <v>891</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>856</v>
+        <v>892</v>
       </c>
       <c r="G1" s="173" t="s">
-        <v>857</v>
+        <v>893</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>858</v>
+        <v>894</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>859</v>
+        <v>895</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>860</v>
+        <v>896</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="L1" s="32"/>
     </row>
@@ -10679,83 +11250,83 @@
         <v>243</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>823</v>
+        <v>859</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>861</v>
+        <v>897</v>
       </c>
       <c r="E2" s="174" t="s">
-        <v>862</v>
+        <v>898</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>863</v>
+        <v>899</v>
       </c>
       <c r="G2" s="51" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>864</v>
+        <v>900</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>865</v>
+        <v>901</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>866</v>
+        <v>902</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>867</v>
+        <v>903</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>868</v>
+        <v>904</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>869</v>
+        <v>905</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>301</v>
       </c>
       <c r="E3" s="174" t="s">
-        <v>839</v>
+        <v>875</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>870</v>
+        <v>906</v>
       </c>
       <c r="G3" s="51" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>871</v>
+        <v>907</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>872</v>
+        <v>908</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>873</v>
+        <v>909</v>
       </c>
       <c r="K3" s="51" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>874</v>
+        <v>910</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>225</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>875</v>
+        <v>911</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>876</v>
+        <v>912</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>836</v>
+        <v>872</v>
       </c>
       <c r="G4" s="174"/>
       <c r="H4" s="51" t="s">
@@ -10764,28 +11335,28 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="51" t="s">
-        <v>877</v>
+        <v>913</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>878</v>
+        <v>914</v>
       </c>
       <c r="G5" s="174"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>879</v>
+        <v>915</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>880</v>
+        <v>916</v>
       </c>
       <c r="G6" s="174"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="51" t="s">
-        <v>881</v>
+        <v>917</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>882</v>
+        <v>918</v>
       </c>
       <c r="G7" s="174"/>
     </row>
@@ -10847,1028 +11418,1028 @@
     </row>
     <row r="21" s="178" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>883</v>
+        <v>919</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>798</v>
+        <v>834</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>884</v>
+        <v>920</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>885</v>
+        <v>921</v>
       </c>
       <c r="E21" s="177" t="s">
-        <v>886</v>
+        <v>922</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>887</v>
+        <v>923</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>888</v>
+        <v>924</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>889</v>
+        <v>925</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>890</v>
+        <v>926</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="179" t="s">
-        <v>891</v>
+        <v>927</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>892</v>
+        <v>928</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>893</v>
+        <v>929</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>894</v>
+        <v>930</v>
       </c>
       <c r="E22" s="174" t="s">
-        <v>895</v>
+        <v>931</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>896</v>
+        <v>415</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>897</v>
+        <v>932</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>897</v>
+        <v>932</v>
       </c>
       <c r="I22" s="51" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="51" t="s">
-        <v>898</v>
+        <v>933</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>899</v>
+        <v>934</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>900</v>
+        <v>935</v>
       </c>
       <c r="E23" s="174" t="s">
-        <v>901</v>
+        <v>936</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>902</v>
+        <v>419</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>903</v>
+        <v>937</v>
       </c>
       <c r="H23" s="51" t="s">
-        <v>903</v>
+        <v>937</v>
       </c>
       <c r="I23" s="51" t="s">
-        <v>904</v>
+        <v>938</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="51" t="s">
-        <v>905</v>
+        <v>939</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>906</v>
+        <v>940</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>907</v>
+        <v>941</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>908</v>
+        <v>942</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>909</v>
+        <v>943</v>
       </c>
       <c r="H24" s="51" t="s">
-        <v>909</v>
+        <v>943</v>
       </c>
       <c r="I24" s="51" t="s">
-        <v>910</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="51" t="s">
-        <v>911</v>
+        <v>944</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>912</v>
+        <v>945</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>913</v>
+        <v>946</v>
       </c>
       <c r="H25" s="51" t="s">
-        <v>914</v>
+        <v>947</v>
       </c>
       <c r="I25" s="51" t="s">
-        <v>915</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="51" t="s">
-        <v>916</v>
+        <v>948</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>917</v>
+        <v>949</v>
       </c>
       <c r="H26" s="51" t="s">
-        <v>918</v>
+        <v>950</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="51" t="s">
-        <v>919</v>
+        <v>951</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>920</v>
+        <v>952</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="51" t="s">
-        <v>921</v>
+        <v>953</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>922</v>
+        <v>954</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="51" t="s">
-        <v>923</v>
+        <v>955</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>924</v>
+        <v>956</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="51" t="s">
-        <v>925</v>
+        <v>957</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>926</v>
+        <v>958</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="51" t="s">
-        <v>927</v>
+        <v>959</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>928</v>
+        <v>960</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="51" t="s">
-        <v>929</v>
+        <v>961</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>930</v>
+        <v>962</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="51" t="s">
-        <v>931</v>
+        <v>963</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>932</v>
+        <v>964</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="51" t="s">
-        <v>933</v>
+        <v>965</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="51" t="s">
-        <v>934</v>
+        <v>966</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="51" t="s">
-        <v>935</v>
+        <v>967</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="51" t="s">
-        <v>936</v>
+        <v>968</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="51" t="s">
-        <v>937</v>
+        <v>969</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="51" t="s">
-        <v>938</v>
+        <v>970</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="51" t="s">
-        <v>939</v>
+        <v>971</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="51" t="s">
-        <v>940</v>
+        <v>972</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="51" t="s">
-        <v>941</v>
+        <v>973</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="51" t="s">
-        <v>942</v>
+        <v>974</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="51" t="s">
-        <v>943</v>
+        <v>975</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="51" t="s">
-        <v>944</v>
+        <v>976</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="51" t="s">
-        <v>945</v>
+        <v>977</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="51" t="s">
-        <v>946</v>
+        <v>978</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="51" t="s">
-        <v>947</v>
+        <v>979</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="51" t="s">
-        <v>948</v>
+        <v>980</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="51" t="s">
-        <v>949</v>
+        <v>981</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="51" t="s">
-        <v>950</v>
+        <v>982</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="51" t="s">
-        <v>951</v>
+        <v>983</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="51" t="s">
-        <v>952</v>
+        <v>984</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="51" t="s">
-        <v>953</v>
+        <v>985</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="51" t="s">
-        <v>954</v>
+        <v>986</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="51" t="s">
-        <v>955</v>
+        <v>987</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="51" t="s">
-        <v>956</v>
+        <v>988</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="51" t="s">
-        <v>957</v>
+        <v>989</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="51" t="s">
-        <v>958</v>
+        <v>990</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="51" t="s">
-        <v>959</v>
+        <v>991</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="51" t="s">
-        <v>960</v>
+        <v>992</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="51" t="s">
-        <v>961</v>
+        <v>993</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="51" t="s">
-        <v>962</v>
+        <v>994</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="51" t="s">
-        <v>963</v>
+        <v>995</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="51" t="s">
-        <v>964</v>
+        <v>996</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="51" t="s">
-        <v>965</v>
+        <v>997</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="51" t="s">
-        <v>966</v>
+        <v>998</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="51" t="s">
-        <v>967</v>
+        <v>999</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="51" t="s">
-        <v>968</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="51" t="s">
-        <v>969</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="51" t="s">
-        <v>970</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="51" t="s">
-        <v>971</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="51" t="s">
-        <v>972</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="51" t="s">
-        <v>973</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="51" t="s">
-        <v>974</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="51" t="s">
-        <v>975</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="51" t="s">
-        <v>976</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="51" t="s">
-        <v>977</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="51" t="s">
-        <v>978</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="51" t="s">
-        <v>979</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="51" t="s">
-        <v>980</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="51" t="s">
-        <v>981</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="51" t="s">
-        <v>982</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="51" t="s">
-        <v>983</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="51" t="s">
-        <v>984</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="51" t="s">
-        <v>985</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="51" t="s">
-        <v>986</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="51" t="s">
-        <v>987</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="51" t="s">
-        <v>988</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="51" t="s">
-        <v>989</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="51" t="s">
-        <v>990</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="51" t="s">
-        <v>991</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="51" t="s">
-        <v>992</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="51" t="s">
-        <v>993</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="51" t="s">
-        <v>994</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="51" t="s">
-        <v>995</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="51" t="s">
-        <v>996</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="51" t="s">
-        <v>997</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="51" t="s">
-        <v>998</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="51" t="s">
-        <v>999</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="51" t="s">
-        <v>1000</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="51" t="s">
-        <v>1001</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="51" t="s">
-        <v>1002</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="51" t="s">
-        <v>1003</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="51" t="s">
-        <v>1004</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="51" t="s">
-        <v>1005</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="51" t="s">
-        <v>1006</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="51" t="s">
-        <v>1007</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="51" t="s">
-        <v>1008</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="51" t="s">
-        <v>1009</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="51" t="s">
-        <v>1010</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="51" t="s">
-        <v>1011</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="51" t="s">
-        <v>1012</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="51" t="s">
-        <v>1013</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="51" t="s">
-        <v>1014</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="51" t="s">
-        <v>1015</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="51" t="s">
-        <v>1016</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="51" t="s">
-        <v>1017</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="51" t="s">
-        <v>1018</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="51" t="s">
-        <v>1019</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="51" t="s">
-        <v>1020</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="51" t="s">
-        <v>1021</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="51" t="s">
-        <v>1022</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="51" t="s">
-        <v>1023</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="51" t="s">
-        <v>1024</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="51" t="s">
-        <v>1025</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="51" t="s">
-        <v>1026</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="51" t="s">
-        <v>1027</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="51" t="s">
-        <v>1028</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="51" t="s">
-        <v>1029</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="51" t="s">
-        <v>1030</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="51" t="s">
-        <v>1031</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="51" t="s">
-        <v>1032</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="51" t="s">
-        <v>1033</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="51" t="s">
-        <v>1034</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="51" t="s">
-        <v>1035</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="51" t="s">
-        <v>1036</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="51" t="s">
-        <v>1037</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="51" t="s">
-        <v>1038</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="51" t="s">
-        <v>1039</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="51" t="s">
-        <v>1040</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="51" t="s">
-        <v>1041</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="51" t="s">
-        <v>1042</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="51" t="s">
-        <v>1043</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="51" t="s">
-        <v>1044</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="51" t="s">
-        <v>1045</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="51" t="s">
-        <v>1046</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="51" t="s">
-        <v>1047</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="51" t="s">
-        <v>1048</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="51" t="s">
-        <v>1049</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="51" t="s">
-        <v>1050</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="51" t="s">
-        <v>1051</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="51" t="s">
-        <v>1052</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="51" t="s">
-        <v>1053</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="51" t="s">
-        <v>1054</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="51" t="s">
-        <v>1055</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="51" t="s">
-        <v>1056</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="51" t="s">
-        <v>1057</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="51" t="s">
-        <v>1058</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="51" t="s">
-        <v>1059</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="51" t="s">
-        <v>1060</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="51" t="s">
-        <v>1061</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="51" t="s">
-        <v>1062</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="51" t="s">
-        <v>1063</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="51" t="s">
-        <v>1064</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="51" t="s">
-        <v>1065</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="51" t="s">
-        <v>1066</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="51" t="s">
-        <v>1067</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="51" t="s">
-        <v>1068</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="51" t="s">
-        <v>1069</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="51" t="s">
-        <v>1070</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="51" t="s">
-        <v>1071</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="51" t="s">
-        <v>1072</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="51" t="s">
-        <v>1073</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="51" t="s">
-        <v>1074</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="51" t="s">
-        <v>1075</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="51" t="s">
-        <v>1076</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="51" t="s">
-        <v>1077</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="51" t="s">
-        <v>1078</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="51" t="s">
-        <v>1079</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="51" t="s">
-        <v>1080</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="51" t="s">
-        <v>1081</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="51" t="s">
-        <v>1082</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="51" t="s">
-        <v>1083</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="51" t="s">
-        <v>1084</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="51" t="s">
-        <v>1085</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="51" t="s">
-        <v>1086</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="51" t="s">
-        <v>1087</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="51" t="s">
-        <v>1088</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="51" t="s">
-        <v>1089</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="51" t="s">
-        <v>1090</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="51" t="s">
-        <v>1091</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="51" t="s">
-        <v>1092</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="51" t="s">
-        <v>1093</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="51" t="s">
-        <v>1094</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="51" t="s">
-        <v>1095</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="51" t="s">
-        <v>1096</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="51" t="s">
-        <v>799</v>
+        <v>835</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="51" t="s">
-        <v>1097</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="51" t="s">
-        <v>1098</v>
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
@@ -11897,10 +12468,10 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="28" width="9.4251012145749"/>
   </cols>
   <sheetData>
@@ -12072,7 +12643,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.74898785425101"/>
@@ -12276,10 +12847,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12436,16 +13007,16 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -12915,13 +13486,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.3886639676113"/>
@@ -13280,14 +13851,13 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>

--- a/baobab/lims/setupdata/test/test.xlsx
+++ b/baobab/lims/setupdata/test/test.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1114">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -2521,6 +2521,51 @@
   </si>
   <si>
     <t xml:space="preserve">Def 006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Sample 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test sample 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-2.Freezer-1.Box-01.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Def 007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Sample 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test sample 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-2.Freezer-1.Box-01.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Sample 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test sample 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-2.Freezer-1.Box-01.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Def 009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Sample 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test sample 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-2.Freezer-1.Box-01.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Def 010</t>
   </si>
   <si>
     <t xml:space="preserve">Setup – Global defaults</t>
@@ -4580,7 +4625,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="105.19028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="106.153846153846"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="6.85425101214575"/>
   </cols>
   <sheetData>
@@ -4650,7 +4695,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="6" style="0" width="10.3886639676113"/>
@@ -4968,9 +5013,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="10" min="2" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="21" min="12" style="0" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
@@ -5245,11 +5290,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
@@ -5422,9 +5467,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5492,7 +5537,7 @@
     <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5637,12 +5682,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="6.63967611336032"/>
   </cols>
@@ -5910,11 +5955,11 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6015,9 +6060,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6108,11 +6153,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.10526315789474"/>
@@ -6621,10 +6666,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -6694,12 +6739,12 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="5" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.21457489878543"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="5" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="5" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="5" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="5" width="9.10526315789474"/>
@@ -7050,8 +7095,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7101,8 +7146,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7155,7 +7200,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="973" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.1417004048583"/>
   </cols>
@@ -7275,7 +7320,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5263157894737"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.57085020242915"/>
@@ -7446,9 +7491,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.0607287449393"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.31983805668016"/>
   </cols>
   <sheetData>
@@ -7525,7 +7570,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -7904,9 +7949,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.63967611336032"/>
   </cols>
   <sheetData>
@@ -8142,10 +8187,10 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.4858299595142"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="96" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8319,8 +8364,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -8391,26 +8436,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8680,8 +8725,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.74898785425101"/>
   </cols>
   <sheetData>
@@ -9075,18 +9120,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="42.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -9237,17 +9282,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.8825910931174"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -9390,9 +9435,9 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5708502024291"/>
   </cols>
@@ -9492,15 +9537,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.4574898785425"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.71255060728745"/>
   </cols>
@@ -9671,12 +9716,12 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="6.42914979757085"/>
   </cols>
   <sheetData>
@@ -9809,22 +9854,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.8866396761134"/>
     <col collapsed="false" hidden="false" max="13" min="7" style="0" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="6.63967611336032"/>
   </cols>
   <sheetData>
@@ -10131,6 +10176,134 @@
         <v>165</v>
       </c>
       <c r="O9" s="40"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>433</v>
+      </c>
+      <c r="D10" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="79"/>
+      <c r="F10" s="88" t="s">
+        <v>795</v>
+      </c>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89" t="s">
+        <v>796</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="L10" s="93"/>
+      <c r="N10" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="O10" s="40"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="79"/>
+      <c r="F11" s="88" t="s">
+        <v>799</v>
+      </c>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="L11" s="93"/>
+      <c r="N11" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="O11" s="40"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>433</v>
+      </c>
+      <c r="D12" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="79"/>
+      <c r="F12" s="88" t="s">
+        <v>802</v>
+      </c>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89" t="s">
+        <v>803</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="L12" s="93"/>
+      <c r="N12" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="O12" s="40"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>433</v>
+      </c>
+      <c r="D13" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="79"/>
+      <c r="F13" s="88" t="s">
+        <v>806</v>
+      </c>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89" t="s">
+        <v>807</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="L13" s="93"/>
+      <c r="N13" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="O13" s="40"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10157,10 +10330,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.1417004048583"/>
   </cols>
@@ -10178,7 +10351,7 @@
     </row>
     <row r="2" s="7" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="14" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="C2" s="164"/>
     </row>
@@ -10195,10 +10368,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="C4" s="165" t="n">
         <v>0</v>
@@ -10206,10 +10379,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>797</v>
+        <v>812</v>
       </c>
       <c r="C5" s="165" t="n">
         <v>0</v>
@@ -10217,21 +10390,21 @@
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="C6" s="165" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>801</v>
+        <v>816</v>
       </c>
       <c r="C7" s="166" t="n">
         <v>0</v>
@@ -10239,10 +10412,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>802</v>
+        <v>817</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="C8" s="166" t="n">
         <v>1</v>
@@ -10250,10 +10423,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>805</v>
+        <v>820</v>
       </c>
       <c r="C9" s="165" t="n">
         <v>15</v>
@@ -10264,7 +10437,7 @@
         <v>498</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
       <c r="C10" s="165" t="n">
         <v>14</v>
@@ -10272,10 +10445,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>807</v>
+        <v>822</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>808</v>
+        <v>823</v>
       </c>
       <c r="C11" s="165" t="n">
         <v>5</v>
@@ -10283,10 +10456,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>809</v>
+        <v>824</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
       <c r="C12" s="165" t="n">
         <v>5</v>
@@ -10294,10 +10467,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="C13" s="165" t="n">
         <v>4</v>
@@ -10305,19 +10478,19 @@
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>814</v>
+        <v>829</v>
       </c>
       <c r="C14" s="165"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>815</v>
+        <v>830</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="C15" s="166" t="n">
         <v>0</v>
@@ -10325,10 +10498,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>817</v>
+        <v>832</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>818</v>
+        <v>833</v>
       </c>
       <c r="C16" s="166" t="n">
         <v>0</v>
@@ -10336,10 +10509,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>819</v>
+        <v>834</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>820</v>
+        <v>835</v>
       </c>
       <c r="C17" s="166" t="n">
         <v>1</v>
@@ -10347,22 +10520,22 @@
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>821</v>
+        <v>836</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>822</v>
+        <v>837</v>
       </c>
       <c r="C18" s="167" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="D18" s="168"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>824</v>
+        <v>839</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="C19" s="169" t="s">
         <v>301</v>
@@ -10371,10 +10544,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>826</v>
+        <v>841</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>827</v>
+        <v>842</v>
       </c>
       <c r="C20" s="169" t="s">
         <v>301</v>
@@ -10382,10 +10555,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>828</v>
+        <v>843</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>829</v>
+        <v>844</v>
       </c>
       <c r="C21" s="167" t="n">
         <v>30</v>
@@ -10393,10 +10566,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>831</v>
+        <v>846</v>
       </c>
       <c r="C22" s="167" t="n">
         <v>0</v>
@@ -10404,10 +10577,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>832</v>
+        <v>847</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>833</v>
+        <v>848</v>
       </c>
       <c r="C23" s="167" t="n">
         <v>0</v>
@@ -10415,33 +10588,33 @@
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>834</v>
+        <v>849</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>835</v>
+        <v>850</v>
       </c>
       <c r="C24" s="169" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="D24" s="170"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>838</v>
+        <v>853</v>
       </c>
       <c r="C25" s="169" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>840</v>
+        <v>855</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>841</v>
+        <v>856</v>
       </c>
       <c r="C26" s="166" t="n">
         <v>0</v>
@@ -10449,10 +10622,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>842</v>
+        <v>857</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="C27" s="165" t="s">
         <v>597</v>
@@ -10460,10 +10633,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>844</v>
+        <v>859</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="C28" s="165" t="n">
         <v>2</v>
@@ -10471,10 +10644,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>846</v>
+        <v>861</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="C29" s="166" t="n">
         <v>0</v>
@@ -10482,22 +10655,22 @@
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="C30" s="165"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="C31" s="171" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -10643,28 +10816,28 @@
         <v>198</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>854</v>
+        <v>869</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>855</v>
+        <v>870</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>856</v>
+        <v>871</v>
       </c>
       <c r="G1" s="173" t="s">
-        <v>857</v>
+        <v>872</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>858</v>
+        <v>873</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>859</v>
+        <v>874</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>860</v>
+        <v>875</v>
       </c>
       <c r="K1" s="32" t="s">
         <v>511</v>
@@ -10679,63 +10852,63 @@
         <v>243</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>861</v>
+        <v>876</v>
       </c>
       <c r="E2" s="174" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="G2" s="51" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>865</v>
+        <v>880</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>866</v>
+        <v>881</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>867</v>
+        <v>882</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>869</v>
+        <v>884</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>301</v>
       </c>
       <c r="E3" s="174" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="G3" s="51" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>871</v>
+        <v>886</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>873</v>
+        <v>888</v>
       </c>
       <c r="K3" s="51" t="s">
         <v>535</v>
@@ -10743,19 +10916,19 @@
     </row>
     <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>874</v>
+        <v>889</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>225</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="G4" s="174"/>
       <c r="H4" s="51" t="s">
@@ -10764,28 +10937,28 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="51" t="s">
-        <v>877</v>
+        <v>892</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="G5" s="174"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>879</v>
+        <v>894</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>880</v>
+        <v>895</v>
       </c>
       <c r="G6" s="174"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="51" t="s">
-        <v>881</v>
+        <v>896</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>882</v>
+        <v>897</v>
       </c>
       <c r="G7" s="174"/>
     </row>
@@ -10847,57 +11020,57 @@
     </row>
     <row r="21" s="178" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>885</v>
+        <v>900</v>
       </c>
       <c r="E21" s="177" t="s">
-        <v>886</v>
+        <v>901</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>887</v>
+        <v>902</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>888</v>
+        <v>903</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>889</v>
+        <v>904</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>890</v>
+        <v>905</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="179" t="s">
-        <v>891</v>
+        <v>906</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>892</v>
+        <v>907</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>893</v>
+        <v>908</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>894</v>
+        <v>909</v>
       </c>
       <c r="E22" s="174" t="s">
-        <v>895</v>
+        <v>910</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>896</v>
+        <v>911</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>897</v>
+        <v>912</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>897</v>
+        <v>912</v>
       </c>
       <c r="I22" s="51" t="s">
         <v>520</v>
@@ -10905,970 +11078,970 @@
     </row>
     <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="51" t="s">
-        <v>898</v>
+        <v>913</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>899</v>
+        <v>914</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>900</v>
+        <v>915</v>
       </c>
       <c r="E23" s="174" t="s">
-        <v>901</v>
+        <v>916</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>902</v>
+        <v>917</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>903</v>
+        <v>918</v>
       </c>
       <c r="H23" s="51" t="s">
-        <v>903</v>
+        <v>918</v>
       </c>
       <c r="I23" s="51" t="s">
-        <v>904</v>
+        <v>919</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="51" t="s">
-        <v>905</v>
+        <v>920</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>906</v>
+        <v>921</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>907</v>
+        <v>922</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>908</v>
+        <v>923</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>909</v>
+        <v>924</v>
       </c>
       <c r="H24" s="51" t="s">
-        <v>909</v>
+        <v>924</v>
       </c>
       <c r="I24" s="51" t="s">
-        <v>910</v>
+        <v>925</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="51" t="s">
-        <v>911</v>
+        <v>926</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>912</v>
+        <v>927</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>913</v>
+        <v>928</v>
       </c>
       <c r="H25" s="51" t="s">
-        <v>914</v>
+        <v>929</v>
       </c>
       <c r="I25" s="51" t="s">
-        <v>915</v>
+        <v>930</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="51" t="s">
-        <v>916</v>
+        <v>931</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>917</v>
+        <v>932</v>
       </c>
       <c r="H26" s="51" t="s">
-        <v>918</v>
+        <v>933</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="51" t="s">
-        <v>919</v>
+        <v>934</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>920</v>
+        <v>935</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="51" t="s">
-        <v>921</v>
+        <v>936</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>922</v>
+        <v>937</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="51" t="s">
-        <v>923</v>
+        <v>938</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>924</v>
+        <v>939</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="51" t="s">
-        <v>925</v>
+        <v>940</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>926</v>
+        <v>941</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="51" t="s">
-        <v>927</v>
+        <v>942</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>928</v>
+        <v>943</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="51" t="s">
-        <v>929</v>
+        <v>944</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>930</v>
+        <v>945</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="51" t="s">
-        <v>931</v>
+        <v>946</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>932</v>
+        <v>947</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="51" t="s">
-        <v>933</v>
+        <v>948</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="51" t="s">
-        <v>934</v>
+        <v>949</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="51" t="s">
-        <v>935</v>
+        <v>950</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="51" t="s">
-        <v>936</v>
+        <v>951</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="51" t="s">
-        <v>937</v>
+        <v>952</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="51" t="s">
-        <v>938</v>
+        <v>953</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="51" t="s">
-        <v>939</v>
+        <v>954</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="51" t="s">
-        <v>940</v>
+        <v>955</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="51" t="s">
-        <v>941</v>
+        <v>956</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="51" t="s">
-        <v>942</v>
+        <v>957</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="51" t="s">
-        <v>943</v>
+        <v>958</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="51" t="s">
-        <v>944</v>
+        <v>959</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="51" t="s">
-        <v>945</v>
+        <v>960</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="51" t="s">
-        <v>946</v>
+        <v>961</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="51" t="s">
-        <v>947</v>
+        <v>962</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="51" t="s">
-        <v>948</v>
+        <v>963</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="51" t="s">
-        <v>949</v>
+        <v>964</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="51" t="s">
-        <v>950</v>
+        <v>965</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="51" t="s">
-        <v>951</v>
+        <v>966</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="51" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="51" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="51" t="s">
-        <v>954</v>
+        <v>969</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="51" t="s">
-        <v>955</v>
+        <v>970</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="51" t="s">
-        <v>956</v>
+        <v>971</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="51" t="s">
-        <v>957</v>
+        <v>972</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="51" t="s">
-        <v>958</v>
+        <v>973</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="51" t="s">
-        <v>959</v>
+        <v>974</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="51" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="51" t="s">
-        <v>961</v>
+        <v>976</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="51" t="s">
-        <v>962</v>
+        <v>977</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="51" t="s">
-        <v>963</v>
+        <v>978</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="51" t="s">
-        <v>964</v>
+        <v>979</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="51" t="s">
-        <v>965</v>
+        <v>980</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="51" t="s">
-        <v>966</v>
+        <v>981</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="51" t="s">
-        <v>967</v>
+        <v>982</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="51" t="s">
-        <v>968</v>
+        <v>983</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="51" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="51" t="s">
-        <v>970</v>
+        <v>985</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="51" t="s">
-        <v>971</v>
+        <v>986</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="51" t="s">
-        <v>972</v>
+        <v>987</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="51" t="s">
-        <v>973</v>
+        <v>988</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="51" t="s">
-        <v>974</v>
+        <v>989</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="51" t="s">
-        <v>975</v>
+        <v>990</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="51" t="s">
-        <v>976</v>
+        <v>991</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="51" t="s">
-        <v>977</v>
+        <v>992</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="51" t="s">
-        <v>978</v>
+        <v>993</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="51" t="s">
-        <v>979</v>
+        <v>994</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="51" t="s">
-        <v>980</v>
+        <v>995</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="51" t="s">
-        <v>981</v>
+        <v>996</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="51" t="s">
-        <v>982</v>
+        <v>997</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="51" t="s">
-        <v>983</v>
+        <v>998</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="51" t="s">
-        <v>984</v>
+        <v>999</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="51" t="s">
-        <v>985</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="51" t="s">
-        <v>986</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="51" t="s">
-        <v>987</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="51" t="s">
-        <v>988</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="51" t="s">
-        <v>989</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="51" t="s">
-        <v>990</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="51" t="s">
-        <v>991</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="51" t="s">
-        <v>992</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="51" t="s">
-        <v>993</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="51" t="s">
-        <v>994</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="51" t="s">
-        <v>995</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="51" t="s">
-        <v>996</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="51" t="s">
-        <v>997</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="51" t="s">
-        <v>998</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="51" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="51" t="s">
-        <v>1000</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="51" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="51" t="s">
-        <v>1002</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="51" t="s">
-        <v>1003</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="51" t="s">
-        <v>1004</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="51" t="s">
-        <v>1005</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="51" t="s">
-        <v>1006</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="51" t="s">
-        <v>1007</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="51" t="s">
-        <v>1008</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="51" t="s">
-        <v>1009</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="51" t="s">
-        <v>1010</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="51" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="51" t="s">
-        <v>1012</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="51" t="s">
-        <v>1013</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="51" t="s">
-        <v>1014</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="51" t="s">
-        <v>1015</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="51" t="s">
-        <v>1016</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="51" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="51" t="s">
-        <v>1018</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="51" t="s">
-        <v>1019</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="51" t="s">
-        <v>1020</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="51" t="s">
-        <v>1021</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="51" t="s">
-        <v>1022</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="51" t="s">
-        <v>1023</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="51" t="s">
-        <v>1024</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="51" t="s">
-        <v>1025</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="51" t="s">
-        <v>1026</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="51" t="s">
-        <v>1027</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="51" t="s">
-        <v>1028</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="51" t="s">
-        <v>1029</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="51" t="s">
-        <v>1030</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="51" t="s">
-        <v>1031</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="51" t="s">
-        <v>1032</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="51" t="s">
-        <v>1033</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="51" t="s">
-        <v>1034</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="51" t="s">
-        <v>1035</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="51" t="s">
-        <v>1036</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="51" t="s">
-        <v>1037</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="51" t="s">
-        <v>1038</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="51" t="s">
-        <v>1039</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="51" t="s">
-        <v>1040</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="51" t="s">
-        <v>1041</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="51" t="s">
-        <v>1042</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="51" t="s">
-        <v>1043</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="51" t="s">
-        <v>1044</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="51" t="s">
-        <v>1045</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="51" t="s">
-        <v>1046</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="51" t="s">
-        <v>1047</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="51" t="s">
-        <v>1048</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="51" t="s">
-        <v>1049</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="51" t="s">
-        <v>1050</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="51" t="s">
-        <v>1051</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="51" t="s">
-        <v>1052</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="51" t="s">
-        <v>1053</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="51" t="s">
-        <v>1054</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="51" t="s">
-        <v>1055</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="51" t="s">
-        <v>1056</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="51" t="s">
-        <v>1057</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="51" t="s">
-        <v>1058</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="51" t="s">
-        <v>1059</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="51" t="s">
-        <v>1060</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="51" t="s">
-        <v>1061</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="51" t="s">
-        <v>1062</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="51" t="s">
-        <v>1063</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="51" t="s">
-        <v>1064</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="51" t="s">
-        <v>1065</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="51" t="s">
-        <v>1066</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="51" t="s">
-        <v>1067</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="51" t="s">
-        <v>1068</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="51" t="s">
-        <v>1069</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="51" t="s">
-        <v>1070</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="51" t="s">
-        <v>1071</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="51" t="s">
-        <v>1072</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="51" t="s">
-        <v>1073</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="51" t="s">
-        <v>1074</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="51" t="s">
-        <v>1075</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="51" t="s">
-        <v>1076</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="51" t="s">
-        <v>1077</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="51" t="s">
-        <v>1078</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="51" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="51" t="s">
-        <v>1080</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="51" t="s">
-        <v>1081</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="51" t="s">
-        <v>1082</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="51" t="s">
-        <v>1083</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="51" t="s">
-        <v>1084</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="51" t="s">
-        <v>1085</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="51" t="s">
-        <v>1086</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="51" t="s">
-        <v>1087</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="51" t="s">
-        <v>1088</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="51" t="s">
-        <v>1089</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="51" t="s">
-        <v>1090</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="51" t="s">
-        <v>1091</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="51" t="s">
-        <v>1092</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="51" t="s">
-        <v>1093</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="51" t="s">
-        <v>1094</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="51" t="s">
-        <v>1095</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="51" t="s">
-        <v>1096</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="51" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="51" t="s">
-        <v>1097</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="51" t="s">
-        <v>1098</v>
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
@@ -11897,10 +12070,10 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="28" width="9.4251012145749"/>
   </cols>
   <sheetData>
@@ -12072,7 +12245,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.74898785425101"/>
@@ -12276,10 +12449,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12436,16 +12609,16 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -12915,13 +13088,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.3886639676113"/>
@@ -13280,14 +13453,13 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>

--- a/baobab/lims/setupdata/test/test.xlsx
+++ b/baobab/lims/setupdata/test/test.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="1115">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -2487,6 +2487,9 @@
     <t xml:space="preserve">Def 002</t>
   </si>
   <si>
+    <t xml:space="preserve">Receive</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Sample 3</t>
   </si>
   <si>
@@ -2533,6 +2536,36 @@
   </si>
   <si>
     <t xml:space="preserve">Def 006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gobbledygook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Sample 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test sample 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-2.Freezer-1.Box-01.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Def 007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Sample 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test sample 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room-2.Freezer-1.Box-01.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Def 008</t>
   </si>
   <si>
     <t xml:space="preserve">Register</t>
@@ -3470,7 +3503,7 @@
     <numFmt numFmtId="170" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="171" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3709,13 +3742,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3796,7 +3822,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="180">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4447,10 +4473,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -4606,7 +4628,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="110.866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="111.834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="6.85425101214575"/>
   </cols>
   <sheetData>
@@ -4676,7 +4698,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="6" style="0" width="10.3886639676113"/>
@@ -4994,9 +5016,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="2" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="21" min="12" style="0" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
@@ -5271,11 +5293,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
@@ -5448,9 +5470,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5518,7 +5540,7 @@
     <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5663,12 +5685,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="6.63967611336032"/>
   </cols>
@@ -5936,11 +5958,11 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6041,9 +6063,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6134,11 +6156,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.10526315789474"/>
@@ -6647,10 +6669,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -6720,12 +6742,12 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="5" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.21457489878543"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="5" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="5" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="5" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="5" width="9.10526315789474"/>
@@ -7076,8 +7098,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.0607287449393"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7127,8 +7149,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.5627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7181,7 +7203,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="973" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.1417004048583"/>
   </cols>
@@ -7301,7 +7323,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.57085020242915"/>
@@ -7472,9 +7494,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.7368421052632"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.31983805668016"/>
   </cols>
   <sheetData>
@@ -7551,7 +7573,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -7930,11 +7952,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.0242914979757"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="6.63967611336032"/>
   </cols>
   <sheetData>
@@ -8170,10 +8192,10 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="64.7004048582996"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="65.2348178137652"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="96" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8347,8 +8369,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.5627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -8419,26 +8441,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8708,8 +8730,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.74898785425101"/>
   </cols>
   <sheetData>
@@ -9103,18 +9125,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="44.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -9265,17 +9287,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="40.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -9418,9 +9440,9 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5708502024291"/>
   </cols>
@@ -9521,14 +9543,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.71255060728745"/>
   </cols>
@@ -9699,12 +9721,12 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="6.42914979757085"/>
   </cols>
   <sheetData>
@@ -9837,26 +9859,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.5991902834008"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.63967611336032"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9"/>
     <col collapsed="false" hidden="false" max="13" min="9" style="0" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.4453441295547"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="6.63967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9971,7 +9994,7 @@
       <c r="O3" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="P3" s="163" t="s">
+      <c r="P3" s="6" t="s">
         <v>770</v>
       </c>
     </row>
@@ -10044,15 +10067,15 @@
       </c>
       <c r="O5" s="40"/>
       <c r="P5" s="0" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C6" s="79" t="s">
         <v>433</v>
@@ -10062,11 +10085,11 @@
       </c>
       <c r="E6" s="79"/>
       <c r="F6" s="88" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G6" s="89"/>
       <c r="H6" s="89" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>30</v>
@@ -10080,15 +10103,15 @@
       </c>
       <c r="O6" s="40"/>
       <c r="P6" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C7" s="79" t="s">
         <v>433</v>
@@ -10098,7 +10121,7 @@
       </c>
       <c r="E7" s="79"/>
       <c r="F7" s="88" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G7" s="89"/>
       <c r="H7" s="89"/>
@@ -10116,10 +10139,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C8" s="79" t="s">
         <v>433</v>
@@ -10129,11 +10152,11 @@
       </c>
       <c r="E8" s="79"/>
       <c r="F8" s="88" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G8" s="89"/>
       <c r="H8" s="89" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>15</v>
@@ -10149,10 +10172,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C9" s="79" t="s">
         <v>433</v>
@@ -10162,11 +10185,11 @@
       </c>
       <c r="E9" s="79"/>
       <c r="F9" s="88" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G9" s="89"/>
       <c r="H9" s="89" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>10</v>
@@ -10180,7 +10203,79 @@
       </c>
       <c r="O9" s="40"/>
       <c r="P9" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>433</v>
+      </c>
+      <c r="D10" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="79"/>
+      <c r="F10" s="88" t="s">
+        <v>801</v>
+      </c>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89" t="s">
+        <v>802</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="L10" s="93"/>
+      <c r="N10" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="O10" s="40"/>
+      <c r="P10" s="0" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="79"/>
+      <c r="F11" s="88" t="s">
+        <v>806</v>
+      </c>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89" t="s">
+        <v>807</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="L11" s="93"/>
+      <c r="N11" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="O11" s="40"/>
+      <c r="P11" s="0" t="s">
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -10208,10 +10303,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.1417004048583"/>
   </cols>
@@ -10223,15 +10318,15 @@
       <c r="B1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="164" t="s">
+      <c r="C1" s="163" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="14" t="s">
-        <v>798</v>
-      </c>
-      <c r="C2" s="165"/>
+        <v>809</v>
+      </c>
+      <c r="C2" s="164"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
@@ -10240,73 +10335,73 @@
       <c r="B3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="163" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>799</v>
+        <v>810</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>800</v>
-      </c>
-      <c r="C4" s="166" t="n">
+        <v>811</v>
+      </c>
+      <c r="C4" s="165" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>802</v>
-      </c>
-      <c r="C5" s="166" t="n">
+        <v>813</v>
+      </c>
+      <c r="C5" s="165" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>803</v>
-      </c>
-      <c r="C6" s="166" t="s">
-        <v>804</v>
+        <v>814</v>
+      </c>
+      <c r="C6" s="165" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>805</v>
+        <v>816</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>806</v>
-      </c>
-      <c r="C7" s="167" t="n">
+        <v>817</v>
+      </c>
+      <c r="C7" s="166" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>807</v>
+        <v>818</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>808</v>
-      </c>
-      <c r="C8" s="167" t="n">
+        <v>819</v>
+      </c>
+      <c r="C8" s="166" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>810</v>
-      </c>
-      <c r="C9" s="166" t="n">
+        <v>821</v>
+      </c>
+      <c r="C9" s="165" t="n">
         <v>15</v>
       </c>
     </row>
@@ -10315,240 +10410,240 @@
         <v>498</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>811</v>
-      </c>
-      <c r="C10" s="166" t="n">
+        <v>822</v>
+      </c>
+      <c r="C10" s="165" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>813</v>
-      </c>
-      <c r="C11" s="166" t="n">
+        <v>824</v>
+      </c>
+      <c r="C11" s="165" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>815</v>
-      </c>
-      <c r="C12" s="166" t="n">
+        <v>826</v>
+      </c>
+      <c r="C12" s="165" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>817</v>
-      </c>
-      <c r="C13" s="166" t="n">
+        <v>828</v>
+      </c>
+      <c r="C13" s="165" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>819</v>
-      </c>
-      <c r="C14" s="166"/>
+        <v>830</v>
+      </c>
+      <c r="C14" s="165"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>821</v>
-      </c>
-      <c r="C15" s="167" t="n">
+        <v>832</v>
+      </c>
+      <c r="C15" s="166" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>823</v>
-      </c>
-      <c r="C16" s="167" t="n">
+        <v>834</v>
+      </c>
+      <c r="C16" s="166" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>825</v>
-      </c>
-      <c r="C17" s="167" t="n">
+        <v>836</v>
+      </c>
+      <c r="C17" s="166" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>827</v>
-      </c>
-      <c r="C18" s="168" t="s">
-        <v>828</v>
-      </c>
-      <c r="D18" s="169"/>
+        <v>838</v>
+      </c>
+      <c r="C18" s="167" t="s">
+        <v>839</v>
+      </c>
+      <c r="D18" s="168"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>830</v>
-      </c>
-      <c r="C19" s="170" t="s">
+        <v>841</v>
+      </c>
+      <c r="C19" s="169" t="s">
         <v>301</v>
       </c>
-      <c r="D19" s="169"/>
+      <c r="D19" s="168"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>832</v>
-      </c>
-      <c r="C20" s="170" t="s">
+        <v>843</v>
+      </c>
+      <c r="C20" s="169" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>833</v>
+        <v>844</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>834</v>
-      </c>
-      <c r="C21" s="168" t="n">
+        <v>845</v>
+      </c>
+      <c r="C21" s="167" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>836</v>
-      </c>
-      <c r="C22" s="168" t="n">
+        <v>847</v>
+      </c>
+      <c r="C22" s="167" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>838</v>
-      </c>
-      <c r="C23" s="168" t="n">
+        <v>849</v>
+      </c>
+      <c r="C23" s="167" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>840</v>
-      </c>
-      <c r="C24" s="170" t="s">
-        <v>841</v>
-      </c>
-      <c r="D24" s="171"/>
+        <v>851</v>
+      </c>
+      <c r="C24" s="169" t="s">
+        <v>852</v>
+      </c>
+      <c r="D24" s="170"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>842</v>
+        <v>853</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>843</v>
-      </c>
-      <c r="C25" s="170" t="s">
-        <v>844</v>
+        <v>854</v>
+      </c>
+      <c r="C25" s="169" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>845</v>
+        <v>856</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>846</v>
-      </c>
-      <c r="C26" s="167" t="n">
+        <v>857</v>
+      </c>
+      <c r="C26" s="166" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>848</v>
-      </c>
-      <c r="C27" s="166" t="s">
+        <v>859</v>
+      </c>
+      <c r="C27" s="165" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>849</v>
+        <v>860</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>850</v>
-      </c>
-      <c r="C28" s="166" t="n">
+        <v>861</v>
+      </c>
+      <c r="C28" s="165" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>852</v>
-      </c>
-      <c r="C29" s="167" t="n">
+        <v>863</v>
+      </c>
+      <c r="C29" s="166" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>854</v>
-      </c>
-      <c r="C30" s="166"/>
+        <v>865</v>
+      </c>
+      <c r="C30" s="165"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>855</v>
+        <v>866</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>856</v>
-      </c>
-      <c r="C31" s="172" t="s">
-        <v>857</v>
+        <v>867</v>
+      </c>
+      <c r="C31" s="171" t="s">
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -10687,35 +10782,35 @@
   </cols>
   <sheetData>
     <row r="1" s="31" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="172" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="172" t="s">
         <v>198</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>858</v>
+        <v>869</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>859</v>
+        <v>870</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>860</v>
+        <v>871</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>861</v>
-      </c>
-      <c r="G1" s="174" t="s">
-        <v>862</v>
+        <v>872</v>
+      </c>
+      <c r="G1" s="173" t="s">
+        <v>873</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>863</v>
+        <v>874</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="K1" s="32" t="s">
         <v>511</v>
@@ -10730,63 +10825,63 @@
         <v>243</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>866</v>
-      </c>
-      <c r="E2" s="175" t="s">
-        <v>867</v>
+        <v>877</v>
+      </c>
+      <c r="E2" s="174" t="s">
+        <v>878</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
       <c r="G2" s="51" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>870</v>
+        <v>881</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>871</v>
+        <v>882</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="E3" s="175" t="s">
-        <v>844</v>
+      <c r="E3" s="174" t="s">
+        <v>855</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>875</v>
+        <v>886</v>
       </c>
       <c r="G3" s="51" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>877</v>
+        <v>888</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="K3" s="51" t="s">
         <v>535</v>
@@ -10794,51 +10889,51 @@
     </row>
     <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>879</v>
+        <v>890</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>225</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>880</v>
+        <v>891</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>841</v>
-      </c>
-      <c r="G4" s="175"/>
+        <v>852</v>
+      </c>
+      <c r="G4" s="174"/>
       <c r="H4" s="51" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="51" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>883</v>
-      </c>
-      <c r="G5" s="175"/>
+        <v>894</v>
+      </c>
+      <c r="G5" s="174"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>885</v>
-      </c>
-      <c r="G6" s="175"/>
+        <v>896</v>
+      </c>
+      <c r="G6" s="174"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="51" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>887</v>
-      </c>
-      <c r="G7" s="175"/>
+        <v>898</v>
+      </c>
+      <c r="G7" s="174"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
@@ -10847,108 +10942,108 @@
       <c r="B8" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="G8" s="175"/>
+      <c r="G8" s="174"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G9" s="175"/>
+      <c r="G9" s="174"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G10" s="175"/>
+      <c r="G10" s="174"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G11" s="175"/>
+      <c r="G11" s="174"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G12" s="175"/>
+      <c r="G12" s="174"/>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G13" s="175"/>
+      <c r="G13" s="174"/>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G14" s="175"/>
+      <c r="G14" s="174"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G15" s="175"/>
+      <c r="G15" s="174"/>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G16" s="175"/>
+      <c r="G16" s="174"/>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G17" s="175"/>
+      <c r="G17" s="174"/>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G18" s="175"/>
+      <c r="G18" s="174"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G19" s="175"/>
+      <c r="G19" s="174"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="176"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="176"/>
-      <c r="K20" s="176"/>
-      <c r="L20" s="176"/>
-    </row>
-    <row r="21" s="179" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="175"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+    </row>
+    <row r="21" s="178" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>890</v>
-      </c>
-      <c r="E21" s="178" t="s">
-        <v>891</v>
+        <v>901</v>
+      </c>
+      <c r="E21" s="177" t="s">
+        <v>902</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="180" t="s">
-        <v>896</v>
+      <c r="A22" s="179" t="s">
+        <v>907</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>899</v>
-      </c>
-      <c r="E22" s="175" t="s">
-        <v>900</v>
+        <v>910</v>
+      </c>
+      <c r="E22" s="174" t="s">
+        <v>911</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="I22" s="51" t="s">
         <v>520</v>
@@ -10956,970 +11051,970 @@
     </row>
     <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="51" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>905</v>
-      </c>
-      <c r="E23" s="175" t="s">
-        <v>906</v>
+        <v>916</v>
+      </c>
+      <c r="E23" s="174" t="s">
+        <v>917</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="H23" s="51" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="I23" s="51" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="51" t="s">
-        <v>910</v>
+        <v>921</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>911</v>
+        <v>922</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>913</v>
+        <v>924</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="H24" s="51" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="I24" s="51" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="51" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>918</v>
+        <v>929</v>
       </c>
       <c r="H25" s="51" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
       <c r="I25" s="51" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="51" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>922</v>
+        <v>933</v>
       </c>
       <c r="H26" s="51" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="51" t="s">
-        <v>924</v>
+        <v>935</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>925</v>
+        <v>936</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="51" t="s">
-        <v>926</v>
+        <v>937</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>927</v>
+        <v>938</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="51" t="s">
-        <v>928</v>
+        <v>939</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>929</v>
+        <v>940</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="51" t="s">
-        <v>930</v>
+        <v>941</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="51" t="s">
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>933</v>
+        <v>944</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="51" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>935</v>
+        <v>946</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="51" t="s">
-        <v>936</v>
+        <v>947</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>937</v>
+        <v>948</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="51" t="s">
-        <v>938</v>
+        <v>949</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="51" t="s">
-        <v>939</v>
+        <v>950</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="51" t="s">
-        <v>940</v>
+        <v>951</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="51" t="s">
-        <v>941</v>
+        <v>952</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="51" t="s">
-        <v>942</v>
+        <v>953</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="51" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="51" t="s">
-        <v>944</v>
+        <v>955</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="51" t="s">
-        <v>945</v>
+        <v>956</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="51" t="s">
-        <v>946</v>
+        <v>957</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="51" t="s">
-        <v>947</v>
+        <v>958</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="51" t="s">
-        <v>948</v>
+        <v>959</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="51" t="s">
-        <v>949</v>
+        <v>960</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="51" t="s">
-        <v>950</v>
+        <v>961</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="51" t="s">
-        <v>951</v>
+        <v>962</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="51" t="s">
-        <v>952</v>
+        <v>963</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="51" t="s">
-        <v>953</v>
+        <v>964</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="51" t="s">
-        <v>954</v>
+        <v>965</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="51" t="s">
-        <v>955</v>
+        <v>966</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="51" t="s">
-        <v>956</v>
+        <v>967</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="51" t="s">
-        <v>957</v>
+        <v>968</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="51" t="s">
-        <v>958</v>
+        <v>969</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="51" t="s">
-        <v>959</v>
+        <v>970</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="51" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="51" t="s">
-        <v>961</v>
+        <v>972</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="51" t="s">
-        <v>962</v>
+        <v>973</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="51" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="51" t="s">
-        <v>964</v>
+        <v>975</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="51" t="s">
-        <v>965</v>
+        <v>976</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="51" t="s">
-        <v>966</v>
+        <v>977</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="51" t="s">
-        <v>967</v>
+        <v>978</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="51" t="s">
-        <v>968</v>
+        <v>979</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="51" t="s">
-        <v>969</v>
+        <v>980</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="51" t="s">
-        <v>970</v>
+        <v>981</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="51" t="s">
-        <v>971</v>
+        <v>982</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="51" t="s">
-        <v>972</v>
+        <v>983</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="51" t="s">
-        <v>973</v>
+        <v>984</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="51" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="51" t="s">
-        <v>975</v>
+        <v>986</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="51" t="s">
-        <v>976</v>
+        <v>987</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="51" t="s">
-        <v>977</v>
+        <v>988</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="51" t="s">
-        <v>978</v>
+        <v>989</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="51" t="s">
-        <v>979</v>
+        <v>990</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="51" t="s">
-        <v>980</v>
+        <v>991</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="51" t="s">
-        <v>981</v>
+        <v>992</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="51" t="s">
-        <v>982</v>
+        <v>993</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="51" t="s">
-        <v>983</v>
+        <v>994</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="51" t="s">
-        <v>984</v>
+        <v>995</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="51" t="s">
-        <v>985</v>
+        <v>996</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="51" t="s">
-        <v>986</v>
+        <v>997</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="51" t="s">
-        <v>987</v>
+        <v>998</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="51" t="s">
-        <v>988</v>
+        <v>999</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="51" t="s">
-        <v>989</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="51" t="s">
-        <v>990</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="51" t="s">
-        <v>991</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="51" t="s">
-        <v>992</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="51" t="s">
-        <v>993</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="51" t="s">
-        <v>994</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="51" t="s">
-        <v>995</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="51" t="s">
-        <v>996</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="51" t="s">
-        <v>997</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="51" t="s">
-        <v>998</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="51" t="s">
-        <v>999</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="51" t="s">
-        <v>1000</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="51" t="s">
-        <v>1001</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="51" t="s">
-        <v>1002</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="51" t="s">
-        <v>1003</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="51" t="s">
-        <v>1004</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="51" t="s">
-        <v>1005</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="51" t="s">
-        <v>1006</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="51" t="s">
-        <v>1007</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="51" t="s">
-        <v>1008</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="51" t="s">
-        <v>1009</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="51" t="s">
-        <v>1010</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="51" t="s">
-        <v>1011</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="51" t="s">
-        <v>1012</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="51" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="51" t="s">
-        <v>1014</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="51" t="s">
-        <v>1015</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="51" t="s">
-        <v>1016</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="51" t="s">
-        <v>1017</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="51" t="s">
-        <v>1018</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="51" t="s">
-        <v>1019</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="51" t="s">
-        <v>1020</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="51" t="s">
-        <v>1021</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="51" t="s">
-        <v>1022</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="51" t="s">
-        <v>1023</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="51" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="51" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="51" t="s">
-        <v>1026</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="51" t="s">
-        <v>1027</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="51" t="s">
-        <v>1028</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="51" t="s">
-        <v>1029</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="51" t="s">
-        <v>1030</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="51" t="s">
-        <v>1031</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="51" t="s">
-        <v>1032</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="51" t="s">
-        <v>1033</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="51" t="s">
-        <v>1034</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="51" t="s">
-        <v>1035</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="51" t="s">
-        <v>1036</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="51" t="s">
-        <v>1037</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="51" t="s">
-        <v>1038</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="51" t="s">
-        <v>1039</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="51" t="s">
-        <v>1040</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="51" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="51" t="s">
-        <v>1042</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="51" t="s">
-        <v>1043</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="51" t="s">
-        <v>1044</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="51" t="s">
-        <v>1045</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="51" t="s">
-        <v>1046</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="51" t="s">
-        <v>1047</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="51" t="s">
-        <v>1048</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="51" t="s">
-        <v>1049</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="51" t="s">
-        <v>1050</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="51" t="s">
-        <v>1051</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="51" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="51" t="s">
-        <v>1053</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="51" t="s">
-        <v>1054</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="51" t="s">
-        <v>1055</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="51" t="s">
-        <v>1056</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="51" t="s">
-        <v>1057</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="51" t="s">
-        <v>1058</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="51" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="51" t="s">
-        <v>1060</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="51" t="s">
-        <v>1061</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="51" t="s">
-        <v>1062</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="51" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="51" t="s">
-        <v>1064</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="51" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="51" t="s">
-        <v>1066</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="51" t="s">
-        <v>1067</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="51" t="s">
-        <v>1068</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="51" t="s">
-        <v>1069</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="51" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="51" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="51" t="s">
-        <v>1072</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="51" t="s">
-        <v>1073</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="51" t="s">
-        <v>1074</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="51" t="s">
-        <v>1075</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="51" t="s">
-        <v>1076</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="51" t="s">
-        <v>1077</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="51" t="s">
-        <v>1078</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="51" t="s">
-        <v>1079</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="51" t="s">
-        <v>1080</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="51" t="s">
-        <v>1081</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="51" t="s">
-        <v>1082</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="51" t="s">
-        <v>1083</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="51" t="s">
-        <v>1084</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="51" t="s">
-        <v>1085</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="51" t="s">
-        <v>1086</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="51" t="s">
-        <v>1087</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="51" t="s">
-        <v>1088</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="51" t="s">
-        <v>1089</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="51" t="s">
-        <v>1090</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="51" t="s">
-        <v>1091</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="51" t="s">
-        <v>1092</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="51" t="s">
-        <v>1093</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="51" t="s">
-        <v>1094</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="51" t="s">
-        <v>1095</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="51" t="s">
-        <v>1096</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="51" t="s">
-        <v>1097</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="51" t="s">
-        <v>1098</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="51" t="s">
-        <v>1099</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="51" t="s">
-        <v>1100</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="51" t="s">
-        <v>1101</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="51" t="s">
-        <v>804</v>
+        <v>815</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="51" t="s">
-        <v>1102</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="51" t="s">
-        <v>1103</v>
+        <v>1114</v>
       </c>
     </row>
   </sheetData>
@@ -11950,8 +12045,8 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="28" width="9.4251012145749"/>
   </cols>
   <sheetData>
@@ -12123,7 +12218,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.74898785425101"/>
@@ -12328,7 +12423,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
@@ -12487,7 +12582,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3886639676113"/>
@@ -12496,7 +12591,7 @@
     <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -12966,13 +13061,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.3886639676113"/>
@@ -13335,9 +13430,9 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>

--- a/baobab/lims/setupdata/test/test.xlsx
+++ b/baobab/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="34"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -69,7 +69,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">From the manual: 'Some Analyses requiring text input as results is best limited to a number of known possible outcomes to prevent typos and irrelevant input skewing reporting. 
 The known outcomes, e.g. 'Positive' or 'Negative',  can be pre-configured here and only these allowed when results are captured. These will be offered as options on a drop-down menu on the data capturing screens'</t>
@@ -93,7 +92,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">The sample type abbreviation must be unique – it is used as prefix to sample records</t>
         </r>
@@ -117,7 +115,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Only if a Client Contact is a LIMS user too, does he/she get given a (unique) user name and password</t>
         </r>
@@ -131,7 +128,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Please copy from other contacts for the same Client on this sheet: Use contact Fullname (Firstname + “ “ + Lastname). If more than one needs to be cc'd, please separate with commas. Only contacts for the same client are valid.</t>
         </r>
@@ -142,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="1115">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -2445,12 +2441,18 @@
     <t xml:space="preserve">SampleType</t>
   </si>
   <si>
+    <t xml:space="preserve">SampleState</t>
+  </si>
+  <si>
     <t xml:space="preserve">Biospecimens</t>
   </si>
   <si>
     <t xml:space="preserve">Linked Sample</t>
   </si>
   <si>
+    <t xml:space="preserve">Sample State: register, due or received(default)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Sample 1</t>
   </si>
   <si>
@@ -2466,6 +2468,9 @@
     <t xml:space="preserve">ml</t>
   </si>
   <si>
+    <t xml:space="preserve">due</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Sample 2</t>
   </si>
   <si>
@@ -2478,6 +2483,9 @@
     <t xml:space="preserve">Def 002</t>
   </si>
   <si>
+    <t xml:space="preserve">Receive</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Sample 3</t>
   </si>
   <si>
@@ -2490,6 +2498,9 @@
     <t xml:space="preserve">Def 003</t>
   </si>
   <si>
+    <t xml:space="preserve">Due</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Sample 4</t>
   </si>
   <si>
@@ -2523,49 +2534,37 @@
     <t xml:space="preserve">Def 006</t>
   </si>
   <si>
+    <t xml:space="preserve">gobbledygook</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Sample 7</t>
   </si>
   <si>
     <t xml:space="preserve">Test sample 7</t>
   </si>
   <si>
-    <t xml:space="preserve">Room-2.Freezer-1.Box-01.15</t>
+    <t xml:space="preserve">Room-2.Freezer-1.Box-01.17</t>
   </si>
   <si>
     <t xml:space="preserve">Def 007</t>
   </si>
   <si>
+    <t xml:space="preserve">received</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Sample 8</t>
   </si>
   <si>
     <t xml:space="preserve">Test sample 8</t>
   </si>
   <si>
-    <t xml:space="preserve">Room-2.Freezer-1.Box-01.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Sample 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test sample 9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Room-2.Freezer-1.Box-01.18</t>
   </si>
   <si>
-    <t xml:space="preserve">Def 009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Sample 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test sample 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room-2.Freezer-1.Box-01.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Def 010</t>
+    <t xml:space="preserve">Def 008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register</t>
   </si>
   <si>
     <t xml:space="preserve">Setup – Global defaults</t>
@@ -3506,7 +3505,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3529,21 +3527,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3551,20 +3546,17 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -3572,7 +3564,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3580,14 +3571,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -3595,14 +3584,12 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3610,27 +3597,23 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="FreeSans"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="FreeSans"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3638,41 +3621,35 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="FreeSans"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="FreeSans"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3680,7 +3657,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3688,7 +3664,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3696,7 +3671,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3705,7 +3679,6 @@
       <color rgb="FF2323DC"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3713,7 +3686,6 @@
       <color rgb="FF000000"/>
       <name val="Arla"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3721,7 +3693,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3729,7 +3700,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3737,7 +3707,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4625,7 +4594,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="106.153846153846"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="112.797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="6.85425101214575"/>
   </cols>
   <sheetData>
@@ -4695,7 +4664,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="6" style="0" width="10.3886639676113"/>
@@ -4982,7 +4951,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="true" error="Only ISO 3166 countries are valid" errorTitle="Please select a valid country from the drop-down" operator="equal" prompt="Valid ISO 3166 countries for selection" promptTitle="Select a country from the drop down lits" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J4:J5 O4:O5 T4:T5" type="list">
-      <formula1>#ref!!#ref!</formula1>
+      <formula1>#REF! #REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -5013,9 +4982,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="10" min="2" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="21" min="12" style="0" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
@@ -5290,11 +5259,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
@@ -5467,9 +5436,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5537,7 +5506,7 @@
     <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5682,12 +5651,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="6.63967611336032"/>
   </cols>
@@ -5955,11 +5924,11 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6060,9 +6029,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6153,11 +6122,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.10526315789474"/>
@@ -6578,56 +6547,8 @@
     <mergeCell ref="P2:R2"/>
   </mergeCells>
   <dataValidations count="16">
-    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 23" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 23" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q4:Q5" type="whole">
-      <formula1>0</formula1>
-      <formula2>23</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 59" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 59" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R4:R5" type="whole">
-      <formula1>0</formula1>
-      <formula2>59</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" prompt="The unique keyword used to identify the analysis service in import files of bulk AR requests and results imports from instruments. It is also used to identify dependent analysis services in user defined results calculations" promptTitle="Unique Analysis Service keyword" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="D4:D5" type="none">
       <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Select 1 or 0 from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true)  or 0 (false) from the drop-down menu" promptTitle="Can the result be expressed as % dry matter?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H4:H5" type="list">
-      <formula1>#ref!!$G$2:$G$3</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Indicates whether file attachments are required, permitted  or not for the analysis service" promptTitle="Analysis attachment option" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I4:I5" type="list">
-      <formula1>#ref!!$D$2:$D$20</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Please enter a whole number greater than or equal to 0" errorTitle="Invalid data" operator="greaterThanOrEqual" prompt="Please enter a whole number greater than or equal to 0" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P4:P5" type="whole">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid method from the selection list" errorTitle="Invalid method" operator="equal" prompt="Select a method from the selection list. Maintain the list of valid options on the 'Methods' sheet" promptTitle="Select a valid Method" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="W4:W5" type="list">
-      <formula1>#ref!!$A$4:$A$84</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid instrument from the selection list" errorTitle="Invalid Instrument" operator="equal" prompt="Select an instrument from the selection list. Maintain the list of valid options on the 'Instruments' sheet" promptTitle="Select a valid Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="X4:X5" type="list">
-      <formula1>#ref!!$A$4:$A$43</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid instrument from the selection list" errorTitle="Invalid Instrument" operator="equal" prompt="Select a Calculation from the selection list. Maintain the list of valid options on the 'Calculations' sheet" promptTitle="Select a valid Calculation" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Y4:Y5" type="list">
-      <formula1>#ref!!$A$4:$A$97</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Select 1  or 0 from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true) or 0 (false) from the drop-down menu" promptTitle="Is the analysis accredited?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AA4:AA5" type="list">
-      <formula1>#ref!!$G$2:$G$3</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Select 1 or 0 from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true) or 0 (false) from the drop-down menu" promptTitle="Does this analysis require a separate sample partition?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AB4:AB5" type="list">
-      <formula1>#ref!!$G$2:$G$3</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid instrument from the selection list" errorTitle="Invalid Instrument" operator="equal" prompt="Select a Container from the selection list. Maintain the list of valid options on the 'Containers' sheet." promptTitle="Select a valid Container" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AC4:AC5" type="list">
-      <formula1>'AnalysisService ResultOptions'!$A$4:$A$242</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid instrument from the selection list" errorTitle="Invalid Instrument" operator="equal" prompt="Select a Preservation from the selection list. Maintain the list of valid options on the 'Preservations' sheet." promptTitle="Select a valid Preservation" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AD4:AD5" type="list">
-      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select a valid entry from the drop-down menu" promptTitle="Field or Lab analysis?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:E5" type="list">
@@ -6640,6 +6561,54 @@
     </dataValidation>
     <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Please select a valid entry from the drop-down menu" promptTitle="Valid data entry" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G4:G5" type="list">
       <formula1>'Lab Departments'!$A$4:$A$52</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select 1 or 0 from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true)  or 0 (false) from the drop-down menu" promptTitle="Can the result be expressed as % dry matter?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H4:H5" type="list">
+      <formula1>#REF! $G$2:$G$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Indicates whether file attachments are required, permitted  or not for the analysis service" promptTitle="Analysis attachment option" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I4:I5" type="list">
+      <formula1>#REF! $D$2:$D$20</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Please enter a whole number greater than or equal to 0" errorTitle="Invalid data" operator="greaterThanOrEqual" prompt="Please enter a whole number greater than or equal to 0" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P4:P5" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 23" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 23" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q4:Q5" type="whole">
+      <formula1>0</formula1>
+      <formula2>23</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 59" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 59" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R4:R5" type="whole">
+      <formula1>0</formula1>
+      <formula2>59</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Select a valid method from the selection list" errorTitle="Invalid method" operator="equal" prompt="Select a method from the selection list. Maintain the list of valid options on the 'Methods' sheet" promptTitle="Select a valid Method" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="W4:W5" type="list">
+      <formula1>#REF! $A$4:$A$84</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Select a valid instrument from the selection list" errorTitle="Invalid Instrument" operator="equal" prompt="Select an instrument from the selection list. Maintain the list of valid options on the 'Instruments' sheet" promptTitle="Select a valid Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="X4:X5" type="list">
+      <formula1>#REF! $A$4:$A$43</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Select a valid instrument from the selection list" errorTitle="Invalid Instrument" operator="equal" prompt="Select a Calculation from the selection list. Maintain the list of valid options on the 'Calculations' sheet" promptTitle="Select a valid Calculation" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Y4:Y5" type="list">
+      <formula1>#REF! $A$4:$A$97</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select 1  or 0 from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true) or 0 (false) from the drop-down menu" promptTitle="Is the analysis accredited?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AA4:AA5" type="list">
+      <formula1>#REF! $G$2:$G$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select 1 or 0 from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true) or 0 (false) from the drop-down menu" promptTitle="Does this analysis require a separate sample partition?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AB4:AB5" type="list">
+      <formula1>#REF! $G$2:$G$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Select a valid instrument from the selection list" errorTitle="Invalid Instrument" operator="equal" prompt="Select a Container from the selection list. Maintain the list of valid options on the 'Containers' sheet." promptTitle="Select a valid Container" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AC4:AC5" type="list">
+      <formula1>'AnalysisService ResultOptions'!$A$4:$A$242</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Select a valid instrument from the selection list" errorTitle="Invalid Instrument" operator="equal" prompt="Select a Preservation from the selection list. Maintain the list of valid options on the 'Preservations' sheet." promptTitle="Select a valid Preservation" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AD4:AD5" type="list">
+      <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -6666,10 +6635,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1376518218623"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
@@ -6739,12 +6708,12 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="5" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.21457489878543"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="5" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="5" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="5" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="5" width="9.10526315789474"/>
@@ -7095,8 +7064,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7146,8 +7115,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7200,7 +7169,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="973" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.1417004048583"/>
   </cols>
@@ -7281,11 +7250,11 @@
   </sheetData>
   <dataValidations count="3">
     <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Analysis Service" operator="equal" prompt="Select an Analysis Service  from the list. Maintain the list on the 'Analysis Services' sheet" promptTitle="Select an Analysis Service" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A1:C2 A3 C3" type="list">
-      <formula1>#ref!!$A$4:$A$141</formula1>
+      <formula1>#REF! $A$4:$A$141</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Analysis Service" operator="equal" prompt="Select an Analysis Service  from the list. Maintain the list on the 'Analysis Services' sheet" promptTitle="Select an Analysis Service" showDropDown="true" showErrorMessage="false" showInputMessage="false" sqref="B3" type="list">
-      <formula1>#ref!!$A$4:$A$141</formula1>
+      <formula1>#REF! $A$4:$A$141</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Analysis Service" operator="equal" prompt="Select an Analysis Service  from the list. Maintain the list on the 'Analysis Services' sheet" promptTitle="Select an Analysis Service" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A6" type="list">
@@ -7320,7 +7289,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.57085020242915"/>
@@ -7491,9 +7460,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.2753036437247"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.31983805668016"/>
   </cols>
   <sheetData>
@@ -7570,7 +7539,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -7914,12 +7883,12 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:A85" type="list">
-      <formula1>#ref!!$A$4:$A$52</formula1>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A4:A5" type="list">
+      <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A4:A5" type="list">
-      <formula1>#ref!</formula1>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:A85" type="list">
+      <formula1>#REF! $A$4:$A$52</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -7943,16 +7912,18 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="6.63967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8026,7 +7997,7 @@
         <v>596</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D4" s="89" t="s">
         <v>597</v>
@@ -8050,7 +8021,7 @@
         <v>601</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D5" s="89" t="s">
         <v>602</v>
@@ -8074,7 +8045,7 @@
         <v>606</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D6" s="89" t="s">
         <v>607</v>
@@ -8098,7 +8069,7 @@
         <v>611</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D7" s="89" t="s">
         <v>612</v>
@@ -8122,7 +8093,7 @@
         <v>616</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D8" s="89" t="s">
         <v>617</v>
@@ -8146,7 +8117,7 @@
         <v>621</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D9" s="89" t="s">
         <v>622</v>
@@ -8187,10 +8158,10 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="96" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8329,12 +8300,12 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4" type="list">
-      <formula1>#ref!!$A$4:$A$500</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D4" type="list">
+      <formula1>Calculations!$A$4:$A$500</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D4" type="list">
-      <formula1>Calculations!$A$4:$A$500</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4" type="list">
+      <formula1>#REF! $A$4:$A$500</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -8364,8 +8335,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -8436,26 +8407,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8689,11 +8660,11 @@
       <formula1>'Instrument Types'!$A$4:$A$20</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Instrument Type" operator="equal" prompt="Select an Instrument Type  from the list. Maintain the list on the 'Instrument Types' sheet" promptTitle="Select an Instrument Type" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F4" type="list">
+    <dataValidation allowBlank="true" error="Select a valid entry from the drop down list." errorTitle="Invalid Manufacturer" operator="equal" prompt="Select a Manufacturer from the list. Maintain the list on the 'Manufacturers' sheet" promptTitle="Select a Manufacturer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4" type="list">
       <formula1>Suppliers!$A$4:$A$10</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid entry from the drop down list." errorTitle="Invalid Manufacturer" operator="equal" prompt="Select a Manufacturer from the list. Maintain the list on the 'Manufacturers' sheet" promptTitle="Select a Manufacturer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4" type="list">
+    <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Instrument Type" operator="equal" prompt="Select an Instrument Type  from the list. Maintain the list on the 'Instrument Types' sheet" promptTitle="Select an Instrument Type" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F4" type="list">
       <formula1>Suppliers!$A$4:$A$10</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8725,8 +8696,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.74898785425101"/>
   </cols>
   <sheetData>
@@ -9080,15 +9051,15 @@
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation allowBlank="false" error="Select TRUE or FALSE from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select TRUE or FALSE from the drop-down menu" promptTitle="Boolean" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E5 D11" type="list">
+      <formula1>$#REF!.$G$2:$G$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="false" errorTitle="Invalid entry" operator="between" prompt="Between 0 and 100" promptTitle="Enter a % value" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6 D10" type="decimal">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Boolean" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C7" type="list">
-      <formula1>$#REF!.$G$2:$G$3</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Select TRUE or FALSE from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select TRUE or FALSE from the drop-down menu" promptTitle="Boolean" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E5 D11" type="list">
       <formula1>$#REF!.$G$2:$G$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9120,18 +9091,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="44.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -9250,12 +9221,12 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation allowBlank="true" error="Select a valid instrument from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="From the drop-down menu. Maintain the list on the 'Instruments' sheet" promptTitle="Select an Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4" type="list">
+      <formula1>Instruments!$B$4:$B$4</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="false" error="Not a date" errorTitle="Invalid entry" operator="greaterThan" prompt="After 1 Jan 2012. Expected format is YYYY/MM/DD" promptTitle="Please enter a date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:E4" type="date">
       <formula1>40909</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid instrument from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="From the drop-down menu. Maintain the list on the 'Instruments' sheet" promptTitle="Select an Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4" type="list">
-      <formula1>Instruments!$B$4:$B$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -9282,17 +9253,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="41.2388663967611"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.71255060728745"/>
   </cols>
   <sheetData>
@@ -9401,12 +9372,12 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation allowBlank="true" error="Select a valid instrument from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="From the drop-down menu. Maintain the list on the 'Instruments' sheet" promptTitle="Select an Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4" type="list">
+      <formula1>Instruments!$B$4:$B$4</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="false" error="Not a date" errorTitle="Invalid entry" operator="greaterThan" prompt="After 1 Jan 2012. Expected format is YYYY/MM/DD" promptTitle="Please enter a date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:E4" type="date">
       <formula1>40909</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid instrument from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="From the drop-down menu. Maintain the list on the 'Instruments' sheet" promptTitle="Select an Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4" type="list">
-      <formula1>Instruments!$B$4:$B$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -9435,9 +9406,9 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5708502024291"/>
   </cols>
@@ -9537,15 +9508,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.3846153846154"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.71255060728745"/>
   </cols>
@@ -9683,12 +9654,12 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation allowBlank="true" error="Select a valid instrument from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="From the drop-down menu. Maintain the list on the 'Instruments' sheet" promptTitle="Select an Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4" type="list">
+      <formula1>Instruments!$B$4:$B$4</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="false" error="Not a date" errorTitle="Invalid entry" operator="greaterThan" prompt="After 1 Jan 2012. Expected format is YYYY/MM/DD" promptTitle="Please enter a date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:F4" type="date">
       <formula1>40909</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid instrument from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="From the drop-down menu. Maintain the list on the 'Instruments' sheet" promptTitle="Select an Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4" type="list">
-      <formula1>Instruments!$B$4:$B$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -9716,12 +9687,12 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="6.42914979757085"/>
   </cols>
   <sheetData>
@@ -9854,23 +9825,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="6.63967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9919,10 +9896,13 @@
       <c r="O1" s="6" t="s">
         <v>764</v>
       </c>
+      <c r="P1" s="6" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="94" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -9980,15 +9960,18 @@
         <v>430</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>769</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C4" s="79" t="s">
         <v>433</v>
@@ -9998,30 +9981,33 @@
       </c>
       <c r="E4" s="79"/>
       <c r="F4" s="88" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G4" s="89"/>
       <c r="H4" s="89" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>10</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L4" s="93"/>
       <c r="N4" s="40" t="s">
         <v>178</v>
       </c>
       <c r="O4" s="40"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P4" s="0" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C5" s="79" t="s">
         <v>433</v>
@@ -10031,30 +10017,33 @@
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="88" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="G5" s="89"/>
       <c r="H5" s="89" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>10</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L5" s="93"/>
       <c r="N5" s="40" t="s">
         <v>178</v>
       </c>
       <c r="O5" s="40"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P5" s="0" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C6" s="79" t="s">
         <v>433</v>
@@ -10064,30 +10053,33 @@
       </c>
       <c r="E6" s="79"/>
       <c r="F6" s="88" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="G6" s="89"/>
       <c r="H6" s="89" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="I6" s="5" t="n">
         <v>30</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L6" s="93"/>
       <c r="N6" s="40" t="s">
         <v>172</v>
       </c>
       <c r="O6" s="40"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P6" s="0" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="C7" s="79" t="s">
         <v>433</v>
@@ -10097,7 +10089,7 @@
       </c>
       <c r="E7" s="79"/>
       <c r="F7" s="88" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="G7" s="89"/>
       <c r="H7" s="89"/>
@@ -10105,7 +10097,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L7" s="93"/>
       <c r="N7" s="40" t="s">
@@ -10113,12 +10105,12 @@
       </c>
       <c r="O7" s="40"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="C8" s="79" t="s">
         <v>433</v>
@@ -10128,15 +10120,17 @@
       </c>
       <c r="E8" s="79"/>
       <c r="F8" s="88" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="G8" s="89"/>
       <c r="H8" s="89" t="s">
-        <v>788</v>
-      </c>
-      <c r="I8" s="5"/>
+        <v>793</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>15</v>
+      </c>
       <c r="J8" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L8" s="93"/>
       <c r="N8" s="40" t="s">
@@ -10146,10 +10140,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="C9" s="79" t="s">
         <v>433</v>
@@ -10159,151 +10153,98 @@
       </c>
       <c r="E9" s="79"/>
       <c r="F9" s="88" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="G9" s="89"/>
       <c r="H9" s="89" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="I9" s="5" t="n">
         <v>10</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L9" s="93"/>
       <c r="N9" s="33" t="s">
         <v>165</v>
       </c>
       <c r="O9" s="40"/>
+      <c r="P9" s="0" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="C10" s="79" t="s">
         <v>433</v>
       </c>
       <c r="D10" s="79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="79"/>
       <c r="F10" s="88" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="G10" s="89"/>
       <c r="H10" s="89" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L10" s="93"/>
       <c r="N10" s="40" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="O10" s="40"/>
+      <c r="P10" s="0" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="C11" s="79" t="s">
         <v>433</v>
       </c>
       <c r="D11" s="79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="79"/>
       <c r="F11" s="88" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
+      <c r="H11" s="89" t="s">
+        <v>807</v>
+      </c>
       <c r="I11" s="5" t="n">
         <v>10</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L11" s="93"/>
-      <c r="N11" s="40" t="s">
-        <v>178</v>
+      <c r="N11" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="O11" s="40"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>800</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>801</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>433</v>
-      </c>
-      <c r="D12" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="88" t="s">
-        <v>802</v>
-      </c>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89" t="s">
-        <v>803</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="L12" s="93"/>
-      <c r="N12" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="O12" s="40"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>804</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>805</v>
-      </c>
-      <c r="C13" s="79" t="s">
-        <v>433</v>
-      </c>
-      <c r="D13" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="88" t="s">
-        <v>806</v>
-      </c>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89" t="s">
-        <v>807</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="L13" s="93"/>
-      <c r="N13" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="O13" s="40"/>
+      <c r="P11" s="0" t="s">
+        <v>808</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10330,10 +10271,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.1417004048583"/>
   </cols>
@@ -10351,7 +10292,7 @@
     </row>
     <row r="2" s="7" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="14" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C2" s="164"/>
     </row>
@@ -10368,10 +10309,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C4" s="165" t="n">
         <v>0</v>
@@ -10379,10 +10320,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C5" s="165" t="n">
         <v>0</v>
@@ -10390,21 +10331,21 @@
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C6" s="165" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C7" s="166" t="n">
         <v>0</v>
@@ -10412,10 +10353,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C8" s="166" t="n">
         <v>1</v>
@@ -10423,10 +10364,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C9" s="165" t="n">
         <v>15</v>
@@ -10437,7 +10378,7 @@
         <v>498</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C10" s="165" t="n">
         <v>14</v>
@@ -10445,10 +10386,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C11" s="165" t="n">
         <v>5</v>
@@ -10456,10 +10397,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C12" s="165" t="n">
         <v>5</v>
@@ -10467,10 +10408,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C13" s="165" t="n">
         <v>4</v>
@@ -10478,19 +10419,19 @@
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C14" s="165"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C15" s="166" t="n">
         <v>0</v>
@@ -10498,10 +10439,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C16" s="166" t="n">
         <v>0</v>
@@ -10509,10 +10450,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C17" s="166" t="n">
         <v>1</v>
@@ -10520,22 +10461,22 @@
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C18" s="167" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D18" s="168"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C19" s="169" t="s">
         <v>301</v>
@@ -10544,10 +10485,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C20" s="169" t="s">
         <v>301</v>
@@ -10555,10 +10496,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C21" s="167" t="n">
         <v>30</v>
@@ -10566,10 +10507,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C22" s="167" t="n">
         <v>0</v>
@@ -10577,10 +10518,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C23" s="167" t="n">
         <v>0</v>
@@ -10588,33 +10529,33 @@
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C24" s="169" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D24" s="170"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C25" s="169" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C26" s="166" t="n">
         <v>0</v>
@@ -10622,10 +10563,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C27" s="165" t="s">
         <v>597</v>
@@ -10633,10 +10574,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C28" s="165" t="n">
         <v>2</v>
@@ -10644,10 +10585,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C29" s="166" t="n">
         <v>0</v>
@@ -10655,44 +10596,44 @@
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C30" s="165"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C31" s="171" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="24">
-    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 59" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 59" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C23" type="whole">
-      <formula1>0</formula1>
-      <formula2>59</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 23" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 23" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C22" type="whole">
-      <formula1>6</formula1>
-      <formula2>23</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Please enter a whole number bigger than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Please enter a whole number bigger than 0" promptTitle="Integer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C21" type="whole">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" error="The number of days before a password expires. 0 disables password expiry" errorTitle="Valid entry" operator="greaterThanOrEqual" prompt="The number of days before a password expires. 0 disables password expiry" promptTitle="Password lifetime" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" error="The number of minutes before a user is automatically logged off. 0 disables automatic log-off. Must be equal or greater than 0" errorTitle="Invalid entry" operator="greaterThanOrEqual" prompt="The number of minutes of inactivity before a user is automatically logged off. 0 disables automatic log-off" promptTitle="Auto log-off" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5" type="whole">
       <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select a valid entry from the selection list" errorTitle="Invalid entry" operator="equal" prompt="Select a valid currency from the list. Currency codes are maintained on the &quot;Constants&quot; sheet" promptTitle="Currency code" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6" type="list">
+      <formula1>#REF! $B$22:$B$200</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Boolean" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C7 C15:C17 C26 C29" type="list">
+      <formula1>Constants!$G$2:$G$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Boolean" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C8" type="list">
+      <formula1>#REF! $G$2:$G$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Not sure why, must be equal or greater than 0" errorTitle="Invalid entry" operator="between" prompt="The discount percentage entered here, is applied to the prices for clients flagged as 'members', normally co-operative members or associates deserving of this discount" promptTitle="Member discount %" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C9" type="decimal">
@@ -10719,12 +10660,44 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="false" error="Please selct a valid option from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The list is mainatined on the &quot;Constants&quot; sheet" promptTitle="Select an import format from the list" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C18" type="list">
+      <formula1>#REF! $C$2:$C$4</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The analysis to be used for determining moisture. Please select a valid entry from the drop-down menu" promptTitle="Analysis keyword" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D18" type="list">
       <formula1>'analysis services'</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Please select a valid option from the list" promptTitle="File attachments Required, Permitted or Not?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C19:C20" type="list">
+      <formula1>#REF! $D$2:$D$4</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="'Classic' indicates importing analysis requests per sample and analysis service selection. With 'Profiles', analysis profile keywords are used to select multiple analysis services together" promptTitle="AR Import options" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D19" type="list">
+      <formula1>#REF! $B$2:$B$25</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Please enter a whole number bigger than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Please enter a whole number bigger than 0" promptTitle="Integer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C21" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 23" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 23" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C22" type="whole">
+      <formula1>6</formula1>
+      <formula2>23</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 59" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 59" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C23" type="whole">
+      <formula1>0</formula1>
+      <formula2>59</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 'Register' if you want labels to be automatically printed when new ARs or sample records are created. Select 'Receive' to print labels when ARs or Samples are received. Select 'None' to disable automatic printing" promptTitle="Select a valid option" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C24" type="list">
+      <formula1>#REF! $F$2:$F$4</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The number of days before a sample expires and cannot be analysed any more. This setting can be overwritten per individual sample type  in the sample types setup" promptTitle="Default sample retention period" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D24" type="whole">
       <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select the which label to print when automatic label printing is enabled" promptTitle="Sample label size" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C25" type="list">
+      <formula1>#REF! $E$2:$E$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The length of the zero-padding for Sample IDs. E.g, a water sample will be given an ID of W-0001 if the sample padding was set to 4, and water samples are prefixed with W" promptTitle="Sample ID Padding" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C27" type="whole">
@@ -10737,38 +10710,6 @@
     </dataValidation>
     <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The full URL: http://URL/path:port" promptTitle="ID Server URL if an external ID server is used" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C30" type="whole">
       <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Select a valid entry from the selection list" errorTitle="Invalid entry" operator="equal" prompt="Select a valid currency from the list. Currency codes are maintained on the &quot;Constants&quot; sheet" promptTitle="Currency code" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6" type="list">
-      <formula1>#ref!!$B$22:$B$200</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Boolean" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C8" type="list">
-      <formula1>#ref!!$G$2:$G$3</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Please selct a valid option from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The list is mainatined on the &quot;Constants&quot; sheet" promptTitle="Select an import format from the list" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C18" type="list">
-      <formula1>#ref!!$C$2:$C$4</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Please select a valid option from the list" promptTitle="File attachments Required, Permitted or Not?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C19:C20" type="list">
-      <formula1>#ref!!$D$2:$D$4</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 'Register' if you want labels to be automatically printed when new ARs or sample records are created. Select 'Receive' to print labels when ARs or Samples are received. Select 'None' to disable automatic printing" promptTitle="Select a valid option" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C24" type="list">
-      <formula1>#ref!!$F$2:$F$4</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select the which label to print when automatic label printing is enabled" promptTitle="Sample label size" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C25" type="list">
-      <formula1>#ref!!$E$2:$E$3</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="'Classic' indicates importing analysis requests per sample and analysis service selection. With 'Profiles', analysis profile keywords are used to select multiple analysis services together" promptTitle="AR Import options" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D19" type="list">
-      <formula1>#ref!!$B$2:$B$25</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Boolean" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C7 C15:C17 C26 C29" type="list">
-      <formula1>Constants!$G$2:$G$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -10816,28 +10757,28 @@
         <v>198</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="G1" s="173" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="K1" s="32" t="s">
         <v>511</v>
@@ -10852,63 +10793,63 @@
         <v>243</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E2" s="174" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G2" s="51" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>301</v>
       </c>
       <c r="E3" s="174" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G3" s="51" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="K3" s="51" t="s">
         <v>535</v>
@@ -10916,19 +10857,19 @@
     </row>
     <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>225</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G4" s="174"/>
       <c r="H4" s="51" t="s">
@@ -10937,28 +10878,28 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="51" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G5" s="174"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G6" s="174"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="51" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G7" s="174"/>
     </row>
@@ -11020,57 +10961,57 @@
     </row>
     <row r="21" s="178" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="31" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E21" s="177" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="179" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E22" s="174" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="I22" s="51" t="s">
         <v>520</v>
@@ -11078,970 +11019,970 @@
     </row>
     <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="51" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E23" s="174" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H23" s="51" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="I23" s="51" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="51" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H24" s="51" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="I24" s="51" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="51" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H25" s="51" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I25" s="51" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="51" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H26" s="51" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="51" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="51" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="51" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="51" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="51" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="51" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="51" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="51" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="51" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="51" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="51" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="51" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="51" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="51" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="51" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="51" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="51" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="51" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="51" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="51" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="51" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="51" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="51" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="51" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="51" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLe